--- a/austin (Autosaved).xlsx
+++ b/austin (Autosaved).xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufengzhu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\property\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="199">
   <si>
     <t>地址</t>
   </si>
@@ -575,11 +575,74 @@
   <si>
     <t>17年，5b3b，有点远</t>
   </si>
+  <si>
+    <t>4318 Ganymede Dr,Austin, TX 78727</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4318-Ganymede-Dr-Austin-TX-78727/29442635_zpid/</t>
+  </si>
+  <si>
+    <t>好，两条高速左边</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/community/amber-oaks/2092891642_zpid/</t>
+  </si>
+  <si>
+    <t>Avignon Plan, Amber OaksAustin, TX 78729</t>
+  </si>
+  <si>
+    <t>jollyvallie北端</t>
+  </si>
+  <si>
+    <t>同一个房型，不同的位置，这边比上面的那个学区好，价格贵5,6w</t>
+  </si>
+  <si>
+    <t>3608 Ruby Red Dr,Austin, TX 78728</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3608-Ruby-Red-Dr-Austin-TX-78728/29454322_zpid/</t>
+  </si>
+  <si>
+    <t>两条高速中间偏北</t>
+  </si>
+  <si>
+    <t>墙壁是暗红色不好看，别的都ok</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1620-Sunterro-Austin-TX-78727/58307472_zpid/</t>
+  </si>
+  <si>
+    <t>1620 Sunterro,Austin, TX 78727</t>
+  </si>
+  <si>
+    <t>01年4b2.5b 3千ft</t>
+  </si>
+  <si>
+    <t>13317 Chasewood Cv,Austin, TX 78727</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/13317-Chasewood-Cv-Austin-TX-78727/29443469_zpid/</t>
+  </si>
+  <si>
+    <t>95年 应该是4b2.5b</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3633-Soft-Shore-Ln-Pflugerville-TX-78660/2093332519_zpid/</t>
+  </si>
+  <si>
+    <t>Pflugerville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado Villages of Hidden Lake </t>
+  </si>
+  <si>
+    <t>4b3b房型还不错</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1145,6 +1208,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1412,39 +1478,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="134" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.296875" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" customWidth="1"/>
+    <col min="6" max="6" width="7.796875" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" customWidth="1"/>
-    <col min="17" max="17" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" customWidth="1"/>
+    <col min="11" max="11" width="9.19921875" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="7.69921875" customWidth="1"/>
+    <col min="14" max="14" width="15.296875" customWidth="1"/>
+    <col min="15" max="15" width="9.19921875" customWidth="1"/>
+    <col min="16" max="16" width="8.19921875" customWidth="1"/>
+    <col min="17" max="17" width="2.69921875" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.69921875" customWidth="1"/>
     <col min="20" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" customWidth="1"/>
+    <col min="23" max="23" width="12.69921875" customWidth="1"/>
     <col min="24" max="24" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1581,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E2">
         <v>0.2</v>
       </c>
@@ -1526,38 +1592,38 @@
         <v>3000</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L52" si="0">J2-F2</f>
+        <f t="shared" ref="L2:L65" si="0">J2-F2</f>
         <v>0</v>
       </c>
       <c r="P2">
         <v>3000</v>
       </c>
       <c r="R2" t="e">
-        <f t="shared" ref="R2:R85" si="1">100*(12*J2-P2)/D2</f>
+        <f t="shared" ref="R2:R98" si="1">100*(12*J2-P2)/D2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S85" si="2">D2*E2+H2</f>
+        <f t="shared" ref="S2:S98" si="2">D2*E2+H2</f>
         <v>3000</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T85" si="3">G2*(D2-D2*E2)</f>
+        <f t="shared" ref="T2:T98" si="3">G2*(D2-D2*E2)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U85" si="4">12*J2-P2-T2</f>
+        <f t="shared" ref="U2:U98" si="4">12*J2-P2-T2</f>
         <v>-3000</v>
       </c>
       <c r="V2" t="e">
-        <f t="shared" ref="V2:V85" si="5">D2/(12*J2)</f>
+        <f t="shared" ref="V2:V98" si="5">D2/(12*J2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W52" si="6">U2/S2</f>
+        <f t="shared" ref="W2:W65" si="6">U2/S2</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -1614,7 +1680,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E4">
         <v>0.2</v>
       </c>
@@ -1656,7 +1722,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -1713,7 +1779,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1772,7 +1838,7 @@
       <c r="Y6"/>
       <c r="Z6"/>
     </row>
-    <row r="7" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1847,7 +1913,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1916,7 +1982,7 @@
         <v>0.25001176470588232</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1991,7 +2057,7 @@
       <c r="Y9"/>
       <c r="Z9"/>
     </row>
-    <row r="10" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2066,7 +2132,7 @@
       <c r="Y10"/>
       <c r="Z10"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>0.2</v>
       </c>
@@ -2108,7 +2174,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -2177,7 +2243,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -2246,7 +2312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -2312,7 +2378,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -2378,7 +2444,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -2444,7 +2510,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -2510,7 +2576,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -2576,7 +2642,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -2642,7 +2708,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -2708,7 +2774,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -2777,7 +2843,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -2840,7 +2906,7 @@
         <v>0.23990813158692209</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -2906,7 +2972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -2975,7 +3041,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -3041,7 +3107,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -3107,7 +3173,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -3173,7 +3239,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -3242,7 +3308,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
@@ -3250,13 +3316,13 @@
         <v>122</v>
       </c>
       <c r="D29" s="1">
-        <v>280055</v>
+        <v>307045</v>
       </c>
       <c r="E29">
         <v>0.2</v>
       </c>
       <c r="F29" s="1">
-        <v>1596</v>
+        <v>1834</v>
       </c>
       <c r="G29" s="3">
         <v>3.7900000000000003E-2</v>
@@ -3272,7 +3338,7 @@
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>804</v>
+        <v>566</v>
       </c>
       <c r="N29" t="s">
         <v>123</v>
@@ -3282,33 +3348,33 @@
       </c>
       <c r="R29">
         <f t="shared" si="1"/>
-        <v>9.212476120761993</v>
+        <v>8.4026771320164801</v>
       </c>
       <c r="S29">
         <f t="shared" si="2"/>
-        <v>59011</v>
+        <v>64409</v>
       </c>
       <c r="T29">
         <f t="shared" si="3"/>
-        <v>8491.267600000001</v>
+        <v>9309.6044000000002</v>
       </c>
       <c r="U29">
         <f t="shared" si="4"/>
-        <v>17308.732400000001</v>
+        <v>16490.3956</v>
       </c>
       <c r="V29">
         <f t="shared" si="5"/>
-        <v>9.7241319444444443</v>
+        <v>10.661284722222222</v>
       </c>
       <c r="W29">
         <f t="shared" si="6"/>
-        <v>0.293313660165054</v>
+        <v>0.25602626341039297</v>
       </c>
       <c r="X29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -3374,7 +3440,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>128</v>
       </c>
@@ -3443,7 +3509,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>132</v>
       </c>
@@ -3512,11 +3578,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>135</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D33" s="6">
@@ -3581,7 +3647,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -3650,7 +3716,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -3682,7 +3748,7 @@
         <v>1950</v>
       </c>
       <c r="L35">
-        <f t="shared" ref="L35:L45" si="7">J35-F35</f>
+        <f t="shared" ref="L35:L58" si="7">J35-F35</f>
         <v>206</v>
       </c>
       <c r="N35" t="s">
@@ -3719,7 +3785,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -3788,7 +3854,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -3857,7 +3923,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>154</v>
       </c>
@@ -3920,7 +3986,7 @@
         <v>0.17929185013008622</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>157</v>
       </c>
@@ -3989,7 +4055,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:26" s="13" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" s="13" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>161</v>
       </c>
@@ -4011,6 +4077,10 @@
       </c>
       <c r="I40" s="13">
         <v>878</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="N40" s="13" t="s">
         <v>166</v>
@@ -4046,7 +4116,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:26" s="13" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" s="13" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>164</v>
       </c>
@@ -4068,6 +4138,10 @@
       </c>
       <c r="I41" s="13">
         <v>745</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="N41" s="13" t="s">
         <v>167</v>
@@ -4103,7 +4177,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -4133,6 +4207,10 @@
       </c>
       <c r="K42">
         <v>1850</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="7"/>
+        <v>529</v>
       </c>
       <c r="N42" t="s">
         <v>74</v>
@@ -4168,7 +4246,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>171</v>
       </c>
@@ -4198,6 +4276,10 @@
       </c>
       <c r="K43">
         <v>1650</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="7"/>
+        <v>621</v>
       </c>
       <c r="N43" t="s">
         <v>74</v>
@@ -4233,7 +4315,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -4299,82 +4381,122 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="6">
+        <v>329998</v>
+      </c>
       <c r="E45">
         <v>0.2</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1">
+        <v>1879</v>
+      </c>
       <c r="G45" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H45">
         <v>3000</v>
+      </c>
+      <c r="I45">
+        <v>668</v>
+      </c>
+      <c r="J45">
+        <v>2200</v>
+      </c>
+      <c r="K45">
+        <v>1895</v>
       </c>
       <c r="L45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="N45" t="s">
+        <v>180</v>
       </c>
       <c r="P45">
         <v>3000</v>
       </c>
-      <c r="R45" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>7.0909520663761603</v>
       </c>
       <c r="S45">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>68999.600000000006</v>
       </c>
       <c r="T45">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10005.539360000002</v>
       </c>
       <c r="U45">
-        <f t="shared" ref="U35:U45" si="8">12*J45-P45-T45</f>
-        <v>-3000</v>
-      </c>
-      <c r="V45" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="4"/>
+        <v>13394.460639999998</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="5"/>
+        <v>12.499924242424242</v>
       </c>
       <c r="W45">
-        <f t="shared" ref="W35:W45" si="9">U45/S45</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0.1941237433260482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="6">
+        <v>357068</v>
+      </c>
       <c r="E46">
         <v>0.2</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1">
+        <v>2076</v>
+      </c>
       <c r="G46" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H46">
         <v>3000</v>
       </c>
+      <c r="I46">
+        <v>777</v>
+      </c>
       <c r="L46">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-2076</v>
+      </c>
+      <c r="N46" t="s">
+        <v>183</v>
       </c>
       <c r="P46">
         <v>3000</v>
       </c>
-      <c r="R46" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>-0.8401761009107509</v>
       </c>
       <c r="S46">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>74413.600000000006</v>
       </c>
       <c r="T46">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10826.301760000002</v>
       </c>
       <c r="U46">
         <f t="shared" si="4"/>
-        <v>-3000</v>
+        <v>-13826.301760000002</v>
       </c>
       <c r="V46" t="e">
         <f t="shared" si="5"/>
@@ -4382,1314 +4504,1336 @@
       </c>
       <c r="W46">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+        <v>-0.1858034251803434</v>
+      </c>
+      <c r="X46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="6">
+        <v>285681</v>
+      </c>
       <c r="E47">
         <v>0.2</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1">
+        <v>1749</v>
+      </c>
       <c r="G47" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H47">
         <v>3000</v>
       </c>
+      <c r="I47">
+        <v>577</v>
+      </c>
+      <c r="J47">
+        <v>2150</v>
+      </c>
+      <c r="K47">
+        <v>1650</v>
+      </c>
       <c r="L47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R47" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="7"/>
+        <v>401</v>
+      </c>
+      <c r="N47" t="s">
+        <v>187</v>
+      </c>
+      <c r="P47">
+        <v>3000</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>7.9809297783191742</v>
       </c>
       <c r="S47">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>60136.200000000004</v>
       </c>
       <c r="T47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8661.8479200000002</v>
       </c>
       <c r="U47">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V47" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>14138.15208</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="5"/>
+        <v>11.072906976744186</v>
       </c>
       <c r="W47">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.23510218603769442</v>
+      </c>
+      <c r="X47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
+        <v>190</v>
+      </c>
+      <c r="B48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" s="6">
+        <v>384999</v>
+      </c>
       <c r="E48">
         <v>0.2</v>
       </c>
-      <c r="F48"/>
+      <c r="F48" s="1">
+        <v>2218</v>
+      </c>
       <c r="G48" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H48">
         <v>3000</v>
       </c>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
+      <c r="I48">
+        <v>745</v>
+      </c>
+      <c r="J48">
+        <v>2300</v>
+      </c>
+      <c r="K48">
+        <v>1950</v>
+      </c>
       <c r="L48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="N48" t="s">
+        <v>167</v>
+      </c>
       <c r="P48">
         <v>3000</v>
       </c>
-      <c r="Q48"/>
-      <c r="R48" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>6.3896269860441199</v>
       </c>
       <c r="S48">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>79999.8</v>
       </c>
       <c r="T48">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11673.169680000001</v>
       </c>
       <c r="U48">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V48" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>12926.830319999999</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="5"/>
+        <v>13.949239130434783</v>
       </c>
       <c r="W48">
         <f t="shared" si="6"/>
+        <v>0.16158578296445739</v>
+      </c>
+      <c r="X48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="6">
+        <v>329950</v>
+      </c>
+      <c r="E49">
+        <v>0.2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1878</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H49">
+        <v>3000</v>
+      </c>
+      <c r="I49">
+        <v>745</v>
+      </c>
+      <c r="J49">
+        <v>2200</v>
+      </c>
+      <c r="K49">
+        <v>2000</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="7"/>
+        <v>322</v>
+      </c>
+      <c r="N49" t="s">
+        <v>167</v>
+      </c>
+      <c r="P49">
+        <v>3000</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>7.0919836338839222</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="2"/>
+        <v>68990</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="3"/>
+        <v>10004.084000000001</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="4"/>
+        <v>13395.915999999999</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="5"/>
+        <v>12.498106060606061</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="6"/>
+        <v>0.19417185099289752</v>
+      </c>
+      <c r="X49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="6">
+        <v>272789</v>
+      </c>
+      <c r="E50">
+        <v>0.2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1611</v>
+      </c>
+      <c r="G50" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H50">
+        <v>3000</v>
+      </c>
+      <c r="I50">
+        <v>777</v>
+      </c>
+      <c r="J50">
+        <v>2250</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="7"/>
+        <v>639</v>
+      </c>
+      <c r="N50" t="s">
+        <v>196</v>
+      </c>
+      <c r="P50">
+        <v>3000</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>8.7980087173603039</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="2"/>
+        <v>57557.8</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="3"/>
+        <v>8270.962480000002</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="4"/>
+        <v>15729.037519999998</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="5"/>
+        <v>10.103296296296296</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="6"/>
+        <v>0.27327377905340366</v>
+      </c>
+      <c r="X50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D51" s="6"/>
+      <c r="E51">
+        <v>0.2</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H51">
+        <v>3000</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>3000</v>
+      </c>
+      <c r="R51" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V51" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="X48"/>
-      <c r="Y48"/>
-      <c r="Z48"/>
-    </row>
-    <row r="49" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+    </row>
+    <row r="52" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D52" s="6"/>
+      <c r="E52">
+        <v>0.2</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H52">
+        <v>3000</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>3000</v>
+      </c>
+      <c r="R52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V52" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D53" s="6"/>
+      <c r="E53">
+        <v>0.2</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H53">
+        <v>3000</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>3000</v>
+      </c>
+      <c r="R53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D54" s="6"/>
+      <c r="E54">
+        <v>0.2</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H54">
+        <v>3000</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>3000</v>
+      </c>
+      <c r="R54" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V54" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D55" s="6"/>
+      <c r="E55">
+        <v>0.2</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H55">
+        <v>3000</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>3000</v>
+      </c>
+      <c r="R55" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V55" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D56" s="6"/>
+      <c r="E56">
+        <v>0.2</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H56">
+        <v>3000</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>3000</v>
+      </c>
+      <c r="R56" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V56" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D57" s="6"/>
+      <c r="E57">
+        <v>0.2</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H57">
+        <v>3000</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>3000</v>
+      </c>
+      <c r="R57" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V57" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>0.2</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H58">
+        <v>3000</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>3000</v>
+      </c>
+      <c r="R58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>0.2</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H59">
+        <v>3000</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>3000</v>
+      </c>
+      <c r="R59" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V59" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>0.2</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H60">
+        <v>3000</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R60" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V60" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61">
+        <v>0.2</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H61">
+        <v>3000</v>
+      </c>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61">
+        <v>3000</v>
+      </c>
+      <c r="Q61"/>
+      <c r="R61" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V61" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+    </row>
+    <row r="62" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D62" s="9">
         <v>380000</v>
       </c>
-      <c r="E49" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F49" s="8">
+      <c r="E62" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F62" s="8">
         <v>2201</v>
       </c>
-      <c r="G49" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H49" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I49" s="8" t="s">
+      <c r="G62" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H62" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I62" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J62" s="8">
         <v>2250</v>
       </c>
-      <c r="L49">
+      <c r="L62">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="N49" s="8" t="s">
+      <c r="N62" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P49" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R49" s="8">
+      <c r="P62" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R62" s="8">
         <f t="shared" si="1"/>
         <v>6.3157894736842106</v>
       </c>
-      <c r="S49" s="8">
+      <c r="S62" s="8">
         <f t="shared" si="2"/>
         <v>79000</v>
       </c>
-      <c r="T49" s="8">
+      <c r="T62" s="8">
         <f t="shared" si="3"/>
         <v>11521.6</v>
       </c>
-      <c r="U49">
+      <c r="U62">
         <f t="shared" si="4"/>
         <v>12478.4</v>
       </c>
-      <c r="V49">
+      <c r="V62">
         <f t="shared" si="5"/>
         <v>14.074074074074074</v>
       </c>
-      <c r="W49">
+      <c r="W62">
         <f t="shared" si="6"/>
         <v>0.15795443037974682</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>24</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C63" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D63" s="1">
         <v>550000</v>
       </c>
-      <c r="E50">
-        <v>0.2</v>
-      </c>
-      <c r="F50">
+      <c r="E63">
+        <v>0.2</v>
+      </c>
+      <c r="F63">
         <v>3300</v>
       </c>
-      <c r="G50" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H50">
-        <v>3000</v>
-      </c>
-      <c r="I50">
+      <c r="G63" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H63">
+        <v>3000</v>
+      </c>
+      <c r="I63">
         <v>897</v>
       </c>
-      <c r="J50">
+      <c r="J63">
         <v>2750</v>
       </c>
-      <c r="L50">
+      <c r="L63">
         <f t="shared" si="0"/>
         <v>-550</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N63" t="s">
         <v>22</v>
       </c>
-      <c r="P50">
-        <v>3000</v>
-      </c>
-      <c r="R50">
+      <c r="P63">
+        <v>3000</v>
+      </c>
+      <c r="R63">
         <f t="shared" si="1"/>
         <v>5.4545454545454541</v>
       </c>
-      <c r="S50">
+      <c r="S63">
         <f t="shared" si="2"/>
         <v>113000</v>
       </c>
-      <c r="T50">
+      <c r="T63">
         <f t="shared" si="3"/>
         <v>16676</v>
       </c>
-      <c r="U50">
+      <c r="U63">
         <f t="shared" si="4"/>
         <v>13324</v>
       </c>
-      <c r="V50">
+      <c r="V63">
         <f t="shared" si="5"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="W50">
+      <c r="W63">
         <f t="shared" si="6"/>
         <v>0.11791150442477875</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="64" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>26</v>
       </c>
-      <c r="B51"/>
-      <c r="C51" t="s">
+      <c r="B64"/>
+      <c r="C64" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D64" s="1">
         <v>509000</v>
       </c>
-      <c r="E51">
-        <v>0.2</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="E64">
+        <v>0.2</v>
+      </c>
+      <c r="F64" s="1">
         <v>3186</v>
       </c>
-      <c r="G51" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H51">
-        <v>3000</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="G64" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H64">
+        <v>3000</v>
+      </c>
+      <c r="I64" t="s">
         <v>28</v>
       </c>
-      <c r="J51">
+      <c r="J64">
         <v>2850</v>
       </c>
-      <c r="K51"/>
-      <c r="L51">
+      <c r="K64"/>
+      <c r="L64">
         <f t="shared" si="0"/>
         <v>-336</v>
       </c>
-      <c r="M51"/>
-      <c r="N51" s="1">
+      <c r="M64"/>
+      <c r="N64" s="1">
         <v>3186</v>
       </c>
-      <c r="O51" s="1"/>
-      <c r="P51">
-        <v>3000</v>
-      </c>
-      <c r="Q51"/>
-      <c r="R51">
+      <c r="O64" s="1"/>
+      <c r="P64">
+        <v>3000</v>
+      </c>
+      <c r="Q64"/>
+      <c r="R64">
         <f t="shared" si="1"/>
         <v>6.129666011787819</v>
       </c>
-      <c r="S51">
+      <c r="S64">
         <f t="shared" si="2"/>
         <v>104800</v>
       </c>
-      <c r="T51">
+      <c r="T64">
         <f t="shared" si="3"/>
         <v>15432.880000000001</v>
       </c>
-      <c r="U51">
+      <c r="U64">
         <f t="shared" si="4"/>
         <v>15767.119999999999</v>
       </c>
-      <c r="V51">
+      <c r="V64">
         <f t="shared" si="5"/>
         <v>14.883040935672515</v>
       </c>
-      <c r="W51">
+      <c r="W64">
         <f t="shared" si="6"/>
         <v>0.15044961832061068</v>
-      </c>
-      <c r="X51"/>
-      <c r="Y51"/>
-      <c r="Z51"/>
-    </row>
-    <row r="52" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52"/>
-      <c r="C52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="1">
-        <v>431775</v>
-      </c>
-      <c r="E52">
-        <v>0.2</v>
-      </c>
-      <c r="F52" s="1">
-        <v>2817</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H52">
-        <v>3000</v>
-      </c>
-      <c r="I52" t="s">
-        <v>31</v>
-      </c>
-      <c r="J52">
-        <v>2200</v>
-      </c>
-      <c r="K52"/>
-      <c r="L52">
-        <f t="shared" si="0"/>
-        <v>-617</v>
-      </c>
-      <c r="M52"/>
-      <c r="N52" t="s">
-        <v>32</v>
-      </c>
-      <c r="O52"/>
-      <c r="P52">
-        <v>3000</v>
-      </c>
-      <c r="Q52"/>
-      <c r="R52">
-        <f t="shared" si="1"/>
-        <v>5.419489317352788</v>
-      </c>
-      <c r="S52">
-        <f t="shared" si="2"/>
-        <v>89355</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="3"/>
-        <v>13091.418000000001</v>
-      </c>
-      <c r="U52">
-        <f t="shared" si="4"/>
-        <v>10308.581999999999</v>
-      </c>
-      <c r="V52">
-        <f t="shared" si="5"/>
-        <v>16.355113636363637</v>
-      </c>
-      <c r="W52">
-        <f t="shared" si="6"/>
-        <v>0.11536659392311564</v>
-      </c>
-      <c r="X52"/>
-      <c r="Y52"/>
-      <c r="Z52"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="1">
-        <v>629000</v>
-      </c>
-      <c r="E53">
-        <v>0.2</v>
-      </c>
-      <c r="F53" s="1">
-        <v>3156</v>
-      </c>
-      <c r="G53" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H53">
-        <v>3000</v>
-      </c>
-      <c r="I53">
-        <v>977</v>
-      </c>
-      <c r="J53">
-        <v>2900</v>
-      </c>
-      <c r="L53">
-        <f t="shared" ref="L53:L85" si="10">J53-F53</f>
-        <v>-256</v>
-      </c>
-      <c r="N53" t="s">
-        <v>18</v>
-      </c>
-      <c r="P53">
-        <v>3000</v>
-      </c>
-      <c r="R53">
-        <f t="shared" si="1"/>
-        <v>5.0556438791732905</v>
-      </c>
-      <c r="S53">
-        <f t="shared" si="2"/>
-        <v>128800</v>
-      </c>
-      <c r="T53">
-        <f t="shared" si="3"/>
-        <v>19071.280000000002</v>
-      </c>
-      <c r="U53">
-        <f t="shared" si="4"/>
-        <v>12728.719999999998</v>
-      </c>
-      <c r="V53">
-        <f t="shared" si="5"/>
-        <v>18.074712643678161</v>
-      </c>
-      <c r="W53">
-        <f t="shared" ref="W53:W94" si="11">U53/S53</f>
-        <v>9.8825465838509291E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="1">
-        <v>762613</v>
-      </c>
-      <c r="E54">
-        <v>0.2</v>
-      </c>
-      <c r="F54" s="1">
-        <v>5111</v>
-      </c>
-      <c r="G54" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H54">
-        <v>3000</v>
-      </c>
-      <c r="I54">
-        <v>987</v>
-      </c>
-      <c r="J54">
-        <v>3300</v>
-      </c>
-      <c r="K54"/>
-      <c r="L54">
-        <f t="shared" si="10"/>
-        <v>-1811</v>
-      </c>
-      <c r="M54"/>
-      <c r="N54" t="s">
-        <v>36</v>
-      </c>
-      <c r="O54"/>
-      <c r="P54">
-        <v>3000</v>
-      </c>
-      <c r="Q54"/>
-      <c r="R54">
-        <f t="shared" si="1"/>
-        <v>4.7992887611409722</v>
-      </c>
-      <c r="S54">
-        <f t="shared" si="2"/>
-        <v>155522.6</v>
-      </c>
-      <c r="T54">
-        <f t="shared" si="3"/>
-        <v>23122.426160000003</v>
-      </c>
-      <c r="U54">
-        <f t="shared" si="4"/>
-        <v>13477.573839999997</v>
-      </c>
-      <c r="V54">
-        <f t="shared" si="5"/>
-        <v>19.257904040404039</v>
-      </c>
-      <c r="W54">
-        <f t="shared" si="11"/>
-        <v>8.6659905634293641E-2</v>
-      </c>
-      <c r="X54"/>
-      <c r="Y54"/>
-      <c r="Z54"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="1">
-        <v>509000</v>
-      </c>
-      <c r="E55">
-        <v>0.2</v>
-      </c>
-      <c r="F55" s="1">
-        <v>3186</v>
-      </c>
-      <c r="G55" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H55">
-        <v>3000</v>
-      </c>
-      <c r="I55" t="s">
-        <v>56</v>
-      </c>
-      <c r="J55" s="5">
-        <v>2800</v>
-      </c>
-      <c r="K55">
-        <v>2995</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="10"/>
-        <v>-386</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O55" t="s">
-        <v>58</v>
-      </c>
-      <c r="P55">
-        <v>3000</v>
-      </c>
-      <c r="R55">
-        <f>100*(12*J55-P55)/D55</f>
-        <v>6.0117878192534384</v>
-      </c>
-      <c r="S55">
-        <f>D55*E55+H55</f>
-        <v>104800</v>
-      </c>
-      <c r="T55">
-        <f>G55*(D55-D55*E55)</f>
-        <v>15432.880000000001</v>
-      </c>
-      <c r="U55">
-        <f>12*J55-P55-T55</f>
-        <v>15167.119999999999</v>
-      </c>
-      <c r="V55">
-        <f>D55/(12*J55)</f>
-        <v>15.148809523809524</v>
-      </c>
-      <c r="W55">
-        <f t="shared" si="11"/>
-        <v>0.14472442748091602</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56"/>
-      <c r="C56" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="6">
-        <v>499196</v>
-      </c>
-      <c r="E56">
-        <v>0.2</v>
-      </c>
-      <c r="F56" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G56" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H56">
-        <v>3000</v>
-      </c>
-      <c r="I56" t="s">
-        <v>56</v>
-      </c>
-      <c r="J56" s="5">
-        <v>2850</v>
-      </c>
-      <c r="K56" s="5">
-        <v>2750</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="10"/>
-        <v>-150</v>
-      </c>
-      <c r="M56"/>
-      <c r="N56" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O56" t="s">
-        <v>60</v>
-      </c>
-      <c r="P56">
-        <v>3000</v>
-      </c>
-      <c r="Q56"/>
-      <c r="R56">
-        <f t="shared" si="1"/>
-        <v>6.2500500805294914</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="2"/>
-        <v>102839.20000000001</v>
-      </c>
-      <c r="T56">
-        <f t="shared" si="3"/>
-        <v>15135.622720000001</v>
-      </c>
-      <c r="U56">
-        <f t="shared" si="4"/>
-        <v>16064.377279999999</v>
-      </c>
-      <c r="V56">
-        <f t="shared" si="5"/>
-        <v>14.596374269005848</v>
-      </c>
-      <c r="W56">
-        <f t="shared" si="11"/>
-        <v>0.15620869551688457</v>
-      </c>
-      <c r="X56"/>
-      <c r="Y56"/>
-      <c r="Z56"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E57">
-        <v>0.2</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H57">
-        <v>3000</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>3000</v>
-      </c>
-      <c r="R57" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S57">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V57" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W57">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E58">
-        <v>0.2</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H58">
-        <v>3000</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>3000</v>
-      </c>
-      <c r="R58" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S58">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V58" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W58">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E59">
-        <v>0.2</v>
-      </c>
-      <c r="G59" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H59">
-        <v>3000</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>3000</v>
-      </c>
-      <c r="R59" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S59">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V59" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W59">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E60">
-        <v>0.2</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H60">
-        <v>3000</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>3000</v>
-      </c>
-      <c r="R60" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S60">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V60" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W60">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E61">
-        <v>0.2</v>
-      </c>
-      <c r="G61" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H61">
-        <v>3000</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>3000</v>
-      </c>
-      <c r="R61" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S61">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V61" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W61">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E62">
-        <v>0.2</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H62">
-        <v>3000</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>3000</v>
-      </c>
-      <c r="R62" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S62">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V62" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W62">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63">
-        <v>0.2</v>
-      </c>
-      <c r="F63"/>
-      <c r="G63" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H63">
-        <v>3000</v>
-      </c>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="P63">
-        <v>3000</v>
-      </c>
-      <c r="Q63"/>
-      <c r="R63" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S63">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V63" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W63">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-      <c r="X63"/>
-      <c r="Y63"/>
-      <c r="Z63"/>
-    </row>
-    <row r="64" spans="1:26" s="8" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64">
-        <v>0.2</v>
-      </c>
-      <c r="F64"/>
-      <c r="G64" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H64">
-        <v>3000</v>
-      </c>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64">
-        <v>3000</v>
-      </c>
-      <c r="Q64"/>
-      <c r="R64" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S64">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T64">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V64" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W64">
-        <f t="shared" si="11"/>
-        <v>-1</v>
       </c>
       <c r="X64"/>
       <c r="Y64"/>
       <c r="Z64"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65"/>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="1">
+        <v>431775</v>
+      </c>
       <c r="E65">
         <v>0.2</v>
       </c>
+      <c r="F65" s="1">
+        <v>2817</v>
+      </c>
       <c r="G65" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H65">
         <v>3000</v>
       </c>
+      <c r="I65" t="s">
+        <v>31</v>
+      </c>
+      <c r="J65">
+        <v>2200</v>
+      </c>
+      <c r="K65"/>
       <c r="L65">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>-617</v>
+      </c>
+      <c r="M65"/>
+      <c r="N65" t="s">
+        <v>32</v>
+      </c>
+      <c r="O65"/>
       <c r="P65">
         <v>3000</v>
       </c>
-      <c r="R65" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="Q65"/>
+      <c r="R65">
+        <f t="shared" si="1"/>
+        <v>5.419489317352788</v>
       </c>
       <c r="S65">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>89355</v>
       </c>
       <c r="T65">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13091.418000000001</v>
       </c>
       <c r="U65">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V65" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>10308.581999999999</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="5"/>
+        <v>16.355113636363637</v>
       </c>
       <c r="W65">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
+        <f t="shared" si="6"/>
+        <v>0.11536659392311564</v>
+      </c>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="1">
+        <v>629000</v>
+      </c>
       <c r="E66">
         <v>0.2</v>
       </c>
-      <c r="F66"/>
+      <c r="F66" s="1">
+        <v>3156</v>
+      </c>
       <c r="G66" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H66">
         <v>3000</v>
       </c>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
+      <c r="I66">
+        <v>977</v>
+      </c>
+      <c r="J66">
+        <v>2900</v>
+      </c>
       <c r="L66">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
+        <f t="shared" ref="L66:L98" si="8">J66-F66</f>
+        <v>-256</v>
+      </c>
+      <c r="N66" t="s">
+        <v>18</v>
+      </c>
       <c r="P66">
         <v>3000</v>
       </c>
-      <c r="Q66"/>
-      <c r="R66" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R66">
+        <f t="shared" si="1"/>
+        <v>5.0556438791732905</v>
       </c>
       <c r="S66">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>128800</v>
       </c>
       <c r="T66">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19071.280000000002</v>
       </c>
       <c r="U66">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V66" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>12728.719999999998</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="5"/>
+        <v>18.074712643678161</v>
       </c>
       <c r="W66">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-      <c r="X66"/>
-      <c r="Y66"/>
-      <c r="Z66"/>
-    </row>
-    <row r="67" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="W66:W107" si="9">U66/S66</f>
+        <v>9.8825465838509291E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="1">
+        <v>762613</v>
+      </c>
       <c r="E67">
         <v>0.2</v>
       </c>
-      <c r="F67"/>
+      <c r="F67" s="1">
+        <v>5111</v>
+      </c>
       <c r="G67" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H67">
         <v>3000</v>
       </c>
-      <c r="I67"/>
-      <c r="J67"/>
+      <c r="I67">
+        <v>987</v>
+      </c>
+      <c r="J67">
+        <v>3300</v>
+      </c>
       <c r="K67"/>
       <c r="L67">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-1811</v>
       </c>
       <c r="M67"/>
-      <c r="N67"/>
+      <c r="N67" t="s">
+        <v>36</v>
+      </c>
       <c r="O67"/>
       <c r="P67">
         <v>3000</v>
       </c>
       <c r="Q67"/>
-      <c r="R67" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R67">
+        <f t="shared" si="1"/>
+        <v>4.7992887611409722</v>
       </c>
       <c r="S67">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>155522.6</v>
       </c>
       <c r="T67">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>23122.426160000003</v>
       </c>
       <c r="U67">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V67" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>13477.573839999997</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="5"/>
+        <v>19.257904040404039</v>
       </c>
       <c r="W67">
-        <f t="shared" si="11"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>8.6659905634293641E-2</v>
       </c>
       <c r="X67"/>
       <c r="Y67"/>
       <c r="Z67"/>
     </row>
-    <row r="68" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="1">
+        <v>509000</v>
+      </c>
       <c r="E68">
         <v>0.2</v>
       </c>
-      <c r="F68"/>
+      <c r="F68" s="1">
+        <v>3186</v>
+      </c>
       <c r="G68" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H68">
         <v>3000</v>
       </c>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
+      <c r="I68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J68" s="5">
+        <v>2800</v>
+      </c>
+      <c r="K68">
+        <v>2995</v>
+      </c>
       <c r="L68">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68"/>
+        <f t="shared" si="8"/>
+        <v>-386</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O68" t="s">
+        <v>58</v>
+      </c>
       <c r="P68">
         <v>3000</v>
       </c>
-      <c r="Q68"/>
-      <c r="R68" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R68">
+        <f>100*(12*J68-P68)/D68</f>
+        <v>6.0117878192534384</v>
       </c>
       <c r="S68">
-        <f t="shared" si="2"/>
-        <v>3000</v>
+        <f>D68*E68+H68</f>
+        <v>104800</v>
       </c>
       <c r="T68">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>G68*(D68-D68*E68)</f>
+        <v>15432.880000000001</v>
       </c>
       <c r="U68">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V68" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f>12*J68-P68-T68</f>
+        <v>15167.119999999999</v>
+      </c>
+      <c r="V68">
+        <f>D68/(12*J68)</f>
+        <v>15.148809523809524</v>
       </c>
       <c r="W68">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-      <c r="X68"/>
-      <c r="Y68"/>
-      <c r="Z68"/>
-    </row>
-    <row r="69" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69"/>
+        <f t="shared" si="9"/>
+        <v>0.14472442748091602</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" s="7" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
       <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
+      <c r="C69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="6">
+        <v>499196</v>
+      </c>
       <c r="E69">
         <v>0.2</v>
       </c>
-      <c r="F69"/>
+      <c r="F69" s="1">
+        <v>3000</v>
+      </c>
       <c r="G69" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H69">
         <v>3000</v>
       </c>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
+      <c r="I69" t="s">
+        <v>56</v>
+      </c>
+      <c r="J69" s="5">
+        <v>2850</v>
+      </c>
+      <c r="K69" s="5">
+        <v>2750</v>
+      </c>
       <c r="L69">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-150</v>
       </c>
       <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
+      <c r="N69" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
       <c r="P69">
         <v>3000</v>
       </c>
       <c r="Q69"/>
-      <c r="R69" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R69">
+        <f t="shared" si="1"/>
+        <v>6.2500500805294914</v>
       </c>
       <c r="S69">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>102839.20000000001</v>
       </c>
       <c r="T69">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15135.622720000001</v>
       </c>
       <c r="U69">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V69" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>16064.377279999999</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="5"/>
+        <v>14.596374269005848</v>
       </c>
       <c r="W69">
-        <f t="shared" si="11"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0.15620869551688457</v>
       </c>
       <c r="X69"/>
       <c r="Y69"/>
       <c r="Z69"/>
     </row>
-    <row r="70" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E70">
         <v>0.2</v>
       </c>
-      <c r="F70"/>
       <c r="G70" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H70">
         <v>3000</v>
       </c>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
       <c r="L70">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P70">
         <v>3000</v>
       </c>
-      <c r="Q70"/>
       <c r="R70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -5711,14 +5855,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="W70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="X70"/>
-      <c r="Y70"/>
-      <c r="Z70"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E71">
         <v>0.2</v>
       </c>
@@ -5729,7 +5870,7 @@
         <v>3000</v>
       </c>
       <c r="L71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P71">
@@ -5756,11 +5897,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="W71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E72">
         <v>0.2</v>
       </c>
@@ -5771,7 +5912,7 @@
         <v>3000</v>
       </c>
       <c r="L72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P72">
@@ -5798,11 +5939,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="W72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E73">
         <v>0.2</v>
       </c>
@@ -5813,7 +5954,7 @@
         <v>3000</v>
       </c>
       <c r="L73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P73">
@@ -5840,11 +5981,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="W73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E74">
         <v>0.2</v>
       </c>
@@ -5855,7 +5996,7 @@
         <v>3000</v>
       </c>
       <c r="L74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P74">
@@ -5882,39 +6023,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="W74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
+    <row r="75" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E75">
         <v>0.2</v>
       </c>
-      <c r="F75"/>
       <c r="G75" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H75">
         <v>3000</v>
       </c>
-      <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
       <c r="L75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P75">
         <v>3000</v>
       </c>
-      <c r="Q75"/>
       <c r="R75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -5936,14 +6065,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="W75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="X75"/>
-      <c r="Y75"/>
-      <c r="Z75"/>
-    </row>
-    <row r="76" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -5962,7 +6088,7 @@
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M76"/>
@@ -5993,731 +6119,1398 @@
         <v>#DIV/0!</v>
       </c>
       <c r="W76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="X76"/>
       <c r="Y76"/>
       <c r="Z76"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" s="8" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
       <c r="E77">
         <v>0.2</v>
       </c>
+      <c r="F77"/>
       <c r="G77" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H77">
         <v>3000</v>
       </c>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
       <c r="L77">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77">
+        <v>3000</v>
+      </c>
+      <c r="Q77"/>
+      <c r="R77" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V77" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>0.2</v>
+      </c>
+      <c r="G78" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H78">
+        <v>3000</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>3000</v>
+      </c>
+      <c r="R78" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V78" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79">
+        <v>0.2</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H79">
+        <v>3000</v>
+      </c>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79">
+        <v>3000</v>
+      </c>
+      <c r="Q79"/>
+      <c r="R79" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V79" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+    </row>
+    <row r="80" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80">
+        <v>0.2</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H80">
+        <v>3000</v>
+      </c>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80">
+        <v>3000</v>
+      </c>
+      <c r="Q80"/>
+      <c r="R80" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V80" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+    </row>
+    <row r="81" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81">
+        <v>0.2</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H81">
+        <v>3000</v>
+      </c>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81">
+        <v>3000</v>
+      </c>
+      <c r="Q81"/>
+      <c r="R81" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V81" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+    </row>
+    <row r="82" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82">
+        <v>0.2</v>
+      </c>
+      <c r="F82"/>
+      <c r="G82" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H82">
+        <v>3000</v>
+      </c>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82">
+        <v>3000</v>
+      </c>
+      <c r="Q82"/>
+      <c r="R82" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V82" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+    </row>
+    <row r="83" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83">
+        <v>0.2</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H83">
+        <v>3000</v>
+      </c>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83">
+        <v>3000</v>
+      </c>
+      <c r="Q83"/>
+      <c r="R83" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V83" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>0.2</v>
+      </c>
+      <c r="G84" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H84">
+        <v>3000</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>3000</v>
+      </c>
+      <c r="R84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V84" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>0.2</v>
+      </c>
+      <c r="G85" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H85">
+        <v>3000</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>3000</v>
+      </c>
+      <c r="R85" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V85" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>0.2</v>
+      </c>
+      <c r="G86" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H86">
+        <v>3000</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>3000</v>
+      </c>
+      <c r="R86" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V86" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <v>0.2</v>
+      </c>
+      <c r="G87" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H87">
+        <v>3000</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>3000</v>
+      </c>
+      <c r="R87" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V87" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88">
+        <v>0.2</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H88">
+        <v>3000</v>
+      </c>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88">
+        <v>3000</v>
+      </c>
+      <c r="Q88"/>
+      <c r="R88" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V88" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88"/>
+    </row>
+    <row r="89" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89">
+        <v>0.2</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H89">
+        <v>3000</v>
+      </c>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89">
+        <v>3000</v>
+      </c>
+      <c r="Q89"/>
+      <c r="R89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V89" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>0.2</v>
+      </c>
+      <c r="G90" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H90">
+        <v>3000</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>3000</v>
+      </c>
+      <c r="R90" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V90" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <v>0.2</v>
+      </c>
+      <c r="G91" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H91">
+        <v>3000</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>3000</v>
+      </c>
+      <c r="R91" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V91" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>0.2</v>
+      </c>
+      <c r="G92" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H92">
+        <v>3000</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>3000</v>
+      </c>
+      <c r="R92" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V92" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>0.2</v>
+      </c>
+      <c r="G93" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H93">
+        <v>3000</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>3000</v>
+      </c>
+      <c r="R93" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V93" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>0.2</v>
+      </c>
+      <c r="G94" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H94">
+        <v>3000</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>3000</v>
+      </c>
+      <c r="R94" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V94" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <v>0.2</v>
+      </c>
+      <c r="H95">
+        <v>3000</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>3000</v>
+      </c>
+      <c r="R95" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V95" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>0.2</v>
+      </c>
+      <c r="H96">
+        <v>3000</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>3000</v>
+      </c>
+      <c r="R96" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V96" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>0.2</v>
+      </c>
+      <c r="H97">
+        <v>3000</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>3000</v>
+      </c>
+      <c r="R97" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V97" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>0.2</v>
+      </c>
+      <c r="H98">
+        <v>3000</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>3000</v>
+      </c>
+      <c r="R98" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V98" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H99">
+        <v>3000</v>
+      </c>
+      <c r="P99">
+        <v>3000</v>
+      </c>
+      <c r="R99" t="e">
+        <f t="shared" ref="R99:R109" si="10">100*(12*J99-P99)/D99</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S99">
+        <f t="shared" ref="S99:S109" si="11">D99*E99+H99</f>
+        <v>3000</v>
+      </c>
+      <c r="T99">
+        <f t="shared" ref="T99:T107" si="12">G99*(D99-D99*E99)</f>
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <f t="shared" ref="U99:U107" si="13">12*J99-P99-T99</f>
+        <v>-3000</v>
+      </c>
+      <c r="V99" t="e">
+        <f t="shared" ref="V99:V107" si="14">D99/(12*J99)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W99">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <v>3000</v>
+      </c>
+      <c r="P100">
+        <v>3000</v>
+      </c>
+      <c r="R100" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>3000</v>
-      </c>
-      <c r="R77" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T77">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="13"/>
         <v>-3000</v>
       </c>
-      <c r="V77" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W77">
+      <c r="V100" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H101">
+        <v>3000</v>
+      </c>
+      <c r="P101">
+        <v>3000</v>
+      </c>
+      <c r="R101" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S101">
         <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V101" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E78">
-        <v>0.2</v>
-      </c>
-      <c r="G78" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H78">
-        <v>3000</v>
-      </c>
-      <c r="L78">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H102">
+        <v>3000</v>
+      </c>
+      <c r="P102">
+        <v>3000</v>
+      </c>
+      <c r="R102" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>3000</v>
-      </c>
-      <c r="R78" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S78">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="13"/>
         <v>-3000</v>
       </c>
-      <c r="V78" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W78">
+      <c r="V102" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W102">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H103">
+        <v>3000</v>
+      </c>
+      <c r="P103">
+        <v>3000</v>
+      </c>
+      <c r="R103" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S103">
         <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V103" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W103">
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E79">
-        <v>0.2</v>
-      </c>
-      <c r="G79" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H79">
-        <v>3000</v>
-      </c>
-      <c r="L79">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <v>3000</v>
+      </c>
+      <c r="P104">
+        <v>3000</v>
+      </c>
+      <c r="R104" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>3000</v>
-      </c>
-      <c r="R79" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S79">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T79">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="13"/>
         <v>-3000</v>
       </c>
-      <c r="V79" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W79">
+      <c r="V104" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W104">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H105">
+        <v>3000</v>
+      </c>
+      <c r="P105">
+        <v>3000</v>
+      </c>
+      <c r="R105" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S105">
         <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V105" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W105">
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E80">
-        <v>0.2</v>
-      </c>
-      <c r="G80" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H80">
-        <v>3000</v>
-      </c>
-      <c r="L80">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H106">
+        <v>3000</v>
+      </c>
+      <c r="P106">
+        <v>3000</v>
+      </c>
+      <c r="R106" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <v>3000</v>
-      </c>
-      <c r="R80" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S80">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="13"/>
         <v>-3000</v>
       </c>
-      <c r="V80" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W80">
+      <c r="V106" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W106">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P107">
+        <v>3000</v>
+      </c>
+      <c r="R107" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S107">
         <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="81" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="E81">
-        <v>0.2</v>
-      </c>
-      <c r="G81" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H81">
-        <v>3000</v>
-      </c>
-      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V107" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W107" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P108">
+        <v>3000</v>
+      </c>
+      <c r="R108" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>3000</v>
-      </c>
-      <c r="R81" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S81">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T81">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V81" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W81">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S108">
         <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="82" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="E82">
-        <v>0.2</v>
-      </c>
-      <c r="H82">
-        <v>3000</v>
-      </c>
-      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P109">
+        <v>3000</v>
+      </c>
+      <c r="R109" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>3000</v>
-      </c>
-      <c r="R82" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S82">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T82">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V82" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S109">
         <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="83" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="E83">
-        <v>0.2</v>
-      </c>
-      <c r="H83">
-        <v>3000</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <v>3000</v>
-      </c>
-      <c r="R83" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S83">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V83" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W83">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="84" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="E84">
-        <v>0.2</v>
-      </c>
-      <c r="H84">
-        <v>3000</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <v>3000</v>
-      </c>
-      <c r="R84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S84">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T84">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V84" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W84">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="85" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="E85">
-        <v>0.2</v>
-      </c>
-      <c r="H85">
-        <v>3000</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P85">
-        <v>3000</v>
-      </c>
-      <c r="R85" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S85">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T85">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V85" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W85">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="86" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="H86">
-        <v>3000</v>
-      </c>
-      <c r="P86">
-        <v>3000</v>
-      </c>
-      <c r="R86" t="e">
-        <f t="shared" ref="R86:R96" si="12">100*(12*J86-P86)/D86</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S86">
-        <f t="shared" ref="S86:S96" si="13">D86*E86+H86</f>
-        <v>3000</v>
-      </c>
-      <c r="T86">
-        <f t="shared" ref="T86:T94" si="14">G86*(D86-D86*E86)</f>
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <f t="shared" ref="U86:U94" si="15">12*J86-P86-T86</f>
-        <v>-3000</v>
-      </c>
-      <c r="V86" t="e">
-        <f t="shared" ref="V86:V94" si="16">D86/(12*J86)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W86">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="87" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="H87">
-        <v>3000</v>
-      </c>
-      <c r="P87">
-        <v>3000</v>
-      </c>
-      <c r="R87" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S87">
-        <f t="shared" si="13"/>
-        <v>3000</v>
-      </c>
-      <c r="T87">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U87">
-        <f t="shared" si="15"/>
-        <v>-3000</v>
-      </c>
-      <c r="V87" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W87">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="88" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="H88">
-        <v>3000</v>
-      </c>
-      <c r="P88">
-        <v>3000</v>
-      </c>
-      <c r="R88" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S88">
-        <f t="shared" si="13"/>
-        <v>3000</v>
-      </c>
-      <c r="T88">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U88">
-        <f t="shared" si="15"/>
-        <v>-3000</v>
-      </c>
-      <c r="V88" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W88">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="89" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="H89">
-        <v>3000</v>
-      </c>
-      <c r="P89">
-        <v>3000</v>
-      </c>
-      <c r="R89" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S89">
-        <f t="shared" si="13"/>
-        <v>3000</v>
-      </c>
-      <c r="T89">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U89">
-        <f t="shared" si="15"/>
-        <v>-3000</v>
-      </c>
-      <c r="V89" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W89">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="90" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="H90">
-        <v>3000</v>
-      </c>
-      <c r="P90">
-        <v>3000</v>
-      </c>
-      <c r="R90" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S90">
-        <f t="shared" si="13"/>
-        <v>3000</v>
-      </c>
-      <c r="T90">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U90">
-        <f t="shared" si="15"/>
-        <v>-3000</v>
-      </c>
-      <c r="V90" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W90">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="91" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="H91">
-        <v>3000</v>
-      </c>
-      <c r="P91">
-        <v>3000</v>
-      </c>
-      <c r="R91" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S91">
-        <f t="shared" si="13"/>
-        <v>3000</v>
-      </c>
-      <c r="T91">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U91">
-        <f t="shared" si="15"/>
-        <v>-3000</v>
-      </c>
-      <c r="V91" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W91">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="92" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="H92">
-        <v>3000</v>
-      </c>
-      <c r="P92">
-        <v>3000</v>
-      </c>
-      <c r="R92" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S92">
-        <f t="shared" si="13"/>
-        <v>3000</v>
-      </c>
-      <c r="T92">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U92">
-        <f t="shared" si="15"/>
-        <v>-3000</v>
-      </c>
-      <c r="V92" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W92">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="93" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="H93">
-        <v>3000</v>
-      </c>
-      <c r="P93">
-        <v>3000</v>
-      </c>
-      <c r="R93" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S93">
-        <f t="shared" si="13"/>
-        <v>3000</v>
-      </c>
-      <c r="T93">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U93">
-        <f t="shared" si="15"/>
-        <v>-3000</v>
-      </c>
-      <c r="V93" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W93">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="94" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="P94">
-        <v>3000</v>
-      </c>
-      <c r="R94" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S94">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T94">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U94">
-        <f t="shared" si="15"/>
-        <v>-3000</v>
-      </c>
-      <c r="V94" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W94" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="95" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="P95">
-        <v>3000</v>
-      </c>
-      <c r="R95" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S95">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="P96">
-        <v>3000</v>
-      </c>
-      <c r="R96" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S96">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-      <c r="K97"/>
-      <c r="L97"/>
-      <c r="M97"/>
-      <c r="N97"/>
-      <c r="O97"/>
-      <c r="P97">
-        <v>3000</v>
-      </c>
-      <c r="Q97"/>
-      <c r="R97"/>
-      <c r="S97"/>
-      <c r="T97"/>
-      <c r="U97"/>
-      <c r="V97"/>
-      <c r="W97"/>
-      <c r="X97"/>
-      <c r="Y97"/>
-      <c r="Z97"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110">
+        <v>3000</v>
+      </c>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
+      <c r="W110"/>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C56" r:id="rId1" location="redfin-estimate"/>
-    <hyperlink ref="C49" r:id="rId2" location="schools"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="B12" r:id="rId4"/>
-    <hyperlink ref="B13" r:id="rId5"/>
-    <hyperlink ref="B15" r:id="rId6"/>
-    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="C69" r:id="rId1" location="redfin-estimate" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C62" r:id="rId2" location="schools" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B33" r:id="rId8" xr:uid="{6AD50C20-CA1A-4708-97EB-A5388C20E5B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/austin (Autosaved).xlsx
+++ b/austin (Autosaved).xlsx
@@ -477,18 +477,12 @@
     <t>不错，austin东北较近</t>
   </si>
   <si>
-    <t>67年，4b2.5b里面还算新</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homes/for_sale/fsba,fsbo,fore,new_lt/29404080_zpid/4-_beds/3-_baths/0-500000_price/0-1915_mp/30.376504,-97.605715,30.24372,-97.772226_rect/12_zm/0_mmm/</t>
   </si>
   <si>
     <t>2013 Cheshire Dr, Austin, TX 78723</t>
   </si>
   <si>
-    <t>63年，4b2b里面还可以</t>
-  </si>
-  <si>
     <t>5921 Adair Dr, Austin, TX 78754</t>
   </si>
   <si>
@@ -637,13 +631,19 @@
   </si>
   <si>
     <t>4b3b房型还不错</t>
+  </si>
+  <si>
+    <t>63年，4b2b里面还可以,这个是windsor park貌似租金高</t>
+  </si>
+  <si>
+    <t>67年，4b2.5b里面还算新，university hill貌似租金也高</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -696,13 +696,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
@@ -710,15 +703,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,11 +719,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -785,7 +766,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="198">
+  <cellStyleXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -970,8 +951,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -985,7 +965,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -996,16 +976,15 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="183"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="182"/>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="182" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="184"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="183" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="185"/>
-    <xf numFmtId="3" fontId="8" fillId="5" borderId="2" xfId="185" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="185" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="184"/>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="2" xfId="184" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="184" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="182" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="198">
+  <cellStyles count="197">
     <cellStyle name="Bad" xfId="183" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="185" builtinId="23"/>
+    <cellStyle name="Check Cell" xfId="184" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1186,6 +1165,7 @@
     <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
@@ -1197,10 +1177,8 @@
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="182" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="184" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1481,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1779,7 +1757,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="7" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1838,301 +1816,283 @@
       <c r="Y6"/>
       <c r="Z6"/>
     </row>
-    <row r="7" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B7"/>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="11">
         <v>206177</v>
       </c>
-      <c r="E7">
-        <v>0.2</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="12">
         <v>1367</v>
       </c>
-      <c r="G7" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H7">
-        <v>3000</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="G7" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H7" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="11">
         <v>1950</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="11">
         <v>1650</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="11">
         <f t="shared" si="0"/>
         <v>583</v>
       </c>
-      <c r="M7"/>
-      <c r="N7" t="s">
+      <c r="N7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="P7">
-        <v>3000</v>
-      </c>
-      <c r="Q7"/>
-      <c r="R7">
+      <c r="P7" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R7" s="11">
         <f t="shared" si="1"/>
         <v>9.8944111127817358</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="11">
         <f t="shared" si="2"/>
         <v>44235.4</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="11">
         <f t="shared" si="3"/>
         <v>6251.2866400000012</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="11">
         <f t="shared" si="4"/>
         <v>14148.713359999998</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="11">
         <f t="shared" si="5"/>
         <v>8.8109829059829057</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="11">
         <f t="shared" si="6"/>
         <v>0.31985046727281763</v>
       </c>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="8" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="12">
         <v>155000</v>
       </c>
-      <c r="E8">
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="12">
         <v>1249</v>
       </c>
-      <c r="G8" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H8">
-        <v>3000</v>
-      </c>
-      <c r="I8">
+      <c r="G8" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H8" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I8" s="11">
         <v>624</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="11">
         <v>1350</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="11">
         <v>1500</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="11">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="P8">
-        <v>3000</v>
-      </c>
-      <c r="R8">
+      <c r="P8" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R8" s="11">
         <f t="shared" si="1"/>
         <v>8.5161290322580641</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="11">
         <f t="shared" si="2"/>
         <v>34000</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="11">
         <f t="shared" si="3"/>
         <v>4699.6000000000004</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="11">
         <f t="shared" si="4"/>
         <v>8500.4</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="11">
         <f t="shared" si="5"/>
         <v>9.567901234567902</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="11">
         <f t="shared" si="6"/>
         <v>0.25001176470588232</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B9"/>
-      <c r="C9" t="s">
+      <c r="C9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="12">
         <v>269900</v>
       </c>
-      <c r="E9">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="12">
         <v>1777</v>
       </c>
-      <c r="G9" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H9">
-        <v>3000</v>
-      </c>
-      <c r="I9">
+      <c r="G9" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H9" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I9" s="11">
         <v>534</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="11">
         <v>2100</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="11">
         <v>1695</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="11">
         <f t="shared" si="0"/>
         <v>323</v>
       </c>
-      <c r="M9"/>
-      <c r="N9" t="s">
+      <c r="N9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="P9">
-        <v>3000</v>
-      </c>
-      <c r="Q9"/>
-      <c r="R9">
+      <c r="P9" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R9" s="11">
         <f t="shared" si="1"/>
         <v>8.2252686180066696</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="11">
         <f t="shared" si="2"/>
         <v>56980</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="11">
         <f t="shared" si="3"/>
         <v>8183.3680000000004</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="11">
         <f t="shared" si="4"/>
         <v>14016.632</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="11">
         <f t="shared" si="5"/>
         <v>10.71031746031746</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="11">
         <f t="shared" si="6"/>
         <v>0.24599213759213759</v>
       </c>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-    </row>
-    <row r="10" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    </row>
+    <row r="10" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B10"/>
-      <c r="C10" t="s">
+      <c r="C10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="12">
         <v>232900</v>
       </c>
-      <c r="E10">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="12">
         <v>1287</v>
       </c>
-      <c r="G10" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H10">
-        <v>3000</v>
-      </c>
-      <c r="I10">
+      <c r="G10" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H10" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I10" s="11">
         <v>224</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="11">
         <v>1750</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="11">
         <v>500</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="11">
         <f t="shared" si="0"/>
         <v>463</v>
       </c>
-      <c r="M10"/>
-      <c r="N10" t="s">
+      <c r="N10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P10">
-        <v>3000</v>
-      </c>
-      <c r="Q10"/>
-      <c r="R10">
+      <c r="P10" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R10" s="11">
         <f t="shared" si="1"/>
         <v>7.7286389008158007</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="11">
         <f t="shared" si="2"/>
         <v>49580</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="11">
         <f t="shared" si="3"/>
         <v>7061.5280000000002</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="11">
         <f t="shared" si="4"/>
         <v>10938.472</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="11">
         <f t="shared" si="5"/>
         <v>11.09047619047619</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="11">
         <f t="shared" si="6"/>
         <v>0.22062267043162564</v>
       </c>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:26" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>0.2</v>
       </c>
@@ -2642,410 +2602,410 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <v>281990</v>
       </c>
-      <c r="E19">
-        <v>0.2</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E19" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="9">
         <v>1577</v>
       </c>
-      <c r="G19" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H19">
-        <v>3000</v>
-      </c>
-      <c r="I19">
+      <c r="G19" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H19" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I19" s="8">
         <v>5210</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="8">
         <v>2300</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="8">
         <f t="shared" si="0"/>
         <v>723</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="P19">
-        <v>3000</v>
-      </c>
-      <c r="R19">
+      <c r="P19" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R19" s="8">
         <f t="shared" si="1"/>
         <v>8.7237136068654912</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="8">
         <f t="shared" si="2"/>
         <v>59398</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="8">
         <f t="shared" si="3"/>
         <v>8549.9368000000013</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="8">
         <f t="shared" si="4"/>
         <v>16050.063199999999</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="8">
         <f t="shared" si="5"/>
         <v>10.217028985507246</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="8">
         <f t="shared" si="6"/>
         <v>0.27021218222835786</v>
       </c>
-      <c r="X19" t="s">
+      <c r="X19" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="9">
         <v>249900</v>
       </c>
-      <c r="E20">
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="E20" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F20" s="9">
         <v>1491</v>
       </c>
-      <c r="G20" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H20">
-        <v>3000</v>
-      </c>
-      <c r="I20">
+      <c r="G20" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H20" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I20" s="8">
         <v>5410</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="8">
         <v>1850</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="8">
         <f t="shared" si="0"/>
         <v>359</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="P20">
-        <v>3000</v>
-      </c>
-      <c r="R20">
+      <c r="P20" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R20" s="8">
         <f t="shared" si="1"/>
         <v>7.6830732292917165</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="8">
         <f t="shared" si="2"/>
         <v>52980</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="8">
         <f t="shared" si="3"/>
         <v>7576.9680000000008</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="8">
         <f t="shared" si="4"/>
         <v>11623.031999999999</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="8">
         <f t="shared" si="5"/>
         <v>11.256756756756756</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="8">
         <f t="shared" si="6"/>
         <v>0.21938527746319364</v>
       </c>
-      <c r="X20" t="s">
+      <c r="X20" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="9">
         <v>225490</v>
       </c>
-      <c r="E21">
-        <v>0.2</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E21" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="9">
         <v>1192</v>
       </c>
-      <c r="G21" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H21">
-        <v>3000</v>
-      </c>
-      <c r="I21">
+      <c r="G21" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H21" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I21" s="8">
         <v>645</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="8">
         <v>1500</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="8">
         <v>1500</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="8">
         <f t="shared" si="0"/>
         <v>308</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="P21">
-        <v>3000</v>
-      </c>
-      <c r="R21">
+      <c r="P21" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R21" s="8">
         <f t="shared" si="1"/>
         <v>6.6521796975475631</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="8">
         <f t="shared" si="2"/>
         <v>48098</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="8">
         <f t="shared" si="3"/>
         <v>6836.8568000000005</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="8">
         <f t="shared" si="4"/>
         <v>8163.1431999999995</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="8">
         <f t="shared" si="5"/>
         <v>12.527222222222223</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="8">
         <f t="shared" si="6"/>
         <v>0.16971897376190276</v>
       </c>
-      <c r="X21" t="s">
+      <c r="X21" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <v>281990</v>
       </c>
-      <c r="E22">
-        <v>0.2</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="E22" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="9">
         <v>1578</v>
       </c>
-      <c r="G22" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H22">
-        <v>3000</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="G22" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H22" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="8">
         <v>2150</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="8">
         <f t="shared" si="0"/>
         <v>572</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="P22">
-        <v>3000</v>
-      </c>
-      <c r="R22">
+      <c r="P22" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R22" s="8">
         <f t="shared" si="1"/>
         <v>8.0853930990460654</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="8">
         <f t="shared" si="2"/>
         <v>59398</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="8">
         <f t="shared" si="3"/>
         <v>8549.9368000000013</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="8">
         <f t="shared" si="4"/>
         <v>14250.063199999999</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="8">
         <f t="shared" si="5"/>
         <v>10.92984496124031</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="8">
         <f t="shared" si="6"/>
         <v>0.23990813158692209</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="9">
         <v>285000</v>
       </c>
-      <c r="E23">
-        <v>0.2</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="E23" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="9">
         <v>1681</v>
       </c>
-      <c r="G23" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H23">
-        <v>3000</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="G23" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H23" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="8">
         <v>2300</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="8">
         <f t="shared" si="0"/>
         <v>619</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="P23">
-        <v>3000</v>
-      </c>
-      <c r="R23">
+      <c r="P23" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R23" s="8">
         <f t="shared" si="1"/>
         <v>8.6315789473684212</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="8">
         <f t="shared" si="2"/>
         <v>60000</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="8">
         <f t="shared" si="3"/>
         <v>8641.2000000000007</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="8">
         <f t="shared" si="4"/>
         <v>15958.8</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="8">
         <f t="shared" si="5"/>
         <v>10.326086956521738</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="8">
         <f t="shared" si="6"/>
         <v>0.26597999999999999</v>
       </c>
-      <c r="X23" t="s">
+      <c r="X23" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="12">
         <v>286257</v>
       </c>
-      <c r="E24">
-        <v>0.2</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="E24" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="12">
         <v>1624</v>
       </c>
-      <c r="G24" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H24">
-        <v>3000</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="G24" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H24" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="11">
         <v>2100</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="11">
         <v>1750</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="11">
         <f t="shared" si="0"/>
         <v>476</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="P24">
-        <v>3000</v>
-      </c>
-      <c r="R24">
+      <c r="P24" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R24" s="11">
         <f t="shared" si="1"/>
         <v>7.7552688667875369</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="11">
         <f t="shared" si="2"/>
         <v>60251.4</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="11">
         <f t="shared" si="3"/>
         <v>8679.3122400000011</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="11">
         <f t="shared" si="4"/>
         <v>13520.687759999999</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="11">
         <f t="shared" si="5"/>
         <v>11.359404761904761</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="11">
         <f t="shared" si="6"/>
         <v>0.22440454097332177</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X24" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>107</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D25" s="1">
@@ -3107,11 +3067,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>110</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D26" s="1">
@@ -3173,138 +3133,138 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="12">
         <v>328496</v>
       </c>
-      <c r="E27">
-        <v>0.2</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="E27" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="12">
         <v>2133</v>
       </c>
-      <c r="G27" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H27">
-        <v>3000</v>
-      </c>
-      <c r="I27">
+      <c r="G27" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H27" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I27" s="11">
         <v>898</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="11">
         <v>2150</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="P27">
-        <v>3000</v>
-      </c>
-      <c r="R27">
+      <c r="P27" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R27" s="11">
         <f t="shared" si="1"/>
         <v>6.9407237835468321</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="11">
         <f t="shared" si="2"/>
         <v>68699.199999999997</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="11">
         <f t="shared" si="3"/>
         <v>9959.9987199999996</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="11">
         <f t="shared" si="4"/>
         <v>12840.00128</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="11">
         <f t="shared" si="5"/>
         <v>12.732403100775194</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="11">
         <f t="shared" si="6"/>
         <v>0.1869017583901996</v>
       </c>
-      <c r="X27" t="s">
+      <c r="X27" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:24" s="8" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="9">
         <v>347776</v>
       </c>
-      <c r="E28">
-        <v>0.2</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E28" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F28" s="9">
         <v>2126</v>
       </c>
-      <c r="G28" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H28">
-        <v>3000</v>
-      </c>
-      <c r="I28">
+      <c r="G28" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H28" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I28" s="8">
         <v>777</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="8">
         <v>2250</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="8">
         <v>1790</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="8">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P28">
-        <v>3000</v>
-      </c>
-      <c r="R28">
+      <c r="P28" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R28" s="8">
         <f t="shared" si="1"/>
         <v>6.900993743099006</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="8">
         <f t="shared" si="2"/>
         <v>72555.199999999997</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="8">
         <f t="shared" si="3"/>
         <v>10544.56832</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="8">
         <f t="shared" si="4"/>
         <v>13455.43168</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="8">
         <f t="shared" si="5"/>
         <v>12.880592592592592</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="8">
         <f t="shared" si="6"/>
         <v>0.18545096257745827</v>
       </c>
-      <c r="X28" t="s">
+      <c r="X28" s="8" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3374,492 +3334,492 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="9">
         <v>315000</v>
       </c>
-      <c r="E30">
-        <v>0.2</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="E30" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F30" s="9">
         <v>1851</v>
       </c>
-      <c r="G30" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H30">
-        <v>3000</v>
-      </c>
-      <c r="I30">
+      <c r="G30" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H30" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I30" s="8">
         <v>9210</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="8">
         <v>2300</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="8">
         <f t="shared" si="0"/>
         <v>449</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="P30">
-        <v>3000</v>
-      </c>
-      <c r="R30">
+      <c r="P30" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R30" s="8">
         <f t="shared" si="1"/>
         <v>7.8095238095238093</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="8">
         <f t="shared" si="2"/>
         <v>66000</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="8">
         <f t="shared" si="3"/>
         <v>9550.8000000000011</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="8">
         <f t="shared" si="4"/>
         <v>15049.199999999999</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="8">
         <f t="shared" si="5"/>
         <v>11.413043478260869</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="8">
         <f t="shared" si="6"/>
         <v>0.22801818181818181</v>
       </c>
-      <c r="X30" t="s">
+      <c r="X30" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="9">
         <v>439000</v>
       </c>
-      <c r="E31">
-        <v>0.2</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="E31" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F31" s="9">
         <v>2618</v>
       </c>
-      <c r="G31" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H31">
-        <v>3000</v>
-      </c>
-      <c r="I31">
+      <c r="G31" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H31" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I31" s="8">
         <v>988</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="8">
         <v>2350</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="8">
         <v>2650</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="8">
         <f t="shared" si="0"/>
         <v>-268</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="P31">
-        <v>3000</v>
-      </c>
-      <c r="R31">
+      <c r="P31" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R31" s="8">
         <f t="shared" si="1"/>
         <v>5.7403189066059221</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="8">
         <f t="shared" si="2"/>
         <v>90800</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="8">
         <f t="shared" si="3"/>
         <v>13310.480000000001</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="8">
         <f t="shared" si="4"/>
         <v>11889.519999999999</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="8">
         <f t="shared" si="5"/>
         <v>15.567375886524824</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="8">
         <f t="shared" si="6"/>
         <v>0.13094185022026431</v>
       </c>
-      <c r="X31" t="s">
+      <c r="X31" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="9">
         <v>336252</v>
       </c>
-      <c r="E32">
-        <v>0.2</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="E32" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F32" s="9">
         <v>1899</v>
       </c>
-      <c r="G32" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H32">
-        <v>3000</v>
-      </c>
-      <c r="I32">
+      <c r="G32" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H32" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I32" s="8">
         <v>545</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="8">
         <v>2050</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="8">
         <v>1975</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="8">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="P32">
-        <v>3000</v>
-      </c>
-      <c r="R32">
+      <c r="P32" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R32" s="8">
         <f t="shared" si="1"/>
         <v>6.4237536133614075</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="8">
         <f t="shared" si="2"/>
         <v>70250.400000000009</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="8">
         <f t="shared" si="3"/>
         <v>10195.16064</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="8">
         <f t="shared" si="4"/>
         <v>11404.83936</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="8">
         <f t="shared" si="5"/>
         <v>13.668780487804877</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="8">
         <f t="shared" si="6"/>
         <v>0.16234554337057153</v>
       </c>
-      <c r="X32" t="s">
+      <c r="X32" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="9">
         <v>298179</v>
       </c>
-      <c r="E33">
-        <v>0.2</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="E33" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F33" s="9">
         <v>1793</v>
       </c>
-      <c r="G33" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H33">
-        <v>3000</v>
-      </c>
-      <c r="I33">
+      <c r="G33" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H33" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I33" s="8">
         <v>514</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="8">
         <v>2050</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="8">
         <v>1800</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="8">
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="P33">
-        <v>3000</v>
-      </c>
-      <c r="R33">
+      <c r="P33" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R33" s="8">
         <f t="shared" si="1"/>
         <v>7.2439709033835378</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="8">
         <f t="shared" si="2"/>
         <v>62635.8</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="8">
         <f t="shared" si="3"/>
         <v>9040.7872800000005</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="8">
         <f t="shared" si="4"/>
         <v>12559.21272</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="8">
         <f t="shared" si="5"/>
         <v>12.12109756097561</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="8">
         <f t="shared" si="6"/>
         <v>0.20051173162951538</v>
       </c>
-      <c r="X33" t="s">
+      <c r="X33" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="9">
         <v>379298</v>
       </c>
-      <c r="E34">
-        <v>0.2</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="E34" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F34" s="9">
         <v>2250</v>
       </c>
-      <c r="G34" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H34">
-        <v>3000</v>
-      </c>
-      <c r="I34">
+      <c r="G34" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H34" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I34" s="8">
         <v>767</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="8">
         <v>2250</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="8">
         <v>2250</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="P34">
-        <v>3000</v>
-      </c>
-      <c r="R34">
+      <c r="P34" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R34" s="8">
         <f t="shared" si="1"/>
         <v>6.3274786579417768</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="8">
         <f t="shared" si="2"/>
         <v>78859.600000000006</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="8">
         <f t="shared" si="3"/>
         <v>11500.315360000002</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="8">
         <f t="shared" si="4"/>
         <v>12499.684639999998</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="8">
         <f t="shared" si="5"/>
         <v>14.048074074074075</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="8">
         <f t="shared" si="6"/>
         <v>0.15850555468199176</v>
       </c>
-      <c r="X34" t="s">
+      <c r="X34" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="9">
         <v>369900</v>
       </c>
-      <c r="E35">
-        <v>0.2</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="E35" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F35" s="9">
         <v>2094</v>
       </c>
-      <c r="G35" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H35">
-        <v>3000</v>
-      </c>
-      <c r="I35">
+      <c r="G35" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H35" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I35" s="8">
         <v>423</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="8">
         <v>2300</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="8">
         <v>1950</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="8">
         <f t="shared" ref="L35:L58" si="7">J35-F35</f>
         <v>206</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="P35">
-        <v>3000</v>
-      </c>
-      <c r="R35">
+      <c r="P35" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R35" s="8">
         <f t="shared" si="1"/>
         <v>6.6504460665044602</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="8">
         <f t="shared" si="2"/>
         <v>76980</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="8">
         <f t="shared" si="3"/>
         <v>11215.368</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="8">
         <f t="shared" si="4"/>
         <v>13384.632</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="8">
         <f t="shared" si="5"/>
         <v>13.402173913043478</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="8">
         <f t="shared" si="6"/>
         <v>0.17387155105222135</v>
       </c>
-      <c r="X35" t="s">
+      <c r="X35" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="D36" s="9">
         <v>320000</v>
       </c>
-      <c r="E36">
-        <v>0.2</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="E36" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F36" s="9">
         <v>1821</v>
       </c>
-      <c r="G36" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H36">
-        <v>3000</v>
-      </c>
-      <c r="I36">
+      <c r="G36" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H36" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I36" s="8">
         <v>533</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="8">
         <v>2100</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="8">
         <v>1900</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="8">
         <f t="shared" si="7"/>
         <v>279</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="P36">
-        <v>3000</v>
-      </c>
-      <c r="R36">
+      <c r="P36" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R36" s="8">
         <f t="shared" si="1"/>
         <v>6.9375</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="8">
         <f t="shared" si="2"/>
         <v>67000</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="8">
         <f t="shared" si="3"/>
         <v>9702.4000000000015</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="8">
         <f t="shared" si="4"/>
         <v>12497.599999999999</v>
       </c>
-      <c r="V36">
+      <c r="V36" s="8">
         <f t="shared" si="5"/>
         <v>12.698412698412698</v>
       </c>
-      <c r="W36">
+      <c r="W36" s="8">
         <f t="shared" si="6"/>
         <v>0.18653134328358206</v>
       </c>
-      <c r="X36" t="s">
-        <v>148</v>
+      <c r="X36" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D37" s="6">
         <v>250309</v>
@@ -3877,7 +3837,7 @@
         <v>3000</v>
       </c>
       <c r="I37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J37">
         <v>1850</v>
@@ -3890,7 +3850,7 @@
         <v>363</v>
       </c>
       <c r="N37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P37">
         <v>3000</v>
@@ -3920,15 +3880,15 @@
         <v>0.21881336705501883</v>
       </c>
       <c r="X37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>154</v>
-      </c>
-      <c r="B38" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D38" s="1">
         <v>363595</v>
@@ -3946,7 +3906,7 @@
         <v>3000</v>
       </c>
       <c r="I38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J38">
         <v>2300</v>
@@ -3986,203 +3946,203 @@
         <v>0.17929185013008622</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="9">
+        <v>224000</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1343</v>
+      </c>
+      <c r="G39" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H39" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B39" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="1">
-        <v>224000</v>
-      </c>
-      <c r="E39">
-        <v>0.2</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1343</v>
-      </c>
-      <c r="G39" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H39">
-        <v>3000</v>
-      </c>
-      <c r="I39" t="s">
-        <v>159</v>
-      </c>
-      <c r="J39">
+      <c r="J39" s="8">
         <v>2200</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="8">
         <v>1650</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="8">
         <f t="shared" si="7"/>
         <v>857</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P39">
-        <v>3000</v>
-      </c>
-      <c r="R39">
+      <c r="P39" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R39" s="8">
         <f t="shared" si="1"/>
         <v>10.446428571428571</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="8">
         <f t="shared" si="2"/>
         <v>47800</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="8">
         <f t="shared" si="3"/>
         <v>6791.68</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="8">
         <f t="shared" si="4"/>
         <v>16608.32</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="8">
         <f t="shared" si="5"/>
         <v>8.4848484848484844</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="8">
         <f t="shared" si="6"/>
         <v>0.34745439330543931</v>
       </c>
-      <c r="X39" t="s">
+      <c r="X39" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" s="13" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D40" s="14">
+      <c r="D40" s="12">
         <v>290000</v>
       </c>
-      <c r="E40" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H40" s="13">
-        <v>3000</v>
-      </c>
-      <c r="I40" s="13">
+      <c r="E40" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H40" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I40" s="11">
         <v>878</v>
       </c>
       <c r="L40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N40" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="P40" s="13">
-        <v>3000</v>
-      </c>
-      <c r="R40" s="13">
+      <c r="N40" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="P40" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R40" s="11">
         <f t="shared" si="1"/>
         <v>-1.0344827586206897</v>
       </c>
-      <c r="S40" s="13">
+      <c r="S40" s="11">
         <f t="shared" si="2"/>
         <v>61000</v>
       </c>
-      <c r="T40" s="13">
+      <c r="T40" s="11">
         <f t="shared" si="3"/>
         <v>8792.8000000000011</v>
       </c>
-      <c r="U40" s="13">
+      <c r="U40" s="11">
         <f t="shared" si="4"/>
         <v>-11792.800000000001</v>
       </c>
-      <c r="V40" s="13" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W40" s="13">
+      <c r="V40" s="11" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W40" s="11">
         <f t="shared" si="6"/>
         <v>-0.19332459016393444</v>
       </c>
-      <c r="X40" s="13" t="s">
+      <c r="X40" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" s="13" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D41" s="14">
+      <c r="D41" s="12">
         <v>326094</v>
       </c>
-      <c r="E41" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H41" s="13">
-        <v>3000</v>
-      </c>
-      <c r="I41" s="13">
+      <c r="E41" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H41" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I41" s="11">
         <v>745</v>
       </c>
       <c r="L41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N41" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="P41" s="13">
-        <v>3000</v>
-      </c>
-      <c r="R41" s="13">
+      <c r="N41" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P41" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R41" s="11">
         <f t="shared" si="1"/>
         <v>-0.91998012842922594</v>
       </c>
-      <c r="S41" s="13">
+      <c r="S41" s="11">
         <f t="shared" si="2"/>
         <v>68218.8</v>
       </c>
-      <c r="T41" s="13">
+      <c r="T41" s="11">
         <f t="shared" si="3"/>
         <v>9887.1700800000017</v>
       </c>
-      <c r="U41" s="13">
+      <c r="U41" s="11">
         <f t="shared" si="4"/>
         <v>-12887.170080000002</v>
       </c>
-      <c r="V41" s="13" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W41" s="13">
+      <c r="V41" s="11" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W41" s="11">
         <f t="shared" si="6"/>
         <v>-0.18890936340129116</v>
       </c>
-      <c r="X41" s="13" t="s">
-        <v>163</v>
+      <c r="X41" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D42" s="1">
         <v>287000</v>
@@ -4243,15 +4203,15 @@
         <v>0.24334701986754967</v>
       </c>
       <c r="X42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D43" s="1">
         <v>249990</v>
@@ -4312,15 +4272,15 @@
         <v>0.27586518736556093</v>
       </c>
       <c r="X43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D44" s="6">
         <v>337432</v>
@@ -4348,7 +4308,7 @@
         <v>94</v>
       </c>
       <c r="N44" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P44">
         <v>3000</v>
@@ -4378,15 +4338,15 @@
         <v>0.18683124347391836</v>
       </c>
       <c r="X44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D45" s="6">
         <v>329998</v>
@@ -4417,7 +4377,7 @@
         <v>321</v>
       </c>
       <c r="N45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P45">
         <v>3000</v>
@@ -4449,10 +4409,10 @@
     </row>
     <row r="46" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D46" s="6">
         <v>357068</v>
@@ -4477,7 +4437,7 @@
         <v>-2076</v>
       </c>
       <c r="N46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P46">
         <v>3000</v>
@@ -4507,15 +4467,15 @@
         <v>-0.1858034251803434</v>
       </c>
       <c r="X46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D47" s="6">
         <v>285681</v>
@@ -4546,7 +4506,7 @@
         <v>401</v>
       </c>
       <c r="N47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P47">
         <v>3000</v>
@@ -4576,15 +4536,15 @@
         <v>0.23510218603769442</v>
       </c>
       <c r="X47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D48" s="6">
         <v>384999</v>
@@ -4615,7 +4575,7 @@
         <v>82</v>
       </c>
       <c r="N48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P48">
         <v>3000</v>
@@ -4645,15 +4605,15 @@
         <v>0.16158578296445739</v>
       </c>
       <c r="X48" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D49" s="6">
         <v>329950</v>
@@ -4684,7 +4644,7 @@
         <v>322</v>
       </c>
       <c r="N49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P49">
         <v>3000</v>
@@ -4714,15 +4674,15 @@
         <v>0.19417185099289752</v>
       </c>
       <c r="X49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D50" s="6">
         <v>272789</v>
@@ -4750,7 +4710,7 @@
         <v>639</v>
       </c>
       <c r="N50" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P50">
         <v>3000</v>
@@ -4780,7 +4740,7 @@
         <v>0.27327377905340366</v>
       </c>
       <c r="X50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
@@ -6069,7 +6029,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" s="10" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -7509,8 +7469,28 @@
     <hyperlink ref="B15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="B14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="B33" r:id="rId8" xr:uid="{6AD50C20-CA1A-4708-97EB-A5388C20E5B0}"/>
+    <hyperlink ref="C7" r:id="rId9" location="schools" xr:uid="{B2DE8490-6762-428B-86E4-6F471CF5E3BB}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{ABE9E519-8CA4-484A-9A4F-63C5307D1314}"/>
+    <hyperlink ref="C10" r:id="rId11" xr:uid="{781DC502-89A8-4463-9926-B03B9812A4F8}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{D3BFD304-0922-4FA3-A160-2E8D70A51DED}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{820B49B8-2145-4A9F-9C66-487874662416}"/>
+    <hyperlink ref="B21" r:id="rId14" xr:uid="{0878632F-7EB5-4A37-9532-2F08EDC804D0}"/>
+    <hyperlink ref="B22" r:id="rId15" xr:uid="{802651A0-5C74-4C5D-9712-1C8545C05F6D}"/>
+    <hyperlink ref="B23" r:id="rId16" xr:uid="{573595E8-D2B3-41BD-B0B8-FDA30F2C980C}"/>
+    <hyperlink ref="B25" r:id="rId17" xr:uid="{59FD9705-F261-4339-B0B5-0E592FEA7D5D}"/>
+    <hyperlink ref="B26" r:id="rId18" xr:uid="{94E5394E-06C9-487D-B254-BB67FE79330C}"/>
+    <hyperlink ref="B28" r:id="rId19" xr:uid="{B87C018E-36A5-42A0-A8F0-50A0A836D82E}"/>
+    <hyperlink ref="B30" r:id="rId20" xr:uid="{04A55803-A1FB-408F-B487-4D7AA5BF41A6}"/>
+    <hyperlink ref="B31" r:id="rId21" xr:uid="{27DCDCA6-735D-43C4-88D0-0596B28E93BC}"/>
+    <hyperlink ref="B32" r:id="rId22" xr:uid="{0113A066-BA1C-4F5F-A149-DCD6358FBFBB}"/>
+    <hyperlink ref="B34" r:id="rId23" xr:uid="{E4F2DE9B-7BBA-4E92-8AE7-78FF2853D92F}"/>
+    <hyperlink ref="B35" r:id="rId24" xr:uid="{C84DB696-DC1A-4F68-B13E-83D8F2A7CDB3}"/>
+    <hyperlink ref="B36" r:id="rId25" xr:uid="{B1C3D20D-B77D-4C32-B5AB-7CCE3B915D79}"/>
+    <hyperlink ref="B37" r:id="rId26" xr:uid="{A185F88C-F927-4F7F-BAA6-A0D6AAEB3038}"/>
+    <hyperlink ref="B38" r:id="rId27" xr:uid="{B14432D6-C2D4-48A1-A01E-FF52087D17F0}"/>
+    <hyperlink ref="B39" r:id="rId28" xr:uid="{50E4C392-1BEA-4D9A-8F59-BEA5F4620B29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/austin (Autosaved).xlsx
+++ b/austin (Autosaved).xlsx
@@ -1459,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4137,272 +4137,272 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:24" s="8" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="9">
         <v>287000</v>
       </c>
-      <c r="E42">
-        <v>0.2</v>
-      </c>
-      <c r="F42" s="1">
+      <c r="E42" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F42" s="9">
         <v>1671</v>
       </c>
-      <c r="G42" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H42">
-        <v>3000</v>
-      </c>
-      <c r="I42">
+      <c r="G42" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H42" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I42" s="8">
         <v>445</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="8">
         <v>2200</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="8">
         <v>1850</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="8">
         <f t="shared" si="7"/>
         <v>529</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="P42">
-        <v>3000</v>
-      </c>
-      <c r="R42">
+      <c r="P42" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R42" s="8">
         <f t="shared" si="1"/>
         <v>8.1533101045296164</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="8">
         <f t="shared" si="2"/>
         <v>60400</v>
       </c>
-      <c r="T42">
+      <c r="T42" s="8">
         <f t="shared" si="3"/>
         <v>8701.84</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="8">
         <f t="shared" si="4"/>
         <v>14698.16</v>
       </c>
-      <c r="V42">
+      <c r="V42" s="8">
         <f t="shared" si="5"/>
         <v>10.871212121212121</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="8">
         <f t="shared" si="6"/>
         <v>0.24334701986754967</v>
       </c>
-      <c r="X42" t="s">
+      <c r="X42" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="9">
         <v>249990</v>
       </c>
-      <c r="E43">
-        <v>0.2</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="E43" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F43" s="9">
         <v>1479</v>
       </c>
-      <c r="G43" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H43">
-        <v>3000</v>
-      </c>
-      <c r="I43">
+      <c r="G43" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H43" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I43" s="8">
         <v>445</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="8">
         <v>2100</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="8">
         <v>1650</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="8">
         <f t="shared" si="7"/>
         <v>621</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="P43">
-        <v>3000</v>
-      </c>
-      <c r="R43">
+      <c r="P43" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R43" s="8">
         <f t="shared" si="1"/>
         <v>8.8803552142085689</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="8">
         <f t="shared" si="2"/>
         <v>52998</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="8">
         <f t="shared" si="3"/>
         <v>7579.6968000000006</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="8">
         <f t="shared" si="4"/>
         <v>14620.303199999998</v>
       </c>
-      <c r="V43">
+      <c r="V43" s="8">
         <f t="shared" si="5"/>
         <v>9.920238095238096</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="8">
         <f t="shared" si="6"/>
         <v>0.27586518736556093</v>
       </c>
-      <c r="X43" t="s">
+      <c r="X43" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="9">
         <v>337432</v>
       </c>
-      <c r="E44">
-        <v>0.2</v>
-      </c>
-      <c r="F44" s="1">
+      <c r="E44" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F44" s="9">
         <v>2106</v>
       </c>
-      <c r="G44" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H44">
-        <v>3000</v>
-      </c>
-      <c r="I44">
+      <c r="G44" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H44" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I44" s="8">
         <v>777</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="8">
         <v>2200</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="8">
         <f t="shared" si="7"/>
         <v>94</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="P44">
-        <v>3000</v>
-      </c>
-      <c r="R44">
+      <c r="P44" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R44" s="8">
         <f t="shared" si="1"/>
         <v>6.9347305531188503</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="8">
         <f t="shared" si="2"/>
         <v>70486.400000000009</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="8">
         <f t="shared" si="3"/>
         <v>10230.938239999999</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="8">
         <f t="shared" si="4"/>
         <v>13169.061760000001</v>
       </c>
-      <c r="V44">
+      <c r="V44" s="8">
         <f t="shared" si="5"/>
         <v>12.781515151515151</v>
       </c>
-      <c r="W44">
+      <c r="W44" s="8">
         <f t="shared" si="6"/>
         <v>0.18683124347391836</v>
       </c>
-      <c r="X44" t="s">
+      <c r="X44" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="9">
         <v>329998</v>
       </c>
-      <c r="E45">
-        <v>0.2</v>
-      </c>
-      <c r="F45" s="1">
+      <c r="E45" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F45" s="9">
         <v>1879</v>
       </c>
-      <c r="G45" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H45">
-        <v>3000</v>
-      </c>
-      <c r="I45">
+      <c r="G45" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H45" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I45" s="8">
         <v>668</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="8">
         <v>2200</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="8">
         <v>1895</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="8">
         <f t="shared" si="7"/>
         <v>321</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="P45">
-        <v>3000</v>
-      </c>
-      <c r="R45">
+      <c r="P45" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R45" s="8">
         <f t="shared" si="1"/>
         <v>7.0909520663761603</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="8">
         <f t="shared" si="2"/>
         <v>68999.600000000006</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="8">
         <f t="shared" si="3"/>
         <v>10005.539360000002</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="8">
         <f t="shared" si="4"/>
         <v>13394.460639999998</v>
       </c>
-      <c r="V45">
+      <c r="V45" s="8">
         <f t="shared" si="5"/>
         <v>12.499924242424242</v>
       </c>
-      <c r="W45">
+      <c r="W45" s="8">
         <f t="shared" si="6"/>
         <v>0.1941237433260482</v>
       </c>
@@ -4474,7 +4474,7 @@
       <c r="A47" t="s">
         <v>183</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D47" s="6">
@@ -4539,207 +4539,207 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="9">
         <v>384999</v>
       </c>
-      <c r="E48">
-        <v>0.2</v>
-      </c>
-      <c r="F48" s="1">
+      <c r="E48" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F48" s="9">
         <v>2218</v>
       </c>
-      <c r="G48" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H48">
-        <v>3000</v>
-      </c>
-      <c r="I48">
+      <c r="G48" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H48" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I48" s="8">
         <v>745</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="8">
         <v>2300</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="8">
         <v>1950</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="8">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N48" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="P48">
-        <v>3000</v>
-      </c>
-      <c r="R48">
+      <c r="P48" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R48" s="8">
         <f t="shared" si="1"/>
         <v>6.3896269860441199</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="8">
         <f t="shared" si="2"/>
         <v>79999.8</v>
       </c>
-      <c r="T48">
+      <c r="T48" s="8">
         <f t="shared" si="3"/>
         <v>11673.169680000001</v>
       </c>
-      <c r="U48">
+      <c r="U48" s="8">
         <f t="shared" si="4"/>
         <v>12926.830319999999</v>
       </c>
-      <c r="V48">
+      <c r="V48" s="8">
         <f t="shared" si="5"/>
         <v>13.949239130434783</v>
       </c>
-      <c r="W48">
+      <c r="W48" s="8">
         <f t="shared" si="6"/>
         <v>0.16158578296445739</v>
       </c>
-      <c r="X48" t="s">
+      <c r="X48" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:26" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="9">
         <v>329950</v>
       </c>
-      <c r="E49">
-        <v>0.2</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="E49" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F49" s="9">
         <v>1878</v>
       </c>
-      <c r="G49" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H49">
-        <v>3000</v>
-      </c>
-      <c r="I49">
+      <c r="G49" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H49" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I49" s="8">
         <v>745</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="8">
         <v>2200</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="8">
         <v>2000</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="8">
         <f t="shared" si="7"/>
         <v>322</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N49" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="P49">
-        <v>3000</v>
-      </c>
-      <c r="R49">
+      <c r="P49" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R49" s="8">
         <f t="shared" si="1"/>
         <v>7.0919836338839222</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="8">
         <f t="shared" si="2"/>
         <v>68990</v>
       </c>
-      <c r="T49">
+      <c r="T49" s="8">
         <f t="shared" si="3"/>
         <v>10004.084000000001</v>
       </c>
-      <c r="U49">
+      <c r="U49" s="8">
         <f t="shared" si="4"/>
         <v>13395.915999999999</v>
       </c>
-      <c r="V49">
+      <c r="V49" s="8">
         <f t="shared" si="5"/>
         <v>12.498106060606061</v>
       </c>
-      <c r="W49">
+      <c r="W49" s="8">
         <f t="shared" si="6"/>
         <v>0.19417185099289752</v>
       </c>
-      <c r="X49" t="s">
+      <c r="X49" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:26" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="9">
         <v>272789</v>
       </c>
-      <c r="E50">
-        <v>0.2</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="E50" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F50" s="9">
         <v>1611</v>
       </c>
-      <c r="G50" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H50">
-        <v>3000</v>
-      </c>
-      <c r="I50">
+      <c r="G50" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H50" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I50" s="8">
         <v>777</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="8">
         <v>2250</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="8">
         <f t="shared" si="7"/>
         <v>639</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N50" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="P50">
-        <v>3000</v>
-      </c>
-      <c r="R50">
+      <c r="P50" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R50" s="8">
         <f t="shared" si="1"/>
         <v>8.7980087173603039</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="8">
         <f t="shared" si="2"/>
         <v>57557.8</v>
       </c>
-      <c r="T50">
+      <c r="T50" s="8">
         <f t="shared" si="3"/>
         <v>8270.962480000002</v>
       </c>
-      <c r="U50">
+      <c r="U50" s="8">
         <f t="shared" si="4"/>
         <v>15729.037519999998</v>
       </c>
-      <c r="V50">
+      <c r="V50" s="8">
         <f t="shared" si="5"/>
         <v>10.103296296296296</v>
       </c>
-      <c r="W50">
+      <c r="W50" s="8">
         <f t="shared" si="6"/>
         <v>0.27327377905340366</v>
       </c>
-      <c r="X50" t="s">
+      <c r="X50" s="8" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7489,8 +7489,16 @@
     <hyperlink ref="B37" r:id="rId26" xr:uid="{A185F88C-F927-4F7F-BAA6-A0D6AAEB3038}"/>
     <hyperlink ref="B38" r:id="rId27" xr:uid="{B14432D6-C2D4-48A1-A01E-FF52087D17F0}"/>
     <hyperlink ref="B39" r:id="rId28" xr:uid="{50E4C392-1BEA-4D9A-8F59-BEA5F4620B29}"/>
+    <hyperlink ref="B42" r:id="rId29" xr:uid="{06261C52-0A6B-4764-A9A5-E2CA9162825E}"/>
+    <hyperlink ref="B43" r:id="rId30" xr:uid="{4F04CD1B-58CC-4442-8C34-9505CC617BD3}"/>
+    <hyperlink ref="B44" r:id="rId31" xr:uid="{C7D86C84-8A85-468D-8262-95E1955B7D7B}"/>
+    <hyperlink ref="B45" r:id="rId32" xr:uid="{FA700C57-E672-452E-8752-B07749F8FD00}"/>
+    <hyperlink ref="B47" r:id="rId33" xr:uid="{6A143581-1940-4307-BCB2-6B6881711305}"/>
+    <hyperlink ref="B48" r:id="rId34" xr:uid="{CBC8F348-1D2D-4141-9506-3BC94CB3C42E}"/>
+    <hyperlink ref="B49" r:id="rId35" xr:uid="{99BE475B-B4C9-44E9-9982-6E31366B81AD}"/>
+    <hyperlink ref="B50" r:id="rId36" xr:uid="{ACAA3C3A-AD19-4287-BC78-D87D6D311858}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/austin (Autosaved).xlsx
+++ b/austin (Autosaved).xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\property\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufengzhu/Documents/property/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="246">
   <si>
     <t>地址</t>
   </si>
@@ -638,11 +638,152 @@
   <si>
     <t>67年，4b2.5b里面还算新，university hill貌似租金也高</t>
   </si>
+  <si>
+    <t>9114 Magna Carta LoopAustin, TX 78754</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Austin/9114-Magna-Carta-Loop-78754/unit-10/home/30993652</t>
+  </si>
+  <si>
+    <t>condo,hoa才50，房间还不错</t>
+  </si>
+  <si>
+    <t>2024 Langdale LnAustin, TX 78754</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Austin/2024-Langdale-Ln-78754/home/144005116</t>
+  </si>
+  <si>
+    <t>新房，hoa才45，房型还不许哦</t>
+  </si>
+  <si>
+    <t>825 Sweet Leaf LnPflugerville, TX 78660</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Pflugerville/825-Sweet-Leaf-Ln-78660/home/31020771</t>
+  </si>
+  <si>
+    <t>2007年，房型还不错</t>
+  </si>
+  <si>
+    <t>1109 Blue Fox DrAustin, TX 78753</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Austin/1109-Blue-Fox-Dr-78753/home/31543950</t>
+  </si>
+  <si>
+    <t>800 Sweet Leaf LnPflugerville, TX 78660</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Pflugerville/800-Sweet-Leaf-Ln-78660/home/31022865</t>
+  </si>
+  <si>
+    <t>08年，4b2b</t>
+  </si>
+  <si>
+    <t>1405 Gorham StAustin, TX 78758</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Austin/1405-Gorham-St-78758/home/31156944#redfin-estimate</t>
+  </si>
+  <si>
+    <t>地税很贵，房子不错</t>
+  </si>
+  <si>
+    <t>13000 Dionysus DrAustin, TX 78753</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Austin/13000-Dionysus-Dr-78753/home/31543553</t>
+  </si>
+  <si>
+    <t>好像有第五间房，主卧大但厕所一般</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>7135 Fair Oaks Ave Unit 16bDallas, TX 75231</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Dallas/7135-Fair-Oaks-Ave-75231/unit-16b/home/143844221</t>
+  </si>
+  <si>
+    <t>ridchardson南，还不错</t>
+  </si>
+  <si>
+    <t>6019 Ridgecrest Rd #207Dallas, TX 75231</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Dallas/6019-Ridgecrest-Rd-75231/unit-207/home/109418219#redfin-estimate</t>
+  </si>
+  <si>
+    <t>8109 Skillman St #3026Dallas, TX 75231</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Dallas/8109-Skillman-St-75231/unit-3026/home/31126782#schools</t>
+  </si>
+  <si>
+    <t>ridchardson东南</t>
+  </si>
+  <si>
+    <t>3b2bcondo</t>
+  </si>
+  <si>
+    <t>9520 Royal Ln Unit 215CDallas, TX 75243</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Dallas/9520-Royal-Ln-75243/unit-215C/home/108473508#redfin-estimate</t>
+  </si>
+  <si>
+    <t>7107 Holly Hill Dr #209Dallas, TX 75231</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Dallas/7107-Holly-Hill-Dr-75231/unit-209/home/30858634</t>
+  </si>
+  <si>
+    <t>hoa小贵，2b1b</t>
+  </si>
+  <si>
+    <t>12816 Midway Rd #1057Dallas, TX 75244</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Dallas/12816-Midway-Rd-75244/unit-1057/home/144804904</t>
+  </si>
+  <si>
+    <t>ridchardson西，高速边</t>
+  </si>
+  <si>
+    <t>hoa贵，房间比较小，2b2b</t>
+  </si>
+  <si>
+    <t>condo有一个车库 2b2.5b</t>
+  </si>
+  <si>
+    <t>apt 2b2b</t>
+  </si>
+  <si>
+    <t>4717 Joppa CirDallas, TX 75216</t>
+  </si>
+  <si>
+    <t>2b2b</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Dallas/4717-Joppa-Cir-75216/home/144827048#redfin-estimate</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>dallas南</t>
+  </si>
+  <si>
+    <t>新房3b2b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -766,7 +907,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="197">
+  <cellStyleXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -952,6 +1093,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -982,7 +1138,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="184" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="182" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="197">
+  <cellStyles count="212">
     <cellStyle name="Bad" xfId="183" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="184" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1177,6 +1333,21 @@
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="182" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1456,39 +1627,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O76" sqref="O76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.296875" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="5" max="5" width="4.69921875" customWidth="1"/>
-    <col min="6" max="6" width="7.796875" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
-    <col min="10" max="10" width="8.796875" customWidth="1"/>
-    <col min="11" max="11" width="9.19921875" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="7.69921875" customWidth="1"/>
-    <col min="14" max="14" width="15.296875" customWidth="1"/>
-    <col min="15" max="15" width="9.19921875" customWidth="1"/>
-    <col min="16" max="16" width="8.19921875" customWidth="1"/>
-    <col min="17" max="17" width="2.69921875" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="8.1640625" customWidth="1"/>
+    <col min="17" max="17" width="2.6640625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.69921875" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
     <col min="20" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="12.69921875" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" customWidth="1"/>
     <col min="24" max="24" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1559,7 +1730,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E2">
         <v>0.2</v>
       </c>
@@ -1570,38 +1741,38 @@
         <v>3000</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L65" si="0">J2-F2</f>
+        <f t="shared" ref="L2:L84" si="0">J2-F2</f>
         <v>0</v>
       </c>
       <c r="P2">
         <v>3000</v>
       </c>
       <c r="R2" t="e">
-        <f t="shared" ref="R2:R98" si="1">100*(12*J2-P2)/D2</f>
+        <f t="shared" ref="R2:R117" si="1">100*(12*J2-P2)/D2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S98" si="2">D2*E2+H2</f>
+        <f t="shared" ref="S2:S117" si="2">D2*E2+H2</f>
         <v>3000</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T98" si="3">G2*(D2-D2*E2)</f>
+        <f t="shared" ref="T2:T117" si="3">G2*(D2-D2*E2)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U98" si="4">12*J2-P2-T2</f>
+        <f t="shared" ref="U2:U117" si="4">12*J2-P2-T2</f>
         <v>-3000</v>
       </c>
       <c r="V2" t="e">
-        <f t="shared" ref="V2:V98" si="5">D2/(12*J2)</f>
+        <f t="shared" ref="V2:V117" si="5">D2/(12*J2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W65" si="6">U2/S2</f>
+        <f t="shared" ref="W2:W84" si="6">U2/S2</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -1658,7 +1829,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E4">
         <v>0.2</v>
       </c>
@@ -1700,7 +1871,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -1757,7 +1928,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" s="7" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1816,7 +1987,7 @@
       <c r="Y6"/>
       <c r="Z6"/>
     </row>
-    <row r="7" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>40</v>
       </c>
@@ -1885,7 +2056,7 @@
         <v>0.31985046727281763</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>44</v>
       </c>
@@ -1954,7 +2125,7 @@
         <v>0.25001176470588232</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
@@ -2023,7 +2194,7 @@
         <v>0.24599213759213759</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>52</v>
       </c>
@@ -2092,7 +2263,7 @@
         <v>0.22062267043162564</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="16.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>0.2</v>
       </c>
@@ -2134,7 +2305,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -2203,7 +2374,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -2272,7 +2443,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -2338,7 +2509,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -2404,7 +2575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -2470,7 +2641,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -2536,7 +2707,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -2602,7 +2773,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>85</v>
       </c>
@@ -2668,7 +2839,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>87</v>
       </c>
@@ -2734,7 +2905,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>91</v>
       </c>
@@ -2803,7 +2974,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>94</v>
       </c>
@@ -2866,7 +3037,7 @@
         <v>0.23990813158692209</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>98</v>
       </c>
@@ -2932,7 +3103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>102</v>
       </c>
@@ -3001,7 +3172,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -3067,7 +3238,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -3133,7 +3304,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>113</v>
       </c>
@@ -3199,7 +3370,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="8" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" s="8" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>117</v>
       </c>
@@ -3268,7 +3439,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
@@ -3334,7 +3505,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>125</v>
       </c>
@@ -3400,7 +3571,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>128</v>
       </c>
@@ -3469,7 +3640,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>132</v>
       </c>
@@ -3538,7 +3709,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>135</v>
       </c>
@@ -3607,7 +3778,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>138</v>
       </c>
@@ -3676,7 +3847,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>142</v>
       </c>
@@ -3708,7 +3879,7 @@
         <v>1950</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" ref="L35:L58" si="7">J35-F35</f>
+        <f t="shared" ref="L35:L78" si="7">J35-F35</f>
         <v>206</v>
       </c>
       <c r="N35" s="8" t="s">
@@ -3745,7 +3916,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>146</v>
       </c>
@@ -3814,7 +3985,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -3883,7 +4054,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -3946,7 +4117,7 @@
         <v>0.17929185013008622</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>155</v>
       </c>
@@ -4015,7 +4186,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>159</v>
       </c>
@@ -4076,7 +4247,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>162</v>
       </c>
@@ -4137,7 +4308,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="8" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" s="8" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>166</v>
       </c>
@@ -4206,7 +4377,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>169</v>
       </c>
@@ -4275,7 +4446,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>172</v>
       </c>
@@ -4341,73 +4512,73 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="12">
         <v>329998</v>
       </c>
-      <c r="E45" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F45" s="9">
+      <c r="E45" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F45" s="12">
         <v>1879</v>
       </c>
-      <c r="G45" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H45" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I45" s="8">
+      <c r="G45" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H45" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I45" s="11">
         <v>668</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="11">
         <v>2200</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="11">
         <v>1895</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L45" s="11">
         <f t="shared" si="7"/>
         <v>321</v>
       </c>
-      <c r="N45" s="8" t="s">
+      <c r="N45" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="P45" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R45" s="8">
+      <c r="P45" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R45" s="11">
         <f t="shared" si="1"/>
         <v>7.0909520663761603</v>
       </c>
-      <c r="S45" s="8">
+      <c r="S45" s="11">
         <f t="shared" si="2"/>
         <v>68999.600000000006</v>
       </c>
-      <c r="T45" s="8">
+      <c r="T45" s="11">
         <f t="shared" si="3"/>
         <v>10005.539360000002</v>
       </c>
-      <c r="U45" s="8">
+      <c r="U45" s="11">
         <f t="shared" si="4"/>
         <v>13394.460639999998</v>
       </c>
-      <c r="V45" s="8">
+      <c r="V45" s="11">
         <f t="shared" si="5"/>
         <v>12.499924242424242</v>
       </c>
-      <c r="W45" s="8">
+      <c r="W45" s="11">
         <f t="shared" si="6"/>
         <v>0.1941237433260482</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>180</v>
       </c>
@@ -4470,7 +4641,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>183</v>
       </c>
@@ -4539,7 +4710,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>188</v>
       </c>
@@ -4608,7 +4779,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>190</v>
       </c>
@@ -4677,7 +4848,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>195</v>
       </c>
@@ -4743,320 +4914,470 @@
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D51" s="6"/>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51">
+        <v>219900</v>
+      </c>
       <c r="E51">
         <v>0.2</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="3">
+      <c r="F51">
+        <v>1458</v>
+      </c>
+      <c r="G51">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H51">
         <v>3000</v>
+      </c>
+      <c r="I51">
+        <v>434</v>
+      </c>
+      <c r="J51">
+        <v>1650</v>
       </c>
       <c r="L51">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="N51" t="s">
+        <v>74</v>
       </c>
       <c r="P51">
         <v>3000</v>
       </c>
-      <c r="R51" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>7.6398362892223739</v>
       </c>
       <c r="S51">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>46980</v>
       </c>
       <c r="T51">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6667.3680000000004</v>
       </c>
       <c r="U51">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V51" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>10132.632</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="5"/>
+        <v>11.106060606060606</v>
       </c>
       <c r="W51">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D52" s="6"/>
+        <v>0.21567969348659002</v>
+      </c>
+      <c r="X51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52">
+        <v>215990</v>
+      </c>
       <c r="E52">
         <v>0.2</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="3">
+      <c r="F52">
+        <v>1327</v>
+      </c>
+      <c r="G52">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H52">
         <v>3000</v>
+      </c>
+      <c r="I52">
+        <v>534</v>
+      </c>
+      <c r="J52">
+        <v>1650</v>
       </c>
       <c r="L52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>323</v>
+      </c>
+      <c r="N52" t="s">
+        <v>74</v>
       </c>
       <c r="P52">
         <v>3000</v>
       </c>
-      <c r="R52" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>7.7781378767535534</v>
       </c>
       <c r="S52">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>46198</v>
       </c>
       <c r="T52">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6548.8168000000005</v>
       </c>
       <c r="U52">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V52" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>10251.183199999999</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="5"/>
+        <v>10.908585858585859</v>
       </c>
       <c r="W52">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D53" s="6"/>
+        <v>0.22189668816831895</v>
+      </c>
+      <c r="X52" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="1">
+        <v>234900</v>
+      </c>
       <c r="E53">
         <v>0.2</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="3">
+      <c r="F53">
+        <v>1608</v>
+      </c>
+      <c r="G53">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H53">
         <v>3000</v>
+      </c>
+      <c r="I53">
+        <v>645</v>
+      </c>
+      <c r="J53">
+        <v>1650</v>
       </c>
       <c r="L53">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="N53" t="s">
+        <v>194</v>
       </c>
       <c r="P53">
         <v>3000</v>
       </c>
-      <c r="R53" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>7.1519795657726695</v>
       </c>
       <c r="S53">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>49980</v>
       </c>
       <c r="T53">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7122.1680000000006</v>
       </c>
       <c r="U53">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V53" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9677.8319999999985</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="5"/>
+        <v>11.863636363636363</v>
       </c>
       <c r="W53">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D54" s="6"/>
+        <v>0.19363409363745496</v>
+      </c>
+      <c r="X53" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" s="1">
+        <v>243900</v>
+      </c>
       <c r="E54">
         <v>0.2</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="3">
+      <c r="F54">
+        <v>1630</v>
+      </c>
+      <c r="G54">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H54">
         <v>3000</v>
+      </c>
+      <c r="I54">
+        <v>445</v>
+      </c>
+      <c r="J54">
+        <v>1700</v>
       </c>
       <c r="L54">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N54" t="s">
+        <v>74</v>
       </c>
       <c r="P54">
         <v>3000</v>
       </c>
-      <c r="R54" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>7.1340713407134073</v>
       </c>
       <c r="S54">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>51780</v>
       </c>
       <c r="T54">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7395.0480000000007</v>
       </c>
       <c r="U54">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V54" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>10004.951999999999</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="5"/>
+        <v>11.955882352941176</v>
       </c>
       <c r="W54">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D55" s="6"/>
+        <v>0.19322039397450752</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" s="1">
+        <v>229750</v>
+      </c>
       <c r="E55">
         <v>0.2</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="3">
+      <c r="F55">
+        <v>1607</v>
+      </c>
+      <c r="G55">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H55">
         <v>3000</v>
+      </c>
+      <c r="I55">
+        <v>645</v>
+      </c>
+      <c r="J55">
+        <v>1850</v>
       </c>
       <c r="L55">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>243</v>
+      </c>
+      <c r="N55" t="s">
+        <v>194</v>
       </c>
       <c r="P55">
         <v>3000</v>
       </c>
-      <c r="R55" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>8.3569096844396089</v>
       </c>
       <c r="S55">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>48950</v>
       </c>
       <c r="T55">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6966.02</v>
       </c>
       <c r="U55">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V55" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>12233.98</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="5"/>
+        <v>10.349099099099099</v>
       </c>
       <c r="W55">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D56" s="6"/>
+        <v>0.24992808988764045</v>
+      </c>
+      <c r="X55" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="1">
+        <v>379000</v>
+      </c>
       <c r="E56">
         <v>0.2</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="3">
+      <c r="F56">
+        <v>2792</v>
+      </c>
+      <c r="G56">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H56">
         <v>3000</v>
+      </c>
+      <c r="I56">
+        <v>545</v>
+      </c>
+      <c r="J56">
+        <v>2200</v>
       </c>
       <c r="L56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-592</v>
+      </c>
+      <c r="N56" t="s">
+        <v>123</v>
       </c>
       <c r="P56">
         <v>3000</v>
       </c>
-      <c r="R56" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>6.1741424802110814</v>
       </c>
       <c r="S56">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>78800</v>
       </c>
       <c r="T56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11491.28</v>
       </c>
       <c r="U56">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V56" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>11908.72</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="5"/>
+        <v>14.356060606060606</v>
       </c>
       <c r="W56">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D57" s="6"/>
+        <v>0.15112588832487309</v>
+      </c>
+      <c r="X56" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" s="1">
+        <v>264000</v>
+      </c>
       <c r="E57">
         <v>0.2</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="3">
+      <c r="F57">
+        <v>1769</v>
+      </c>
+      <c r="G57">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H57">
         <v>3000</v>
+      </c>
+      <c r="I57">
+        <v>445</v>
+      </c>
+      <c r="J57">
+        <v>2200</v>
       </c>
       <c r="L57">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>431</v>
+      </c>
+      <c r="N57" t="s">
+        <v>74</v>
       </c>
       <c r="P57">
         <v>3000</v>
       </c>
-      <c r="R57" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R57">
+        <f t="shared" si="1"/>
+        <v>8.8636363636363633</v>
       </c>
       <c r="S57">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>55800</v>
       </c>
       <c r="T57">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8004.4800000000005</v>
       </c>
       <c r="U57">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V57" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>15395.52</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="W57">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.27590537634408602</v>
+      </c>
+      <c r="X57" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E58">
         <v>0.2</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="3">
+      <c r="G58">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H58">
@@ -5094,19 +5415,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E59">
         <v>0.2</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="3">
+      <c r="G59">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H59">
         <v>3000</v>
       </c>
       <c r="L59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P59">
@@ -5137,20 +5457,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E60">
         <v>0.2</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="3">
+      <c r="G60">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H60">
         <v>3000</v>
       </c>
       <c r="L60">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>3000</v>
       </c>
       <c r="R60" t="e">
         <f t="shared" si="1"/>
@@ -5166,7 +5488,7 @@
       </c>
       <c r="U60">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="V60" t="e">
         <f t="shared" si="5"/>
@@ -5174,40 +5496,26 @@
       </c>
       <c r="W60">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E61">
         <v>0.2</v>
       </c>
-      <c r="F61"/>
-      <c r="G61" s="3">
+      <c r="G61">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H61">
         <v>3000</v>
       </c>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
       <c r="L61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P61">
         <v>3000</v>
       </c>
-      <c r="Q61"/>
       <c r="R61" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -5232,988 +5540,907 @@
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="X61"/>
-      <c r="Y61"/>
-      <c r="Z61"/>
-    </row>
-    <row r="62" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="9">
-        <v>380000</v>
-      </c>
-      <c r="E62" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F62" s="8">
-        <v>2201</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H62" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" s="8">
-        <v>2250</v>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>0.2</v>
+      </c>
+      <c r="G62">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H62">
+        <v>3000</v>
       </c>
       <c r="L62">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="N62" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P62" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R62" s="8">
-        <f t="shared" si="1"/>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="S62" s="8">
-        <f t="shared" si="2"/>
-        <v>79000</v>
-      </c>
-      <c r="T62" s="8">
-        <f t="shared" si="3"/>
-        <v>11521.6</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>3000</v>
+      </c>
+      <c r="R62" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="U62">
         <f t="shared" si="4"/>
-        <v>12478.4</v>
-      </c>
-      <c r="V62">
-        <f t="shared" si="5"/>
-        <v>14.074074074074074</v>
+        <v>-3000</v>
+      </c>
+      <c r="V62" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="W62">
         <f t="shared" si="6"/>
-        <v>0.15795443037974682</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="1">
-        <v>550000</v>
-      </c>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E63">
         <v>0.2</v>
       </c>
-      <c r="F63">
-        <v>3300</v>
-      </c>
-      <c r="G63" s="3">
+      <c r="G63">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H63">
         <v>3000</v>
       </c>
-      <c r="I63">
-        <v>897</v>
-      </c>
-      <c r="J63">
-        <v>2750</v>
-      </c>
       <c r="L63">
-        <f t="shared" si="0"/>
-        <v>-550</v>
-      </c>
-      <c r="N63" t="s">
-        <v>22</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P63">
         <v>3000</v>
       </c>
-      <c r="R63">
-        <f t="shared" si="1"/>
-        <v>5.4545454545454541</v>
+      <c r="R63" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="S63">
         <f t="shared" si="2"/>
-        <v>113000</v>
+        <v>3000</v>
       </c>
       <c r="T63">
         <f t="shared" si="3"/>
-        <v>16676</v>
+        <v>0</v>
       </c>
       <c r="U63">
         <f t="shared" si="4"/>
-        <v>13324</v>
-      </c>
-      <c r="V63">
-        <f t="shared" si="5"/>
-        <v>16.666666666666668</v>
+        <v>-3000</v>
+      </c>
+      <c r="V63" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="W63">
         <f t="shared" si="6"/>
-        <v>0.11791150442477875</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64"/>
-      <c r="C64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" s="1">
-        <v>509000</v>
-      </c>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E64">
         <v>0.2</v>
       </c>
-      <c r="F64" s="1">
-        <v>3186</v>
-      </c>
-      <c r="G64" s="3">
+      <c r="G64">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H64">
         <v>3000</v>
       </c>
-      <c r="I64" t="s">
-        <v>28</v>
-      </c>
-      <c r="J64">
-        <v>2850</v>
-      </c>
-      <c r="K64"/>
       <c r="L64">
-        <f t="shared" si="0"/>
-        <v>-336</v>
-      </c>
-      <c r="M64"/>
-      <c r="N64" s="1">
-        <v>3186</v>
-      </c>
-      <c r="O64" s="1"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P64">
         <v>3000</v>
       </c>
-      <c r="Q64"/>
-      <c r="R64">
-        <f t="shared" si="1"/>
-        <v>6.129666011787819</v>
+      <c r="R64" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="S64">
         <f t="shared" si="2"/>
-        <v>104800</v>
+        <v>3000</v>
       </c>
       <c r="T64">
         <f t="shared" si="3"/>
-        <v>15432.880000000001</v>
+        <v>0</v>
       </c>
       <c r="U64">
         <f t="shared" si="4"/>
-        <v>15767.119999999999</v>
-      </c>
-      <c r="V64">
-        <f t="shared" si="5"/>
-        <v>14.883040935672515</v>
+        <v>-3000</v>
+      </c>
+      <c r="V64" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="W64">
         <f t="shared" si="6"/>
-        <v>0.15044961832061068</v>
-      </c>
-      <c r="X64"/>
-      <c r="Y64"/>
-      <c r="Z64"/>
-    </row>
-    <row r="65" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>30</v>
-      </c>
-      <c r="B65"/>
-      <c r="C65" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="1">
-        <v>431775</v>
+        <v>219</v>
       </c>
       <c r="E65">
         <v>0.2</v>
       </c>
-      <c r="F65" s="1">
-        <v>2817</v>
-      </c>
-      <c r="G65" s="3">
+      <c r="G65">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H65">
         <v>3000</v>
       </c>
-      <c r="I65" t="s">
-        <v>31</v>
-      </c>
-      <c r="J65">
-        <v>2200</v>
-      </c>
-      <c r="K65"/>
       <c r="L65">
-        <f t="shared" si="0"/>
-        <v>-617</v>
-      </c>
-      <c r="M65"/>
-      <c r="N65" t="s">
-        <v>32</v>
-      </c>
-      <c r="O65"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P65">
         <v>3000</v>
       </c>
-      <c r="Q65"/>
-      <c r="R65">
-        <f t="shared" si="1"/>
-        <v>5.419489317352788</v>
+      <c r="R65" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="S65">
         <f t="shared" si="2"/>
-        <v>89355</v>
+        <v>3000</v>
       </c>
       <c r="T65">
         <f t="shared" si="3"/>
-        <v>13091.418000000001</v>
+        <v>0</v>
       </c>
       <c r="U65">
         <f t="shared" si="4"/>
-        <v>10308.581999999999</v>
-      </c>
-      <c r="V65">
-        <f t="shared" si="5"/>
-        <v>16.355113636363637</v>
+        <v>-3000</v>
+      </c>
+      <c r="V65" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="W65">
         <f t="shared" si="6"/>
-        <v>0.11536659392311564</v>
-      </c>
-      <c r="X65"/>
-      <c r="Y65"/>
-      <c r="Z65"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="D66" s="1">
-        <v>629000</v>
+        <v>83500</v>
       </c>
       <c r="E66">
         <v>0.2</v>
       </c>
-      <c r="F66" s="1">
-        <v>3156</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="F66">
+        <v>761</v>
+      </c>
+      <c r="G66">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H66">
         <v>3000</v>
       </c>
       <c r="I66">
-        <v>977</v>
+        <v>522</v>
       </c>
       <c r="J66">
-        <v>2900</v>
+        <v>1000</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L98" si="8">J66-F66</f>
-        <v>-256</v>
+        <f t="shared" si="7"/>
+        <v>239</v>
       </c>
       <c r="N66" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="P66">
         <v>3000</v>
       </c>
       <c r="R66">
         <f t="shared" si="1"/>
-        <v>5.0556438791732905</v>
+        <v>10.778443113772456</v>
       </c>
       <c r="S66">
         <f t="shared" si="2"/>
-        <v>128800</v>
+        <v>19700</v>
       </c>
       <c r="T66">
         <f t="shared" si="3"/>
-        <v>19071.280000000002</v>
+        <v>2531.7200000000003</v>
       </c>
       <c r="U66">
         <f t="shared" si="4"/>
-        <v>12728.719999999998</v>
+        <v>6468.28</v>
       </c>
       <c r="V66">
         <f t="shared" si="5"/>
-        <v>18.074712643678161</v>
+        <v>6.958333333333333</v>
       </c>
       <c r="W66">
-        <f t="shared" ref="W66:W107" si="9">U66/S66</f>
-        <v>9.8825465838509291E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67"/>
-      <c r="B67"/>
+        <f t="shared" si="6"/>
+        <v>0.32833908629441622</v>
+      </c>
+      <c r="X66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>223</v>
+      </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="D67" s="1">
-        <v>762613</v>
+        <v>125000</v>
       </c>
       <c r="E67">
         <v>0.2</v>
       </c>
-      <c r="F67" s="1">
-        <v>5111</v>
-      </c>
-      <c r="G67" s="3">
+      <c r="F67">
+        <v>940</v>
+      </c>
+      <c r="G67">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H67">
         <v>3000</v>
       </c>
       <c r="I67">
-        <v>987</v>
+        <v>522</v>
       </c>
       <c r="J67">
-        <v>3300</v>
-      </c>
-      <c r="K67"/>
+        <v>1000</v>
+      </c>
       <c r="L67">
-        <f t="shared" si="8"/>
-        <v>-1811</v>
-      </c>
-      <c r="M67"/>
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
       <c r="N67" t="s">
-        <v>36</v>
-      </c>
-      <c r="O67"/>
+        <v>222</v>
+      </c>
       <c r="P67">
         <v>3000</v>
       </c>
-      <c r="Q67"/>
       <c r="R67">
         <f t="shared" si="1"/>
-        <v>4.7992887611409722</v>
+        <v>7.2</v>
       </c>
       <c r="S67">
         <f t="shared" si="2"/>
-        <v>155522.6</v>
+        <v>28000</v>
       </c>
       <c r="T67">
         <f t="shared" si="3"/>
-        <v>23122.426160000003</v>
+        <v>3790.0000000000005</v>
       </c>
       <c r="U67">
         <f t="shared" si="4"/>
-        <v>13477.573839999997</v>
+        <v>5210</v>
       </c>
       <c r="V67">
         <f t="shared" si="5"/>
-        <v>19.257904040404039</v>
+        <v>10.416666666666666</v>
       </c>
       <c r="W67">
-        <f t="shared" si="9"/>
-        <v>8.6659905634293641E-2</v>
-      </c>
-      <c r="X67"/>
-      <c r="Y67"/>
-      <c r="Z67"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0.18607142857142858</v>
+      </c>
+      <c r="X67" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>225</v>
+      </c>
+      <c r="C68" t="s">
+        <v>226</v>
       </c>
       <c r="D68" s="1">
-        <v>509000</v>
+        <v>95000</v>
       </c>
       <c r="E68">
         <v>0.2</v>
       </c>
-      <c r="F68" s="1">
-        <v>3186</v>
-      </c>
-      <c r="G68" s="3">
+      <c r="F68">
+        <v>872</v>
+      </c>
+      <c r="G68">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H68">
         <v>3000</v>
       </c>
-      <c r="I68" t="s">
-        <v>56</v>
-      </c>
-      <c r="J68" s="5">
-        <v>2800</v>
-      </c>
-      <c r="K68">
-        <v>2995</v>
+      <c r="I68">
+        <v>655</v>
+      </c>
+      <c r="J68">
+        <v>1200</v>
       </c>
       <c r="L68">
-        <f t="shared" si="8"/>
-        <v>-386</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O68" t="s">
-        <v>58</v>
+        <f t="shared" si="7"/>
+        <v>328</v>
+      </c>
+      <c r="N68" t="s">
+        <v>227</v>
       </c>
       <c r="P68">
         <v>3000</v>
       </c>
       <c r="R68">
-        <f>100*(12*J68-P68)/D68</f>
-        <v>6.0117878192534384</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="S68">
-        <f>D68*E68+H68</f>
-        <v>104800</v>
+        <f t="shared" si="2"/>
+        <v>22000</v>
       </c>
       <c r="T68">
-        <f>G68*(D68-D68*E68)</f>
-        <v>15432.880000000001</v>
+        <f t="shared" si="3"/>
+        <v>2880.4</v>
       </c>
       <c r="U68">
-        <f>12*J68-P68-T68</f>
-        <v>15167.119999999999</v>
+        <f t="shared" si="4"/>
+        <v>8519.6</v>
       </c>
       <c r="V68">
-        <f>D68/(12*J68)</f>
-        <v>15.148809523809524</v>
+        <f t="shared" si="5"/>
+        <v>6.5972222222222223</v>
       </c>
       <c r="W68">
-        <f t="shared" si="9"/>
-        <v>0.14472442748091602</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" s="7" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0.38725454545454546</v>
+      </c>
+      <c r="X68" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69"/>
-      <c r="C69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="6">
-        <v>499196</v>
+        <v>229</v>
+      </c>
+      <c r="C69" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69" s="1">
+        <v>69999</v>
       </c>
       <c r="E69">
         <v>0.2</v>
       </c>
-      <c r="F69" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G69" s="3">
+      <c r="F69">
+        <v>704</v>
+      </c>
+      <c r="G69">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H69">
         <v>3000</v>
       </c>
-      <c r="I69" t="s">
-        <v>56</v>
-      </c>
-      <c r="J69" s="5">
-        <v>2850</v>
-      </c>
-      <c r="K69" s="5">
-        <v>2750</v>
+      <c r="I69">
+        <v>655</v>
+      </c>
+      <c r="J69">
+        <v>800</v>
       </c>
       <c r="L69">
-        <f t="shared" si="8"/>
-        <v>-150</v>
-      </c>
-      <c r="M69"/>
-      <c r="N69" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O69" t="s">
-        <v>60</v>
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="N69" t="s">
+        <v>227</v>
       </c>
       <c r="P69">
         <v>3000</v>
       </c>
-      <c r="Q69"/>
       <c r="R69">
         <f t="shared" si="1"/>
-        <v>6.2500500805294914</v>
+        <v>9.4287061243732051</v>
       </c>
       <c r="S69">
         <f t="shared" si="2"/>
-        <v>102839.20000000001</v>
+        <v>16999.800000000003</v>
       </c>
       <c r="T69">
         <f t="shared" si="3"/>
-        <v>15135.622720000001</v>
+        <v>2122.3696800000002</v>
       </c>
       <c r="U69">
         <f t="shared" si="4"/>
-        <v>16064.377279999999</v>
+        <v>4477.6303200000002</v>
       </c>
       <c r="V69">
         <f t="shared" si="5"/>
-        <v>14.596374269005848</v>
+        <v>7.2915625000000004</v>
       </c>
       <c r="W69">
-        <f t="shared" si="9"/>
-        <v>0.15620869551688457</v>
-      </c>
-      <c r="X69"/>
-      <c r="Y69"/>
-      <c r="Z69"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0.26339311756608896</v>
+      </c>
+      <c r="X69" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="1">
+        <v>129999</v>
+      </c>
       <c r="E70">
         <v>0.2</v>
       </c>
-      <c r="G70" s="3">
+      <c r="F70">
+        <v>970</v>
+      </c>
+      <c r="G70">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H70">
         <v>3000</v>
       </c>
+      <c r="I70">
+        <v>522</v>
+      </c>
+      <c r="J70">
+        <v>950</v>
+      </c>
       <c r="L70">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-20</v>
+      </c>
+      <c r="N70" t="s">
+        <v>222</v>
       </c>
       <c r="P70">
         <v>3000</v>
       </c>
-      <c r="R70" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R70">
+        <f t="shared" si="1"/>
+        <v>6.4615881660628158</v>
       </c>
       <c r="S70">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>28999.800000000003</v>
       </c>
       <c r="T70">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3941.5696800000001</v>
       </c>
       <c r="U70">
         <f t="shared" si="4"/>
+        <v>4458.4303199999995</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="5"/>
+        <v>11.403421052631579</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="6"/>
+        <v>0.15374003682784015</v>
+      </c>
+      <c r="X70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" t="s">
+        <v>235</v>
+      </c>
+      <c r="D71" s="1">
+        <v>132900</v>
+      </c>
+      <c r="E71">
+        <v>0.2</v>
+      </c>
+      <c r="F71">
+        <v>1059</v>
+      </c>
+      <c r="G71">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H71">
+        <v>3000</v>
+      </c>
+      <c r="I71">
+        <v>1501</v>
+      </c>
+      <c r="J71">
+        <v>950</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="7"/>
+        <v>-109</v>
+      </c>
+      <c r="N71" t="s">
+        <v>236</v>
+      </c>
+      <c r="P71">
+        <v>3000</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="1"/>
+        <v>6.3205417607223477</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="2"/>
+        <v>29580</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="3"/>
+        <v>4029.5280000000002</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="4"/>
+        <v>4370.4719999999998</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="5"/>
+        <v>11.657894736842104</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="6"/>
+        <v>0.14775091277890465</v>
+      </c>
+      <c r="X71" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>240</v>
+      </c>
+      <c r="C72" t="s">
+        <v>242</v>
+      </c>
+      <c r="D72" s="1">
+        <v>122500</v>
+      </c>
+      <c r="E72">
+        <v>0.2</v>
+      </c>
+      <c r="F72">
+        <v>711</v>
+      </c>
+      <c r="G72">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H72">
+        <v>3000</v>
+      </c>
+      <c r="I72" t="s">
+        <v>243</v>
+      </c>
+      <c r="J72">
+        <v>1100</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="7"/>
+        <v>389</v>
+      </c>
+      <c r="N72" t="s">
+        <v>244</v>
+      </c>
+      <c r="P72">
+        <v>3000</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="1"/>
+        <v>8.3265306122448983</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="2"/>
+        <v>27500</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="3"/>
+        <v>3714.2000000000003</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="4"/>
+        <v>6485.7999999999993</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="5"/>
+        <v>9.2803030303030312</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="6"/>
+        <v>0.23584727272727271</v>
+      </c>
+      <c r="X72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>0.2</v>
+      </c>
+      <c r="G73">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H73">
+        <v>3000</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>3000</v>
+      </c>
+      <c r="R73" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
-      <c r="V70" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W70">
-        <f t="shared" si="9"/>
+      <c r="V73" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E71">
-        <v>0.2</v>
-      </c>
-      <c r="G71" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H71">
-        <v>3000</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>3000</v>
-      </c>
-      <c r="R71" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S71">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T71">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U71">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>0.2</v>
+      </c>
+      <c r="G74">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H74">
+        <v>3000</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>3000</v>
+      </c>
+      <c r="R74" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U74">
         <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
-      <c r="V71" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W71">
-        <f t="shared" si="9"/>
+      <c r="V74" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E72">
-        <v>0.2</v>
-      </c>
-      <c r="G72" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H72">
-        <v>3000</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>3000</v>
-      </c>
-      <c r="R72" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S72">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T72">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U72">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>0.2</v>
+      </c>
+      <c r="G75">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H75">
+        <v>3000</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>3000</v>
+      </c>
+      <c r="R75" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U75">
         <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
-      <c r="V72" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W72">
-        <f t="shared" si="9"/>
+      <c r="V75" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E73">
-        <v>0.2</v>
-      </c>
-      <c r="G73" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H73">
-        <v>3000</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>3000</v>
-      </c>
-      <c r="R73" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S73">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U73">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>0.2</v>
+      </c>
+      <c r="G76">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H76">
+        <v>3000</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>3000</v>
+      </c>
+      <c r="R76" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U76">
         <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
-      <c r="V73" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W73">
-        <f t="shared" si="9"/>
+      <c r="V76" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E74">
-        <v>0.2</v>
-      </c>
-      <c r="G74" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H74">
-        <v>3000</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <v>3000</v>
-      </c>
-      <c r="R74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S74">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T74">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U74">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>0.2</v>
+      </c>
+      <c r="G77">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H77">
+        <v>3000</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>3000</v>
+      </c>
+      <c r="R77" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U77">
         <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
-      <c r="V74" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W74">
-        <f t="shared" si="9"/>
+      <c r="V77" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E75">
-        <v>0.2</v>
-      </c>
-      <c r="G75" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H75">
-        <v>3000</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>3000</v>
-      </c>
-      <c r="R75" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U75">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>0.2</v>
+      </c>
+      <c r="G78">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H78">
+        <v>3000</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>3000</v>
+      </c>
+      <c r="R78" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U78">
         <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
-      <c r="V75" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W75">
-        <f t="shared" si="9"/>
+      <c r="V78" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="10" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76">
-        <v>0.2</v>
-      </c>
-      <c r="F76"/>
-      <c r="G76" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H76">
-        <v>3000</v>
-      </c>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76">
-        <v>3000</v>
-      </c>
-      <c r="Q76"/>
-      <c r="R76" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S76">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V76" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W76">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="X76"/>
-      <c r="Y76"/>
-      <c r="Z76"/>
-    </row>
-    <row r="77" spans="1:26" s="8" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77">
-        <v>0.2</v>
-      </c>
-      <c r="F77"/>
-      <c r="G77" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H77">
-        <v>3000</v>
-      </c>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77">
-        <v>3000</v>
-      </c>
-      <c r="Q77"/>
-      <c r="R77" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T77">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V77" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W77">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="X77"/>
-      <c r="Y77"/>
-      <c r="Z77"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E78">
-        <v>0.2</v>
-      </c>
-      <c r="G78" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H78">
-        <v>3000</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>3000</v>
-      </c>
-      <c r="R78" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S78">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V78" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W78">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E79">
         <v>0.2</v>
       </c>
-      <c r="F79"/>
+      <c r="F79" s="1"/>
       <c r="G79" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H79">
         <v>3000</v>
       </c>
-      <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
       <c r="L79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="O79"/>
-      <c r="P79">
-        <v>3000</v>
-      </c>
-      <c r="Q79"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R79" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -6228,22 +6455,21 @@
       </c>
       <c r="U79">
         <f t="shared" si="4"/>
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="V79" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W79">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="X79"/>
-      <c r="Y79"/>
-      <c r="Z79"/>
-    </row>
-    <row r="80" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -6261,7 +6487,7 @@
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M80"/>
@@ -6292,438 +6518,571 @@
         <v>#DIV/0!</v>
       </c>
       <c r="W80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="X80"/>
       <c r="Y80"/>
       <c r="Z80"/>
     </row>
-    <row r="81" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81">
-        <v>0.2</v>
-      </c>
-      <c r="F81"/>
+    <row r="81" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="9">
+        <v>380000</v>
+      </c>
+      <c r="E81" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F81" s="8">
+        <v>2201</v>
+      </c>
       <c r="G81" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="H81">
-        <v>3000</v>
-      </c>
-      <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
+      <c r="H81" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81" s="8">
+        <v>2250</v>
+      </c>
       <c r="L81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="O81"/>
-      <c r="P81">
-        <v>3000</v>
-      </c>
-      <c r="Q81"/>
-      <c r="R81" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S81">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T81">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P81" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R81" s="8">
+        <f t="shared" si="1"/>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="S81" s="8">
+        <f t="shared" si="2"/>
+        <v>79000</v>
+      </c>
+      <c r="T81" s="8">
+        <f t="shared" si="3"/>
+        <v>11521.6</v>
       </c>
       <c r="U81">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V81" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>12478.4</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="5"/>
+        <v>14.074074074074074</v>
       </c>
       <c r="W81">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="X81"/>
-      <c r="Y81"/>
-      <c r="Z81"/>
-    </row>
-    <row r="82" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
+        <f t="shared" si="6"/>
+        <v>0.15795443037974682</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="1">
+        <v>550000</v>
+      </c>
       <c r="E82">
         <v>0.2</v>
       </c>
-      <c r="F82"/>
+      <c r="F82">
+        <v>3300</v>
+      </c>
       <c r="G82" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H82">
         <v>3000</v>
       </c>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
+      <c r="I82">
+        <v>897</v>
+      </c>
+      <c r="J82">
+        <v>2750</v>
+      </c>
       <c r="L82">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M82"/>
-      <c r="N82"/>
-      <c r="O82"/>
+        <f t="shared" si="0"/>
+        <v>-550</v>
+      </c>
+      <c r="N82" t="s">
+        <v>22</v>
+      </c>
       <c r="P82">
         <v>3000</v>
       </c>
-      <c r="Q82"/>
-      <c r="R82" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R82">
+        <f t="shared" si="1"/>
+        <v>5.4545454545454541</v>
       </c>
       <c r="S82">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>113000</v>
       </c>
       <c r="T82">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16676</v>
       </c>
       <c r="U82">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V82" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>13324</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="5"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="W82">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="X82"/>
-      <c r="Y82"/>
-      <c r="Z82"/>
-    </row>
-    <row r="83" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83"/>
+        <f t="shared" si="6"/>
+        <v>0.11791150442477875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
       <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="1">
+        <v>509000</v>
+      </c>
       <c r="E83">
         <v>0.2</v>
       </c>
-      <c r="F83"/>
+      <c r="F83" s="1">
+        <v>3186</v>
+      </c>
       <c r="G83" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H83">
         <v>3000</v>
       </c>
-      <c r="I83"/>
-      <c r="J83"/>
+      <c r="I83" t="s">
+        <v>28</v>
+      </c>
+      <c r="J83">
+        <v>2850</v>
+      </c>
       <c r="K83"/>
       <c r="L83">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-336</v>
       </c>
       <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83"/>
+      <c r="N83" s="1">
+        <v>3186</v>
+      </c>
+      <c r="O83" s="1"/>
       <c r="P83">
         <v>3000</v>
       </c>
       <c r="Q83"/>
-      <c r="R83" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R83">
+        <f t="shared" si="1"/>
+        <v>6.129666011787819</v>
       </c>
       <c r="S83">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>104800</v>
       </c>
       <c r="T83">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15432.880000000001</v>
       </c>
       <c r="U83">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V83" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>15767.119999999999</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="5"/>
+        <v>14.883040935672515</v>
       </c>
       <c r="W83">
-        <f t="shared" si="9"/>
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>0.15044961832061068</v>
       </c>
       <c r="X83"/>
       <c r="Y83"/>
       <c r="Z83"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="1">
+        <v>431775</v>
+      </c>
       <c r="E84">
         <v>0.2</v>
       </c>
+      <c r="F84" s="1">
+        <v>2817</v>
+      </c>
       <c r="G84" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H84">
         <v>3000</v>
       </c>
+      <c r="I84" t="s">
+        <v>31</v>
+      </c>
+      <c r="J84">
+        <v>2200</v>
+      </c>
+      <c r="K84"/>
       <c r="L84">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>-617</v>
+      </c>
+      <c r="M84"/>
+      <c r="N84" t="s">
+        <v>32</v>
+      </c>
+      <c r="O84"/>
       <c r="P84">
         <v>3000</v>
       </c>
-      <c r="R84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="Q84"/>
+      <c r="R84">
+        <f t="shared" si="1"/>
+        <v>5.419489317352788</v>
       </c>
       <c r="S84">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>89355</v>
       </c>
       <c r="T84">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13091.418000000001</v>
       </c>
       <c r="U84">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V84" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>10308.581999999999</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="5"/>
+        <v>16.355113636363637</v>
       </c>
       <c r="W84">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0.11536659392311564</v>
+      </c>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="1">
+        <v>629000</v>
+      </c>
       <c r="E85">
         <v>0.2</v>
       </c>
+      <c r="F85" s="1">
+        <v>3156</v>
+      </c>
       <c r="G85" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H85">
         <v>3000</v>
       </c>
+      <c r="I85">
+        <v>977</v>
+      </c>
+      <c r="J85">
+        <v>2900</v>
+      </c>
       <c r="L85">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="L85:L117" si="8">J85-F85</f>
+        <v>-256</v>
+      </c>
+      <c r="N85" t="s">
+        <v>18</v>
       </c>
       <c r="P85">
         <v>3000</v>
       </c>
-      <c r="R85" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R85">
+        <f t="shared" si="1"/>
+        <v>5.0556438791732905</v>
       </c>
       <c r="S85">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>128800</v>
       </c>
       <c r="T85">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19071.280000000002</v>
       </c>
       <c r="U85">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V85" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>12728.719999999998</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="5"/>
+        <v>18.074712643678161</v>
       </c>
       <c r="W85">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" ref="W85:W126" si="9">U85/S85</f>
+        <v>9.8825465838509291E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="1">
+        <v>762613</v>
+      </c>
       <c r="E86">
         <v>0.2</v>
       </c>
+      <c r="F86" s="1">
+        <v>5111</v>
+      </c>
       <c r="G86" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H86">
         <v>3000</v>
       </c>
+      <c r="I86">
+        <v>987</v>
+      </c>
+      <c r="J86">
+        <v>3300</v>
+      </c>
+      <c r="K86"/>
       <c r="L86">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+        <v>-1811</v>
+      </c>
+      <c r="M86"/>
+      <c r="N86" t="s">
+        <v>36</v>
+      </c>
+      <c r="O86"/>
       <c r="P86">
         <v>3000</v>
       </c>
-      <c r="R86" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="Q86"/>
+      <c r="R86">
+        <f t="shared" si="1"/>
+        <v>4.7992887611409722</v>
       </c>
       <c r="S86">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>155522.6</v>
       </c>
       <c r="T86">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>23122.426160000003</v>
       </c>
       <c r="U86">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V86" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>13477.573839999997</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="5"/>
+        <v>19.257904040404039</v>
       </c>
       <c r="W86">
         <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+        <v>8.6659905634293641E-2</v>
+      </c>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="1">
+        <v>509000</v>
+      </c>
       <c r="E87">
         <v>0.2</v>
       </c>
+      <c r="F87" s="1">
+        <v>3186</v>
+      </c>
       <c r="G87" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H87">
         <v>3000</v>
+      </c>
+      <c r="I87" t="s">
+        <v>56</v>
+      </c>
+      <c r="J87" s="5">
+        <v>2800</v>
+      </c>
+      <c r="K87">
+        <v>2995</v>
       </c>
       <c r="L87">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-386</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O87" t="s">
+        <v>58</v>
       </c>
       <c r="P87">
         <v>3000</v>
       </c>
-      <c r="R87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R87">
+        <f>100*(12*J87-P87)/D87</f>
+        <v>6.0117878192534384</v>
       </c>
       <c r="S87">
-        <f t="shared" si="2"/>
-        <v>3000</v>
+        <f>D87*E87+H87</f>
+        <v>104800</v>
       </c>
       <c r="T87">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>G87*(D87-D87*E87)</f>
+        <v>15432.880000000001</v>
       </c>
       <c r="U87">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V87" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f>12*J87-P87-T87</f>
+        <v>15167.119999999999</v>
+      </c>
+      <c r="V87">
+        <f>D87/(12*J87)</f>
+        <v>15.148809523809524</v>
       </c>
       <c r="W87">
         <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88"/>
+        <v>0.14472442748091602</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>24</v>
+      </c>
       <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
+      <c r="C88" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" s="6">
+        <v>499196</v>
+      </c>
       <c r="E88">
         <v>0.2</v>
       </c>
-      <c r="F88"/>
+      <c r="F88" s="1">
+        <v>3000</v>
+      </c>
       <c r="G88" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H88">
         <v>3000</v>
       </c>
-      <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
+      <c r="I88" t="s">
+        <v>56</v>
+      </c>
+      <c r="J88" s="5">
+        <v>2850</v>
+      </c>
+      <c r="K88" s="5">
+        <v>2750</v>
+      </c>
       <c r="L88">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="M88"/>
-      <c r="N88"/>
-      <c r="O88"/>
+      <c r="N88" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
       <c r="P88">
         <v>3000</v>
       </c>
       <c r="Q88"/>
-      <c r="R88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R88">
+        <f t="shared" si="1"/>
+        <v>6.2500500805294914</v>
       </c>
       <c r="S88">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>102839.20000000001</v>
       </c>
       <c r="T88">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15135.622720000001</v>
       </c>
       <c r="U88">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V88" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>16064.377279999999</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="5"/>
+        <v>14.596374269005848</v>
       </c>
       <c r="W88">
         <f t="shared" si="9"/>
-        <v>-1</v>
+        <v>0.15620869551688457</v>
       </c>
       <c r="X88"/>
       <c r="Y88"/>
       <c r="Z88"/>
     </row>
-    <row r="89" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E89">
         <v>0.2</v>
       </c>
-      <c r="F89"/>
       <c r="G89" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H89">
         <v>3000</v>
       </c>
-      <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
       <c r="L89">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M89"/>
-      <c r="N89"/>
-      <c r="O89"/>
       <c r="P89">
         <v>3000</v>
       </c>
-      <c r="Q89"/>
       <c r="R89" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -6748,11 +7107,8 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="X89"/>
-      <c r="Y89"/>
-      <c r="Z89"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E90">
         <v>0.2</v>
       </c>
@@ -6794,7 +7150,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E91">
         <v>0.2</v>
       </c>
@@ -6836,7 +7192,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E92">
         <v>0.2</v>
       </c>
@@ -6878,7 +7234,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E93">
         <v>0.2</v>
       </c>
@@ -6920,7 +7276,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E94">
         <v>0.2</v>
       </c>
@@ -6962,20 +7318,35 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" s="10" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
       <c r="E95">
         <v>0.2</v>
       </c>
+      <c r="F95"/>
+      <c r="G95" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H95">
         <v>3000</v>
       </c>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
       <c r="L95">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
       <c r="P95">
         <v>3000</v>
       </c>
+      <c r="Q95"/>
       <c r="R95" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -7000,21 +7371,39 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+    </row>
+    <row r="96" spans="1:26" s="8" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
       <c r="E96">
         <v>0.2</v>
       </c>
+      <c r="F96"/>
+      <c r="G96" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H96">
         <v>3000</v>
       </c>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
       <c r="L96">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
       <c r="P96">
         <v>3000</v>
       </c>
+      <c r="Q96"/>
       <c r="R96" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -7039,10 +7428,16 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E97">
         <v>0.2</v>
+      </c>
+      <c r="G97" s="3">
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="H97">
         <v>3000</v>
@@ -7079,20 +7474,35 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
       <c r="E98">
         <v>0.2</v>
       </c>
+      <c r="F98"/>
+      <c r="G98" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H98">
         <v>3000</v>
       </c>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
       <c r="L98">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
       <c r="P98">
         <v>3000</v>
       </c>
+      <c r="Q98"/>
       <c r="R98" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -7117,160 +7527,273 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X98"/>
+      <c r="Y98"/>
+      <c r="Z98"/>
+    </row>
+    <row r="99" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99">
+        <v>0.2</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H99">
         <v>3000</v>
       </c>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
       <c r="P99">
         <v>3000</v>
       </c>
+      <c r="Q99"/>
       <c r="R99" t="e">
-        <f t="shared" ref="R99:R109" si="10">100*(12*J99-P99)/D99</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S99">
-        <f t="shared" ref="S99:S109" si="11">D99*E99+H99</f>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T99">
-        <f t="shared" ref="T99:T107" si="12">G99*(D99-D99*E99)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U99">
-        <f t="shared" ref="U99:U107" si="13">12*J99-P99-T99</f>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V99" t="e">
-        <f t="shared" ref="V99:V107" si="14">D99/(12*J99)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W99">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X99"/>
+      <c r="Y99"/>
+      <c r="Z99"/>
+    </row>
+    <row r="100" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100">
+        <v>0.2</v>
+      </c>
+      <c r="F100"/>
+      <c r="G100" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H100">
         <v>3000</v>
       </c>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
       <c r="P100">
         <v>3000</v>
       </c>
+      <c r="Q100"/>
       <c r="R100" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V100" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W100">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
+    </row>
+    <row r="101" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101">
+        <v>0.2</v>
+      </c>
+      <c r="F101"/>
+      <c r="G101" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H101">
         <v>3000</v>
       </c>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
       <c r="P101">
         <v>3000</v>
       </c>
+      <c r="Q101"/>
       <c r="R101" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V101" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W101">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X101"/>
+      <c r="Y101"/>
+      <c r="Z101"/>
+    </row>
+    <row r="102" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102">
+        <v>0.2</v>
+      </c>
+      <c r="F102"/>
+      <c r="G102" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H102">
         <v>3000</v>
       </c>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
       <c r="P102">
         <v>3000</v>
       </c>
+      <c r="Q102"/>
       <c r="R102" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V102" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W102">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E103">
+        <v>0.2</v>
+      </c>
+      <c r="G103" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H103">
         <v>3000</v>
       </c>
+      <c r="L103">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P103">
         <v>3000</v>
       </c>
       <c r="R103" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V103" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W103">
@@ -7278,31 +7801,41 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E104">
+        <v>0.2</v>
+      </c>
+      <c r="G104" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H104">
         <v>3000</v>
       </c>
+      <c r="L104">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P104">
         <v>3000</v>
       </c>
       <c r="R104" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V104" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W104">
@@ -7310,31 +7843,41 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E105">
+        <v>0.2</v>
+      </c>
+      <c r="G105" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H105">
         <v>3000</v>
       </c>
+      <c r="L105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P105">
         <v>3000</v>
       </c>
       <c r="R105" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V105" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W105">
@@ -7342,31 +7885,41 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E106">
+        <v>0.2</v>
+      </c>
+      <c r="G106" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H106">
         <v>3000</v>
       </c>
+      <c r="L106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P106">
         <v>3000</v>
       </c>
       <c r="R106" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V106" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W106">
@@ -7374,129 +7927,865 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107">
+        <v>0.2</v>
+      </c>
+      <c r="F107"/>
+      <c r="G107" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H107">
+        <v>3000</v>
+      </c>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
       <c r="P107">
         <v>3000</v>
       </c>
+      <c r="Q107"/>
       <c r="R107" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V107" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W107">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="X107"/>
+      <c r="Y107"/>
+      <c r="Z107"/>
+    </row>
+    <row r="108" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108">
+        <v>0.2</v>
+      </c>
+      <c r="F108"/>
+      <c r="G108" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H108">
+        <v>3000</v>
+      </c>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108">
+        <v>3000</v>
+      </c>
+      <c r="Q108"/>
+      <c r="R108" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V108" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W108">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="X108"/>
+      <c r="Y108"/>
+      <c r="Z108"/>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E109">
+        <v>0.2</v>
+      </c>
+      <c r="G109" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H109">
+        <v>3000</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>3000</v>
+      </c>
+      <c r="R109" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V109" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W109">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E110">
+        <v>0.2</v>
+      </c>
+      <c r="G110" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H110">
+        <v>3000</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>3000</v>
+      </c>
+      <c r="R110" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V110" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W110">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E111">
+        <v>0.2</v>
+      </c>
+      <c r="G111" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H111">
+        <v>3000</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>3000</v>
+      </c>
+      <c r="R111" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V111" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W111">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E112">
+        <v>0.2</v>
+      </c>
+      <c r="G112" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H112">
+        <v>3000</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>3000</v>
+      </c>
+      <c r="R112" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V112" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W112">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E113">
+        <v>0.2</v>
+      </c>
+      <c r="G113" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H113">
+        <v>3000</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>3000</v>
+      </c>
+      <c r="R113" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V113" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W113">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E114">
+        <v>0.2</v>
+      </c>
+      <c r="H114">
+        <v>3000</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>3000</v>
+      </c>
+      <c r="R114" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V114" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W114">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E115">
+        <v>0.2</v>
+      </c>
+      <c r="H115">
+        <v>3000</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>3000</v>
+      </c>
+      <c r="R115" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V115" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W115">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E116">
+        <v>0.2</v>
+      </c>
+      <c r="H116">
+        <v>3000</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>3000</v>
+      </c>
+      <c r="R116" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V116" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W116">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E117">
+        <v>0.2</v>
+      </c>
+      <c r="H117">
+        <v>3000</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>3000</v>
+      </c>
+      <c r="R117" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V117" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W117">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <v>3000</v>
+      </c>
+      <c r="P118">
+        <v>3000</v>
+      </c>
+      <c r="R118" t="e">
+        <f t="shared" ref="R118:R128" si="10">100*(12*J118-P118)/D118</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S118">
+        <f t="shared" ref="S118:S128" si="11">D118*E118+H118</f>
+        <v>3000</v>
+      </c>
+      <c r="T118">
+        <f t="shared" ref="T118:T126" si="12">G118*(D118-D118*E118)</f>
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <f t="shared" ref="U118:U126" si="13">12*J118-P118-T118</f>
+        <v>-3000</v>
+      </c>
+      <c r="V118" t="e">
+        <f t="shared" ref="V118:V126" si="14">D118/(12*J118)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W118">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <v>3000</v>
+      </c>
+      <c r="P119">
+        <v>3000</v>
+      </c>
+      <c r="R119" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S107">
+      <c r="S119">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T107">
+        <v>3000</v>
+      </c>
+      <c r="T119">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U107">
+      <c r="U119">
         <f t="shared" si="13"/>
         <v>-3000</v>
       </c>
-      <c r="V107" t="e">
+      <c r="V119" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W107" t="e">
+      <c r="W119">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="P108">
-        <v>3000</v>
-      </c>
-      <c r="R108" t="e">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <v>3000</v>
+      </c>
+      <c r="P120">
+        <v>3000</v>
+      </c>
+      <c r="R120" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S108">
+      <c r="S120">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="P109">
-        <v>3000</v>
-      </c>
-      <c r="R109" t="e">
+        <v>3000</v>
+      </c>
+      <c r="T120">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V120" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W120">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <v>3000</v>
+      </c>
+      <c r="P121">
+        <v>3000</v>
+      </c>
+      <c r="R121" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S109">
+      <c r="S121">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
-      <c r="J110"/>
-      <c r="K110"/>
-      <c r="L110"/>
-      <c r="M110"/>
-      <c r="N110"/>
-      <c r="O110"/>
-      <c r="P110">
-        <v>3000</v>
-      </c>
-      <c r="Q110"/>
-      <c r="R110"/>
-      <c r="S110"/>
-      <c r="T110"/>
-      <c r="U110"/>
-      <c r="V110"/>
-      <c r="W110"/>
-      <c r="X110"/>
-      <c r="Y110"/>
-      <c r="Z110"/>
+        <v>3000</v>
+      </c>
+      <c r="T121">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V121" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W121">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <v>3000</v>
+      </c>
+      <c r="P122">
+        <v>3000</v>
+      </c>
+      <c r="R122" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V122" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W122">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <v>3000</v>
+      </c>
+      <c r="P123">
+        <v>3000</v>
+      </c>
+      <c r="R123" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V123" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W123">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>3000</v>
+      </c>
+      <c r="P124">
+        <v>3000</v>
+      </c>
+      <c r="R124" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V124" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W124">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="125" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <v>3000</v>
+      </c>
+      <c r="P125">
+        <v>3000</v>
+      </c>
+      <c r="R125" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V125" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W125">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="P126">
+        <v>3000</v>
+      </c>
+      <c r="R126" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S126">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V126" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W126" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="127" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="P127">
+        <v>3000</v>
+      </c>
+      <c r="R127" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S127">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="P128">
+        <v>3000</v>
+      </c>
+      <c r="R128" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S128">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129">
+        <v>3000</v>
+      </c>
+      <c r="Q129"/>
+      <c r="R129"/>
+      <c r="S129"/>
+      <c r="T129"/>
+      <c r="U129"/>
+      <c r="V129"/>
+      <c r="W129"/>
+      <c r="X129"/>
+      <c r="Y129"/>
+      <c r="Z129"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C69" r:id="rId1" location="redfin-estimate" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C62" r:id="rId2" location="schools" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B33" r:id="rId8" xr:uid="{6AD50C20-CA1A-4708-97EB-A5388C20E5B0}"/>
-    <hyperlink ref="C7" r:id="rId9" location="schools" xr:uid="{B2DE8490-6762-428B-86E4-6F471CF5E3BB}"/>
-    <hyperlink ref="C9" r:id="rId10" xr:uid="{ABE9E519-8CA4-484A-9A4F-63C5307D1314}"/>
-    <hyperlink ref="C10" r:id="rId11" xr:uid="{781DC502-89A8-4463-9926-B03B9812A4F8}"/>
-    <hyperlink ref="B19" r:id="rId12" xr:uid="{D3BFD304-0922-4FA3-A160-2E8D70A51DED}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{820B49B8-2145-4A9F-9C66-487874662416}"/>
-    <hyperlink ref="B21" r:id="rId14" xr:uid="{0878632F-7EB5-4A37-9532-2F08EDC804D0}"/>
-    <hyperlink ref="B22" r:id="rId15" xr:uid="{802651A0-5C74-4C5D-9712-1C8545C05F6D}"/>
-    <hyperlink ref="B23" r:id="rId16" xr:uid="{573595E8-D2B3-41BD-B0B8-FDA30F2C980C}"/>
-    <hyperlink ref="B25" r:id="rId17" xr:uid="{59FD9705-F261-4339-B0B5-0E592FEA7D5D}"/>
-    <hyperlink ref="B26" r:id="rId18" xr:uid="{94E5394E-06C9-487D-B254-BB67FE79330C}"/>
-    <hyperlink ref="B28" r:id="rId19" xr:uid="{B87C018E-36A5-42A0-A8F0-50A0A836D82E}"/>
-    <hyperlink ref="B30" r:id="rId20" xr:uid="{04A55803-A1FB-408F-B487-4D7AA5BF41A6}"/>
-    <hyperlink ref="B31" r:id="rId21" xr:uid="{27DCDCA6-735D-43C4-88D0-0596B28E93BC}"/>
-    <hyperlink ref="B32" r:id="rId22" xr:uid="{0113A066-BA1C-4F5F-A149-DCD6358FBFBB}"/>
-    <hyperlink ref="B34" r:id="rId23" xr:uid="{E4F2DE9B-7BBA-4E92-8AE7-78FF2853D92F}"/>
-    <hyperlink ref="B35" r:id="rId24" xr:uid="{C84DB696-DC1A-4F68-B13E-83D8F2A7CDB3}"/>
-    <hyperlink ref="B36" r:id="rId25" xr:uid="{B1C3D20D-B77D-4C32-B5AB-7CCE3B915D79}"/>
-    <hyperlink ref="B37" r:id="rId26" xr:uid="{A185F88C-F927-4F7F-BAA6-A0D6AAEB3038}"/>
-    <hyperlink ref="B38" r:id="rId27" xr:uid="{B14432D6-C2D4-48A1-A01E-FF52087D17F0}"/>
-    <hyperlink ref="B39" r:id="rId28" xr:uid="{50E4C392-1BEA-4D9A-8F59-BEA5F4620B29}"/>
-    <hyperlink ref="B42" r:id="rId29" xr:uid="{06261C52-0A6B-4764-A9A5-E2CA9162825E}"/>
-    <hyperlink ref="B43" r:id="rId30" xr:uid="{4F04CD1B-58CC-4442-8C34-9505CC617BD3}"/>
-    <hyperlink ref="B44" r:id="rId31" xr:uid="{C7D86C84-8A85-468D-8262-95E1955B7D7B}"/>
-    <hyperlink ref="B45" r:id="rId32" xr:uid="{FA700C57-E672-452E-8752-B07749F8FD00}"/>
-    <hyperlink ref="B47" r:id="rId33" xr:uid="{6A143581-1940-4307-BCB2-6B6881711305}"/>
-    <hyperlink ref="B48" r:id="rId34" xr:uid="{CBC8F348-1D2D-4141-9506-3BC94CB3C42E}"/>
-    <hyperlink ref="B49" r:id="rId35" xr:uid="{99BE475B-B4C9-44E9-9982-6E31366B81AD}"/>
-    <hyperlink ref="B50" r:id="rId36" xr:uid="{ACAA3C3A-AD19-4287-BC78-D87D6D311858}"/>
+    <hyperlink ref="C88" r:id="rId1" location="redfin-estimate"/>
+    <hyperlink ref="C81" r:id="rId2" location="schools"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="B12" r:id="rId4"/>
+    <hyperlink ref="B13" r:id="rId5"/>
+    <hyperlink ref="B15" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B33" r:id="rId8"/>
+    <hyperlink ref="C7" r:id="rId9" location="schools"/>
+    <hyperlink ref="C9" r:id="rId10"/>
+    <hyperlink ref="C10" r:id="rId11"/>
+    <hyperlink ref="B19" r:id="rId12"/>
+    <hyperlink ref="B20" r:id="rId13"/>
+    <hyperlink ref="B21" r:id="rId14"/>
+    <hyperlink ref="B22" r:id="rId15"/>
+    <hyperlink ref="B23" r:id="rId16"/>
+    <hyperlink ref="B25" r:id="rId17"/>
+    <hyperlink ref="B26" r:id="rId18"/>
+    <hyperlink ref="B28" r:id="rId19"/>
+    <hyperlink ref="B30" r:id="rId20"/>
+    <hyperlink ref="B31" r:id="rId21"/>
+    <hyperlink ref="B32" r:id="rId22"/>
+    <hyperlink ref="B34" r:id="rId23"/>
+    <hyperlink ref="B35" r:id="rId24"/>
+    <hyperlink ref="B36" r:id="rId25"/>
+    <hyperlink ref="B37" r:id="rId26"/>
+    <hyperlink ref="B38" r:id="rId27"/>
+    <hyperlink ref="B39" r:id="rId28"/>
+    <hyperlink ref="B42" r:id="rId29"/>
+    <hyperlink ref="B43" r:id="rId30"/>
+    <hyperlink ref="B44" r:id="rId31"/>
+    <hyperlink ref="B45" r:id="rId32"/>
+    <hyperlink ref="B47" r:id="rId33"/>
+    <hyperlink ref="B48" r:id="rId34"/>
+    <hyperlink ref="B49" r:id="rId35"/>
+    <hyperlink ref="B50" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId37"/>

--- a/austin (Autosaved).xlsx
+++ b/austin (Autosaved).xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufengzhu/Documents/property/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\property\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -237,9 +237,6 @@
     <t>11612 Murron Dr,Austin, TX 78754</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/11612-Murron-Dr-Austin-TX-78754/119618167_zpid/?fullpage=true</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/11505-Murron-Dr-Austin-TX-78754/119619674_zpid/?fullpage=true</t>
   </si>
   <si>
@@ -687,9 +684,6 @@
     <t>https://www.redfin.com/TX/Austin/1405-Gorham-St-78758/home/31156944#redfin-estimate</t>
   </si>
   <si>
-    <t>地税很贵，房子不错</t>
-  </si>
-  <si>
     <t>13000 Dionysus DrAustin, TX 78753</t>
   </si>
   <si>
@@ -778,12 +772,18 @@
   </si>
   <si>
     <t>新房3b2b</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homes/11612-Murron-Dr,Austin,-TX-78754_rb/</t>
+  </si>
+  <si>
+    <t>地税税率和房子保险zillow和redfin差距比较大，房子不错</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1627,39 +1627,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O76" sqref="O76"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.296875" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" customWidth="1"/>
+    <col min="6" max="6" width="7.796875" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" customWidth="1"/>
-    <col min="17" max="17" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" customWidth="1"/>
+    <col min="11" max="11" width="9.19921875" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="7.69921875" customWidth="1"/>
+    <col min="14" max="14" width="15.296875" customWidth="1"/>
+    <col min="15" max="15" width="9.19921875" customWidth="1"/>
+    <col min="16" max="16" width="8.19921875" customWidth="1"/>
+    <col min="17" max="17" width="2.69921875" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.69921875" customWidth="1"/>
     <col min="20" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" customWidth="1"/>
+    <col min="23" max="23" width="12.69921875" customWidth="1"/>
     <col min="24" max="24" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E2">
         <v>0.2</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -1829,7 +1829,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E4">
         <v>0.2</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -1928,7 +1928,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="7" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1987,7 +1987,7 @@
       <c r="Y6"/>
       <c r="Z6"/>
     </row>
-    <row r="7" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>40</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>0.31985046727281763</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>44</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>0.25001176470588232</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>0.24599213759213759</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>52</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>0.22062267043162564</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="16.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>0.2</v>
       </c>
@@ -2305,12 +2305,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>244</v>
       </c>
       <c r="D12" s="1">
         <v>259000</v>
@@ -2341,7 +2341,7 @@
         <v>695</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P12">
         <v>3000</v>
@@ -2371,15 +2371,15 @@
         <v>0.27275766423357661</v>
       </c>
       <c r="X12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1">
         <v>249500</v>
@@ -2410,7 +2410,7 @@
         <v>706</v>
       </c>
       <c r="N13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P13">
         <v>3000</v>
@@ -2440,15 +2440,15 @@
         <v>0.28799924385633269</v>
       </c>
       <c r="X13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D14" s="1">
         <v>286733</v>
@@ -2476,7 +2476,7 @@
         <v>710</v>
       </c>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P14">
         <v>3000</v>
@@ -2506,15 +2506,15 @@
         <v>0.25363906897820254</v>
       </c>
       <c r="X14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1">
         <v>263169</v>
@@ -2542,7 +2542,7 @@
         <v>487</v>
       </c>
       <c r="N15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P15">
         <v>3000</v>
@@ -2572,81 +2572,81 @@
         <v>0.23404326003257009</v>
       </c>
       <c r="X15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="1">
+      <c r="B16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="12">
         <v>231338</v>
       </c>
-      <c r="E16">
-        <v>0.2</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="12">
         <v>1372</v>
       </c>
-      <c r="G16" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H16">
-        <v>3000</v>
-      </c>
-      <c r="I16">
+      <c r="G16" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I16" s="11">
         <v>447</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="11">
         <v>2000</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="11">
         <f t="shared" si="0"/>
         <v>628</v>
       </c>
-      <c r="N16" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16">
-        <v>3000</v>
-      </c>
-      <c r="R16">
+      <c r="N16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R16" s="11">
         <f t="shared" si="1"/>
         <v>9.0776266761189248</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="11">
         <f t="shared" si="2"/>
         <v>49267.600000000006</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="11">
         <f t="shared" si="3"/>
         <v>7014.1681600000002</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="11">
         <f t="shared" si="4"/>
         <v>13985.831839999999</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="11">
         <f t="shared" si="5"/>
         <v>9.6390833333333337</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="11">
         <f t="shared" si="6"/>
         <v>0.28387483538877473</v>
       </c>
-      <c r="X16" t="s">
+      <c r="X16" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>78</v>
       </c>
       <c r="D17" s="1">
         <v>336000</v>
@@ -2674,7 +2674,7 @@
         <v>376</v>
       </c>
       <c r="N17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P17">
         <v>3000</v>
@@ -2704,15 +2704,15 @@
         <v>0.2053059829059829</v>
       </c>
       <c r="X17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
       </c>
       <c r="D18" s="1">
         <v>284000</v>
@@ -2740,7 +2740,7 @@
         <v>611</v>
       </c>
       <c r="N18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P18">
         <v>3000</v>
@@ -2770,15 +2770,15 @@
         <v>0.2473096989966555</v>
       </c>
       <c r="X18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="D19" s="8">
         <v>281990</v>
@@ -2806,7 +2806,7 @@
         <v>723</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P19" s="8">
         <v>3000</v>
@@ -2836,81 +2836,81 @@
         <v>0.27021218222835786</v>
       </c>
       <c r="X19" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="D20" s="12">
         <v>249900</v>
       </c>
-      <c r="E20" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F20" s="12">
         <v>1491</v>
       </c>
-      <c r="G20" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H20" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I20" s="8">
+      <c r="G20" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H20" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I20" s="11">
         <v>5410</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="11">
         <v>1850</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="11">
         <f t="shared" si="0"/>
         <v>359</v>
       </c>
-      <c r="N20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="P20" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R20" s="8">
+      <c r="N20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R20" s="11">
         <f t="shared" si="1"/>
         <v>7.6830732292917165</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="11">
         <f t="shared" si="2"/>
         <v>52980</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="11">
         <f t="shared" si="3"/>
         <v>7576.9680000000008</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="11">
         <f t="shared" si="4"/>
         <v>11623.031999999999</v>
       </c>
-      <c r="V20" s="8">
+      <c r="V20" s="11">
         <f t="shared" si="5"/>
         <v>11.256756756756756</v>
       </c>
-      <c r="W20" s="8">
+      <c r="W20" s="11">
         <f t="shared" si="6"/>
         <v>0.21938527746319364</v>
       </c>
-      <c r="X20" s="8" t="s">
+      <c r="X20" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="8" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="D21" s="9">
         <v>225490</v>
@@ -2941,7 +2941,7 @@
         <v>308</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P21" s="8">
         <v>3000</v>
@@ -2971,15 +2971,15 @@
         <v>0.16971897376190276</v>
       </c>
       <c r="X21" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="8">
         <v>281990</v>
@@ -2997,7 +2997,7 @@
         <v>3000</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J22" s="8">
         <v>2150</v>
@@ -3007,7 +3007,7 @@
         <v>572</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P22" s="8">
         <v>3000</v>
@@ -3037,78 +3037,78 @@
         <v>0.23990813158692209</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="12">
+        <v>285000</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1681</v>
+      </c>
+      <c r="G23" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H23" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="9">
-        <v>285000</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F23" s="9">
-        <v>1681</v>
-      </c>
-      <c r="G23" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H23" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" s="8">
+      <c r="J23" s="11">
         <v>2300</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="11">
         <f t="shared" si="0"/>
         <v>619</v>
       </c>
-      <c r="N23" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P23" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R23" s="8">
+      <c r="N23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R23" s="11">
         <f t="shared" si="1"/>
         <v>8.6315789473684212</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="11">
         <f t="shared" si="2"/>
         <v>60000</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="11">
         <f t="shared" si="3"/>
         <v>8641.2000000000007</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U23" s="11">
         <f t="shared" si="4"/>
         <v>15958.8</v>
       </c>
-      <c r="V23" s="8">
+      <c r="V23" s="11">
         <f t="shared" si="5"/>
         <v>10.326086956521738</v>
       </c>
-      <c r="W23" s="8">
+      <c r="W23" s="11">
         <f t="shared" si="6"/>
         <v>0.26597999999999999</v>
       </c>
-      <c r="X23" s="8" t="s">
+      <c r="X23" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="D24" s="12">
         <v>286257</v>
@@ -3126,7 +3126,7 @@
         <v>3000</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J24" s="11">
         <v>2100</v>
@@ -3139,7 +3139,7 @@
         <v>476</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P24" s="11">
         <v>3000</v>
@@ -3169,15 +3169,15 @@
         <v>0.22440454097332177</v>
       </c>
       <c r="X24" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D25" s="1">
         <v>291990</v>
@@ -3205,7 +3205,7 @@
         <v>306</v>
       </c>
       <c r="N25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P25">
         <v>3000</v>
@@ -3235,15 +3235,15 @@
         <v>0.21738270301964233</v>
       </c>
       <c r="X25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D26" s="1">
         <v>296452</v>
@@ -3271,7 +3271,7 @@
         <v>534</v>
       </c>
       <c r="N26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P26">
         <v>3000</v>
@@ -3301,15 +3301,15 @@
         <v>0.22172879544841578</v>
       </c>
       <c r="X26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="B27" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="D27" s="12">
         <v>328496</v>
@@ -3337,7 +3337,7 @@
         <v>17</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P27" s="11">
         <v>3000</v>
@@ -3367,15 +3367,15 @@
         <v>0.1869017583901996</v>
       </c>
       <c r="X27" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="8" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" s="8" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="D28" s="9">
         <v>347776</v>
@@ -3406,7 +3406,7 @@
         <v>124</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P28" s="8">
         <v>3000</v>
@@ -3436,15 +3436,15 @@
         <v>0.18545096257745827</v>
       </c>
       <c r="X28" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B29" t="s">
         <v>121</v>
-      </c>
-      <c r="B29" t="s">
-        <v>122</v>
       </c>
       <c r="D29" s="1">
         <v>307045</v>
@@ -3472,7 +3472,7 @@
         <v>566</v>
       </c>
       <c r="N29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P29">
         <v>3000</v>
@@ -3502,15 +3502,15 @@
         <v>0.25602626341039297</v>
       </c>
       <c r="X29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="B30" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="9">
         <v>315000</v>
@@ -3538,7 +3538,7 @@
         <v>449</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P30" s="8">
         <v>3000</v>
@@ -3568,222 +3568,222 @@
         <v>0.22801818181818181</v>
       </c>
       <c r="X30" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="B31" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="9">
+      <c r="D31" s="12">
         <v>439000</v>
       </c>
-      <c r="E31" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F31" s="9">
+      <c r="E31" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F31" s="12">
         <v>2618</v>
       </c>
-      <c r="G31" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H31" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I31" s="8">
+      <c r="G31" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H31" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I31" s="11">
         <v>988</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="11">
         <v>2350</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="11">
         <v>2650</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="11">
         <f t="shared" si="0"/>
         <v>-268</v>
       </c>
-      <c r="N31" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="P31" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R31" s="8">
+      <c r="N31" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="P31" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R31" s="11">
         <f t="shared" si="1"/>
         <v>5.7403189066059221</v>
       </c>
-      <c r="S31" s="8">
+      <c r="S31" s="11">
         <f t="shared" si="2"/>
         <v>90800</v>
       </c>
-      <c r="T31" s="8">
+      <c r="T31" s="11">
         <f t="shared" si="3"/>
         <v>13310.480000000001</v>
       </c>
-      <c r="U31" s="8">
+      <c r="U31" s="11">
         <f t="shared" si="4"/>
         <v>11889.519999999999</v>
       </c>
-      <c r="V31" s="8">
+      <c r="V31" s="11">
         <f t="shared" si="5"/>
         <v>15.567375886524824</v>
       </c>
-      <c r="W31" s="8">
+      <c r="W31" s="11">
         <f t="shared" si="6"/>
         <v>0.13094185022026431</v>
       </c>
-      <c r="X31" s="8" t="s">
+      <c r="X31" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="B32" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="D32" s="12">
         <v>336252</v>
       </c>
-      <c r="E32" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="E32" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F32" s="12">
         <v>1899</v>
       </c>
-      <c r="G32" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H32" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I32" s="8">
+      <c r="G32" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H32" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I32" s="11">
         <v>545</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="11">
         <v>2050</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="11">
         <v>1975</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="11">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="N32" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="P32" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R32" s="8">
+      <c r="N32" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P32" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R32" s="11">
         <f t="shared" si="1"/>
         <v>6.4237536133614075</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S32" s="11">
         <f t="shared" si="2"/>
         <v>70250.400000000009</v>
       </c>
-      <c r="T32" s="8">
+      <c r="T32" s="11">
         <f t="shared" si="3"/>
         <v>10195.16064</v>
       </c>
-      <c r="U32" s="8">
+      <c r="U32" s="11">
         <f t="shared" si="4"/>
         <v>11404.83936</v>
       </c>
-      <c r="V32" s="8">
+      <c r="V32" s="11">
         <f t="shared" si="5"/>
         <v>13.668780487804877</v>
       </c>
-      <c r="W32" s="8">
+      <c r="W32" s="11">
         <f t="shared" si="6"/>
         <v>0.16234554337057153</v>
       </c>
-      <c r="X32" s="8" t="s">
+      <c r="X32" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="B33" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="9">
+      <c r="D33" s="12">
         <v>298179</v>
       </c>
-      <c r="E33" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F33" s="9">
+      <c r="E33" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F33" s="12">
         <v>1793</v>
       </c>
-      <c r="G33" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H33" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I33" s="8">
+      <c r="G33" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H33" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I33" s="11">
         <v>514</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="11">
         <v>2050</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="11">
         <v>1800</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="11">
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
-      <c r="N33" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="P33" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R33" s="8">
+      <c r="N33" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P33" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R33" s="11">
         <f t="shared" si="1"/>
         <v>7.2439709033835378</v>
       </c>
-      <c r="S33" s="8">
+      <c r="S33" s="11">
         <f t="shared" si="2"/>
         <v>62635.8</v>
       </c>
-      <c r="T33" s="8">
+      <c r="T33" s="11">
         <f t="shared" si="3"/>
         <v>9040.7872800000005</v>
       </c>
-      <c r="U33" s="8">
+      <c r="U33" s="11">
         <f t="shared" si="4"/>
         <v>12559.21272</v>
       </c>
-      <c r="V33" s="8">
+      <c r="V33" s="11">
         <f t="shared" si="5"/>
         <v>12.12109756097561</v>
       </c>
-      <c r="W33" s="8">
+      <c r="W33" s="11">
         <f t="shared" si="6"/>
         <v>0.20051173162951538</v>
       </c>
-      <c r="X33" s="8" t="s">
+      <c r="X33" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" s="8" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="D34" s="9">
         <v>379298</v>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P34" s="8">
         <v>3000</v>
@@ -3844,15 +3844,15 @@
         <v>0.15850555468199176</v>
       </c>
       <c r="X34" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="D35" s="9">
         <v>369900</v>
@@ -3883,7 +3883,7 @@
         <v>206</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P35" s="8">
         <v>3000</v>
@@ -3913,15 +3913,15 @@
         <v>0.17387155105222135</v>
       </c>
       <c r="X35" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" s="9">
         <v>320000</v>
@@ -3952,7 +3952,7 @@
         <v>279</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P36" s="8">
         <v>3000</v>
@@ -3982,84 +3982,84 @@
         <v>0.18653134328358206</v>
       </c>
       <c r="X36" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D37" s="12">
+        <v>250309</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F37" s="12">
+        <v>1487</v>
+      </c>
+      <c r="G37" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H37" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I37" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="6">
-        <v>250309</v>
-      </c>
-      <c r="E37">
-        <v>0.2</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1487</v>
-      </c>
-      <c r="G37" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H37">
-        <v>3000</v>
-      </c>
-      <c r="I37" t="s">
-        <v>149</v>
-      </c>
-      <c r="J37">
+      <c r="J37" s="11">
         <v>1850</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="11">
         <v>1750</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="11">
         <f t="shared" si="7"/>
         <v>363</v>
       </c>
-      <c r="N37" t="s">
-        <v>151</v>
-      </c>
-      <c r="P37">
-        <v>3000</v>
-      </c>
-      <c r="R37">
+      <c r="N37" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="P37" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R37" s="11">
         <f t="shared" si="1"/>
         <v>7.6705192382215586</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="11">
         <f t="shared" si="2"/>
         <v>53061.8</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="11">
         <f t="shared" si="3"/>
         <v>7589.3688800000009</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="11">
         <f t="shared" si="4"/>
         <v>11610.631119999998</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="11">
         <f t="shared" si="5"/>
         <v>11.275180180180181</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="11">
         <f t="shared" si="6"/>
         <v>0.21881336705501883</v>
       </c>
-      <c r="X37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X37" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D38" s="1">
         <v>363595</v>
@@ -4077,7 +4077,7 @@
         <v>3000</v>
       </c>
       <c r="I38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J38">
         <v>2300</v>
@@ -4087,7 +4087,7 @@
         <v>-241</v>
       </c>
       <c r="N38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P38">
         <v>3000</v>
@@ -4117,12 +4117,12 @@
         <v>0.17929185013008622</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="D39" s="9">
         <v>224000</v>
@@ -4140,7 +4140,7 @@
         <v>3000</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J39" s="8">
         <v>2200</v>
@@ -4183,15 +4183,15 @@
         <v>0.34745439330543931</v>
       </c>
       <c r="X39" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="B40" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="D40" s="12">
         <v>290000</v>
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P40" s="11">
         <v>3000</v>
@@ -4244,15 +4244,15 @@
         <v>-0.19332459016393444</v>
       </c>
       <c r="X40" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="B41" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="D41" s="12">
         <v>326094</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P41" s="11">
         <v>3000</v>
@@ -4305,15 +4305,15 @@
         <v>-0.18890936340129116</v>
       </c>
       <c r="X41" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" s="8" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" s="8" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="D42" s="9">
         <v>287000</v>
@@ -4344,7 +4344,7 @@
         <v>529</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P42" s="8">
         <v>3000</v>
@@ -4374,15 +4374,15 @@
         <v>0.24334701986754967</v>
       </c>
       <c r="X42" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="D43" s="9">
         <v>249990</v>
@@ -4413,7 +4413,7 @@
         <v>621</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P43" s="8">
         <v>3000</v>
@@ -4443,15 +4443,15 @@
         <v>0.27586518736556093</v>
       </c>
       <c r="X43" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="D44" s="9">
         <v>337432</v>
@@ -4479,7 +4479,7 @@
         <v>94</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P44" s="8">
         <v>3000</v>
@@ -4509,15 +4509,15 @@
         <v>0.18683124347391836</v>
       </c>
       <c r="X44" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="B45" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="D45" s="12">
         <v>329998</v>
@@ -4548,7 +4548,7 @@
         <v>321</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P45" s="11">
         <v>3000</v>
@@ -4578,12 +4578,12 @@
         <v>0.1941237433260482</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D46" s="6">
         <v>357068</v>
@@ -4608,7 +4608,7 @@
         <v>-2076</v>
       </c>
       <c r="N46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P46">
         <v>3000</v>
@@ -4638,15 +4638,15 @@
         <v>-0.1858034251803434</v>
       </c>
       <c r="X46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="B47" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="D47" s="6">
         <v>285681</v>
@@ -4677,7 +4677,7 @@
         <v>401</v>
       </c>
       <c r="N47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P47">
         <v>3000</v>
@@ -4707,15 +4707,15 @@
         <v>0.23510218603769442</v>
       </c>
       <c r="X47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="D48" s="9">
         <v>384999</v>
@@ -4746,7 +4746,7 @@
         <v>82</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P48" s="8">
         <v>3000</v>
@@ -4776,84 +4776,84 @@
         <v>0.16158578296445739</v>
       </c>
       <c r="X48" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="B49" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" s="9">
+      <c r="D49" s="12">
         <v>329950</v>
       </c>
-      <c r="E49" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F49" s="9">
+      <c r="E49" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F49" s="12">
         <v>1878</v>
       </c>
-      <c r="G49" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H49" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I49" s="8">
+      <c r="G49" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H49" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I49" s="11">
         <v>745</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="11">
         <v>2200</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="11">
         <v>2000</v>
       </c>
-      <c r="L49" s="8">
+      <c r="L49" s="11">
         <f t="shared" si="7"/>
         <v>322</v>
       </c>
-      <c r="N49" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="P49" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R49" s="8">
+      <c r="N49" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="P49" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R49" s="11">
         <f t="shared" si="1"/>
         <v>7.0919836338839222</v>
       </c>
-      <c r="S49" s="8">
+      <c r="S49" s="11">
         <f t="shared" si="2"/>
         <v>68990</v>
       </c>
-      <c r="T49" s="8">
+      <c r="T49" s="11">
         <f t="shared" si="3"/>
         <v>10004.084000000001</v>
       </c>
-      <c r="U49" s="8">
+      <c r="U49" s="11">
         <f t="shared" si="4"/>
         <v>13395.915999999999</v>
       </c>
-      <c r="V49" s="8">
+      <c r="V49" s="11">
         <f t="shared" si="5"/>
         <v>12.498106060606061</v>
       </c>
-      <c r="W49" s="8">
+      <c r="W49" s="11">
         <f t="shared" si="6"/>
         <v>0.19417185099289752</v>
       </c>
-      <c r="X49" s="8" t="s">
+      <c r="X49" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" s="8" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="D50" s="9">
         <v>272789</v>
@@ -4881,7 +4881,7 @@
         <v>639</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P50" s="8">
         <v>3000</v>
@@ -4911,342 +4911,342 @@
         <v>0.27327377905340366</v>
       </c>
       <c r="X50" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C51" t="s">
-        <v>200</v>
-      </c>
-      <c r="D51">
+      <c r="D51" s="8">
         <v>219900</v>
       </c>
-      <c r="E51">
-        <v>0.2</v>
-      </c>
-      <c r="F51">
+      <c r="E51" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F51" s="8">
         <v>1458</v>
       </c>
-      <c r="G51">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H51">
-        <v>3000</v>
-      </c>
-      <c r="I51">
+      <c r="G51" s="8">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H51" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I51" s="8">
         <v>434</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="8">
         <v>1650</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="8">
         <f t="shared" si="7"/>
         <v>192</v>
       </c>
-      <c r="N51" t="s">
-        <v>74</v>
-      </c>
-      <c r="P51">
-        <v>3000</v>
-      </c>
-      <c r="R51">
+      <c r="N51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P51" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R51" s="8">
         <f t="shared" si="1"/>
         <v>7.6398362892223739</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="8">
         <f t="shared" si="2"/>
         <v>46980</v>
       </c>
-      <c r="T51">
+      <c r="T51" s="8">
         <f t="shared" si="3"/>
         <v>6667.3680000000004</v>
       </c>
-      <c r="U51">
+      <c r="U51" s="8">
         <f t="shared" si="4"/>
         <v>10132.632</v>
       </c>
-      <c r="V51">
+      <c r="V51" s="8">
         <f t="shared" si="5"/>
         <v>11.106060606060606</v>
       </c>
-      <c r="W51">
+      <c r="W51" s="8">
         <f t="shared" si="6"/>
         <v>0.21567969348659002</v>
       </c>
-      <c r="X51" t="s">
+      <c r="X51" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="C52" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C52" t="s">
-        <v>203</v>
-      </c>
-      <c r="D52">
+      <c r="D52" s="8">
         <v>215990</v>
       </c>
-      <c r="E52">
-        <v>0.2</v>
-      </c>
-      <c r="F52">
+      <c r="E52" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F52" s="8">
         <v>1327</v>
       </c>
-      <c r="G52">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H52">
-        <v>3000</v>
-      </c>
-      <c r="I52">
+      <c r="G52" s="8">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H52" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I52" s="8">
         <v>534</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="8">
         <v>1650</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="8">
         <f t="shared" si="7"/>
         <v>323</v>
       </c>
-      <c r="N52" t="s">
-        <v>74</v>
-      </c>
-      <c r="P52">
-        <v>3000</v>
-      </c>
-      <c r="R52">
+      <c r="N52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P52" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R52" s="8">
         <f t="shared" si="1"/>
         <v>7.7781378767535534</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="8">
         <f t="shared" si="2"/>
         <v>46198</v>
       </c>
-      <c r="T52">
+      <c r="T52" s="8">
         <f t="shared" si="3"/>
         <v>6548.8168000000005</v>
       </c>
-      <c r="U52">
+      <c r="U52" s="8">
         <f t="shared" si="4"/>
         <v>10251.183199999999</v>
       </c>
-      <c r="V52">
+      <c r="V52" s="8">
         <f t="shared" si="5"/>
         <v>10.908585858585859</v>
       </c>
-      <c r="W52">
+      <c r="W52" s="8">
         <f t="shared" si="6"/>
         <v>0.22189668816831895</v>
       </c>
-      <c r="X52" t="s">
+      <c r="X52" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="C53" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C53" t="s">
-        <v>206</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="D53" s="9">
         <v>234900</v>
       </c>
-      <c r="E53">
-        <v>0.2</v>
-      </c>
-      <c r="F53">
+      <c r="E53" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F53" s="8">
         <v>1608</v>
       </c>
-      <c r="G53">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H53">
-        <v>3000</v>
-      </c>
-      <c r="I53">
+      <c r="G53" s="8">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H53" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I53" s="8">
         <v>645</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="8">
         <v>1650</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="8">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="N53" t="s">
-        <v>194</v>
-      </c>
-      <c r="P53">
-        <v>3000</v>
-      </c>
-      <c r="R53">
+      <c r="N53" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="P53" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R53" s="8">
         <f t="shared" si="1"/>
         <v>7.1519795657726695</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="8">
         <f t="shared" si="2"/>
         <v>49980</v>
       </c>
-      <c r="T53">
+      <c r="T53" s="8">
         <f t="shared" si="3"/>
         <v>7122.1680000000006</v>
       </c>
-      <c r="U53">
+      <c r="U53" s="8">
         <f t="shared" si="4"/>
         <v>9677.8319999999985</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="8">
         <f t="shared" si="5"/>
         <v>11.863636363636363</v>
       </c>
-      <c r="W53">
+      <c r="W53" s="8">
         <f t="shared" si="6"/>
         <v>0.19363409363745496</v>
       </c>
       <c r="X53" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="C54" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C54" t="s">
-        <v>209</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="D54" s="9">
         <v>243900</v>
       </c>
-      <c r="E54">
-        <v>0.2</v>
-      </c>
-      <c r="F54">
+      <c r="E54" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F54" s="8">
         <v>1630</v>
       </c>
-      <c r="G54">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H54">
-        <v>3000</v>
-      </c>
-      <c r="I54">
+      <c r="G54" s="8">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H54" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I54" s="8">
         <v>445</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="8">
         <v>1700</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="8">
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="N54" t="s">
-        <v>74</v>
-      </c>
-      <c r="P54">
-        <v>3000</v>
-      </c>
-      <c r="R54">
+      <c r="N54" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P54" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R54" s="8">
         <f t="shared" si="1"/>
         <v>7.1340713407134073</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="8">
         <f t="shared" si="2"/>
         <v>51780</v>
       </c>
-      <c r="T54">
+      <c r="T54" s="8">
         <f t="shared" si="3"/>
         <v>7395.0480000000007</v>
       </c>
-      <c r="U54">
+      <c r="U54" s="8">
         <f t="shared" si="4"/>
         <v>10004.951999999999</v>
       </c>
-      <c r="V54">
+      <c r="V54" s="8">
         <f t="shared" si="5"/>
         <v>11.955882352941176</v>
       </c>
-      <c r="W54">
+      <c r="W54" s="8">
         <f t="shared" si="6"/>
         <v>0.19322039397450752</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C55" t="s">
-        <v>211</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="D55" s="9">
         <v>229750</v>
       </c>
-      <c r="E55">
-        <v>0.2</v>
-      </c>
-      <c r="F55">
+      <c r="E55" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F55" s="8">
         <v>1607</v>
       </c>
-      <c r="G55">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H55">
-        <v>3000</v>
-      </c>
-      <c r="I55">
+      <c r="G55" s="8">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H55" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I55" s="8">
         <v>645</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="8">
         <v>1850</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="8">
         <f t="shared" si="7"/>
         <v>243</v>
       </c>
-      <c r="N55" t="s">
-        <v>194</v>
-      </c>
-      <c r="P55">
-        <v>3000</v>
-      </c>
-      <c r="R55">
+      <c r="N55" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="P55" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R55" s="8">
         <f t="shared" si="1"/>
         <v>8.3569096844396089</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="8">
         <f t="shared" si="2"/>
         <v>48950</v>
       </c>
-      <c r="T55">
+      <c r="T55" s="8">
         <f t="shared" si="3"/>
         <v>6966.02</v>
       </c>
-      <c r="U55">
+      <c r="U55" s="8">
         <f t="shared" si="4"/>
         <v>12233.98</v>
       </c>
-      <c r="V55">
+      <c r="V55" s="8">
         <f t="shared" si="5"/>
         <v>10.349099099099099</v>
       </c>
-      <c r="W55">
+      <c r="W55" s="8">
         <f t="shared" si="6"/>
         <v>0.24992808988764045</v>
       </c>
-      <c r="X55" t="s">
+      <c r="X55" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="C56" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C56" t="s">
-        <v>214</v>
       </c>
       <c r="D56" s="1">
         <v>379000</v>
@@ -5274,7 +5274,7 @@
         <v>-592</v>
       </c>
       <c r="N56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P56">
         <v>3000</v>
@@ -5304,76 +5304,76 @@
         <v>0.15112588832487309</v>
       </c>
       <c r="X56" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>216</v>
-      </c>
-      <c r="C57" t="s">
-        <v>217</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="D57" s="9">
         <v>264000</v>
       </c>
-      <c r="E57">
-        <v>0.2</v>
-      </c>
-      <c r="F57">
+      <c r="E57" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F57" s="8">
         <v>1769</v>
       </c>
-      <c r="G57">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H57">
-        <v>3000</v>
-      </c>
-      <c r="I57">
+      <c r="G57" s="8">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H57" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I57" s="8">
         <v>445</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="8">
         <v>2200</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="8">
         <f t="shared" si="7"/>
         <v>431</v>
       </c>
-      <c r="N57" t="s">
-        <v>74</v>
-      </c>
-      <c r="P57">
-        <v>3000</v>
-      </c>
-      <c r="R57">
+      <c r="N57" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P57" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R57" s="8">
         <f t="shared" si="1"/>
         <v>8.8636363636363633</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="8">
         <f t="shared" si="2"/>
         <v>55800</v>
       </c>
-      <c r="T57">
+      <c r="T57" s="8">
         <f t="shared" si="3"/>
         <v>8004.4800000000005</v>
       </c>
-      <c r="U57">
+      <c r="U57" s="8">
         <f t="shared" si="4"/>
         <v>15395.52</v>
       </c>
-      <c r="V57">
+      <c r="V57" s="8">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="W57">
+      <c r="W57" s="8">
         <f t="shared" si="6"/>
         <v>0.27590537634408602</v>
       </c>
-      <c r="X57" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X57" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E58">
         <v>0.2</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E59">
         <v>0.2</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E60">
         <v>0.2</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E61">
         <v>0.2</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E62">
         <v>0.2</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E63">
         <v>0.2</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E64">
         <v>0.2</v>
       </c>
@@ -5667,9 +5667,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E65">
         <v>0.2</v>
@@ -5712,12 +5712,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C66" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D66" s="1">
         <v>83500</v>
@@ -5745,7 +5745,7 @@
         <v>239</v>
       </c>
       <c r="N66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P66">
         <v>3000</v>
@@ -5775,15 +5775,15 @@
         <v>0.32833908629441622</v>
       </c>
       <c r="X66" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D67" s="1">
         <v>125000</v>
@@ -5811,7 +5811,7 @@
         <v>60</v>
       </c>
       <c r="N67" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P67">
         <v>3000</v>
@@ -5841,15 +5841,15 @@
         <v>0.18607142857142858</v>
       </c>
       <c r="X67" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C68" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D68" s="1">
         <v>95000</v>
@@ -5877,7 +5877,7 @@
         <v>328</v>
       </c>
       <c r="N68" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P68">
         <v>3000</v>
@@ -5907,15 +5907,15 @@
         <v>0.38725454545454546</v>
       </c>
       <c r="X68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>229</v>
-      </c>
-      <c r="C69" t="s">
-        <v>230</v>
       </c>
       <c r="D69" s="1">
         <v>69999</v>
@@ -5943,7 +5943,7 @@
         <v>96</v>
       </c>
       <c r="N69" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P69">
         <v>3000</v>
@@ -5973,15 +5973,15 @@
         <v>0.26339311756608896</v>
       </c>
       <c r="X69" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C70" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D70" s="1">
         <v>129999</v>
@@ -6009,7 +6009,7 @@
         <v>-20</v>
       </c>
       <c r="N70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P70">
         <v>3000</v>
@@ -6039,15 +6039,15 @@
         <v>0.15374003682784015</v>
       </c>
       <c r="X70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>234</v>
-      </c>
-      <c r="C71" t="s">
-        <v>235</v>
       </c>
       <c r="D71" s="1">
         <v>132900</v>
@@ -6075,7 +6075,7 @@
         <v>-109</v>
       </c>
       <c r="N71" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P71">
         <v>3000</v>
@@ -6105,15 +6105,15 @@
         <v>0.14775091277890465</v>
       </c>
       <c r="X71" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" t="s">
         <v>240</v>
-      </c>
-      <c r="C72" t="s">
-        <v>242</v>
       </c>
       <c r="D72" s="1">
         <v>122500</v>
@@ -6131,7 +6131,7 @@
         <v>3000</v>
       </c>
       <c r="I72" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J72">
         <v>1100</v>
@@ -6141,7 +6141,7 @@
         <v>389</v>
       </c>
       <c r="N72" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P72">
         <v>3000</v>
@@ -6171,10 +6171,10 @@
         <v>0.23584727272727271</v>
       </c>
       <c r="X72" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E73">
         <v>0.2</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E74">
         <v>0.2</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E75">
         <v>0.2</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E76">
         <v>0.2</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E77">
         <v>0.2</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E78">
         <v>0.2</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E79">
         <v>0.2</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -6525,7 +6525,7 @@
       <c r="Y80"/>
       <c r="Z80"/>
     </row>
-    <row r="81" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>63</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>0.15795443037974682</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>0.11791150442477875</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -6722,7 +6722,7 @@
       <c r="Y83"/>
       <c r="Z83"/>
     </row>
-    <row r="84" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>30</v>
       </c>
@@ -6793,7 +6793,7 @@
       <c r="Y84"/>
       <c r="Z84"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>9.8825465838509291E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86" t="s">
@@ -6925,7 +6925,7 @@
       <c r="Y86"/>
       <c r="Z86"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>0.14472442748091602</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" s="7" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -7066,7 +7066,7 @@
       <c r="Y88"/>
       <c r="Z88"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E89">
         <v>0.2</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E90">
         <v>0.2</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E91">
         <v>0.2</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E92">
         <v>0.2</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E93">
         <v>0.2</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E94">
         <v>0.2</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="1:26" s="10" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" s="10" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -7375,7 +7375,7 @@
       <c r="Y95"/>
       <c r="Z95"/>
     </row>
-    <row r="96" spans="1:26" s="8" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" s="8" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -7432,7 +7432,7 @@
       <c r="Y96"/>
       <c r="Z96"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E97">
         <v>0.2</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -7531,7 +7531,7 @@
       <c r="Y98"/>
       <c r="Z98"/>
     </row>
-    <row r="99" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -7588,7 +7588,7 @@
       <c r="Y99"/>
       <c r="Z99"/>
     </row>
-    <row r="100" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -7645,7 +7645,7 @@
       <c r="Y100"/>
       <c r="Z100"/>
     </row>
-    <row r="101" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -7702,7 +7702,7 @@
       <c r="Y101"/>
       <c r="Z101"/>
     </row>
-    <row r="102" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -7759,7 +7759,7 @@
       <c r="Y102"/>
       <c r="Z102"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E103">
         <v>0.2</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E104">
         <v>0.2</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E105">
         <v>0.2</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E106">
         <v>0.2</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -7984,7 +7984,7 @@
       <c r="Y107"/>
       <c r="Z107"/>
     </row>
-    <row r="108" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -8041,7 +8041,7 @@
       <c r="Y108"/>
       <c r="Z108"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E109">
         <v>0.2</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E110">
         <v>0.2</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E111">
         <v>0.2</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E112">
         <v>0.2</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:23" x14ac:dyDescent="0.3">
       <c r="E113">
         <v>0.2</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="114" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:23" x14ac:dyDescent="0.3">
       <c r="E114">
         <v>0.2</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:23" x14ac:dyDescent="0.3">
       <c r="E115">
         <v>0.2</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:23" x14ac:dyDescent="0.3">
       <c r="E116">
         <v>0.2</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:23" x14ac:dyDescent="0.3">
       <c r="E117">
         <v>0.2</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="118" spans="5:23" x14ac:dyDescent="0.3">
       <c r="H118">
         <v>3000</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:23" x14ac:dyDescent="0.3">
       <c r="H119">
         <v>3000</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:23" x14ac:dyDescent="0.3">
       <c r="H120">
         <v>3000</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="5:23" x14ac:dyDescent="0.3">
       <c r="H121">
         <v>3000</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="5:23" x14ac:dyDescent="0.3">
       <c r="H122">
         <v>3000</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="123" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="5:23" x14ac:dyDescent="0.3">
       <c r="H123">
         <v>3000</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="124" spans="5:23" x14ac:dyDescent="0.3">
       <c r="H124">
         <v>3000</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="125" spans="5:23" x14ac:dyDescent="0.3">
       <c r="H125">
         <v>3000</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="126" spans="5:23" x14ac:dyDescent="0.3">
       <c r="P126">
         <v>3000</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="127" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="127" spans="5:23" x14ac:dyDescent="0.3">
       <c r="P127">
         <v>3000</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="128" spans="5:23" x14ac:dyDescent="0.3">
       <c r="P128">
         <v>3000</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -8750,44 +8750,54 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C88" r:id="rId1" location="redfin-estimate"/>
-    <hyperlink ref="C81" r:id="rId2" location="schools"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="B12" r:id="rId4"/>
-    <hyperlink ref="B13" r:id="rId5"/>
-    <hyperlink ref="B15" r:id="rId6"/>
-    <hyperlink ref="B14" r:id="rId7"/>
-    <hyperlink ref="B33" r:id="rId8"/>
-    <hyperlink ref="C7" r:id="rId9" location="schools"/>
-    <hyperlink ref="C9" r:id="rId10"/>
-    <hyperlink ref="C10" r:id="rId11"/>
-    <hyperlink ref="B19" r:id="rId12"/>
-    <hyperlink ref="B20" r:id="rId13"/>
-    <hyperlink ref="B21" r:id="rId14"/>
-    <hyperlink ref="B22" r:id="rId15"/>
-    <hyperlink ref="B23" r:id="rId16"/>
-    <hyperlink ref="B25" r:id="rId17"/>
-    <hyperlink ref="B26" r:id="rId18"/>
-    <hyperlink ref="B28" r:id="rId19"/>
-    <hyperlink ref="B30" r:id="rId20"/>
-    <hyperlink ref="B31" r:id="rId21"/>
-    <hyperlink ref="B32" r:id="rId22"/>
-    <hyperlink ref="B34" r:id="rId23"/>
-    <hyperlink ref="B35" r:id="rId24"/>
-    <hyperlink ref="B36" r:id="rId25"/>
-    <hyperlink ref="B37" r:id="rId26"/>
-    <hyperlink ref="B38" r:id="rId27"/>
-    <hyperlink ref="B39" r:id="rId28"/>
-    <hyperlink ref="B42" r:id="rId29"/>
-    <hyperlink ref="B43" r:id="rId30"/>
-    <hyperlink ref="B44" r:id="rId31"/>
-    <hyperlink ref="B45" r:id="rId32"/>
-    <hyperlink ref="B47" r:id="rId33"/>
-    <hyperlink ref="B48" r:id="rId34"/>
-    <hyperlink ref="B49" r:id="rId35"/>
-    <hyperlink ref="B50" r:id="rId36"/>
+    <hyperlink ref="C88" r:id="rId1" location="redfin-estimate" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C81" r:id="rId2" location="schools" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B33" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C7" r:id="rId9" location="schools" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B30" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B34" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B35" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B36" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B37" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B42" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B43" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B44" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B47" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B48" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B49" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B50" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B16" r:id="rId37" xr:uid="{8DACDBCF-FFFC-4F38-9F4C-3369DB385180}"/>
+    <hyperlink ref="B17" r:id="rId38" xr:uid="{CEEA715D-6981-47E6-AEDF-268B3499742A}"/>
+    <hyperlink ref="B18" r:id="rId39" xr:uid="{8C3401C1-ED79-4C66-AF62-894AE56C1F5F}"/>
+    <hyperlink ref="C51" r:id="rId40" xr:uid="{39BFFA3C-5737-44A9-8786-BAAC899C0014}"/>
+    <hyperlink ref="C52" r:id="rId41" xr:uid="{7DA86044-347C-48B5-91C6-DD1552759EA1}"/>
+    <hyperlink ref="C53" r:id="rId42" xr:uid="{17F49A6B-4519-4D19-A94B-79E3DC672042}"/>
+    <hyperlink ref="C54" r:id="rId43" xr:uid="{AD95224F-91F0-43E9-A9C2-5A721C2A22C2}"/>
+    <hyperlink ref="C55" r:id="rId44" xr:uid="{6A6110B1-0B99-4489-8745-791F84252448}"/>
+    <hyperlink ref="C56" r:id="rId45" location="redfin-estimate" xr:uid="{F39A8954-368F-4418-B4CA-B328FFB23C3B}"/>
+    <hyperlink ref="C57" r:id="rId46" xr:uid="{56408F47-28E8-464B-BC9A-6EC851B6690F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
--- a/austin (Autosaved).xlsx
+++ b/austin (Autosaved).xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\property\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufengzhu/Documents/property/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1060" windowWidth="33600" windowHeight="18860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -342,9 +342,6 @@
     <t>95年，大院子，门口高速要收费</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/8516-Delavan-Ave-Austin-TX-78717/29547996_zpid/</t>
-  </si>
-  <si>
     <t>8516 Delavan Ave,Austin, TX 78717</t>
   </si>
   <si>
@@ -778,12 +775,15 @@
   </si>
   <si>
     <t>地税税率和房子保险zillow和redfin差距比较大，房子不错</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8516-Delavan-Ave-Austin-TX-78717/29547996_zpid/a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1121,7 +1121,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1137,6 +1137,7 @@
     <xf numFmtId="3" fontId="7" fillId="4" borderId="2" xfId="184" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="184" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="182" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="212">
     <cellStyle name="Bad" xfId="183" builtinId="27"/>
@@ -1627,39 +1628,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.296875" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="5" max="5" width="4.69921875" customWidth="1"/>
-    <col min="6" max="6" width="7.796875" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" customWidth="1"/>
+    <col min="1" max="1" width="55.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
-    <col min="10" max="10" width="8.796875" customWidth="1"/>
-    <col min="11" max="11" width="9.19921875" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="7.69921875" customWidth="1"/>
-    <col min="14" max="14" width="15.296875" customWidth="1"/>
-    <col min="15" max="15" width="9.19921875" customWidth="1"/>
-    <col min="16" max="16" width="8.19921875" customWidth="1"/>
-    <col min="17" max="17" width="2.69921875" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="8.1640625" customWidth="1"/>
+    <col min="17" max="17" width="2.6640625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.69921875" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
     <col min="20" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="12.69921875" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" customWidth="1"/>
     <col min="24" max="24" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1731,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E2">
         <v>0.2</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -1829,7 +1830,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E4">
         <v>0.2</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -1928,7 +1929,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" s="7" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1987,7 +1988,7 @@
       <c r="Y6"/>
       <c r="Z6"/>
     </row>
-    <row r="7" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>40</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>0.31985046727281763</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>44</v>
       </c>
@@ -2125,7 +2126,7 @@
         <v>0.25001176470588232</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>0.24599213759213759</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>52</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>0.22062267043162564</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="16.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>0.2</v>
       </c>
@@ -2305,12 +2306,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D12" s="1">
         <v>259000</v>
@@ -2374,7 +2375,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>75</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -2707,7 +2708,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>84</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>86</v>
       </c>
@@ -2905,7 +2906,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="8" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" s="8" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>90</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>93</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>0.23990813158692209</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>97</v>
       </c>
@@ -3103,12 +3104,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="11" t="s">
         <v>100</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="D24" s="12">
         <v>286257</v>
@@ -3126,7 +3127,7 @@
         <v>3000</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J24" s="11">
         <v>2100</v>
@@ -3139,7 +3140,7 @@
         <v>476</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P24" s="11">
         <v>3000</v>
@@ -3169,15 +3170,15 @@
         <v>0.22440454097332177</v>
       </c>
       <c r="X24" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D25" s="1">
         <v>291990</v>
@@ -3205,7 +3206,7 @@
         <v>306</v>
       </c>
       <c r="N25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P25">
         <v>3000</v>
@@ -3235,15 +3236,15 @@
         <v>0.21738270301964233</v>
       </c>
       <c r="X25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B26" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D26" s="1">
         <v>296452</v>
@@ -3271,7 +3272,7 @@
         <v>534</v>
       </c>
       <c r="N26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P26">
         <v>3000</v>
@@ -3301,15 +3302,15 @@
         <v>0.22172879544841578</v>
       </c>
       <c r="X26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+      <c r="B27" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="D27" s="12">
         <v>328496</v>
@@ -3337,7 +3338,7 @@
         <v>17</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P27" s="11">
         <v>3000</v>
@@ -3367,15 +3368,15 @@
         <v>0.1869017583901996</v>
       </c>
       <c r="X27" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="8" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" s="8" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="D28" s="9">
         <v>347776</v>
@@ -3406,7 +3407,7 @@
         <v>124</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P28" s="8">
         <v>3000</v>
@@ -3436,78 +3437,78 @@
         <v>0.18545096257745827</v>
       </c>
       <c r="X28" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="D29" s="9">
         <v>307045</v>
       </c>
-      <c r="E29">
-        <v>0.2</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="E29" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="9">
         <v>1834</v>
       </c>
-      <c r="G29" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H29">
-        <v>3000</v>
-      </c>
-      <c r="I29">
+      <c r="G29" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H29" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I29" s="8">
         <v>345</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="8">
         <v>2400</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="8">
         <f t="shared" si="0"/>
         <v>566</v>
       </c>
-      <c r="N29" t="s">
-        <v>122</v>
-      </c>
-      <c r="P29">
-        <v>3000</v>
-      </c>
-      <c r="R29">
+      <c r="N29" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R29" s="8">
         <f t="shared" si="1"/>
         <v>8.4026771320164801</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="8">
         <f t="shared" si="2"/>
         <v>64409</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="8">
         <f t="shared" si="3"/>
         <v>9309.6044000000002</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="8">
         <f t="shared" si="4"/>
         <v>16490.3956</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="8">
         <f t="shared" si="5"/>
         <v>10.661284722222222</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="8">
         <f t="shared" si="6"/>
         <v>0.25602626341039297</v>
       </c>
-      <c r="X29" t="s">
+      <c r="X29" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>92</v>
@@ -3538,7 +3539,7 @@
         <v>449</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P30" s="8">
         <v>3000</v>
@@ -3568,15 +3569,15 @@
         <v>0.22801818181818181</v>
       </c>
       <c r="X30" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
+      <c r="B31" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>128</v>
       </c>
       <c r="D31" s="12">
         <v>439000</v>
@@ -3607,7 +3608,7 @@
         <v>-268</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P31" s="11">
         <v>3000</v>
@@ -3637,15 +3638,15 @@
         <v>0.13094185022026431</v>
       </c>
       <c r="X31" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="D32" s="12">
         <v>336252</v>
@@ -3676,7 +3677,7 @@
         <v>151</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P32" s="11">
         <v>3000</v>
@@ -3706,15 +3707,15 @@
         <v>0.16234554337057153</v>
       </c>
       <c r="X32" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
+      <c r="B33" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="D33" s="12">
         <v>298179</v>
@@ -3745,7 +3746,7 @@
         <v>257</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P33" s="11">
         <v>3000</v>
@@ -3775,15 +3776,15 @@
         <v>0.20051173162951538</v>
       </c>
       <c r="X33" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" s="8" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" s="8" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="D34" s="9">
         <v>379298</v>
@@ -3814,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P34" s="8">
         <v>3000</v>
@@ -3844,15 +3845,15 @@
         <v>0.15850555468199176</v>
       </c>
       <c r="X34" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="D35" s="9">
         <v>369900</v>
@@ -3883,7 +3884,7 @@
         <v>206</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P35" s="8">
         <v>3000</v>
@@ -3913,84 +3914,84 @@
         <v>0.17387155105222135</v>
       </c>
       <c r="X35" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="9">
+      <c r="B36" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="12">
         <v>320000</v>
       </c>
-      <c r="E36" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F36" s="9">
+      <c r="E36" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F36" s="12">
         <v>1821</v>
       </c>
-      <c r="G36" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H36" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I36" s="8">
+      <c r="G36" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H36" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I36" s="11">
         <v>533</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="11">
         <v>2100</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="11">
         <v>1900</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="11">
         <f t="shared" si="7"/>
         <v>279</v>
       </c>
-      <c r="N36" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="P36" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R36" s="8">
+      <c r="N36" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="P36" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R36" s="11">
         <f t="shared" si="1"/>
         <v>6.9375</v>
       </c>
-      <c r="S36" s="8">
+      <c r="S36" s="11">
         <f t="shared" si="2"/>
         <v>67000</v>
       </c>
-      <c r="T36" s="8">
+      <c r="T36" s="11">
         <f t="shared" si="3"/>
         <v>9702.4000000000015</v>
       </c>
-      <c r="U36" s="8">
+      <c r="U36" s="11">
         <f t="shared" si="4"/>
         <v>12497.599999999999</v>
       </c>
-      <c r="V36" s="8">
+      <c r="V36" s="11">
         <f t="shared" si="5"/>
         <v>12.698412698412698</v>
       </c>
-      <c r="W36" s="8">
+      <c r="W36" s="11">
         <f t="shared" si="6"/>
         <v>0.18653134328358206</v>
       </c>
-      <c r="X36" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X36" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="D37" s="12">
         <v>250309</v>
@@ -4008,7 +4009,7 @@
         <v>3000</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J37" s="11">
         <v>1850</v>
@@ -4021,7 +4022,7 @@
         <v>363</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P37" s="11">
         <v>3000</v>
@@ -4051,15 +4052,15 @@
         <v>0.21881336705501883</v>
       </c>
       <c r="X37" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D38" s="1">
         <v>363595</v>
@@ -4077,7 +4078,7 @@
         <v>3000</v>
       </c>
       <c r="I38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J38">
         <v>2300</v>
@@ -4087,7 +4088,7 @@
         <v>-241</v>
       </c>
       <c r="N38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P38">
         <v>3000</v>
@@ -4117,81 +4118,81 @@
         <v>0.17929185013008622</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="D39" s="12">
+        <v>224000</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F39" s="12">
+        <v>1343</v>
+      </c>
+      <c r="G39" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H39" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I39" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="9">
-        <v>224000</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F39" s="9">
-        <v>1343</v>
-      </c>
-      <c r="G39" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H39" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="J39" s="8">
+      <c r="J39" s="11">
         <v>2200</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="11">
         <v>1650</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L39" s="11">
         <f t="shared" si="7"/>
         <v>857</v>
       </c>
-      <c r="N39" s="8" t="s">
+      <c r="N39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="P39" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R39" s="8">
+      <c r="P39" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R39" s="11">
         <f t="shared" si="1"/>
         <v>10.446428571428571</v>
       </c>
-      <c r="S39" s="8">
+      <c r="S39" s="11">
         <f t="shared" si="2"/>
         <v>47800</v>
       </c>
-      <c r="T39" s="8">
+      <c r="T39" s="11">
         <f t="shared" si="3"/>
         <v>6791.68</v>
       </c>
-      <c r="U39" s="8">
+      <c r="U39" s="11">
         <f t="shared" si="4"/>
         <v>16608.32</v>
       </c>
-      <c r="V39" s="8">
+      <c r="V39" s="11">
         <f t="shared" si="5"/>
         <v>8.4848484848484844</v>
       </c>
-      <c r="W39" s="8">
+      <c r="W39" s="11">
         <f t="shared" si="6"/>
         <v>0.34745439330543931</v>
       </c>
-      <c r="X39" s="8" t="s">
+      <c r="X39" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
+      <c r="B40" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>159</v>
       </c>
       <c r="D40" s="12">
         <v>290000</v>
@@ -4214,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P40" s="11">
         <v>3000</v>
@@ -4244,15 +4245,15 @@
         <v>-0.19332459016393444</v>
       </c>
       <c r="X40" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
+      <c r="B41" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="D41" s="12">
         <v>326094</v>
@@ -4275,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P41" s="11">
         <v>3000</v>
@@ -4305,15 +4306,15 @@
         <v>-0.18890936340129116</v>
       </c>
       <c r="X41" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" s="8" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" s="8" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="D42" s="9">
         <v>287000</v>
@@ -4374,15 +4375,15 @@
         <v>0.24334701986754967</v>
       </c>
       <c r="X42" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="D43" s="9">
         <v>249990</v>
@@ -4443,15 +4444,15 @@
         <v>0.27586518736556093</v>
       </c>
       <c r="X43" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="D44" s="9">
         <v>337432</v>
@@ -4479,7 +4480,7 @@
         <v>94</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P44" s="8">
         <v>3000</v>
@@ -4509,15 +4510,15 @@
         <v>0.18683124347391836</v>
       </c>
       <c r="X44" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
+      <c r="B45" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="D45" s="12">
         <v>329998</v>
@@ -4548,7 +4549,7 @@
         <v>321</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P45" s="11">
         <v>3000</v>
@@ -4578,75 +4579,75 @@
         <v>0.1941237433260482</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>179</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="46" spans="1:24" s="8" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="6">
+      <c r="B46" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="9">
         <v>357068</v>
       </c>
-      <c r="E46">
-        <v>0.2</v>
-      </c>
-      <c r="F46" s="1">
+      <c r="E46" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F46" s="9">
         <v>2076</v>
       </c>
-      <c r="G46" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H46">
-        <v>3000</v>
-      </c>
-      <c r="I46">
+      <c r="G46" s="14">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H46" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I46" s="8">
         <v>777</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="8">
         <f t="shared" si="7"/>
         <v>-2076</v>
       </c>
-      <c r="N46" t="s">
-        <v>180</v>
-      </c>
-      <c r="P46">
-        <v>3000</v>
-      </c>
-      <c r="R46">
+      <c r="N46" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="P46" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R46" s="8">
         <f t="shared" si="1"/>
         <v>-0.8401761009107509</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="8">
         <f t="shared" si="2"/>
         <v>74413.600000000006</v>
       </c>
-      <c r="T46">
+      <c r="T46" s="8">
         <f t="shared" si="3"/>
         <v>10826.301760000002</v>
       </c>
-      <c r="U46">
+      <c r="U46" s="8">
         <f t="shared" si="4"/>
         <v>-13826.301760000002</v>
       </c>
-      <c r="V46" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W46">
+      <c r="V46" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W46" s="8">
         <f t="shared" si="6"/>
         <v>-0.1858034251803434</v>
       </c>
-      <c r="X46" t="s">
+      <c r="X46" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B47" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="D47" s="6">
         <v>285681</v>
@@ -4677,7 +4678,7 @@
         <v>401</v>
       </c>
       <c r="N47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P47">
         <v>3000</v>
@@ -4707,15 +4708,15 @@
         <v>0.23510218603769442</v>
       </c>
       <c r="X47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="D48" s="9">
         <v>384999</v>
@@ -4746,7 +4747,7 @@
         <v>82</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P48" s="8">
         <v>3000</v>
@@ -4776,15 +4777,15 @@
         <v>0.16158578296445739</v>
       </c>
       <c r="X48" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="11" t="s">
+      <c r="B49" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="D49" s="12">
         <v>329950</v>
@@ -4815,7 +4816,7 @@
         <v>322</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P49" s="11">
         <v>3000</v>
@@ -4845,15 +4846,15 @@
         <v>0.19417185099289752</v>
       </c>
       <c r="X49" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" s="8" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" s="8" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="D50" s="9">
         <v>272789</v>
@@ -4881,7 +4882,7 @@
         <v>639</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P50" s="8">
         <v>3000</v>
@@ -4911,15 +4912,15 @@
         <v>0.27327377905340366</v>
       </c>
       <c r="X50" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="D51" s="8">
         <v>219900</v>
@@ -4977,276 +4978,276 @@
         <v>0.21567969348659002</v>
       </c>
       <c r="X51" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+      <c r="C52" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D52" s="8">
+      <c r="D52" s="11">
         <v>215990</v>
       </c>
-      <c r="E52" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F52" s="8">
+      <c r="E52" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F52" s="11">
         <v>1327</v>
       </c>
-      <c r="G52" s="8">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H52" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I52" s="8">
+      <c r="G52" s="11">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H52" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I52" s="11">
         <v>534</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="11">
         <v>1650</v>
       </c>
-      <c r="L52" s="8">
+      <c r="L52" s="11">
         <f t="shared" si="7"/>
         <v>323</v>
       </c>
-      <c r="N52" s="8" t="s">
+      <c r="N52" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="P52" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R52" s="8">
+      <c r="P52" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R52" s="11">
         <f t="shared" si="1"/>
         <v>7.7781378767535534</v>
       </c>
-      <c r="S52" s="8">
+      <c r="S52" s="11">
         <f t="shared" si="2"/>
         <v>46198</v>
       </c>
-      <c r="T52" s="8">
+      <c r="T52" s="11">
         <f t="shared" si="3"/>
         <v>6548.8168000000005</v>
       </c>
-      <c r="U52" s="8">
+      <c r="U52" s="11">
         <f t="shared" si="4"/>
         <v>10251.183199999999</v>
       </c>
-      <c r="V52" s="8">
+      <c r="V52" s="11">
         <f t="shared" si="5"/>
         <v>10.908585858585859</v>
       </c>
-      <c r="W52" s="8">
+      <c r="W52" s="11">
         <f t="shared" si="6"/>
         <v>0.22189668816831895</v>
       </c>
-      <c r="X52" s="8" t="s">
+      <c r="X52" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+      <c r="C53" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D53" s="9">
+      <c r="D53" s="12">
         <v>234900</v>
       </c>
-      <c r="E53" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F53" s="8">
+      <c r="E53" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F53" s="11">
         <v>1608</v>
       </c>
-      <c r="G53" s="8">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H53" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I53" s="8">
+      <c r="G53" s="11">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H53" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I53" s="11">
         <v>645</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="11">
         <v>1650</v>
       </c>
-      <c r="L53" s="8">
+      <c r="L53" s="11">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="N53" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="P53" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R53" s="8">
+      <c r="N53" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="P53" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R53" s="11">
         <f t="shared" si="1"/>
         <v>7.1519795657726695</v>
       </c>
-      <c r="S53" s="8">
+      <c r="S53" s="11">
         <f t="shared" si="2"/>
         <v>49980</v>
       </c>
-      <c r="T53" s="8">
+      <c r="T53" s="11">
         <f t="shared" si="3"/>
         <v>7122.1680000000006</v>
       </c>
-      <c r="U53" s="8">
+      <c r="U53" s="11">
         <f t="shared" si="4"/>
         <v>9677.8319999999985</v>
       </c>
-      <c r="V53" s="8">
+      <c r="V53" s="11">
         <f t="shared" si="5"/>
         <v>11.863636363636363</v>
       </c>
-      <c r="W53" s="8">
+      <c r="W53" s="11">
         <f t="shared" si="6"/>
         <v>0.19363409363745496</v>
       </c>
-      <c r="X53" s="8" t="s">
+      <c r="X53" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
+      <c r="C54" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D54" s="9">
+      <c r="D54" s="12">
         <v>243900</v>
       </c>
-      <c r="E54" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F54" s="8">
+      <c r="E54" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F54" s="11">
         <v>1630</v>
       </c>
-      <c r="G54" s="8">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H54" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I54" s="8">
+      <c r="G54" s="11">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H54" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I54" s="11">
         <v>445</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="11">
         <v>1700</v>
       </c>
-      <c r="L54" s="8">
+      <c r="L54" s="11">
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="N54" s="8" t="s">
+      <c r="N54" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="P54" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R54" s="8">
+      <c r="P54" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R54" s="11">
         <f t="shared" si="1"/>
         <v>7.1340713407134073</v>
       </c>
-      <c r="S54" s="8">
+      <c r="S54" s="11">
         <f t="shared" si="2"/>
         <v>51780</v>
       </c>
-      <c r="T54" s="8">
+      <c r="T54" s="11">
         <f t="shared" si="3"/>
         <v>7395.0480000000007</v>
       </c>
-      <c r="U54" s="8">
+      <c r="U54" s="11">
         <f t="shared" si="4"/>
         <v>10004.951999999999</v>
       </c>
-      <c r="V54" s="8">
+      <c r="V54" s="11">
         <f t="shared" si="5"/>
         <v>11.955882352941176</v>
       </c>
-      <c r="W54" s="8">
+      <c r="W54" s="11">
         <f t="shared" si="6"/>
         <v>0.19322039397450752</v>
       </c>
     </row>
-    <row r="55" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D55" s="9">
+      <c r="D55" s="12">
         <v>229750</v>
       </c>
-      <c r="E55" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F55" s="8">
+      <c r="E55" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F55" s="11">
         <v>1607</v>
       </c>
-      <c r="G55" s="8">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H55" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I55" s="8">
+      <c r="G55" s="11">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H55" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I55" s="11">
         <v>645</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="11">
         <v>1850</v>
       </c>
-      <c r="L55" s="8">
+      <c r="L55" s="11">
         <f t="shared" si="7"/>
         <v>243</v>
       </c>
-      <c r="N55" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="P55" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R55" s="8">
+      <c r="N55" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="P55" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R55" s="11">
         <f t="shared" si="1"/>
         <v>8.3569096844396089</v>
       </c>
-      <c r="S55" s="8">
+      <c r="S55" s="11">
         <f t="shared" si="2"/>
         <v>48950</v>
       </c>
-      <c r="T55" s="8">
+      <c r="T55" s="11">
         <f t="shared" si="3"/>
         <v>6966.02</v>
       </c>
-      <c r="U55" s="8">
+      <c r="U55" s="11">
         <f t="shared" si="4"/>
         <v>12233.98</v>
       </c>
-      <c r="V55" s="8">
+      <c r="V55" s="11">
         <f t="shared" si="5"/>
         <v>10.349099099099099</v>
       </c>
-      <c r="W55" s="8">
+      <c r="W55" s="11">
         <f t="shared" si="6"/>
         <v>0.24992808988764045</v>
       </c>
-      <c r="X55" s="8" t="s">
+      <c r="X55" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="C56" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="D56" s="1">
         <v>379000</v>
@@ -5274,7 +5275,7 @@
         <v>-592</v>
       </c>
       <c r="N56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P56">
         <v>3000</v>
@@ -5304,15 +5305,15 @@
         <v>0.15112588832487309</v>
       </c>
       <c r="X56" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="D57" s="9">
         <v>264000</v>
@@ -5370,10 +5371,10 @@
         <v>0.27590537634408602</v>
       </c>
       <c r="X57" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E58">
         <v>0.2</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E59">
         <v>0.2</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E60">
         <v>0.2</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E61">
         <v>0.2</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E62">
         <v>0.2</v>
       </c>
@@ -5583,7 +5584,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E63">
         <v>0.2</v>
       </c>
@@ -5625,7 +5626,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E64">
         <v>0.2</v>
       </c>
@@ -5667,9 +5668,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E65">
         <v>0.2</v>
@@ -5712,78 +5713,78 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C66" t="s">
-        <v>219</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="D66" s="12">
         <v>83500</v>
       </c>
-      <c r="E66">
-        <v>0.2</v>
-      </c>
-      <c r="F66">
+      <c r="E66" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F66" s="11">
         <v>761</v>
       </c>
-      <c r="G66">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H66">
-        <v>3000</v>
-      </c>
-      <c r="I66">
+      <c r="G66" s="11">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H66" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I66" s="11">
         <v>522</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="11">
         <v>1000</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="11">
         <f t="shared" si="7"/>
         <v>239</v>
       </c>
-      <c r="N66" t="s">
-        <v>220</v>
-      </c>
-      <c r="P66">
-        <v>3000</v>
-      </c>
-      <c r="R66">
+      <c r="N66" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="P66" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R66" s="11">
         <f t="shared" si="1"/>
         <v>10.778443113772456</v>
       </c>
-      <c r="S66">
+      <c r="S66" s="11">
         <f t="shared" si="2"/>
         <v>19700</v>
       </c>
-      <c r="T66">
+      <c r="T66" s="11">
         <f t="shared" si="3"/>
         <v>2531.7200000000003</v>
       </c>
-      <c r="U66">
+      <c r="U66" s="11">
         <f t="shared" si="4"/>
         <v>6468.28</v>
       </c>
-      <c r="V66">
+      <c r="V66" s="11">
         <f t="shared" si="5"/>
         <v>6.958333333333333</v>
       </c>
-      <c r="W66">
+      <c r="W66" s="11">
         <f t="shared" si="6"/>
         <v>0.32833908629441622</v>
       </c>
-      <c r="X66" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X66" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" t="s">
         <v>221</v>
-      </c>
-      <c r="C67" t="s">
-        <v>222</v>
       </c>
       <c r="D67" s="1">
         <v>125000</v>
@@ -5811,7 +5812,7 @@
         <v>60</v>
       </c>
       <c r="N67" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P67">
         <v>3000</v>
@@ -5841,15 +5842,15 @@
         <v>0.18607142857142858</v>
       </c>
       <c r="X67" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>222</v>
+      </c>
+      <c r="C68" t="s">
         <v>223</v>
-      </c>
-      <c r="C68" t="s">
-        <v>224</v>
       </c>
       <c r="D68" s="1">
         <v>95000</v>
@@ -5877,7 +5878,7 @@
         <v>328</v>
       </c>
       <c r="N68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P68">
         <v>3000</v>
@@ -5907,81 +5908,81 @@
         <v>0.38725454545454546</v>
       </c>
       <c r="X68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="C69" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C69" t="s">
-        <v>228</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="D69" s="12">
         <v>69999</v>
       </c>
-      <c r="E69">
-        <v>0.2</v>
-      </c>
-      <c r="F69">
+      <c r="E69" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F69" s="11">
         <v>704</v>
       </c>
-      <c r="G69">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H69">
-        <v>3000</v>
-      </c>
-      <c r="I69">
+      <c r="G69" s="11">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H69" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I69" s="11">
         <v>655</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="11">
         <v>800</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="11">
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="N69" t="s">
-        <v>225</v>
-      </c>
-      <c r="P69">
-        <v>3000</v>
-      </c>
-      <c r="R69">
+      <c r="N69" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="P69" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R69" s="11">
         <f t="shared" si="1"/>
         <v>9.4287061243732051</v>
       </c>
-      <c r="S69">
+      <c r="S69" s="11">
         <f t="shared" si="2"/>
         <v>16999.800000000003</v>
       </c>
-      <c r="T69">
+      <c r="T69" s="11">
         <f t="shared" si="3"/>
         <v>2122.3696800000002</v>
       </c>
-      <c r="U69">
+      <c r="U69" s="11">
         <f t="shared" si="4"/>
         <v>4477.6303200000002</v>
       </c>
-      <c r="V69">
+      <c r="V69" s="11">
         <f t="shared" si="5"/>
         <v>7.2915625000000004</v>
       </c>
-      <c r="W69">
+      <c r="W69" s="11">
         <f t="shared" si="6"/>
         <v>0.26339311756608896</v>
       </c>
-      <c r="X69" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X69" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" t="s">
         <v>229</v>
-      </c>
-      <c r="C70" t="s">
-        <v>230</v>
       </c>
       <c r="D70" s="1">
         <v>129999</v>
@@ -6009,7 +6010,7 @@
         <v>-20</v>
       </c>
       <c r="N70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P70">
         <v>3000</v>
@@ -6039,81 +6040,81 @@
         <v>0.15374003682784015</v>
       </c>
       <c r="X70" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="C71" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C71" t="s">
-        <v>233</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="D71" s="12">
         <v>132900</v>
       </c>
-      <c r="E71">
-        <v>0.2</v>
-      </c>
-      <c r="F71">
+      <c r="E71" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F71" s="11">
         <v>1059</v>
       </c>
-      <c r="G71">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H71">
-        <v>3000</v>
-      </c>
-      <c r="I71">
+      <c r="G71" s="11">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H71" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I71" s="11">
         <v>1501</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="11">
         <v>950</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="11">
         <f t="shared" si="7"/>
         <v>-109</v>
       </c>
-      <c r="N71" t="s">
-        <v>234</v>
-      </c>
-      <c r="P71">
-        <v>3000</v>
-      </c>
-      <c r="R71">
+      <c r="N71" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="P71" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R71" s="11">
         <f t="shared" si="1"/>
         <v>6.3205417607223477</v>
       </c>
-      <c r="S71">
+      <c r="S71" s="11">
         <f t="shared" si="2"/>
         <v>29580</v>
       </c>
-      <c r="T71">
+      <c r="T71" s="11">
         <f t="shared" si="3"/>
         <v>4029.5280000000002</v>
       </c>
-      <c r="U71">
+      <c r="U71" s="11">
         <f t="shared" si="4"/>
         <v>4370.4719999999998</v>
       </c>
-      <c r="V71">
+      <c r="V71" s="11">
         <f t="shared" si="5"/>
         <v>11.657894736842104</v>
       </c>
-      <c r="W71">
+      <c r="W71" s="11">
         <f t="shared" si="6"/>
         <v>0.14775091277890465</v>
       </c>
-      <c r="X71" t="s">
+      <c r="X71" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>237</v>
+      </c>
+      <c r="C72" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>238</v>
-      </c>
-      <c r="C72" t="s">
-        <v>240</v>
       </c>
       <c r="D72" s="1">
         <v>122500</v>
@@ -6131,7 +6132,7 @@
         <v>3000</v>
       </c>
       <c r="I72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J72">
         <v>1100</v>
@@ -6141,7 +6142,7 @@
         <v>389</v>
       </c>
       <c r="N72" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P72">
         <v>3000</v>
@@ -6171,10 +6172,10 @@
         <v>0.23584727272727271</v>
       </c>
       <c r="X72" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E73">
         <v>0.2</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E74">
         <v>0.2</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E75">
         <v>0.2</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E76">
         <v>0.2</v>
       </c>
@@ -6342,7 +6343,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E77">
         <v>0.2</v>
       </c>
@@ -6384,7 +6385,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E78">
         <v>0.2</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E79">
         <v>0.2</v>
       </c>
@@ -6466,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -6525,7 +6526,7 @@
       <c r="Y80"/>
       <c r="Z80"/>
     </row>
-    <row r="81" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>63</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>0.15795443037974682</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -6651,7 +6652,7 @@
         <v>0.11791150442477875</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -6722,7 +6723,7 @@
       <c r="Y83"/>
       <c r="Z83"/>
     </row>
-    <row r="84" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>30</v>
       </c>
@@ -6793,7 +6794,7 @@
       <c r="Y84"/>
       <c r="Z84"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -6856,7 +6857,7 @@
         <v>9.8825465838509291E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86" t="s">
@@ -6925,7 +6926,7 @@
       <c r="Y86"/>
       <c r="Z86"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -6991,7 +6992,7 @@
         <v>0.14472442748091602</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="7" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -7066,7 +7067,7 @@
       <c r="Y88"/>
       <c r="Z88"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E89">
         <v>0.2</v>
       </c>
@@ -7108,7 +7109,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E90">
         <v>0.2</v>
       </c>
@@ -7150,7 +7151,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E91">
         <v>0.2</v>
       </c>
@@ -7192,7 +7193,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E92">
         <v>0.2</v>
       </c>
@@ -7234,7 +7235,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E93">
         <v>0.2</v>
       </c>
@@ -7276,7 +7277,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E94">
         <v>0.2</v>
       </c>
@@ -7318,7 +7319,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="1:26" s="10" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" s="10" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -7375,7 +7376,7 @@
       <c r="Y95"/>
       <c r="Z95"/>
     </row>
-    <row r="96" spans="1:26" s="8" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" s="8" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -7432,7 +7433,7 @@
       <c r="Y96"/>
       <c r="Z96"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E97">
         <v>0.2</v>
       </c>
@@ -7474,7 +7475,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -7531,7 +7532,7 @@
       <c r="Y98"/>
       <c r="Z98"/>
     </row>
-    <row r="99" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -7588,7 +7589,7 @@
       <c r="Y99"/>
       <c r="Z99"/>
     </row>
-    <row r="100" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -7645,7 +7646,7 @@
       <c r="Y100"/>
       <c r="Z100"/>
     </row>
-    <row r="101" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -7702,7 +7703,7 @@
       <c r="Y101"/>
       <c r="Z101"/>
     </row>
-    <row r="102" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -7759,7 +7760,7 @@
       <c r="Y102"/>
       <c r="Z102"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E103">
         <v>0.2</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E104">
         <v>0.2</v>
       </c>
@@ -7843,7 +7844,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E105">
         <v>0.2</v>
       </c>
@@ -7885,7 +7886,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E106">
         <v>0.2</v>
       </c>
@@ -7927,7 +7928,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -7984,7 +7985,7 @@
       <c r="Y107"/>
       <c r="Z107"/>
     </row>
-    <row r="108" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -8041,7 +8042,7 @@
       <c r="Y108"/>
       <c r="Z108"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E109">
         <v>0.2</v>
       </c>
@@ -8083,7 +8084,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E110">
         <v>0.2</v>
       </c>
@@ -8125,7 +8126,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E111">
         <v>0.2</v>
       </c>
@@ -8167,7 +8168,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E112">
         <v>0.2</v>
       </c>
@@ -8209,7 +8210,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E113">
         <v>0.2</v>
       </c>
@@ -8251,7 +8252,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="114" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E114">
         <v>0.2</v>
       </c>
@@ -8290,7 +8291,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E115">
         <v>0.2</v>
       </c>
@@ -8329,7 +8330,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E116">
         <v>0.2</v>
       </c>
@@ -8368,7 +8369,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E117">
         <v>0.2</v>
       </c>
@@ -8407,7 +8408,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:23" x14ac:dyDescent="0.2">
       <c r="H118">
         <v>3000</v>
       </c>
@@ -8439,7 +8440,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:23" x14ac:dyDescent="0.2">
       <c r="H119">
         <v>3000</v>
       </c>
@@ -8471,7 +8472,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:23" x14ac:dyDescent="0.2">
       <c r="H120">
         <v>3000</v>
       </c>
@@ -8503,7 +8504,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:23" x14ac:dyDescent="0.2">
       <c r="H121">
         <v>3000</v>
       </c>
@@ -8535,7 +8536,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:23" x14ac:dyDescent="0.2">
       <c r="H122">
         <v>3000</v>
       </c>
@@ -8567,7 +8568,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="123" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:23" x14ac:dyDescent="0.2">
       <c r="H123">
         <v>3000</v>
       </c>
@@ -8599,7 +8600,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:23" x14ac:dyDescent="0.2">
       <c r="H124">
         <v>3000</v>
       </c>
@@ -8631,7 +8632,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:23" x14ac:dyDescent="0.2">
       <c r="H125">
         <v>3000</v>
       </c>
@@ -8663,7 +8664,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:23" x14ac:dyDescent="0.2">
       <c r="P126">
         <v>3000</v>
       </c>
@@ -8692,7 +8693,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="127" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:23" x14ac:dyDescent="0.2">
       <c r="P127">
         <v>3000</v>
       </c>
@@ -8705,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:23" x14ac:dyDescent="0.2">
       <c r="P128">
         <v>3000</v>
       </c>
@@ -8718,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -8750,54 +8751,55 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C88" r:id="rId1" location="redfin-estimate" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C81" r:id="rId2" location="schools" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B33" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C7" r:id="rId9" location="schools" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B30" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B34" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B35" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B36" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B37" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B42" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B43" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B44" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B47" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B48" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B49" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B50" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B16" r:id="rId37" xr:uid="{8DACDBCF-FFFC-4F38-9F4C-3369DB385180}"/>
-    <hyperlink ref="B17" r:id="rId38" xr:uid="{CEEA715D-6981-47E6-AEDF-268B3499742A}"/>
-    <hyperlink ref="B18" r:id="rId39" xr:uid="{8C3401C1-ED79-4C66-AF62-894AE56C1F5F}"/>
-    <hyperlink ref="C51" r:id="rId40" xr:uid="{39BFFA3C-5737-44A9-8786-BAAC899C0014}"/>
-    <hyperlink ref="C52" r:id="rId41" xr:uid="{7DA86044-347C-48B5-91C6-DD1552759EA1}"/>
-    <hyperlink ref="C53" r:id="rId42" xr:uid="{17F49A6B-4519-4D19-A94B-79E3DC672042}"/>
-    <hyperlink ref="C54" r:id="rId43" xr:uid="{AD95224F-91F0-43E9-A9C2-5A721C2A22C2}"/>
-    <hyperlink ref="C55" r:id="rId44" xr:uid="{6A6110B1-0B99-4489-8745-791F84252448}"/>
-    <hyperlink ref="C56" r:id="rId45" location="redfin-estimate" xr:uid="{F39A8954-368F-4418-B4CA-B328FFB23C3B}"/>
-    <hyperlink ref="C57" r:id="rId46" xr:uid="{56408F47-28E8-464B-BC9A-6EC851B6690F}"/>
+    <hyperlink ref="C88" r:id="rId1" location="redfin-estimate"/>
+    <hyperlink ref="C81" r:id="rId2" location="schools"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="B12" r:id="rId4"/>
+    <hyperlink ref="B13" r:id="rId5"/>
+    <hyperlink ref="B15" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B33" r:id="rId8"/>
+    <hyperlink ref="C7" r:id="rId9" location="schools"/>
+    <hyperlink ref="C9" r:id="rId10"/>
+    <hyperlink ref="C10" r:id="rId11"/>
+    <hyperlink ref="B19" r:id="rId12"/>
+    <hyperlink ref="B20" r:id="rId13"/>
+    <hyperlink ref="B21" r:id="rId14"/>
+    <hyperlink ref="B22" r:id="rId15"/>
+    <hyperlink ref="B23" r:id="rId16"/>
+    <hyperlink ref="B25" r:id="rId17"/>
+    <hyperlink ref="B26" r:id="rId18"/>
+    <hyperlink ref="B28" r:id="rId19"/>
+    <hyperlink ref="B30" r:id="rId20"/>
+    <hyperlink ref="B31" r:id="rId21"/>
+    <hyperlink ref="B32" r:id="rId22"/>
+    <hyperlink ref="B34" r:id="rId23"/>
+    <hyperlink ref="B35" r:id="rId24"/>
+    <hyperlink ref="B36" r:id="rId25"/>
+    <hyperlink ref="B37" r:id="rId26"/>
+    <hyperlink ref="B38" r:id="rId27"/>
+    <hyperlink ref="B39" r:id="rId28"/>
+    <hyperlink ref="B42" r:id="rId29"/>
+    <hyperlink ref="B43" r:id="rId30"/>
+    <hyperlink ref="B44" r:id="rId31"/>
+    <hyperlink ref="B45" r:id="rId32"/>
+    <hyperlink ref="B47" r:id="rId33"/>
+    <hyperlink ref="B48" r:id="rId34"/>
+    <hyperlink ref="B49" r:id="rId35"/>
+    <hyperlink ref="B50" r:id="rId36"/>
+    <hyperlink ref="B16" r:id="rId37"/>
+    <hyperlink ref="B17" r:id="rId38"/>
+    <hyperlink ref="B18" r:id="rId39"/>
+    <hyperlink ref="C51" r:id="rId40"/>
+    <hyperlink ref="C52" r:id="rId41"/>
+    <hyperlink ref="C53" r:id="rId42"/>
+    <hyperlink ref="C54" r:id="rId43"/>
+    <hyperlink ref="C55" r:id="rId44"/>
+    <hyperlink ref="C56" r:id="rId45" location="redfin-estimate"/>
+    <hyperlink ref="C57" r:id="rId46"/>
+    <hyperlink ref="B24" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
--- a/austin (Autosaved).xlsx
+++ b/austin (Autosaved).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1060" windowWidth="33600" windowHeight="18860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="33600" windowHeight="18860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="274">
   <si>
     <t>地址</t>
   </si>
@@ -779,12 +779,103 @@
   <si>
     <t>https://www.zillow.com/homedetails/8516-Delavan-Ave-Austin-TX-78717/29547996_zpid/a</t>
   </si>
+  <si>
+    <t>715 Black Isle DrPflugerville, TX 78660</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Pflugerville/715-Black-Isle-Dr-78660/home/31941013</t>
+  </si>
+  <si>
+    <t>3b2.5b</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Pflugerville/905-Parkview-Dr-78660/home/31591946</t>
+  </si>
+  <si>
+    <t>905 Parkview DrPflugerville, TX 78660</t>
+  </si>
+  <si>
+    <t>pflugerville</t>
+  </si>
+  <si>
+    <t>4b3.5b,3000ft</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Pflugerville/601-Jill-Sue-Cir-78660/home/31568639</t>
+  </si>
+  <si>
+    <t>601 Jill Sue CirPflugerville, TX 78660</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/community/silverstone/2093584680_zpid/</t>
+  </si>
+  <si>
+    <t>The Medina (3011) Plan, SilverstoneAustin, TX 78728</t>
+  </si>
+  <si>
+    <t>wells branch</t>
+  </si>
+  <si>
+    <t>9410 Mountain Quail Rd,Austin, TX 78758</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9410-Mountain-Quail-Rd-Austin-TX-78758/29429953_zpid/</t>
+  </si>
+  <si>
+    <t>不错，austin北</t>
+  </si>
+  <si>
+    <t>7602 Pheasant Rock Rd,Austin, TX 78729</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7602-Pheasant-Rock-Rd-Austin-TX-78729/29547427_zpid/</t>
+  </si>
+  <si>
+    <t>7703 Windrush Dr,Austin, TX 78729</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7703-Windrush-Dr-Austin-TX-78729/29582346_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/13151-Mill-Stone-Dr-Austin-TX-78729/29549595_zpid/</t>
+  </si>
+  <si>
+    <t>13151 Mill Stone Dr,Austin, TX 78729</t>
+  </si>
+  <si>
+    <t>3b2b,厨房客厅貌似不错，joyville tax2.28</t>
+  </si>
+  <si>
+    <t>15613 Poynette Pl,Austin, TX 78717</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/15613-Poynette-Pl-Austin-TX-78717/29547879_zpid/</t>
+  </si>
+  <si>
+    <t>10，10，8</t>
+  </si>
+  <si>
+    <t>4b2.5b</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/14621-Lantern-Dr-Pflugerville-TX-78660/62576737_zpid/</t>
+  </si>
+  <si>
+    <t>14621 Lantern Dr,Pflugerville, TX 78660</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -845,7 +936,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,6 +956,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
@@ -907,239 +1003,247 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="212">
+  <cellStyleXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="183"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="182"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="182" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="183" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="184"/>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="2" xfId="184" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="184" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="182" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="183"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="182"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="182" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="183" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="184"/>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="2" xfId="184" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="184" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="182" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="182" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="212" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="212" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="212">
+  <cellStyles count="213">
     <cellStyle name="Bad" xfId="183" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="184" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1351,6 +1455,7 @@
     <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="182" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="new house" xfId="212"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1629,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z129"/>
+  <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1644,7 +1749,7 @@
     <col min="6" max="6" width="7.83203125" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" customWidth="1"/>
     <col min="12" max="12" width="8.1640625" customWidth="1"/>
@@ -1742,34 +1847,34 @@
         <v>3000</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L84" si="0">J2-F2</f>
+        <f t="shared" ref="L2:L93" si="0">J2-F2</f>
         <v>0</v>
       </c>
       <c r="P2">
         <v>3000</v>
       </c>
       <c r="R2" t="e">
-        <f t="shared" ref="R2:R117" si="1">100*(12*J2-P2)/D2</f>
+        <f t="shared" ref="R2:R126" si="1">100*(12*J2-P2)/D2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S117" si="2">D2*E2+H2</f>
+        <f t="shared" ref="S2:S126" si="2">D2*E2+H2</f>
         <v>3000</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T117" si="3">G2*(D2-D2*E2)</f>
+        <f t="shared" ref="T2:T126" si="3">G2*(D2-D2*E2)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U117" si="4">12*J2-P2-T2</f>
+        <f t="shared" ref="U2:U126" si="4">12*J2-P2-T2</f>
         <v>-3000</v>
       </c>
       <c r="V2" t="e">
-        <f t="shared" ref="V2:V117" si="5">D2/(12*J2)</f>
+        <f t="shared" ref="V2:V126" si="5">D2/(12*J2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W84" si="6">U2/S2</f>
+        <f t="shared" ref="W2:W93" si="6">U2/S2</f>
         <v>-1</v>
       </c>
     </row>
@@ -2774,69 +2879,69 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:24" s="18" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="18">
         <v>281990</v>
       </c>
-      <c r="E19" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E19" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="18">
         <v>1577</v>
       </c>
-      <c r="G19" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H19" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I19" s="8">
+      <c r="G19" s="18">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H19" s="18">
+        <v>3000</v>
+      </c>
+      <c r="I19" s="18">
         <v>5210</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="18">
         <v>2300</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="18">
         <f t="shared" si="0"/>
         <v>723</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="P19" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R19" s="8">
+      <c r="P19" s="18">
+        <v>3000</v>
+      </c>
+      <c r="R19" s="18">
         <f t="shared" si="1"/>
         <v>8.7237136068654912</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="18">
         <f t="shared" si="2"/>
         <v>59398</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="18">
         <f t="shared" si="3"/>
         <v>8549.9368000000013</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U19" s="18">
         <f t="shared" si="4"/>
         <v>16050.063199999999</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V19" s="18">
         <f t="shared" si="5"/>
         <v>10.217028985507246</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W19" s="18">
         <f t="shared" si="6"/>
         <v>0.27021218222835786</v>
       </c>
-      <c r="X19" s="8" t="s">
+      <c r="X19" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2975,65 +3080,65 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:24" s="18" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="18">
         <v>281990</v>
       </c>
-      <c r="E22" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="E22" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="18">
         <v>1578</v>
       </c>
-      <c r="G22" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H22" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="G22" s="18">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H22" s="18">
+        <v>3000</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="18">
         <v>2150</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="18">
         <f t="shared" si="0"/>
         <v>572</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N22" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="P22" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R22" s="8">
+      <c r="P22" s="18">
+        <v>3000</v>
+      </c>
+      <c r="R22" s="18">
         <f t="shared" si="1"/>
         <v>8.0853930990460654</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S22" s="18">
         <f t="shared" si="2"/>
         <v>59398</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="18">
         <f t="shared" si="3"/>
         <v>8549.9368000000013</v>
       </c>
-      <c r="U22" s="8">
+      <c r="U22" s="18">
         <f t="shared" si="4"/>
         <v>14250.063199999999</v>
       </c>
-      <c r="V22" s="8">
+      <c r="V22" s="18">
         <f t="shared" si="5"/>
         <v>10.92984496124031</v>
       </c>
-      <c r="W22" s="8">
+      <c r="W22" s="18">
         <f t="shared" si="6"/>
         <v>0.23990813158692209</v>
       </c>
@@ -3371,204 +3476,204 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="8" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="12">
         <v>347776</v>
       </c>
-      <c r="E28" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="E28" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F28" s="12">
         <v>2126</v>
       </c>
-      <c r="G28" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H28" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I28" s="8">
+      <c r="G28" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H28" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I28" s="11">
         <v>777</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="11">
         <v>2250</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="11">
         <v>1790</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="11">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="N28" s="8" t="s">
+      <c r="N28" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="P28" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R28" s="8">
+      <c r="P28" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R28" s="11">
         <f t="shared" si="1"/>
         <v>6.900993743099006</v>
       </c>
-      <c r="S28" s="8">
+      <c r="S28" s="11">
         <f t="shared" si="2"/>
         <v>72555.199999999997</v>
       </c>
-      <c r="T28" s="8">
+      <c r="T28" s="11">
         <f t="shared" si="3"/>
         <v>10544.56832</v>
       </c>
-      <c r="U28" s="8">
+      <c r="U28" s="11">
         <f t="shared" si="4"/>
         <v>13455.43168</v>
       </c>
-      <c r="V28" s="8">
+      <c r="V28" s="11">
         <f t="shared" si="5"/>
         <v>12.880592592592592</v>
       </c>
-      <c r="W28" s="8">
+      <c r="W28" s="11">
         <f t="shared" si="6"/>
         <v>0.18545096257745827</v>
       </c>
-      <c r="X28" s="8" t="s">
+      <c r="X28" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:24" s="18" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="18">
         <v>307045</v>
       </c>
-      <c r="E29" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="E29" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="18">
         <v>1834</v>
       </c>
-      <c r="G29" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H29" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I29" s="8">
+      <c r="G29" s="18">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H29" s="18">
+        <v>3000</v>
+      </c>
+      <c r="I29" s="18">
         <v>345</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="18">
         <v>2400</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="18">
         <f t="shared" si="0"/>
         <v>566</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="N29" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="P29" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R29" s="8">
+      <c r="P29" s="18">
+        <v>3000</v>
+      </c>
+      <c r="R29" s="18">
         <f t="shared" si="1"/>
         <v>8.4026771320164801</v>
       </c>
-      <c r="S29" s="8">
+      <c r="S29" s="18">
         <f t="shared" si="2"/>
         <v>64409</v>
       </c>
-      <c r="T29" s="8">
+      <c r="T29" s="18">
         <f t="shared" si="3"/>
         <v>9309.6044000000002</v>
       </c>
-      <c r="U29" s="8">
+      <c r="U29" s="18">
         <f t="shared" si="4"/>
         <v>16490.3956</v>
       </c>
-      <c r="V29" s="8">
+      <c r="V29" s="18">
         <f t="shared" si="5"/>
         <v>10.661284722222222</v>
       </c>
-      <c r="W29" s="8">
+      <c r="W29" s="18">
         <f t="shared" si="6"/>
         <v>0.25602626341039297</v>
       </c>
-      <c r="X29" s="8" t="s">
+      <c r="X29" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:24" s="18" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="18">
         <v>315000</v>
       </c>
-      <c r="E30" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F30" s="9">
+      <c r="E30" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="F30" s="18">
         <v>1851</v>
       </c>
-      <c r="G30" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H30" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I30" s="8">
+      <c r="G30" s="18">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H30" s="18">
+        <v>3000</v>
+      </c>
+      <c r="I30" s="18">
         <v>9210</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="18">
         <v>2300</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="18">
         <f t="shared" si="0"/>
         <v>449</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="N30" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="P30" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R30" s="8">
+      <c r="P30" s="18">
+        <v>3000</v>
+      </c>
+      <c r="R30" s="18">
         <f t="shared" si="1"/>
         <v>7.8095238095238093</v>
       </c>
-      <c r="S30" s="8">
+      <c r="S30" s="18">
         <f t="shared" si="2"/>
         <v>66000</v>
       </c>
-      <c r="T30" s="8">
+      <c r="T30" s="18">
         <f t="shared" si="3"/>
         <v>9550.8000000000011</v>
       </c>
-      <c r="U30" s="8">
+      <c r="U30" s="18">
         <f t="shared" si="4"/>
         <v>15049.199999999999</v>
       </c>
-      <c r="V30" s="8">
+      <c r="V30" s="18">
         <f t="shared" si="5"/>
         <v>11.413043478260869</v>
       </c>
-      <c r="W30" s="8">
+      <c r="W30" s="18">
         <f t="shared" si="6"/>
         <v>0.22801818181818181</v>
       </c>
-      <c r="X30" s="8" t="s">
+      <c r="X30" s="18" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3779,7 +3884,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="8" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" s="8" customFormat="1" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>136</v>
       </c>
@@ -3848,72 +3953,72 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="12">
         <v>369900</v>
       </c>
-      <c r="E35" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F35" s="9">
+      <c r="E35" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F35" s="12">
         <v>2094</v>
       </c>
-      <c r="G35" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H35" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I35" s="8">
+      <c r="G35" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H35" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I35" s="11">
         <v>423</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="11">
         <v>2300</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="11">
         <v>1950</v>
       </c>
-      <c r="L35" s="8">
-        <f t="shared" ref="L35:L78" si="7">J35-F35</f>
+      <c r="L35" s="11">
+        <f t="shared" ref="L35:L87" si="7">J35-F35</f>
         <v>206</v>
       </c>
-      <c r="N35" s="8" t="s">
+      <c r="N35" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="P35" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R35" s="8">
+      <c r="P35" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R35" s="11">
         <f t="shared" si="1"/>
         <v>6.6504460665044602</v>
       </c>
-      <c r="S35" s="8">
+      <c r="S35" s="11">
         <f t="shared" si="2"/>
         <v>76980</v>
       </c>
-      <c r="T35" s="8">
+      <c r="T35" s="11">
         <f t="shared" si="3"/>
         <v>11215.368</v>
       </c>
-      <c r="U35" s="8">
+      <c r="U35" s="11">
         <f t="shared" si="4"/>
         <v>13384.632</v>
       </c>
-      <c r="V35" s="8">
+      <c r="V35" s="11">
         <f t="shared" si="5"/>
         <v>13.402173913043478</v>
       </c>
-      <c r="W35" s="8">
+      <c r="W35" s="11">
         <f t="shared" si="6"/>
         <v>0.17387155105222135</v>
       </c>
-      <c r="X35" s="8" t="s">
+      <c r="X35" s="11" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4579,66 +4684,66 @@
         <v>0.1941237433260482</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="8" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:24" s="18" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="18">
         <v>357068</v>
       </c>
-      <c r="E46" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F46" s="9">
+      <c r="E46" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="F46" s="18">
         <v>2076</v>
       </c>
-      <c r="G46" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H46" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I46" s="8">
+      <c r="G46" s="18">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H46" s="18">
+        <v>3000</v>
+      </c>
+      <c r="I46" s="18">
         <v>777</v>
       </c>
-      <c r="L46" s="8">
+      <c r="L46" s="18">
         <f t="shared" si="7"/>
         <v>-2076</v>
       </c>
-      <c r="N46" s="8" t="s">
+      <c r="N46" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="P46" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R46" s="8">
+      <c r="P46" s="18">
+        <v>3000</v>
+      </c>
+      <c r="R46" s="18">
         <f t="shared" si="1"/>
         <v>-0.8401761009107509</v>
       </c>
-      <c r="S46" s="8">
+      <c r="S46" s="18">
         <f t="shared" si="2"/>
         <v>74413.600000000006</v>
       </c>
-      <c r="T46" s="8">
+      <c r="T46" s="18">
         <f t="shared" si="3"/>
         <v>10826.301760000002</v>
       </c>
-      <c r="U46" s="8">
+      <c r="U46" s="18">
         <f t="shared" si="4"/>
         <v>-13826.301760000002</v>
       </c>
-      <c r="V46" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W46" s="8">
+      <c r="V46" s="18" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W46" s="18">
         <f t="shared" si="6"/>
         <v>-0.1858034251803434</v>
       </c>
-      <c r="X46" s="8" t="s">
+      <c r="X46" s="18" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4849,69 +4954,69 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:24" s="8" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:24" s="18" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="18">
         <v>272789</v>
       </c>
-      <c r="E50" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F50" s="9">
+      <c r="E50" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="F50" s="18">
         <v>1611</v>
       </c>
-      <c r="G50" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H50" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I50" s="8">
+      <c r="G50" s="18">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H50" s="18">
+        <v>3000</v>
+      </c>
+      <c r="I50" s="18">
         <v>777</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="18">
         <v>2250</v>
       </c>
-      <c r="L50" s="8">
+      <c r="L50" s="18">
         <f t="shared" si="7"/>
         <v>639</v>
       </c>
-      <c r="N50" s="8" t="s">
+      <c r="N50" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="P50" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R50" s="8">
+      <c r="P50" s="18">
+        <v>3000</v>
+      </c>
+      <c r="R50" s="18">
         <f t="shared" si="1"/>
         <v>8.7980087173603039</v>
       </c>
-      <c r="S50" s="8">
+      <c r="S50" s="18">
         <f t="shared" si="2"/>
         <v>57557.8</v>
       </c>
-      <c r="T50" s="8">
+      <c r="T50" s="18">
         <f t="shared" si="3"/>
         <v>8270.962480000002</v>
       </c>
-      <c r="U50" s="8">
+      <c r="U50" s="18">
         <f t="shared" si="4"/>
         <v>15729.037519999998</v>
       </c>
-      <c r="V50" s="8">
+      <c r="V50" s="18">
         <f t="shared" si="5"/>
         <v>10.103296296296296</v>
       </c>
-      <c r="W50" s="8">
+      <c r="W50" s="18">
         <f t="shared" si="6"/>
         <v>0.27327377905340366</v>
       </c>
-      <c r="X50" s="8" t="s">
+      <c r="X50" s="18" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5374,808 +5479,869 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="E58">
-        <v>0.2</v>
-      </c>
-      <c r="G58">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H58">
-        <v>3000</v>
-      </c>
-      <c r="L58">
+    <row r="58" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" s="8">
+        <v>218500</v>
+      </c>
+      <c r="E58" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F58" s="16">
+        <v>1447</v>
+      </c>
+      <c r="G58" s="8">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H58" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I58" s="16">
+        <v>556</v>
+      </c>
+      <c r="J58" s="16">
+        <v>1550</v>
+      </c>
+      <c r="L58" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>3000</v>
-      </c>
-      <c r="R58" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S58">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U58">
+        <v>103</v>
+      </c>
+      <c r="N58" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P58" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R58" s="8">
+        <f t="shared" si="1"/>
+        <v>7.139588100686499</v>
+      </c>
+      <c r="S58" s="8">
+        <f t="shared" si="2"/>
+        <v>46700</v>
+      </c>
+      <c r="T58" s="8">
+        <f t="shared" si="3"/>
+        <v>6624.920000000001</v>
+      </c>
+      <c r="U58" s="8">
+        <f t="shared" si="4"/>
+        <v>8975.0799999999981</v>
+      </c>
+      <c r="V58" s="8">
+        <f t="shared" si="5"/>
+        <v>11.74731182795699</v>
+      </c>
+      <c r="W58" s="8">
+        <f t="shared" si="6"/>
+        <v>0.19218586723768732</v>
+      </c>
+      <c r="X58" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="9">
+        <v>270000</v>
+      </c>
+      <c r="E59" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1690</v>
+      </c>
+      <c r="G59" s="8">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H59" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I59" s="8">
+        <v>476</v>
+      </c>
+      <c r="J59" s="8">
+        <v>2050</v>
+      </c>
+      <c r="L59" s="8">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="P59" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R59" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S59" s="8">
+        <f t="shared" si="2"/>
+        <v>57000</v>
+      </c>
+      <c r="T59" s="8">
+        <f t="shared" si="3"/>
+        <v>8186.4000000000005</v>
+      </c>
+      <c r="U59" s="8">
+        <f t="shared" si="4"/>
+        <v>13413.599999999999</v>
+      </c>
+      <c r="V59" s="8">
+        <f t="shared" si="5"/>
+        <v>10.975609756097562</v>
+      </c>
+      <c r="W59" s="8">
+        <f t="shared" si="6"/>
+        <v>0.23532631578947366</v>
+      </c>
+      <c r="X59" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" s="9">
+        <v>279900</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F60" s="9">
+        <v>1779</v>
+      </c>
+      <c r="G60" s="8">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H60" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I60" s="8">
+        <v>1779</v>
+      </c>
+      <c r="J60" s="8">
+        <v>2100</v>
+      </c>
+      <c r="L60" s="8">
+        <f t="shared" si="7"/>
+        <v>321</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="P60" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R60" s="8">
+        <f t="shared" si="1"/>
+        <v>7.931404072883173</v>
+      </c>
+      <c r="S60" s="8">
+        <f t="shared" si="2"/>
+        <v>58980</v>
+      </c>
+      <c r="T60" s="8">
+        <f t="shared" si="3"/>
+        <v>8486.5680000000011</v>
+      </c>
+      <c r="U60" s="8">
+        <f t="shared" si="4"/>
+        <v>13713.431999999999</v>
+      </c>
+      <c r="V60" s="8">
+        <f t="shared" si="5"/>
+        <v>11.107142857142858</v>
+      </c>
+      <c r="W60" s="8">
+        <f t="shared" si="6"/>
+        <v>0.23250986775178026</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" s="18">
+        <v>318990</v>
+      </c>
+      <c r="E61" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="F61" s="18">
+        <v>2037</v>
+      </c>
+      <c r="G61" s="18">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H61" s="18">
+        <v>3000</v>
+      </c>
+      <c r="I61" s="18">
+        <v>577</v>
+      </c>
+      <c r="J61" s="18">
+        <v>2150</v>
+      </c>
+      <c r="L61" s="18">
+        <f t="shared" si="7"/>
+        <v>113</v>
+      </c>
+      <c r="N61" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P61" s="18">
+        <v>3000</v>
+      </c>
+      <c r="R61" s="18">
+        <f t="shared" si="1"/>
+        <v>7.1475594846233426</v>
+      </c>
+      <c r="S61" s="18">
+        <f t="shared" si="2"/>
+        <v>66798</v>
+      </c>
+      <c r="T61" s="18">
+        <f t="shared" si="3"/>
+        <v>9671.7768000000015</v>
+      </c>
+      <c r="U61" s="18">
+        <f t="shared" si="4"/>
+        <v>13128.223199999999</v>
+      </c>
+      <c r="V61" s="18">
+        <f t="shared" si="5"/>
+        <v>12.363953488372093</v>
+      </c>
+      <c r="W61" s="18">
+        <f t="shared" si="6"/>
+        <v>0.1965361717416689</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D62" s="9">
+        <v>349900</v>
+      </c>
+      <c r="E62" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F62" s="8">
+        <v>2021</v>
+      </c>
+      <c r="G62" s="8">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H62" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I62" s="8">
+        <v>514</v>
+      </c>
+      <c r="J62" s="8">
+        <v>2200</v>
+      </c>
+      <c r="L62" s="8">
+        <f t="shared" si="7"/>
+        <v>179</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="P62" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R62" s="8">
+        <f t="shared" si="1"/>
+        <v>6.6876250357244924</v>
+      </c>
+      <c r="S62" s="8">
+        <f t="shared" si="2"/>
+        <v>72980</v>
+      </c>
+      <c r="T62" s="8">
+        <f t="shared" si="3"/>
+        <v>10608.968000000001</v>
+      </c>
+      <c r="U62" s="8">
+        <f t="shared" si="4"/>
+        <v>12791.031999999999</v>
+      </c>
+      <c r="V62" s="8">
+        <f t="shared" si="5"/>
+        <v>13.253787878787879</v>
+      </c>
+      <c r="W62" s="8">
+        <f t="shared" si="6"/>
+        <v>0.17526763496848449</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D63" s="9">
+        <v>269900</v>
+      </c>
+      <c r="E63" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1610</v>
+      </c>
+      <c r="G63" s="8">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H63" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I63" s="8">
+        <v>877</v>
+      </c>
+      <c r="J63" s="8">
+        <v>1650</v>
+      </c>
+      <c r="L63" s="8">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="P63" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R63" s="8">
+        <f t="shared" si="1"/>
+        <v>6.2245276028158578</v>
+      </c>
+      <c r="S63" s="8">
+        <f t="shared" si="2"/>
+        <v>56980</v>
+      </c>
+      <c r="T63" s="8">
+        <f t="shared" si="3"/>
+        <v>8183.3680000000004</v>
+      </c>
+      <c r="U63" s="8">
+        <f t="shared" si="4"/>
+        <v>8616.6319999999996</v>
+      </c>
+      <c r="V63" s="8">
+        <f t="shared" si="5"/>
+        <v>13.631313131313131</v>
+      </c>
+      <c r="W63" s="8">
+        <f t="shared" si="6"/>
+        <v>0.15122204282204282</v>
+      </c>
+      <c r="X63" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64" s="9">
+        <v>274900</v>
+      </c>
+      <c r="E64" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F64" s="8">
+        <v>1725</v>
+      </c>
+      <c r="G64" s="8">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H64" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I64" s="8">
+        <v>877</v>
+      </c>
+      <c r="J64" s="8">
+        <v>1700</v>
+      </c>
+      <c r="L64" s="8">
+        <f t="shared" si="7"/>
+        <v>-25</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="P64" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R64" s="8">
+        <f t="shared" si="1"/>
+        <v>6.3295743906875224</v>
+      </c>
+      <c r="S64" s="8">
+        <f t="shared" si="2"/>
+        <v>57980</v>
+      </c>
+      <c r="T64" s="8">
+        <f t="shared" si="3"/>
+        <v>8334.9680000000008</v>
+      </c>
+      <c r="U64" s="8">
+        <f t="shared" si="4"/>
+        <v>9065.0319999999992</v>
+      </c>
+      <c r="V64" s="8">
+        <f t="shared" si="5"/>
+        <v>13.475490196078431</v>
+      </c>
+      <c r="W64" s="8">
+        <f t="shared" si="6"/>
+        <v>0.15634756812694031</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D65" s="9">
+        <v>264473</v>
+      </c>
+      <c r="E65" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F65" s="8">
+        <v>1740</v>
+      </c>
+      <c r="G65" s="8">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H65" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I65" s="8">
+        <v>877</v>
+      </c>
+      <c r="J65" s="8">
+        <v>1700</v>
+      </c>
+      <c r="L65" s="8">
+        <f t="shared" si="7"/>
+        <v>-40</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="P65" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R65" s="8">
+        <f t="shared" si="1"/>
+        <v>6.5791214982247714</v>
+      </c>
+      <c r="S65" s="8">
+        <f t="shared" si="2"/>
+        <v>55894.600000000006</v>
+      </c>
+      <c r="T65" s="8">
+        <f t="shared" si="3"/>
+        <v>8018.8213600000008</v>
+      </c>
+      <c r="U65" s="8">
+        <f t="shared" si="4"/>
+        <v>9381.1786399999983</v>
+      </c>
+      <c r="V65" s="8">
+        <f t="shared" si="5"/>
+        <v>12.96436274509804</v>
+      </c>
+      <c r="W65" s="8">
+        <f t="shared" si="6"/>
+        <v>0.16783694024109658</v>
+      </c>
+      <c r="X65" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66" s="9">
+        <v>312950</v>
+      </c>
+      <c r="E66" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F66" s="8">
+        <v>1867</v>
+      </c>
+      <c r="G66" s="8">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H66" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J66" s="8">
+        <v>2050</v>
+      </c>
+      <c r="L66" s="8">
+        <f t="shared" si="7"/>
+        <v>183</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="P66" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R66" s="8">
+        <f t="shared" si="1"/>
+        <v>6.9020610321137559</v>
+      </c>
+      <c r="S66" s="8">
+        <f t="shared" si="2"/>
+        <v>65590</v>
+      </c>
+      <c r="T66" s="8">
+        <f t="shared" si="3"/>
+        <v>9488.6440000000002</v>
+      </c>
+      <c r="U66" s="8">
+        <f t="shared" si="4"/>
+        <v>12111.356</v>
+      </c>
+      <c r="V66" s="8">
+        <f t="shared" si="5"/>
+        <v>12.721544715447154</v>
+      </c>
+      <c r="W66" s="8">
+        <f t="shared" si="6"/>
+        <v>0.18465247751181582</v>
+      </c>
+      <c r="X66" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D67" s="9">
+        <v>250000</v>
+      </c>
+      <c r="E67" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F67" s="8">
+        <v>1430</v>
+      </c>
+      <c r="G67" s="8">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H67" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I67" s="8">
+        <v>656</v>
+      </c>
+      <c r="J67" s="8">
+        <v>1900</v>
+      </c>
+      <c r="L67" s="8">
+        <f t="shared" si="7"/>
+        <v>470</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="P67" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R67" s="8">
+        <f t="shared" si="1"/>
+        <v>7.92</v>
+      </c>
+      <c r="S67" s="8">
+        <f t="shared" si="2"/>
+        <v>53000</v>
+      </c>
+      <c r="T67" s="8">
+        <f t="shared" si="3"/>
+        <v>7580.0000000000009</v>
+      </c>
+      <c r="U67" s="8">
+        <f t="shared" si="4"/>
+        <v>12220</v>
+      </c>
+      <c r="V67" s="8">
+        <f t="shared" si="5"/>
+        <v>10.964912280701755</v>
+      </c>
+      <c r="W67" s="8">
+        <f t="shared" si="6"/>
+        <v>0.23056603773584905</v>
+      </c>
+      <c r="X67" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D68" s="1"/>
+      <c r="E68">
+        <v>0.2</v>
+      </c>
+      <c r="G68">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H68">
+        <v>3000</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>3000</v>
+      </c>
+      <c r="R68" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U68">
         <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
-      <c r="V58" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W58">
+      <c r="V68" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W68">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="E59">
-        <v>0.2</v>
-      </c>
-      <c r="G59">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H59">
-        <v>3000</v>
-      </c>
-      <c r="L59">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D69" s="1"/>
+      <c r="E69">
+        <v>0.2</v>
+      </c>
+      <c r="G69">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H69">
+        <v>3000</v>
+      </c>
+      <c r="L69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P59">
-        <v>3000</v>
-      </c>
-      <c r="R59" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S59">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U59">
+      <c r="P69">
+        <v>3000</v>
+      </c>
+      <c r="R69" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U69">
         <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
-      <c r="V59" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W59">
+      <c r="V69" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W69">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="E60">
-        <v>0.2</v>
-      </c>
-      <c r="G60">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H60">
-        <v>3000</v>
-      </c>
-      <c r="L60">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D70" s="1"/>
+      <c r="E70">
+        <v>0.2</v>
+      </c>
+      <c r="G70">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H70">
+        <v>3000</v>
+      </c>
+      <c r="L70">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P60">
-        <v>3000</v>
-      </c>
-      <c r="R60" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S60">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U60">
+      <c r="P70">
+        <v>3000</v>
+      </c>
+      <c r="R70" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U70">
         <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
-      <c r="V60" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W60">
+      <c r="V70" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W70">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="E61">
-        <v>0.2</v>
-      </c>
-      <c r="G61">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H61">
-        <v>3000</v>
-      </c>
-      <c r="L61">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D71" s="1"/>
+      <c r="E71">
+        <v>0.2</v>
+      </c>
+      <c r="G71">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H71">
+        <v>3000</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P61">
-        <v>3000</v>
-      </c>
-      <c r="R61" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S61">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U61">
+      <c r="P71">
+        <v>3000</v>
+      </c>
+      <c r="R71" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U71">
         <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
-      <c r="V61" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W61">
+      <c r="V71" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W71">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="E62">
-        <v>0.2</v>
-      </c>
-      <c r="G62">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H62">
-        <v>3000</v>
-      </c>
-      <c r="L62">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>0.2</v>
+      </c>
+      <c r="G72">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H72">
+        <v>3000</v>
+      </c>
+      <c r="L72">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P62">
-        <v>3000</v>
-      </c>
-      <c r="R62" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S62">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U62">
+      <c r="P72">
+        <v>3000</v>
+      </c>
+      <c r="R72" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U72">
         <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
-      <c r="V62" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W62">
+      <c r="V72" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W72">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="E63">
-        <v>0.2</v>
-      </c>
-      <c r="G63">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H63">
-        <v>3000</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>3000</v>
-      </c>
-      <c r="R63" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S63">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V63" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W63">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="E64">
-        <v>0.2</v>
-      </c>
-      <c r="G64">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H64">
-        <v>3000</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>3000</v>
-      </c>
-      <c r="R64" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S64">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T64">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V64" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W64">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>216</v>
-      </c>
-      <c r="E65">
-        <v>0.2</v>
-      </c>
-      <c r="G65">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H65">
-        <v>3000</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>3000</v>
-      </c>
-      <c r="R65" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S65">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V65" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W65">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D66" s="12">
-        <v>83500</v>
-      </c>
-      <c r="E66" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="F66" s="11">
-        <v>761</v>
-      </c>
-      <c r="G66" s="11">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H66" s="11">
-        <v>3000</v>
-      </c>
-      <c r="I66" s="11">
-        <v>522</v>
-      </c>
-      <c r="J66" s="11">
-        <v>1000</v>
-      </c>
-      <c r="L66" s="11">
-        <f t="shared" si="7"/>
-        <v>239</v>
-      </c>
-      <c r="N66" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="P66" s="11">
-        <v>3000</v>
-      </c>
-      <c r="R66" s="11">
-        <f t="shared" si="1"/>
-        <v>10.778443113772456</v>
-      </c>
-      <c r="S66" s="11">
-        <f t="shared" si="2"/>
-        <v>19700</v>
-      </c>
-      <c r="T66" s="11">
-        <f t="shared" si="3"/>
-        <v>2531.7200000000003</v>
-      </c>
-      <c r="U66" s="11">
-        <f t="shared" si="4"/>
-        <v>6468.28</v>
-      </c>
-      <c r="V66" s="11">
-        <f t="shared" si="5"/>
-        <v>6.958333333333333</v>
-      </c>
-      <c r="W66" s="11">
-        <f t="shared" si="6"/>
-        <v>0.32833908629441622</v>
-      </c>
-      <c r="X66" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>220</v>
-      </c>
-      <c r="C67" t="s">
-        <v>221</v>
-      </c>
-      <c r="D67" s="1">
-        <v>125000</v>
-      </c>
-      <c r="E67">
-        <v>0.2</v>
-      </c>
-      <c r="F67">
-        <v>940</v>
-      </c>
-      <c r="G67">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H67">
-        <v>3000</v>
-      </c>
-      <c r="I67">
-        <v>522</v>
-      </c>
-      <c r="J67">
-        <v>1000</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="N67" t="s">
-        <v>219</v>
-      </c>
-      <c r="P67">
-        <v>3000</v>
-      </c>
-      <c r="R67">
-        <f t="shared" si="1"/>
-        <v>7.2</v>
-      </c>
-      <c r="S67">
-        <f t="shared" si="2"/>
-        <v>28000</v>
-      </c>
-      <c r="T67">
-        <f t="shared" si="3"/>
-        <v>3790.0000000000005</v>
-      </c>
-      <c r="U67">
-        <f t="shared" si="4"/>
-        <v>5210</v>
-      </c>
-      <c r="V67">
-        <f t="shared" si="5"/>
-        <v>10.416666666666666</v>
-      </c>
-      <c r="W67">
-        <f t="shared" si="6"/>
-        <v>0.18607142857142858</v>
-      </c>
-      <c r="X67" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>222</v>
-      </c>
-      <c r="C68" t="s">
-        <v>223</v>
-      </c>
-      <c r="D68" s="1">
-        <v>95000</v>
-      </c>
-      <c r="E68">
-        <v>0.2</v>
-      </c>
-      <c r="F68">
-        <v>872</v>
-      </c>
-      <c r="G68">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H68">
-        <v>3000</v>
-      </c>
-      <c r="I68">
-        <v>655</v>
-      </c>
-      <c r="J68">
-        <v>1200</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="7"/>
-        <v>328</v>
-      </c>
-      <c r="N68" t="s">
-        <v>224</v>
-      </c>
-      <c r="P68">
-        <v>3000</v>
-      </c>
-      <c r="R68">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="S68">
-        <f t="shared" si="2"/>
-        <v>22000</v>
-      </c>
-      <c r="T68">
-        <f t="shared" si="3"/>
-        <v>2880.4</v>
-      </c>
-      <c r="U68">
-        <f t="shared" si="4"/>
-        <v>8519.6</v>
-      </c>
-      <c r="V68">
-        <f t="shared" si="5"/>
-        <v>6.5972222222222223</v>
-      </c>
-      <c r="W68">
-        <f t="shared" si="6"/>
-        <v>0.38725454545454546</v>
-      </c>
-      <c r="X68" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D69" s="12">
-        <v>69999</v>
-      </c>
-      <c r="E69" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="F69" s="11">
-        <v>704</v>
-      </c>
-      <c r="G69" s="11">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H69" s="11">
-        <v>3000</v>
-      </c>
-      <c r="I69" s="11">
-        <v>655</v>
-      </c>
-      <c r="J69" s="11">
-        <v>800</v>
-      </c>
-      <c r="L69" s="11">
-        <f t="shared" si="7"/>
-        <v>96</v>
-      </c>
-      <c r="N69" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="P69" s="11">
-        <v>3000</v>
-      </c>
-      <c r="R69" s="11">
-        <f t="shared" si="1"/>
-        <v>9.4287061243732051</v>
-      </c>
-      <c r="S69" s="11">
-        <f t="shared" si="2"/>
-        <v>16999.800000000003</v>
-      </c>
-      <c r="T69" s="11">
-        <f t="shared" si="3"/>
-        <v>2122.3696800000002</v>
-      </c>
-      <c r="U69" s="11">
-        <f t="shared" si="4"/>
-        <v>4477.6303200000002</v>
-      </c>
-      <c r="V69" s="11">
-        <f t="shared" si="5"/>
-        <v>7.2915625000000004</v>
-      </c>
-      <c r="W69" s="11">
-        <f t="shared" si="6"/>
-        <v>0.26339311756608896</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>228</v>
-      </c>
-      <c r="C70" t="s">
-        <v>229</v>
-      </c>
-      <c r="D70" s="1">
-        <v>129999</v>
-      </c>
-      <c r="E70">
-        <v>0.2</v>
-      </c>
-      <c r="F70">
-        <v>970</v>
-      </c>
-      <c r="G70">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H70">
-        <v>3000</v>
-      </c>
-      <c r="I70">
-        <v>522</v>
-      </c>
-      <c r="J70">
-        <v>950</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="7"/>
-        <v>-20</v>
-      </c>
-      <c r="N70" t="s">
-        <v>219</v>
-      </c>
-      <c r="P70">
-        <v>3000</v>
-      </c>
-      <c r="R70">
-        <f t="shared" si="1"/>
-        <v>6.4615881660628158</v>
-      </c>
-      <c r="S70">
-        <f t="shared" si="2"/>
-        <v>28999.800000000003</v>
-      </c>
-      <c r="T70">
-        <f t="shared" si="3"/>
-        <v>3941.5696800000001</v>
-      </c>
-      <c r="U70">
-        <f t="shared" si="4"/>
-        <v>4458.4303199999995</v>
-      </c>
-      <c r="V70">
-        <f t="shared" si="5"/>
-        <v>11.403421052631579</v>
-      </c>
-      <c r="W70">
-        <f t="shared" si="6"/>
-        <v>0.15374003682784015</v>
-      </c>
-      <c r="X70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D71" s="12">
-        <v>132900</v>
-      </c>
-      <c r="E71" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="F71" s="11">
-        <v>1059</v>
-      </c>
-      <c r="G71" s="11">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H71" s="11">
-        <v>3000</v>
-      </c>
-      <c r="I71" s="11">
-        <v>1501</v>
-      </c>
-      <c r="J71" s="11">
-        <v>950</v>
-      </c>
-      <c r="L71" s="11">
-        <f t="shared" si="7"/>
-        <v>-109</v>
-      </c>
-      <c r="N71" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="P71" s="11">
-        <v>3000</v>
-      </c>
-      <c r="R71" s="11">
-        <f t="shared" si="1"/>
-        <v>6.3205417607223477</v>
-      </c>
-      <c r="S71" s="11">
-        <f t="shared" si="2"/>
-        <v>29580</v>
-      </c>
-      <c r="T71" s="11">
-        <f t="shared" si="3"/>
-        <v>4029.5280000000002</v>
-      </c>
-      <c r="U71" s="11">
-        <f t="shared" si="4"/>
-        <v>4370.4719999999998</v>
-      </c>
-      <c r="V71" s="11">
-        <f t="shared" si="5"/>
-        <v>11.657894736842104</v>
-      </c>
-      <c r="W71" s="11">
-        <f t="shared" si="6"/>
-        <v>0.14775091277890465</v>
-      </c>
-      <c r="X71" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>237</v>
-      </c>
-      <c r="C72" t="s">
-        <v>239</v>
-      </c>
-      <c r="D72" s="1">
-        <v>122500</v>
-      </c>
-      <c r="E72">
-        <v>0.2</v>
-      </c>
-      <c r="F72">
-        <v>711</v>
-      </c>
-      <c r="G72">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H72">
-        <v>3000</v>
-      </c>
-      <c r="I72" t="s">
-        <v>240</v>
-      </c>
-      <c r="J72">
-        <v>1100</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="7"/>
-        <v>389</v>
-      </c>
-      <c r="N72" t="s">
-        <v>241</v>
-      </c>
-      <c r="P72">
-        <v>3000</v>
-      </c>
-      <c r="R72">
-        <f t="shared" si="1"/>
-        <v>8.3265306122448983</v>
-      </c>
-      <c r="S72">
-        <f t="shared" si="2"/>
-        <v>27500</v>
-      </c>
-      <c r="T72">
-        <f t="shared" si="3"/>
-        <v>3714.2000000000003</v>
-      </c>
-      <c r="U72">
-        <f t="shared" si="4"/>
-        <v>6485.7999999999993</v>
-      </c>
-      <c r="V72">
-        <f t="shared" si="5"/>
-        <v>9.2803030303030312</v>
-      </c>
-      <c r="W72">
-        <f t="shared" si="6"/>
-        <v>0.23584727272727271</v>
-      </c>
-      <c r="X72" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E73">
         <v>0.2</v>
       </c>
@@ -6217,7 +6383,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>216</v>
+      </c>
       <c r="E74">
         <v>0.2</v>
       </c>
@@ -6259,1251 +6428,1377 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E75">
-        <v>0.2</v>
-      </c>
-      <c r="G75">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H75">
-        <v>3000</v>
-      </c>
-      <c r="L75">
+    <row r="75" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="12">
+        <v>83500</v>
+      </c>
+      <c r="E75" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F75" s="11">
+        <v>761</v>
+      </c>
+      <c r="G75" s="11">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H75" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I75" s="11">
+        <v>522</v>
+      </c>
+      <c r="J75" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L75" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>3000</v>
-      </c>
-      <c r="R75" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U75">
+        <v>239</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="P75" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R75" s="11">
+        <f t="shared" si="1"/>
+        <v>10.778443113772456</v>
+      </c>
+      <c r="S75" s="11">
+        <f t="shared" si="2"/>
+        <v>19700</v>
+      </c>
+      <c r="T75" s="11">
+        <f t="shared" si="3"/>
+        <v>2531.7200000000003</v>
+      </c>
+      <c r="U75" s="11">
+        <f t="shared" si="4"/>
+        <v>6468.28</v>
+      </c>
+      <c r="V75" s="11">
+        <f t="shared" si="5"/>
+        <v>6.958333333333333</v>
+      </c>
+      <c r="W75" s="11">
+        <f t="shared" si="6"/>
+        <v>0.32833908629441622</v>
+      </c>
+      <c r="X75" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" s="1">
+        <v>125000</v>
+      </c>
+      <c r="E76">
+        <v>0.2</v>
+      </c>
+      <c r="F76">
+        <v>940</v>
+      </c>
+      <c r="G76">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H76">
+        <v>3000</v>
+      </c>
+      <c r="I76">
+        <v>522</v>
+      </c>
+      <c r="J76">
+        <v>1000</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="N76" t="s">
+        <v>219</v>
+      </c>
+      <c r="P76">
+        <v>3000</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="1"/>
+        <v>7.2</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="2"/>
+        <v>28000</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="3"/>
+        <v>3790.0000000000005</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="4"/>
+        <v>5210</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="5"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="6"/>
+        <v>0.18607142857142858</v>
+      </c>
+      <c r="X76" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" s="1">
+        <v>95000</v>
+      </c>
+      <c r="E77">
+        <v>0.2</v>
+      </c>
+      <c r="F77">
+        <v>872</v>
+      </c>
+      <c r="G77">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H77">
+        <v>3000</v>
+      </c>
+      <c r="I77">
+        <v>655</v>
+      </c>
+      <c r="J77">
+        <v>1200</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="7"/>
+        <v>328</v>
+      </c>
+      <c r="N77" t="s">
+        <v>224</v>
+      </c>
+      <c r="P77">
+        <v>3000</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="2"/>
+        <v>22000</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="3"/>
+        <v>2880.4</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="4"/>
+        <v>8519.6</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="5"/>
+        <v>6.5972222222222223</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="6"/>
+        <v>0.38725454545454546</v>
+      </c>
+      <c r="X77" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78" s="12">
+        <v>69999</v>
+      </c>
+      <c r="E78" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F78" s="11">
+        <v>704</v>
+      </c>
+      <c r="G78" s="11">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H78" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I78" s="11">
+        <v>655</v>
+      </c>
+      <c r="J78" s="11">
+        <v>800</v>
+      </c>
+      <c r="L78" s="11">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="P78" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R78" s="11">
+        <f t="shared" si="1"/>
+        <v>9.4287061243732051</v>
+      </c>
+      <c r="S78" s="11">
+        <f t="shared" si="2"/>
+        <v>16999.800000000003</v>
+      </c>
+      <c r="T78" s="11">
+        <f t="shared" si="3"/>
+        <v>2122.3696800000002</v>
+      </c>
+      <c r="U78" s="11">
+        <f t="shared" si="4"/>
+        <v>4477.6303200000002</v>
+      </c>
+      <c r="V78" s="11">
+        <f t="shared" si="5"/>
+        <v>7.2915625000000004</v>
+      </c>
+      <c r="W78" s="11">
+        <f t="shared" si="6"/>
+        <v>0.26339311756608896</v>
+      </c>
+      <c r="X78" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" s="1">
+        <v>129999</v>
+      </c>
+      <c r="E79">
+        <v>0.2</v>
+      </c>
+      <c r="F79">
+        <v>970</v>
+      </c>
+      <c r="G79">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H79">
+        <v>3000</v>
+      </c>
+      <c r="I79">
+        <v>522</v>
+      </c>
+      <c r="J79">
+        <v>950</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="7"/>
+        <v>-20</v>
+      </c>
+      <c r="N79" t="s">
+        <v>219</v>
+      </c>
+      <c r="P79">
+        <v>3000</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="1"/>
+        <v>6.4615881660628158</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="2"/>
+        <v>28999.800000000003</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="3"/>
+        <v>3941.5696800000001</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="4"/>
+        <v>4458.4303199999995</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="5"/>
+        <v>11.403421052631579</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="6"/>
+        <v>0.15374003682784015</v>
+      </c>
+      <c r="X79" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D80" s="12">
+        <v>132900</v>
+      </c>
+      <c r="E80" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F80" s="11">
+        <v>1059</v>
+      </c>
+      <c r="G80" s="11">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H80" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I80" s="11">
+        <v>1501</v>
+      </c>
+      <c r="J80" s="11">
+        <v>950</v>
+      </c>
+      <c r="L80" s="11">
+        <f t="shared" si="7"/>
+        <v>-109</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="P80" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R80" s="11">
+        <f t="shared" si="1"/>
+        <v>6.3205417607223477</v>
+      </c>
+      <c r="S80" s="11">
+        <f t="shared" si="2"/>
+        <v>29580</v>
+      </c>
+      <c r="T80" s="11">
+        <f t="shared" si="3"/>
+        <v>4029.5280000000002</v>
+      </c>
+      <c r="U80" s="11">
+        <f t="shared" si="4"/>
+        <v>4370.4719999999998</v>
+      </c>
+      <c r="V80" s="11">
+        <f t="shared" si="5"/>
+        <v>11.657894736842104</v>
+      </c>
+      <c r="W80" s="11">
+        <f t="shared" si="6"/>
+        <v>0.14775091277890465</v>
+      </c>
+      <c r="X80" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" s="1">
+        <v>122500</v>
+      </c>
+      <c r="E81">
+        <v>0.2</v>
+      </c>
+      <c r="F81">
+        <v>711</v>
+      </c>
+      <c r="G81">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H81">
+        <v>3000</v>
+      </c>
+      <c r="I81" t="s">
+        <v>240</v>
+      </c>
+      <c r="J81">
+        <v>1100</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="7"/>
+        <v>389</v>
+      </c>
+      <c r="N81" t="s">
+        <v>241</v>
+      </c>
+      <c r="P81">
+        <v>3000</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="1"/>
+        <v>8.3265306122448983</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="2"/>
+        <v>27500</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="3"/>
+        <v>3714.2000000000003</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="4"/>
+        <v>6485.7999999999993</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="5"/>
+        <v>9.2803030303030312</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="6"/>
+        <v>0.23584727272727271</v>
+      </c>
+      <c r="X81" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>0.2</v>
+      </c>
+      <c r="G82">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H82">
+        <v>3000</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>3000</v>
+      </c>
+      <c r="R82" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U82">
         <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
-      <c r="V75" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W75">
+      <c r="V82" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W82">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E76">
-        <v>0.2</v>
-      </c>
-      <c r="G76">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H76">
-        <v>3000</v>
-      </c>
-      <c r="L76">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>0.2</v>
+      </c>
+      <c r="G83">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H83">
+        <v>3000</v>
+      </c>
+      <c r="L83">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P76">
-        <v>3000</v>
-      </c>
-      <c r="R76" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S76">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U76">
+      <c r="P83">
+        <v>3000</v>
+      </c>
+      <c r="R83" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U83">
         <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
-      <c r="V76" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W76">
+      <c r="V83" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W83">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E77">
-        <v>0.2</v>
-      </c>
-      <c r="G77">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H77">
-        <v>3000</v>
-      </c>
-      <c r="L77">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <v>0.2</v>
+      </c>
+      <c r="G84">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H84">
+        <v>3000</v>
+      </c>
+      <c r="L84">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P77">
-        <v>3000</v>
-      </c>
-      <c r="R77" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T77">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U77">
+      <c r="P84">
+        <v>3000</v>
+      </c>
+      <c r="R84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U84">
         <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
-      <c r="V77" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W77">
+      <c r="V84" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W84">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E78">
-        <v>0.2</v>
-      </c>
-      <c r="G78">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H78">
-        <v>3000</v>
-      </c>
-      <c r="L78">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>0.2</v>
+      </c>
+      <c r="G85">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H85">
+        <v>3000</v>
+      </c>
+      <c r="L85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P78">
-        <v>3000</v>
-      </c>
-      <c r="R78" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S78">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U78">
+      <c r="P85">
+        <v>3000</v>
+      </c>
+      <c r="R85" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U85">
         <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
-      <c r="V78" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W78">
+      <c r="V85" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W85">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E79">
-        <v>0.2</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H79">
-        <v>3000</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R79" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S79">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T79">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V79" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W79">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>20</v>
-      </c>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80">
-        <v>0.2</v>
-      </c>
-      <c r="F80"/>
-      <c r="G80" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H80">
-        <v>3000</v>
-      </c>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
-      <c r="P80">
-        <v>3000</v>
-      </c>
-      <c r="Q80"/>
-      <c r="R80" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S80">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U80">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>0.2</v>
+      </c>
+      <c r="G86">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H86">
+        <v>3000</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>3000</v>
+      </c>
+      <c r="R86" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U86">
         <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
-      <c r="V80" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W80">
+      <c r="V86" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W86">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="X80"/>
-      <c r="Y80"/>
-      <c r="Z80"/>
-    </row>
-    <row r="81" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>0.2</v>
+      </c>
+      <c r="G87">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H87">
+        <v>3000</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>3000</v>
+      </c>
+      <c r="R87" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V87" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>0.2</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H88">
+        <v>3000</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R88" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V88" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89">
+        <v>0.2</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H89">
+        <v>3000</v>
+      </c>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89">
+        <v>3000</v>
+      </c>
+      <c r="Q89"/>
+      <c r="R89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V89" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89"/>
+    </row>
+    <row r="90" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D90" s="9">
         <v>380000</v>
       </c>
-      <c r="E81" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F81" s="8">
+      <c r="E90" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F90" s="8">
         <v>2201</v>
       </c>
-      <c r="G81" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H81" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I81" s="8" t="s">
+      <c r="G90" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H90" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I90" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J81" s="8">
+      <c r="J90" s="8">
         <v>2250</v>
       </c>
-      <c r="L81">
+      <c r="L90">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="N81" s="8" t="s">
+      <c r="N90" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P81" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R81" s="8">
+      <c r="P90" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R90" s="8">
         <f t="shared" si="1"/>
         <v>6.3157894736842106</v>
       </c>
-      <c r="S81" s="8">
+      <c r="S90" s="8">
         <f t="shared" si="2"/>
         <v>79000</v>
       </c>
-      <c r="T81" s="8">
+      <c r="T90" s="8">
         <f t="shared" si="3"/>
         <v>11521.6</v>
       </c>
-      <c r="U81">
+      <c r="U90">
         <f t="shared" si="4"/>
         <v>12478.4</v>
       </c>
-      <c r="V81">
+      <c r="V90">
         <f t="shared" si="5"/>
         <v>14.074074074074074</v>
       </c>
-      <c r="W81">
+      <c r="W90">
         <f t="shared" si="6"/>
         <v>0.15795443037974682</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>24</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C91" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D91" s="1">
         <v>550000</v>
       </c>
-      <c r="E82">
-        <v>0.2</v>
-      </c>
-      <c r="F82">
+      <c r="E91">
+        <v>0.2</v>
+      </c>
+      <c r="F91">
         <v>3300</v>
       </c>
-      <c r="G82" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H82">
-        <v>3000</v>
-      </c>
-      <c r="I82">
+      <c r="G91" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H91">
+        <v>3000</v>
+      </c>
+      <c r="I91">
         <v>897</v>
       </c>
-      <c r="J82">
+      <c r="J91">
         <v>2750</v>
       </c>
-      <c r="L82">
+      <c r="L91">
         <f t="shared" si="0"/>
         <v>-550</v>
       </c>
-      <c r="N82" t="s">
+      <c r="N91" t="s">
         <v>22</v>
       </c>
-      <c r="P82">
-        <v>3000</v>
-      </c>
-      <c r="R82">
+      <c r="P91">
+        <v>3000</v>
+      </c>
+      <c r="R91">
         <f t="shared" si="1"/>
         <v>5.4545454545454541</v>
       </c>
-      <c r="S82">
+      <c r="S91">
         <f t="shared" si="2"/>
         <v>113000</v>
       </c>
-      <c r="T82">
+      <c r="T91">
         <f t="shared" si="3"/>
         <v>16676</v>
       </c>
-      <c r="U82">
+      <c r="U91">
         <f t="shared" si="4"/>
         <v>13324</v>
       </c>
-      <c r="V82">
+      <c r="V91">
         <f t="shared" si="5"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="W82">
+      <c r="W91">
         <f t="shared" si="6"/>
         <v>0.11791150442477875</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="92" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>26</v>
       </c>
-      <c r="B83"/>
-      <c r="C83" t="s">
+      <c r="B92"/>
+      <c r="C92" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D92" s="1">
         <v>509000</v>
       </c>
-      <c r="E83">
-        <v>0.2</v>
-      </c>
-      <c r="F83" s="1">
+      <c r="E92">
+        <v>0.2</v>
+      </c>
+      <c r="F92" s="1">
         <v>3186</v>
       </c>
-      <c r="G83" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H83">
-        <v>3000</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="G92" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H92">
+        <v>3000</v>
+      </c>
+      <c r="I92" t="s">
         <v>28</v>
       </c>
-      <c r="J83">
+      <c r="J92">
         <v>2850</v>
       </c>
-      <c r="K83"/>
-      <c r="L83">
+      <c r="K92"/>
+      <c r="L92">
         <f t="shared" si="0"/>
         <v>-336</v>
       </c>
-      <c r="M83"/>
-      <c r="N83" s="1">
+      <c r="M92"/>
+      <c r="N92" s="1">
         <v>3186</v>
       </c>
-      <c r="O83" s="1"/>
-      <c r="P83">
-        <v>3000</v>
-      </c>
-      <c r="Q83"/>
-      <c r="R83">
+      <c r="O92" s="1"/>
+      <c r="P92">
+        <v>3000</v>
+      </c>
+      <c r="Q92"/>
+      <c r="R92">
         <f t="shared" si="1"/>
         <v>6.129666011787819</v>
       </c>
-      <c r="S83">
+      <c r="S92">
         <f t="shared" si="2"/>
         <v>104800</v>
       </c>
-      <c r="T83">
+      <c r="T92">
         <f t="shared" si="3"/>
         <v>15432.880000000001</v>
       </c>
-      <c r="U83">
+      <c r="U92">
         <f t="shared" si="4"/>
         <v>15767.119999999999</v>
       </c>
-      <c r="V83">
+      <c r="V92">
         <f t="shared" si="5"/>
         <v>14.883040935672515</v>
       </c>
-      <c r="W83">
+      <c r="W92">
         <f t="shared" si="6"/>
         <v>0.15044961832061068</v>
       </c>
-      <c r="X83"/>
-      <c r="Y83"/>
-      <c r="Z83"/>
-    </row>
-    <row r="84" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+    </row>
+    <row r="93" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>30</v>
       </c>
-      <c r="B84"/>
-      <c r="C84" t="s">
+      <c r="B93"/>
+      <c r="C93" t="s">
         <v>29</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D93" s="1">
         <v>431775</v>
       </c>
-      <c r="E84">
-        <v>0.2</v>
-      </c>
-      <c r="F84" s="1">
+      <c r="E93">
+        <v>0.2</v>
+      </c>
+      <c r="F93" s="1">
         <v>2817</v>
       </c>
-      <c r="G84" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H84">
-        <v>3000</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="G93" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H93">
+        <v>3000</v>
+      </c>
+      <c r="I93" t="s">
         <v>31</v>
       </c>
-      <c r="J84">
+      <c r="J93">
         <v>2200</v>
       </c>
-      <c r="K84"/>
-      <c r="L84">
+      <c r="K93"/>
+      <c r="L93">
         <f t="shared" si="0"/>
         <v>-617</v>
       </c>
-      <c r="M84"/>
-      <c r="N84" t="s">
+      <c r="M93"/>
+      <c r="N93" t="s">
         <v>32</v>
       </c>
-      <c r="O84"/>
-      <c r="P84">
-        <v>3000</v>
-      </c>
-      <c r="Q84"/>
-      <c r="R84">
+      <c r="O93"/>
+      <c r="P93">
+        <v>3000</v>
+      </c>
+      <c r="Q93"/>
+      <c r="R93">
         <f t="shared" si="1"/>
         <v>5.419489317352788</v>
       </c>
-      <c r="S84">
+      <c r="S93">
         <f t="shared" si="2"/>
         <v>89355</v>
       </c>
-      <c r="T84">
+      <c r="T93">
         <f t="shared" si="3"/>
         <v>13091.418000000001</v>
       </c>
-      <c r="U84">
+      <c r="U93">
         <f t="shared" si="4"/>
         <v>10308.581999999999</v>
       </c>
-      <c r="V84">
+      <c r="V93">
         <f t="shared" si="5"/>
         <v>16.355113636363637</v>
       </c>
-      <c r="W84">
+      <c r="W93">
         <f t="shared" si="6"/>
         <v>0.11536659392311564</v>
       </c>
-      <c r="X84"/>
-      <c r="Y84"/>
-      <c r="Z84"/>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>33</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C94" t="s">
         <v>34</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D94" s="1">
         <v>629000</v>
       </c>
-      <c r="E85">
-        <v>0.2</v>
-      </c>
-      <c r="F85" s="1">
+      <c r="E94">
+        <v>0.2</v>
+      </c>
+      <c r="F94" s="1">
         <v>3156</v>
       </c>
-      <c r="G85" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H85">
-        <v>3000</v>
-      </c>
-      <c r="I85">
+      <c r="G94" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H94">
+        <v>3000</v>
+      </c>
+      <c r="I94">
         <v>977</v>
       </c>
-      <c r="J85">
+      <c r="J94">
         <v>2900</v>
       </c>
-      <c r="L85">
-        <f t="shared" ref="L85:L117" si="8">J85-F85</f>
+      <c r="L94">
+        <f t="shared" ref="L94:L126" si="8">J94-F94</f>
         <v>-256</v>
       </c>
-      <c r="N85" t="s">
+      <c r="N94" t="s">
         <v>18</v>
       </c>
-      <c r="P85">
-        <v>3000</v>
-      </c>
-      <c r="R85">
+      <c r="P94">
+        <v>3000</v>
+      </c>
+      <c r="R94">
         <f t="shared" si="1"/>
         <v>5.0556438791732905</v>
       </c>
-      <c r="S85">
+      <c r="S94">
         <f t="shared" si="2"/>
         <v>128800</v>
       </c>
-      <c r="T85">
+      <c r="T94">
         <f t="shared" si="3"/>
         <v>19071.280000000002</v>
       </c>
-      <c r="U85">
+      <c r="U94">
         <f t="shared" si="4"/>
         <v>12728.719999999998</v>
       </c>
-      <c r="V85">
+      <c r="V94">
         <f t="shared" si="5"/>
         <v>18.074712643678161</v>
       </c>
-      <c r="W85">
-        <f t="shared" ref="W85:W126" si="9">U85/S85</f>
+      <c r="W94">
+        <f t="shared" ref="W94:W135" si="9">U94/S94</f>
         <v>9.8825465838509291E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" s="1">
-        <v>762613</v>
-      </c>
-      <c r="E86">
-        <v>0.2</v>
-      </c>
-      <c r="F86" s="1">
-        <v>5111</v>
-      </c>
-      <c r="G86" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H86">
-        <v>3000</v>
-      </c>
-      <c r="I86">
-        <v>987</v>
-      </c>
-      <c r="J86">
-        <v>3300</v>
-      </c>
-      <c r="K86"/>
-      <c r="L86">
-        <f t="shared" si="8"/>
-        <v>-1811</v>
-      </c>
-      <c r="M86"/>
-      <c r="N86" t="s">
-        <v>36</v>
-      </c>
-      <c r="O86"/>
-      <c r="P86">
-        <v>3000</v>
-      </c>
-      <c r="Q86"/>
-      <c r="R86">
-        <f t="shared" si="1"/>
-        <v>4.7992887611409722</v>
-      </c>
-      <c r="S86">
-        <f t="shared" si="2"/>
-        <v>155522.6</v>
-      </c>
-      <c r="T86">
-        <f t="shared" si="3"/>
-        <v>23122.426160000003</v>
-      </c>
-      <c r="U86">
-        <f t="shared" si="4"/>
-        <v>13477.573839999997</v>
-      </c>
-      <c r="V86">
-        <f t="shared" si="5"/>
-        <v>19.257904040404039</v>
-      </c>
-      <c r="W86">
-        <f t="shared" si="9"/>
-        <v>8.6659905634293641E-2</v>
-      </c>
-      <c r="X86"/>
-      <c r="Y86"/>
-      <c r="Z86"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>55</v>
-      </c>
-      <c r="D87" s="1">
-        <v>509000</v>
-      </c>
-      <c r="E87">
-        <v>0.2</v>
-      </c>
-      <c r="F87" s="1">
-        <v>3186</v>
-      </c>
-      <c r="G87" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H87">
-        <v>3000</v>
-      </c>
-      <c r="I87" t="s">
-        <v>56</v>
-      </c>
-      <c r="J87" s="5">
-        <v>2800</v>
-      </c>
-      <c r="K87">
-        <v>2995</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="8"/>
-        <v>-386</v>
-      </c>
-      <c r="N87" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O87" t="s">
-        <v>58</v>
-      </c>
-      <c r="P87">
-        <v>3000</v>
-      </c>
-      <c r="R87">
-        <f>100*(12*J87-P87)/D87</f>
-        <v>6.0117878192534384</v>
-      </c>
-      <c r="S87">
-        <f>D87*E87+H87</f>
-        <v>104800</v>
-      </c>
-      <c r="T87">
-        <f>G87*(D87-D87*E87)</f>
-        <v>15432.880000000001</v>
-      </c>
-      <c r="U87">
-        <f>12*J87-P87-T87</f>
-        <v>15167.119999999999</v>
-      </c>
-      <c r="V87">
-        <f>D87/(12*J87)</f>
-        <v>15.148809523809524</v>
-      </c>
-      <c r="W87">
-        <f t="shared" si="9"/>
-        <v>0.14472442748091602</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>24</v>
-      </c>
-      <c r="B88"/>
-      <c r="C88" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D88" s="6">
-        <v>499196</v>
-      </c>
-      <c r="E88">
-        <v>0.2</v>
-      </c>
-      <c r="F88" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G88" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H88">
-        <v>3000</v>
-      </c>
-      <c r="I88" t="s">
-        <v>56</v>
-      </c>
-      <c r="J88" s="5">
-        <v>2850</v>
-      </c>
-      <c r="K88" s="5">
-        <v>2750</v>
-      </c>
-      <c r="L88">
-        <f t="shared" si="8"/>
-        <v>-150</v>
-      </c>
-      <c r="M88"/>
-      <c r="N88" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O88" t="s">
-        <v>60</v>
-      </c>
-      <c r="P88">
-        <v>3000</v>
-      </c>
-      <c r="Q88"/>
-      <c r="R88">
-        <f t="shared" si="1"/>
-        <v>6.2500500805294914</v>
-      </c>
-      <c r="S88">
-        <f t="shared" si="2"/>
-        <v>102839.20000000001</v>
-      </c>
-      <c r="T88">
-        <f t="shared" si="3"/>
-        <v>15135.622720000001</v>
-      </c>
-      <c r="U88">
-        <f t="shared" si="4"/>
-        <v>16064.377279999999</v>
-      </c>
-      <c r="V88">
-        <f t="shared" si="5"/>
-        <v>14.596374269005848</v>
-      </c>
-      <c r="W88">
-        <f t="shared" si="9"/>
-        <v>0.15620869551688457</v>
-      </c>
-      <c r="X88"/>
-      <c r="Y88"/>
-      <c r="Z88"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E89">
-        <v>0.2</v>
-      </c>
-      <c r="G89" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H89">
-        <v>3000</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P89">
-        <v>3000</v>
-      </c>
-      <c r="R89" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S89">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U89">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V89" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W89">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E90">
-        <v>0.2</v>
-      </c>
-      <c r="G90" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H90">
-        <v>3000</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P90">
-        <v>3000</v>
-      </c>
-      <c r="R90" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S90">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U90">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V90" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W90">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E91">
-        <v>0.2</v>
-      </c>
-      <c r="G91" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H91">
-        <v>3000</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P91">
-        <v>3000</v>
-      </c>
-      <c r="R91" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S91">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T91">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U91">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V91" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W91">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E92">
-        <v>0.2</v>
-      </c>
-      <c r="G92" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H92">
-        <v>3000</v>
-      </c>
-      <c r="L92">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <v>3000</v>
-      </c>
-      <c r="R92" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S92">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T92">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U92">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V92" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W92">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E93">
-        <v>0.2</v>
-      </c>
-      <c r="G93" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H93">
-        <v>3000</v>
-      </c>
-      <c r="L93">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P93">
-        <v>3000</v>
-      </c>
-      <c r="R93" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S93">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U93">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V93" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W93">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E94">
-        <v>0.2</v>
-      </c>
-      <c r="G94" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H94">
-        <v>3000</v>
-      </c>
-      <c r="L94">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P94">
-        <v>3000</v>
-      </c>
-      <c r="R94" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S94">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T94">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U94">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V94" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W94">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" s="10" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
+      <c r="C95" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" s="1">
+        <v>762613</v>
+      </c>
       <c r="E95">
         <v>0.2</v>
       </c>
-      <c r="F95"/>
+      <c r="F95" s="1">
+        <v>5111</v>
+      </c>
       <c r="G95" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H95">
         <v>3000</v>
       </c>
-      <c r="I95"/>
-      <c r="J95"/>
+      <c r="I95">
+        <v>987</v>
+      </c>
+      <c r="J95">
+        <v>3300</v>
+      </c>
       <c r="K95"/>
       <c r="L95">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-1811</v>
       </c>
       <c r="M95"/>
-      <c r="N95"/>
+      <c r="N95" t="s">
+        <v>36</v>
+      </c>
       <c r="O95"/>
       <c r="P95">
         <v>3000</v>
       </c>
       <c r="Q95"/>
-      <c r="R95" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R95">
+        <f t="shared" si="1"/>
+        <v>4.7992887611409722</v>
       </c>
       <c r="S95">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>155522.6</v>
       </c>
       <c r="T95">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>23122.426160000003</v>
       </c>
       <c r="U95">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V95" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>13477.573839999997</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="5"/>
+        <v>19.257904040404039</v>
       </c>
       <c r="W95">
         <f t="shared" si="9"/>
-        <v>-1</v>
+        <v>8.6659905634293641E-2</v>
       </c>
       <c r="X95"/>
       <c r="Y95"/>
       <c r="Z95"/>
     </row>
-    <row r="96" spans="1:26" s="8" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" s="1">
+        <v>509000</v>
+      </c>
       <c r="E96">
         <v>0.2</v>
       </c>
-      <c r="F96"/>
+      <c r="F96" s="1">
+        <v>3186</v>
+      </c>
       <c r="G96" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H96">
         <v>3000</v>
       </c>
-      <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96"/>
+      <c r="I96" t="s">
+        <v>56</v>
+      </c>
+      <c r="J96" s="5">
+        <v>2800</v>
+      </c>
+      <c r="K96">
+        <v>2995</v>
+      </c>
       <c r="L96">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M96"/>
-      <c r="N96"/>
-      <c r="O96"/>
+        <v>-386</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O96" t="s">
+        <v>58</v>
+      </c>
       <c r="P96">
         <v>3000</v>
       </c>
-      <c r="Q96"/>
-      <c r="R96" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R96">
+        <f>100*(12*J96-P96)/D96</f>
+        <v>6.0117878192534384</v>
       </c>
       <c r="S96">
-        <f t="shared" si="2"/>
-        <v>3000</v>
+        <f>D96*E96+H96</f>
+        <v>104800</v>
       </c>
       <c r="T96">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>G96*(D96-D96*E96)</f>
+        <v>15432.880000000001</v>
       </c>
       <c r="U96">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V96" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f>12*J96-P96-T96</f>
+        <v>15167.119999999999</v>
+      </c>
+      <c r="V96">
+        <f>D96/(12*J96)</f>
+        <v>15.148809523809524</v>
       </c>
       <c r="W96">
         <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="X96"/>
-      <c r="Y96"/>
-      <c r="Z96"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.14472442748091602</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97"/>
+      <c r="C97" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="6">
+        <v>499196</v>
+      </c>
       <c r="E97">
         <v>0.2</v>
       </c>
+      <c r="F97" s="1">
+        <v>3000</v>
+      </c>
       <c r="G97" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H97">
         <v>3000</v>
+      </c>
+      <c r="I97" t="s">
+        <v>56</v>
+      </c>
+      <c r="J97" s="5">
+        <v>2850</v>
+      </c>
+      <c r="K97" s="5">
+        <v>2750</v>
       </c>
       <c r="L97">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-150</v>
+      </c>
+      <c r="M97"/>
+      <c r="N97" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O97" t="s">
+        <v>60</v>
       </c>
       <c r="P97">
         <v>3000</v>
       </c>
-      <c r="R97" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="Q97"/>
+      <c r="R97">
+        <f t="shared" si="1"/>
+        <v>6.2500500805294914</v>
       </c>
       <c r="S97">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>102839.20000000001</v>
       </c>
       <c r="T97">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15135.622720000001</v>
       </c>
       <c r="U97">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V97" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>16064.377279999999</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="5"/>
+        <v>14.596374269005848</v>
       </c>
       <c r="W97">
         <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
+        <v>0.15620869551688457</v>
+      </c>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E98">
         <v>0.2</v>
       </c>
-      <c r="F98"/>
       <c r="G98" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H98">
         <v>3000</v>
       </c>
-      <c r="I98"/>
-      <c r="J98"/>
-      <c r="K98"/>
       <c r="L98">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M98"/>
-      <c r="N98"/>
-      <c r="O98"/>
       <c r="P98">
         <v>3000</v>
       </c>
-      <c r="Q98"/>
       <c r="R98" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -7528,39 +7823,24 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="X98"/>
-      <c r="Y98"/>
-      <c r="Z98"/>
-    </row>
-    <row r="99" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E99">
         <v>0.2</v>
       </c>
-      <c r="F99"/>
       <c r="G99" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H99">
         <v>3000</v>
       </c>
-      <c r="I99"/>
-      <c r="J99"/>
-      <c r="K99"/>
       <c r="L99">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M99"/>
-      <c r="N99"/>
-      <c r="O99"/>
       <c r="P99">
         <v>3000</v>
       </c>
-      <c r="Q99"/>
       <c r="R99" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -7585,39 +7865,24 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="X99"/>
-      <c r="Y99"/>
-      <c r="Z99"/>
-    </row>
-    <row r="100" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E100">
         <v>0.2</v>
       </c>
-      <c r="F100"/>
       <c r="G100" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H100">
         <v>3000</v>
       </c>
-      <c r="I100"/>
-      <c r="J100"/>
-      <c r="K100"/>
       <c r="L100">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M100"/>
-      <c r="N100"/>
-      <c r="O100"/>
       <c r="P100">
         <v>3000</v>
       </c>
-      <c r="Q100"/>
       <c r="R100" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -7642,39 +7907,24 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="X100"/>
-      <c r="Y100"/>
-      <c r="Z100"/>
-    </row>
-    <row r="101" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E101">
         <v>0.2</v>
       </c>
-      <c r="F101"/>
       <c r="G101" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H101">
         <v>3000</v>
       </c>
-      <c r="I101"/>
-      <c r="J101"/>
-      <c r="K101"/>
       <c r="L101">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M101"/>
-      <c r="N101"/>
-      <c r="O101"/>
       <c r="P101">
         <v>3000</v>
       </c>
-      <c r="Q101"/>
       <c r="R101" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -7699,39 +7949,24 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="X101"/>
-      <c r="Y101"/>
-      <c r="Z101"/>
-    </row>
-    <row r="102" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E102">
         <v>0.2</v>
       </c>
-      <c r="F102"/>
       <c r="G102" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H102">
         <v>3000</v>
       </c>
-      <c r="I102"/>
-      <c r="J102"/>
-      <c r="K102"/>
       <c r="L102">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M102"/>
-      <c r="N102"/>
-      <c r="O102"/>
       <c r="P102">
         <v>3000</v>
       </c>
-      <c r="Q102"/>
       <c r="R102" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -7756,11 +7991,8 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="X102"/>
-      <c r="Y102"/>
-      <c r="Z102"/>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E103">
         <v>0.2</v>
       </c>
@@ -7802,23 +8034,35 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" s="10" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
       <c r="E104">
         <v>0.2</v>
       </c>
+      <c r="F104"/>
       <c r="G104" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H104">
         <v>3000</v>
       </c>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
       <c r="L104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
       <c r="P104">
         <v>3000</v>
       </c>
+      <c r="Q104"/>
       <c r="R104" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -7843,24 +8087,39 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X104"/>
+      <c r="Y104"/>
+      <c r="Z104"/>
+    </row>
+    <row r="105" spans="1:26" s="8" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
       <c r="E105">
         <v>0.2</v>
       </c>
+      <c r="F105"/>
       <c r="G105" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H105">
         <v>3000</v>
       </c>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
       <c r="L105">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
       <c r="P105">
         <v>3000</v>
       </c>
+      <c r="Q105"/>
       <c r="R105" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -7885,6 +8144,9 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
+      <c r="X105"/>
+      <c r="Y105"/>
+      <c r="Z105"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E106">
@@ -7928,7 +8190,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -7985,7 +8247,7 @@
       <c r="Y107"/>
       <c r="Z107"/>
     </row>
-    <row r="108" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -8042,23 +8304,35 @@
       <c r="Y108"/>
       <c r="Z108"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
       <c r="E109">
         <v>0.2</v>
       </c>
+      <c r="F109"/>
       <c r="G109" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H109">
         <v>3000</v>
       </c>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
       <c r="L109">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
       <c r="P109">
         <v>3000</v>
       </c>
+      <c r="Q109"/>
       <c r="R109" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -8083,24 +8357,39 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X109"/>
+      <c r="Y109"/>
+      <c r="Z109"/>
+    </row>
+    <row r="110" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
       <c r="E110">
         <v>0.2</v>
       </c>
+      <c r="F110"/>
       <c r="G110" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H110">
         <v>3000</v>
       </c>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
       <c r="L110">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
       <c r="P110">
         <v>3000</v>
       </c>
+      <c r="Q110"/>
       <c r="R110" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -8125,24 +8414,39 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
+    </row>
+    <row r="111" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
       <c r="E111">
         <v>0.2</v>
       </c>
+      <c r="F111"/>
       <c r="G111" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H111">
         <v>3000</v>
       </c>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
       <c r="L111">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
       <c r="P111">
         <v>3000</v>
       </c>
+      <c r="Q111"/>
       <c r="R111" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -8167,6 +8471,9 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
+      <c r="X111"/>
+      <c r="Y111"/>
+      <c r="Z111"/>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E112">
@@ -8210,7 +8517,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E113">
         <v>0.2</v>
       </c>
@@ -8252,9 +8559,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="114" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E114">
         <v>0.2</v>
+      </c>
+      <c r="G114" s="3">
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="H114">
         <v>3000</v>
@@ -8291,9 +8601,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E115">
         <v>0.2</v>
+      </c>
+      <c r="G115" s="3">
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="H115">
         <v>3000</v>
@@ -8330,20 +8643,35 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
       <c r="E116">
         <v>0.2</v>
       </c>
+      <c r="F116"/>
+      <c r="G116" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H116">
         <v>3000</v>
       </c>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
       <c r="L116">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
       <c r="P116">
         <v>3000</v>
       </c>
+      <c r="Q116"/>
       <c r="R116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -8368,21 +8696,39 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="117" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="X116"/>
+      <c r="Y116"/>
+      <c r="Z116"/>
+    </row>
+    <row r="117" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
       <c r="E117">
         <v>0.2</v>
       </c>
+      <c r="F117"/>
+      <c r="G117" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H117">
         <v>3000</v>
       </c>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
       <c r="L117">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
       <c r="P117">
         <v>3000</v>
       </c>
+      <c r="Q117"/>
       <c r="R117" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -8407,32 +8753,45 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="118" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="X117"/>
+      <c r="Y117"/>
+      <c r="Z117"/>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E118">
+        <v>0.2</v>
+      </c>
+      <c r="G118" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H118">
         <v>3000</v>
       </c>
+      <c r="L118">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P118">
         <v>3000</v>
       </c>
       <c r="R118" t="e">
-        <f t="shared" ref="R118:R128" si="10">100*(12*J118-P118)/D118</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S118">
-        <f t="shared" ref="S118:S128" si="11">D118*E118+H118</f>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T118">
-        <f t="shared" ref="T118:T126" si="12">G118*(D118-D118*E118)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U118">
-        <f t="shared" ref="U118:U126" si="13">12*J118-P118-T118</f>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V118" t="e">
-        <f t="shared" ref="V118:V126" si="14">D118/(12*J118)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W118">
@@ -8440,31 +8799,41 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E119">
+        <v>0.2</v>
+      </c>
+      <c r="G119" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H119">
         <v>3000</v>
       </c>
+      <c r="L119">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P119">
         <v>3000</v>
       </c>
       <c r="R119" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V119" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W119">
@@ -8472,31 +8841,41 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E120">
+        <v>0.2</v>
+      </c>
+      <c r="G120" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H120">
         <v>3000</v>
       </c>
+      <c r="L120">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P120">
         <v>3000</v>
       </c>
       <c r="R120" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V120" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W120">
@@ -8504,31 +8883,41 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E121">
+        <v>0.2</v>
+      </c>
+      <c r="G121" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H121">
         <v>3000</v>
       </c>
+      <c r="L121">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P121">
         <v>3000</v>
       </c>
       <c r="R121" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V121" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W121">
@@ -8536,31 +8925,41 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E122">
+        <v>0.2</v>
+      </c>
+      <c r="G122" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H122">
         <v>3000</v>
       </c>
+      <c r="L122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P122">
         <v>3000</v>
       </c>
       <c r="R122" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V122" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W122">
@@ -8568,31 +8967,38 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="123" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E123">
+        <v>0.2</v>
+      </c>
       <c r="H123">
         <v>3000</v>
       </c>
+      <c r="L123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P123">
         <v>3000</v>
       </c>
       <c r="R123" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V123" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W123">
@@ -8600,31 +9006,38 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E124">
+        <v>0.2</v>
+      </c>
       <c r="H124">
         <v>3000</v>
       </c>
+      <c r="L124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P124">
         <v>3000</v>
       </c>
       <c r="R124" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V124" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W124">
@@ -8632,31 +9045,38 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E125">
+        <v>0.2</v>
+      </c>
       <c r="H125">
         <v>3000</v>
       </c>
+      <c r="L125">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P125">
         <v>3000</v>
       </c>
       <c r="R125" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V125" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W125">
@@ -8664,95 +9084,390 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E126">
+        <v>0.2</v>
+      </c>
+      <c r="H126">
+        <v>3000</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P126">
         <v>3000</v>
       </c>
       <c r="R126" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S126">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="V126" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W126">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <v>3000</v>
+      </c>
+      <c r="P127">
+        <v>3000</v>
+      </c>
+      <c r="R127" t="e">
+        <f t="shared" ref="R127:R137" si="10">100*(12*J127-P127)/D127</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S127">
+        <f t="shared" ref="S127:S137" si="11">D127*E127+H127</f>
+        <v>3000</v>
+      </c>
+      <c r="T127">
+        <f t="shared" ref="T127:T135" si="12">G127*(D127-D127*E127)</f>
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <f t="shared" ref="U127:U135" si="13">12*J127-P127-T127</f>
+        <v>-3000</v>
+      </c>
+      <c r="V127" t="e">
+        <f t="shared" ref="V127:V135" si="14">D127/(12*J127)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W127">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <v>3000</v>
+      </c>
+      <c r="P128">
+        <v>3000</v>
+      </c>
+      <c r="R128" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S126">
+      <c r="S128">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T126">
+        <v>3000</v>
+      </c>
+      <c r="T128">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U126">
+      <c r="U128">
         <f t="shared" si="13"/>
         <v>-3000</v>
       </c>
-      <c r="V126" t="e">
+      <c r="V128" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W126" t="e">
+      <c r="W128">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="127" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="P127">
-        <v>3000</v>
-      </c>
-      <c r="R127" t="e">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>3000</v>
+      </c>
+      <c r="P129">
+        <v>3000</v>
+      </c>
+      <c r="R129" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S127">
+      <c r="S129">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="P128">
-        <v>3000</v>
-      </c>
-      <c r="R128" t="e">
+        <v>3000</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V129" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W129">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <v>3000</v>
+      </c>
+      <c r="P130">
+        <v>3000</v>
+      </c>
+      <c r="R130" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S128">
+      <c r="S130">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129"/>
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129"/>
-      <c r="G129"/>
-      <c r="H129"/>
-      <c r="I129"/>
-      <c r="J129"/>
-      <c r="K129"/>
-      <c r="L129"/>
-      <c r="M129"/>
-      <c r="N129"/>
-      <c r="O129"/>
-      <c r="P129">
-        <v>3000</v>
-      </c>
-      <c r="Q129"/>
-      <c r="R129"/>
-      <c r="S129"/>
-      <c r="T129"/>
-      <c r="U129"/>
-      <c r="V129"/>
-      <c r="W129"/>
-      <c r="X129"/>
-      <c r="Y129"/>
-      <c r="Z129"/>
+        <v>3000</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V130" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W130">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <v>3000</v>
+      </c>
+      <c r="P131">
+        <v>3000</v>
+      </c>
+      <c r="R131" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S131">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T131">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V131" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W131">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <v>3000</v>
+      </c>
+      <c r="P132">
+        <v>3000</v>
+      </c>
+      <c r="R132" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S132">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V132" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W132">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <v>3000</v>
+      </c>
+      <c r="P133">
+        <v>3000</v>
+      </c>
+      <c r="R133" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V133" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W133">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <v>3000</v>
+      </c>
+      <c r="P134">
+        <v>3000</v>
+      </c>
+      <c r="R134" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W134">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="P135">
+        <v>3000</v>
+      </c>
+      <c r="R135" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V135" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W135" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="P136">
+        <v>3000</v>
+      </c>
+      <c r="R136" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S136">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="P137">
+        <v>3000</v>
+      </c>
+      <c r="R137" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138">
+        <v>3000</v>
+      </c>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+      <c r="V138"/>
+      <c r="W138"/>
+      <c r="X138"/>
+      <c r="Y138"/>
+      <c r="Z138"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C88" r:id="rId1" location="redfin-estimate"/>
-    <hyperlink ref="C81" r:id="rId2" location="schools"/>
+    <hyperlink ref="C97" r:id="rId1" location="redfin-estimate"/>
+    <hyperlink ref="C90" r:id="rId2" location="schools"/>
     <hyperlink ref="C8" r:id="rId3"/>
     <hyperlink ref="B12" r:id="rId4"/>
     <hyperlink ref="B13" r:id="rId5"/>

--- a/austin (Autosaved).xlsx
+++ b/austin (Autosaved).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="33600" windowHeight="18860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="294">
   <si>
     <t>地址</t>
   </si>
@@ -720,33 +720,12 @@
     <t>3b2bcondo</t>
   </si>
   <si>
-    <t>9520 Royal Ln Unit 215CDallas, TX 75243</t>
-  </si>
-  <si>
-    <t>https://www.redfin.com/TX/Dallas/9520-Royal-Ln-75243/unit-215C/home/108473508#redfin-estimate</t>
-  </si>
-  <si>
     <t>7107 Holly Hill Dr #209Dallas, TX 75231</t>
   </si>
   <si>
     <t>https://www.redfin.com/TX/Dallas/7107-Holly-Hill-Dr-75231/unit-209/home/30858634</t>
   </si>
   <si>
-    <t>hoa小贵，2b1b</t>
-  </si>
-  <si>
-    <t>12816 Midway Rd #1057Dallas, TX 75244</t>
-  </si>
-  <si>
-    <t>https://www.redfin.com/TX/Dallas/12816-Midway-Rd-75244/unit-1057/home/144804904</t>
-  </si>
-  <si>
-    <t>ridchardson西，高速边</t>
-  </si>
-  <si>
-    <t>hoa贵，房间比较小，2b2b</t>
-  </si>
-  <si>
     <t>condo有一个车库 2b2.5b</t>
   </si>
   <si>
@@ -756,9 +735,6 @@
     <t>4717 Joppa CirDallas, TX 75216</t>
   </si>
   <si>
-    <t>2b2b</t>
-  </si>
-  <si>
     <t>https://www.redfin.com/TX/Dallas/4717-Joppa-Cir-75216/home/144827048#redfin-estimate</t>
   </si>
   <si>
@@ -862,13 +838,97 @@
   </si>
   <si>
     <t>14621 Lantern Dr,Pflugerville, TX 78660</t>
+  </si>
+  <si>
+    <t>5840 Spring Valley Rd #402Dallas, TX 75254</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Dallas/5840-Spring-Valley-Rd-75254/unit-402/home/31132232#schools</t>
+  </si>
+  <si>
+    <t>richardson西南</t>
+  </si>
+  <si>
+    <t>1403 Timberlake Circle</t>
+  </si>
+  <si>
+    <t>1425 Ridgecrest DrPlano, TX 75074</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Plano/1425-Ridgecrest-Dr-75074/home/32169552</t>
+  </si>
+  <si>
+    <t>plano东</t>
+  </si>
+  <si>
+    <t>3153 Golden OakFarmers Branch, TX 75234</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Farmers-Branch/3153-Golden-Oak-75234/home/31339723</t>
+  </si>
+  <si>
+    <t>addison 西</t>
+  </si>
+  <si>
+    <t>1605 Marsh Ln APT 406,Carrollton, TX 75006</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Carrollton/1605-Marsh-Ln-75006/unit-406/home/31230302#schools</t>
+  </si>
+  <si>
+    <t>2984 Buttonwood DrCarrollton, 75006</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Carrollton/2984-Buttonwood-Dr-75006/home/31210389</t>
+  </si>
+  <si>
+    <t>11655 Audelia Rd #1403Dallas, TX 75243</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Dallas/11655-Audelia-Rd-75243/unit-1403/home/31179134</t>
+  </si>
+  <si>
+    <t>2b1.5b hoa:301</t>
+  </si>
+  <si>
+    <t>richardson北，plano南</t>
+  </si>
+  <si>
+    <t>hoa：243，2b1b</t>
+  </si>
+  <si>
+    <t>2b2.5b hoa:259</t>
+  </si>
+  <si>
+    <t>4b2b 1200多ft</t>
+  </si>
+  <si>
+    <t>3b2b 1400ft</t>
+  </si>
+  <si>
+    <t>3b2.5b 1800ft hoa:310</t>
+  </si>
+  <si>
+    <t>2b2b hoa:310</t>
+  </si>
+  <si>
+    <t>3b2.5b hoa:236  2100ft</t>
+  </si>
+  <si>
+    <t>12612 Hunters Chase Dr, Austin, TX 78729</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homes/12612-Hunters-Chase-Dr_rb/</t>
+  </si>
+  <si>
+    <t>jollyvallie中间</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -935,8 +995,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -963,8 +1052,18 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1002,8 +1101,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="213">
+  <cellStyleXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1219,8 +1333,36 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1242,9 +1384,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="212" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="213"/>
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="0" xfId="213" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="240" applyFill="1"/>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="240" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="240" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="239"/>
+    <xf numFmtId="3" fontId="10" fillId="7" borderId="3" xfId="239" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="239" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="212" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="213">
+  <cellStyles count="241">
     <cellStyle name="Bad" xfId="183" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="239" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="184" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1453,10 +1607,37 @@
     <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="182" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="213" builtinId="28"/>
     <cellStyle name="new house" xfId="212"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Warning Text" xfId="240" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1734,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z138"/>
+  <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1847,34 +2028,34 @@
         <v>3000</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L93" si="0">J2-F2</f>
+        <f t="shared" ref="L2:L96" si="0">J2-F2</f>
         <v>0</v>
       </c>
       <c r="P2">
         <v>3000</v>
       </c>
       <c r="R2" t="e">
-        <f t="shared" ref="R2:R126" si="1">100*(12*J2-P2)/D2</f>
+        <f t="shared" ref="R2:R129" si="1">100*(12*J2-P2)/D2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S126" si="2">D2*E2+H2</f>
+        <f t="shared" ref="S2:S129" si="2">D2*E2+H2</f>
         <v>3000</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T126" si="3">G2*(D2-D2*E2)</f>
+        <f t="shared" ref="T2:T129" si="3">G2*(D2-D2*E2)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U126" si="4">12*J2-P2-T2</f>
+        <f t="shared" ref="U2:U129" si="4">12*J2-P2-T2</f>
         <v>-3000</v>
       </c>
       <c r="V2" t="e">
-        <f t="shared" ref="V2:V126" si="5">D2/(12*J2)</f>
+        <f t="shared" ref="V2:V129" si="5">D2/(12*J2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W93" si="6">U2/S2</f>
+        <f t="shared" ref="W2:W96" si="6">U2/S2</f>
         <v>-1</v>
       </c>
     </row>
@@ -2369,7 +2550,7 @@
         <v>0.22062267043162564</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="16.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E11">
         <v>0.2</v>
       </c>
@@ -2416,7 +2597,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D12" s="1">
         <v>259000</v>
@@ -3011,76 +3192,76 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="8" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="12">
         <v>225490</v>
       </c>
-      <c r="E21" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="E21" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="12">
         <v>1192</v>
       </c>
-      <c r="G21" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H21" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I21" s="8">
+      <c r="G21" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H21" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I21" s="11">
         <v>645</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="11">
         <v>1500</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="11">
         <v>1500</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="11">
         <f t="shared" si="0"/>
         <v>308</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="P21" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R21" s="8">
+      <c r="P21" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R21" s="11">
         <f t="shared" si="1"/>
         <v>6.6521796975475631</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="11">
         <f t="shared" si="2"/>
         <v>48098</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="11">
         <f t="shared" si="3"/>
         <v>6836.8568000000005</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="11">
         <f t="shared" si="4"/>
         <v>8163.1431999999995</v>
       </c>
-      <c r="V21" s="8">
+      <c r="V21" s="11">
         <f t="shared" si="5"/>
         <v>12.527222222222223</v>
       </c>
-      <c r="W21" s="8">
+      <c r="W21" s="11">
         <f t="shared" si="6"/>
         <v>0.16971897376190276</v>
       </c>
-      <c r="X21" s="8" t="s">
+      <c r="X21" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="18" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" s="18" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>93</v>
       </c>
@@ -3214,7 +3395,7 @@
         <v>100</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D24" s="12">
         <v>286257</v>
@@ -3985,7 +4166,7 @@
         <v>1950</v>
       </c>
       <c r="L35" s="11">
-        <f t="shared" ref="L35:L87" si="7">J35-F35</f>
+        <f t="shared" ref="L35:L85" si="7">J35-F35</f>
         <v>206</v>
       </c>
       <c r="N35" s="11" t="s">
@@ -4414,141 +4595,141 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="8" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:24" s="24" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="25">
         <v>287000</v>
       </c>
-      <c r="E42" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F42" s="9">
+      <c r="E42" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="F42" s="25">
         <v>1671</v>
       </c>
-      <c r="G42" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H42" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I42" s="8">
+      <c r="G42" s="26">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H42" s="24">
+        <v>3000</v>
+      </c>
+      <c r="I42" s="24">
         <v>445</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="24">
         <v>2200</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="24">
         <v>1850</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L42" s="24">
         <f t="shared" si="7"/>
         <v>529</v>
       </c>
-      <c r="N42" s="8" t="s">
+      <c r="N42" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="P42" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R42" s="8">
+      <c r="P42" s="24">
+        <v>3000</v>
+      </c>
+      <c r="R42" s="24">
         <f t="shared" si="1"/>
         <v>8.1533101045296164</v>
       </c>
-      <c r="S42" s="8">
+      <c r="S42" s="24">
         <f t="shared" si="2"/>
         <v>60400</v>
       </c>
-      <c r="T42" s="8">
+      <c r="T42" s="24">
         <f t="shared" si="3"/>
         <v>8701.84</v>
       </c>
-      <c r="U42" s="8">
+      <c r="U42" s="24">
         <f t="shared" si="4"/>
         <v>14698.16</v>
       </c>
-      <c r="V42" s="8">
+      <c r="V42" s="24">
         <f t="shared" si="5"/>
         <v>10.871212121212121</v>
       </c>
-      <c r="W42" s="8">
+      <c r="W42" s="24">
         <f t="shared" si="6"/>
         <v>0.24334701986754967</v>
       </c>
-      <c r="X42" s="8" t="s">
+      <c r="X42" s="24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="22">
         <v>249990</v>
       </c>
-      <c r="E43" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F43" s="9">
+      <c r="E43" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="F43" s="22">
         <v>1479</v>
       </c>
-      <c r="G43" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H43" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I43" s="8">
+      <c r="G43" s="23">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H43" s="21">
+        <v>3000</v>
+      </c>
+      <c r="I43" s="21">
         <v>445</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J43" s="21">
         <v>2100</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="21">
         <v>1650</v>
       </c>
-      <c r="L43" s="8">
+      <c r="L43" s="21">
         <f t="shared" si="7"/>
         <v>621</v>
       </c>
-      <c r="N43" s="8" t="s">
+      <c r="N43" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="P43" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R43" s="8">
+      <c r="P43" s="21">
+        <v>3000</v>
+      </c>
+      <c r="R43" s="21">
         <f t="shared" si="1"/>
         <v>8.8803552142085689</v>
       </c>
-      <c r="S43" s="8">
+      <c r="S43" s="21">
         <f t="shared" si="2"/>
         <v>52998</v>
       </c>
-      <c r="T43" s="8">
+      <c r="T43" s="21">
         <f t="shared" si="3"/>
         <v>7579.6968000000006</v>
       </c>
-      <c r="U43" s="8">
+      <c r="U43" s="21">
         <f t="shared" si="4"/>
         <v>14620.303199999998</v>
       </c>
-      <c r="V43" s="8">
+      <c r="V43" s="21">
         <f t="shared" si="5"/>
         <v>9.920238095238096</v>
       </c>
-      <c r="W43" s="8">
+      <c r="W43" s="21">
         <f t="shared" si="6"/>
         <v>0.27586518736556093</v>
       </c>
-      <c r="X43" s="8" t="s">
+      <c r="X43" s="21" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4688,7 +4869,7 @@
       <c r="A46" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="29" t="s">
         <v>177</v>
       </c>
       <c r="D46" s="18">
@@ -4816,72 +4997,72 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:24" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:24" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D48" s="9">
-        <v>384999</v>
-      </c>
-      <c r="E48" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F48" s="9">
-        <v>2218</v>
-      </c>
-      <c r="G48" s="14">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H48" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I48" s="8">
+      <c r="D48" s="25">
+        <v>374999</v>
+      </c>
+      <c r="E48" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="F48" s="25">
+        <v>2621</v>
+      </c>
+      <c r="G48" s="26">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H48" s="24">
+        <v>3000</v>
+      </c>
+      <c r="I48" s="24">
         <v>745</v>
       </c>
-      <c r="J48" s="8">
-        <v>2300</v>
-      </c>
-      <c r="K48" s="8">
+      <c r="J48" s="24">
+        <v>2350</v>
+      </c>
+      <c r="K48" s="24">
         <v>1950</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L48" s="24">
         <f t="shared" si="7"/>
-        <v>82</v>
-      </c>
-      <c r="N48" s="8" t="s">
+        <v>-271</v>
+      </c>
+      <c r="N48" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="P48" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R48" s="8">
-        <f t="shared" si="1"/>
-        <v>6.3896269860441199</v>
-      </c>
-      <c r="S48" s="8">
-        <f t="shared" si="2"/>
-        <v>79999.8</v>
-      </c>
-      <c r="T48" s="8">
-        <f t="shared" si="3"/>
-        <v>11673.169680000001</v>
-      </c>
-      <c r="U48" s="8">
-        <f t="shared" si="4"/>
-        <v>12926.830319999999</v>
-      </c>
-      <c r="V48" s="8">
-        <f t="shared" si="5"/>
-        <v>13.949239130434783</v>
-      </c>
-      <c r="W48" s="8">
+      <c r="P48" s="24">
+        <v>3000</v>
+      </c>
+      <c r="R48" s="24">
+        <f t="shared" si="1"/>
+        <v>6.7200179200477868</v>
+      </c>
+      <c r="S48" s="24">
+        <f t="shared" si="2"/>
+        <v>77999.8</v>
+      </c>
+      <c r="T48" s="24">
+        <f t="shared" si="3"/>
+        <v>11369.969680000002</v>
+      </c>
+      <c r="U48" s="24">
+        <f t="shared" si="4"/>
+        <v>13830.030319999998</v>
+      </c>
+      <c r="V48" s="24">
+        <f t="shared" si="5"/>
+        <v>13.297836879432625</v>
+      </c>
+      <c r="W48" s="24">
         <f t="shared" si="6"/>
-        <v>0.16158578296445739</v>
-      </c>
-      <c r="X48" s="8" t="s">
+        <v>0.17730853566291194</v>
+      </c>
+      <c r="X48" s="24" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5410,81 +5591,81 @@
         <v>0.15112588832487309</v>
       </c>
       <c r="X56" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="25">
         <v>264000</v>
       </c>
-      <c r="E57" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F57" s="8">
+      <c r="E57" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="F57" s="24">
         <v>1769</v>
       </c>
-      <c r="G57" s="8">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H57" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I57" s="8">
+      <c r="G57" s="24">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H57" s="24">
+        <v>3000</v>
+      </c>
+      <c r="I57" s="24">
         <v>445</v>
       </c>
-      <c r="J57" s="8">
+      <c r="J57" s="24">
         <v>2200</v>
       </c>
-      <c r="L57" s="8">
+      <c r="L57" s="24">
         <f t="shared" si="7"/>
         <v>431</v>
       </c>
-      <c r="N57" s="8" t="s">
+      <c r="N57" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="P57" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R57" s="8">
+      <c r="P57" s="24">
+        <v>3000</v>
+      </c>
+      <c r="R57" s="24">
         <f t="shared" si="1"/>
         <v>8.8636363636363633</v>
       </c>
-      <c r="S57" s="8">
+      <c r="S57" s="24">
         <f t="shared" si="2"/>
         <v>55800</v>
       </c>
-      <c r="T57" s="8">
+      <c r="T57" s="24">
         <f t="shared" si="3"/>
         <v>8004.4800000000005</v>
       </c>
-      <c r="U57" s="8">
+      <c r="U57" s="24">
         <f t="shared" si="4"/>
         <v>15395.52</v>
       </c>
-      <c r="V57" s="8">
+      <c r="V57" s="24">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="W57" s="8">
+      <c r="W57" s="24">
         <f t="shared" si="6"/>
         <v>0.27590537634408602</v>
       </c>
-      <c r="X57" s="8" t="s">
+      <c r="X57" s="24" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D58" s="8">
         <v>218500</v>
@@ -5542,15 +5723,15 @@
         <v>0.19218586723768732</v>
       </c>
       <c r="X58" s="8" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D59" s="9">
         <v>270000</v>
@@ -5578,7 +5759,7 @@
         <v>360</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P59" s="8">
         <v>3000</v>
@@ -5608,15 +5789,15 @@
         <v>0.23532631578947366</v>
       </c>
       <c r="X59" s="8" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D60" s="9">
         <v>279900</v>
@@ -5644,7 +5825,7 @@
         <v>321</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P60" s="8">
         <v>3000</v>
@@ -5676,10 +5857,10 @@
     </row>
     <row r="61" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>247</v>
       </c>
       <c r="D61" s="18">
         <v>318990</v>
@@ -5707,7 +5888,7 @@
         <v>113</v>
       </c>
       <c r="N61" s="18" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="P61" s="18">
         <v>3000</v>
@@ -5739,10 +5920,10 @@
     </row>
     <row r="62" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D62" s="9">
         <v>349900</v>
@@ -5770,7 +5951,7 @@
         <v>179</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="P62" s="8">
         <v>3000</v>
@@ -5802,10 +5983,10 @@
     </row>
     <row r="63" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D63" s="9">
         <v>269900</v>
@@ -5863,15 +6044,15 @@
         <v>0.15122204282204282</v>
       </c>
       <c r="X63" s="8" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D64" s="9">
         <v>274900</v>
@@ -5931,10 +6112,10 @@
     </row>
     <row r="65" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D65" s="9">
         <v>264473</v>
@@ -5992,81 +6173,81 @@
         <v>0.16783694024109658</v>
       </c>
       <c r="X65" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D66" s="9">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D66" s="25">
         <v>312950</v>
       </c>
-      <c r="E66" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F66" s="8">
+      <c r="E66" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="F66" s="24">
         <v>1867</v>
       </c>
-      <c r="G66" s="8">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H66" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="J66" s="8">
+      <c r="G66" s="24">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H66" s="24">
+        <v>3000</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="J66" s="24">
         <v>2050</v>
       </c>
-      <c r="L66" s="8">
+      <c r="L66" s="24">
         <f t="shared" si="7"/>
         <v>183</v>
       </c>
-      <c r="N66" s="8" t="s">
+      <c r="N66" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="P66" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R66" s="8">
+      <c r="P66" s="24">
+        <v>3000</v>
+      </c>
+      <c r="R66" s="24">
         <f t="shared" si="1"/>
         <v>6.9020610321137559</v>
       </c>
-      <c r="S66" s="8">
+      <c r="S66" s="24">
         <f t="shared" si="2"/>
         <v>65590</v>
       </c>
-      <c r="T66" s="8">
+      <c r="T66" s="24">
         <f t="shared" si="3"/>
         <v>9488.6440000000002</v>
       </c>
-      <c r="U66" s="8">
+      <c r="U66" s="24">
         <f t="shared" si="4"/>
         <v>12111.356</v>
       </c>
-      <c r="V66" s="8">
+      <c r="V66" s="24">
         <f t="shared" si="5"/>
         <v>12.721544715447154</v>
       </c>
-      <c r="W66" s="8">
+      <c r="W66" s="24">
         <f t="shared" si="6"/>
         <v>0.18465247751181582</v>
       </c>
-      <c r="X66" s="8" t="s">
-        <v>271</v>
+      <c r="X66" s="24" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D67" s="9">
         <v>250000</v>
@@ -6094,7 +6275,7 @@
         <v>470</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P67" s="8">
         <v>3000</v>
@@ -6124,50 +6305,38 @@
         <v>0.23056603773584905</v>
       </c>
       <c r="X67" s="8" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D68" s="1"/>
-      <c r="E68">
-        <v>0.2</v>
-      </c>
-      <c r="G68">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H68">
-        <v>3000</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>3000</v>
-      </c>
-      <c r="R68" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S68">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V68" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W68">
+      <c r="A68" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="D68" s="28"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="27"/>
+      <c r="W68" t="e">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
@@ -6491,7 +6660,7 @@
         <v>0.32833908629441622</v>
       </c>
       <c r="X75" s="11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -6557,10 +6726,10 @@
         <v>0.18607142857142858</v>
       </c>
       <c r="X76" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>222</v>
       </c>
@@ -6626,428 +6795,503 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+    <row r="78" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D78" s="12">
-        <v>69999</v>
-      </c>
-      <c r="E78" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="F78" s="11">
-        <v>704</v>
-      </c>
-      <c r="G78" s="11">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H78" s="11">
-        <v>3000</v>
-      </c>
-      <c r="I78" s="11">
-        <v>655</v>
-      </c>
-      <c r="J78" s="11">
-        <v>800</v>
-      </c>
-      <c r="L78" s="11">
-        <f t="shared" si="7"/>
-        <v>96</v>
-      </c>
-      <c r="N78" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="P78" s="11">
-        <v>3000</v>
-      </c>
-      <c r="R78" s="11">
-        <f t="shared" si="1"/>
-        <v>9.4287061243732051</v>
-      </c>
-      <c r="S78" s="11">
-        <f t="shared" si="2"/>
-        <v>16999.800000000003</v>
-      </c>
-      <c r="T78" s="11">
-        <f t="shared" si="3"/>
-        <v>2122.3696800000002</v>
-      </c>
-      <c r="U78" s="11">
-        <f t="shared" si="4"/>
-        <v>4477.6303200000002</v>
-      </c>
-      <c r="V78" s="11">
-        <f t="shared" si="5"/>
-        <v>7.2915625000000004</v>
-      </c>
-      <c r="W78" s="11">
-        <f t="shared" si="6"/>
-        <v>0.26339311756608896</v>
-      </c>
-      <c r="X78" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" t="s">
-        <v>229</v>
-      </c>
-      <c r="D79" s="1">
+      <c r="D78" s="20">
         <v>129999</v>
       </c>
-      <c r="E79">
-        <v>0.2</v>
-      </c>
-      <c r="F79">
+      <c r="E78" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="F78" s="19">
         <v>970</v>
       </c>
-      <c r="G79">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H79">
-        <v>3000</v>
-      </c>
-      <c r="I79">
+      <c r="G78" s="19">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H78" s="19">
+        <v>3000</v>
+      </c>
+      <c r="I78" s="19">
         <v>522</v>
       </c>
-      <c r="J79">
+      <c r="J78" s="19">
         <v>950</v>
       </c>
-      <c r="L79">
+      <c r="L78" s="19">
         <f t="shared" si="7"/>
         <v>-20</v>
       </c>
-      <c r="N79" t="s">
+      <c r="N78" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="P79">
-        <v>3000</v>
-      </c>
-      <c r="R79">
+      <c r="P78" s="19">
+        <v>3000</v>
+      </c>
+      <c r="R78" s="19">
         <f t="shared" si="1"/>
         <v>6.4615881660628158</v>
       </c>
-      <c r="S79">
+      <c r="S78" s="19">
         <f t="shared" si="2"/>
         <v>28999.800000000003</v>
       </c>
-      <c r="T79">
+      <c r="T78" s="19">
         <f t="shared" si="3"/>
         <v>3941.5696800000001</v>
       </c>
-      <c r="U79">
+      <c r="U78" s="19">
         <f t="shared" si="4"/>
         <v>4458.4303199999995</v>
       </c>
-      <c r="V79">
+      <c r="V78" s="19">
         <f t="shared" si="5"/>
         <v>11.403421052631579</v>
       </c>
-      <c r="W79">
+      <c r="W78" s="19">
         <f t="shared" si="6"/>
         <v>0.15374003682784015</v>
       </c>
-      <c r="X79" t="s">
+      <c r="X78" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="19" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+      <c r="C79" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="D79" s="20">
+        <v>122500</v>
+      </c>
+      <c r="E79" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="F79" s="19">
+        <v>711</v>
+      </c>
+      <c r="G79" s="19">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H79" s="19">
+        <v>3000</v>
+      </c>
+      <c r="I79" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D80" s="12">
-        <v>132900</v>
-      </c>
-      <c r="E80" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="F80" s="11">
-        <v>1059</v>
-      </c>
-      <c r="G80" s="11">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H80" s="11">
-        <v>3000</v>
-      </c>
-      <c r="I80" s="11">
-        <v>1501</v>
-      </c>
-      <c r="J80" s="11">
-        <v>950</v>
-      </c>
-      <c r="L80" s="11">
+      <c r="J79" s="19">
+        <v>1100</v>
+      </c>
+      <c r="L79" s="19">
         <f t="shared" si="7"/>
-        <v>-109</v>
-      </c>
-      <c r="N80" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="N79" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="P80" s="11">
-        <v>3000</v>
-      </c>
-      <c r="R80" s="11">
-        <f t="shared" si="1"/>
-        <v>6.3205417607223477</v>
-      </c>
-      <c r="S80" s="11">
-        <f t="shared" si="2"/>
-        <v>29580</v>
-      </c>
-      <c r="T80" s="11">
-        <f t="shared" si="3"/>
-        <v>4029.5280000000002</v>
-      </c>
-      <c r="U80" s="11">
-        <f t="shared" si="4"/>
-        <v>4370.4719999999998</v>
-      </c>
-      <c r="V80" s="11">
-        <f t="shared" si="5"/>
-        <v>11.657894736842104</v>
-      </c>
-      <c r="W80" s="11">
+      <c r="P79" s="19">
+        <v>3000</v>
+      </c>
+      <c r="R79" s="19">
+        <f t="shared" si="1"/>
+        <v>8.3265306122448983</v>
+      </c>
+      <c r="S79" s="19">
+        <f t="shared" si="2"/>
+        <v>27500</v>
+      </c>
+      <c r="T79" s="19">
+        <f t="shared" si="3"/>
+        <v>3714.2000000000003</v>
+      </c>
+      <c r="U79" s="19">
+        <f t="shared" si="4"/>
+        <v>6485.7999999999993</v>
+      </c>
+      <c r="V79" s="19">
+        <f t="shared" si="5"/>
+        <v>9.2803030303030312</v>
+      </c>
+      <c r="W79" s="19">
         <f t="shared" si="6"/>
-        <v>0.14775091277890465</v>
-      </c>
-      <c r="X80" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>0.23584727272727271</v>
+      </c>
+      <c r="X79" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>266</v>
+      </c>
+      <c r="C80" t="s">
+        <v>267</v>
+      </c>
+      <c r="D80">
+        <v>109995</v>
+      </c>
+      <c r="E80">
+        <v>0.2</v>
+      </c>
+      <c r="F80">
+        <v>945</v>
+      </c>
+      <c r="G80">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H80">
+        <v>3000</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="7"/>
+        <v>-945</v>
+      </c>
+      <c r="N80" t="s">
+        <v>268</v>
+      </c>
+      <c r="P80">
+        <v>3000</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="1"/>
+        <v>-2.7273966998499932</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="2"/>
+        <v>24999</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="3"/>
+        <v>3335.0484000000001</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="4"/>
+        <v>-6335.0483999999997</v>
+      </c>
+      <c r="V80" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="6"/>
+        <v>-0.25341207248289932</v>
+      </c>
+      <c r="X80" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>237</v>
-      </c>
-      <c r="C81" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="D81" s="1">
-        <v>122500</v>
+        <v>194900</v>
       </c>
       <c r="E81">
         <v>0.2</v>
       </c>
-      <c r="F81">
-        <v>711</v>
+      <c r="F81" s="1">
+        <v>1181</v>
       </c>
       <c r="G81">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H81">
         <v>3000</v>
-      </c>
-      <c r="I81" t="s">
-        <v>240</v>
-      </c>
-      <c r="J81">
-        <v>1100</v>
       </c>
       <c r="L81">
         <f t="shared" si="7"/>
-        <v>389</v>
+        <v>-1181</v>
       </c>
       <c r="N81" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="P81">
         <v>3000</v>
       </c>
       <c r="R81">
         <f t="shared" si="1"/>
-        <v>8.3265306122448983</v>
+        <v>-1.5392508978963571</v>
       </c>
       <c r="S81">
         <f t="shared" si="2"/>
-        <v>27500</v>
+        <v>41980</v>
       </c>
       <c r="T81">
         <f t="shared" si="3"/>
-        <v>3714.2000000000003</v>
+        <v>5909.3680000000004</v>
       </c>
       <c r="U81">
         <f t="shared" si="4"/>
-        <v>6485.7999999999993</v>
-      </c>
-      <c r="V81">
-        <f t="shared" si="5"/>
-        <v>9.2803030303030312</v>
+        <v>-8909.3680000000004</v>
+      </c>
+      <c r="V81" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="W81">
         <f t="shared" si="6"/>
-        <v>0.23584727272727271</v>
+        <v>-0.21222887089090045</v>
       </c>
       <c r="X81" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>270</v>
+      </c>
+      <c r="C82" t="s">
+        <v>271</v>
+      </c>
+      <c r="D82" s="1">
+        <v>195000</v>
+      </c>
       <c r="E82">
         <v>0.2</v>
       </c>
+      <c r="F82">
+        <v>1148</v>
+      </c>
       <c r="G82">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H82">
         <v>3000</v>
+      </c>
+      <c r="J82">
+        <v>1400</v>
+      </c>
+      <c r="K82">
+        <v>1600</v>
       </c>
       <c r="L82">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>252</v>
+      </c>
+      <c r="N82" t="s">
+        <v>272</v>
       </c>
       <c r="P82">
         <v>3000</v>
       </c>
-      <c r="R82" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R82">
+        <f t="shared" si="1"/>
+        <v>7.0769230769230766</v>
       </c>
       <c r="S82">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>42000</v>
       </c>
       <c r="T82">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5912.4000000000005</v>
       </c>
       <c r="U82">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V82" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>7887.5999999999995</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="5"/>
+        <v>11.607142857142858</v>
       </c>
       <c r="W82">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E83">
-        <v>0.2</v>
-      </c>
-      <c r="G83">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H83">
-        <v>3000</v>
-      </c>
-      <c r="L83">
+        <v>0.18779999999999999</v>
+      </c>
+      <c r="X82" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D83" s="9">
+        <v>199990</v>
+      </c>
+      <c r="E83" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F83" s="9">
+        <v>1573</v>
+      </c>
+      <c r="G83" s="8">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H83" s="8">
+        <v>3000</v>
+      </c>
+      <c r="J83" s="8">
+        <v>1600</v>
+      </c>
+      <c r="K83" s="8">
+        <v>1695</v>
+      </c>
+      <c r="L83" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <v>3000</v>
-      </c>
-      <c r="R83" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S83">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V83" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W83">
+        <v>27</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="P83" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R83" s="8">
+        <f t="shared" si="1"/>
+        <v>8.1004050202510118</v>
+      </c>
+      <c r="S83" s="8">
+        <f t="shared" si="2"/>
+        <v>42998</v>
+      </c>
+      <c r="T83" s="8">
+        <f t="shared" si="3"/>
+        <v>6063.6968000000006</v>
+      </c>
+      <c r="U83" s="8">
+        <f t="shared" si="4"/>
+        <v>10136.303199999998</v>
+      </c>
+      <c r="V83" s="8">
+        <f t="shared" si="5"/>
+        <v>10.416145833333333</v>
+      </c>
+      <c r="W83" s="8">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>0.23573894599748821</v>
+      </c>
+      <c r="X83" s="8" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>276</v>
+      </c>
+      <c r="C84" t="s">
+        <v>277</v>
+      </c>
+      <c r="D84" s="1">
+        <v>154900</v>
+      </c>
       <c r="E84">
         <v>0.2</v>
       </c>
+      <c r="F84">
+        <v>1215</v>
+      </c>
       <c r="G84">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H84">
         <v>3000</v>
+      </c>
+      <c r="J84">
+        <v>1200</v>
+      </c>
+      <c r="K84">
+        <v>1300</v>
       </c>
       <c r="L84">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-15</v>
+      </c>
+      <c r="N84" t="s">
+        <v>275</v>
       </c>
       <c r="P84">
         <v>3000</v>
       </c>
-      <c r="R84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R84">
+        <f t="shared" si="1"/>
+        <v>7.3595868302130407</v>
       </c>
       <c r="S84">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>33980</v>
       </c>
       <c r="T84">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4696.5680000000002</v>
       </c>
       <c r="U84">
         <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V84" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>6703.4319999999998</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="5"/>
+        <v>10.756944444444445</v>
       </c>
       <c r="W84">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>0.19727580929958799</v>
+      </c>
+      <c r="X84" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>278</v>
+      </c>
+      <c r="C85" t="s">
+        <v>279</v>
+      </c>
+      <c r="D85" s="1">
+        <v>200000</v>
+      </c>
       <c r="E85">
         <v>0.2</v>
       </c>
+      <c r="F85">
+        <v>1615</v>
+      </c>
       <c r="G85">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H85">
         <v>3000</v>
+      </c>
+      <c r="K85">
+        <v>1950</v>
       </c>
       <c r="L85">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-1615</v>
+      </c>
+      <c r="N85" t="s">
+        <v>275</v>
       </c>
       <c r="P85">
         <v>3000</v>
       </c>
-      <c r="R85" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="R85">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
       </c>
       <c r="S85">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>43000</v>
       </c>
       <c r="T85">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6064.0000000000009</v>
       </c>
       <c r="U85">
         <f t="shared" si="4"/>
-        <v>-3000</v>
+        <v>-9064</v>
       </c>
       <c r="V85" t="e">
         <f t="shared" si="5"/>
@@ -7055,475 +7299,218 @@
       </c>
       <c r="W85">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>-0.2107906976744186</v>
+      </c>
+      <c r="X85" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E86">
-        <v>0.2</v>
-      </c>
-      <c r="G86">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H86">
-        <v>3000</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P86">
-        <v>3000</v>
-      </c>
-      <c r="R86" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S86">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T86">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V86" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W86">
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D91" s="12">
+        <v>78500</v>
+      </c>
+      <c r="E91" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F91" s="12">
+        <v>757</v>
+      </c>
+      <c r="G91" s="13">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H91" s="11">
+        <v>3000</v>
+      </c>
+      <c r="L91" s="11">
+        <f t="shared" si="0"/>
+        <v>-757</v>
+      </c>
+      <c r="R91" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S91" s="11">
+        <f t="shared" si="2"/>
+        <v>18700</v>
+      </c>
+      <c r="T91" s="11">
+        <f t="shared" si="3"/>
+        <v>2380.1200000000003</v>
+      </c>
+      <c r="U91" s="11">
+        <f t="shared" si="4"/>
+        <v>-2380.1200000000003</v>
+      </c>
+      <c r="V91" s="11" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W91" s="11">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E87">
-        <v>0.2</v>
-      </c>
-      <c r="G87">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H87">
-        <v>3000</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P87">
-        <v>3000</v>
-      </c>
-      <c r="R87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S87">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T87">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U87">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V87" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W87">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E88">
-        <v>0.2</v>
-      </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H88">
-        <v>3000</v>
-      </c>
-      <c r="L88">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S88">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T88">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U88">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V88" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W88">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+        <v>-0.12727914438502674</v>
+      </c>
+      <c r="X91" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" s="8" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>20</v>
       </c>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89">
-        <v>0.2</v>
-      </c>
-      <c r="F89"/>
-      <c r="G89" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H89">
-        <v>3000</v>
-      </c>
-      <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M89"/>
-      <c r="N89"/>
-      <c r="O89"/>
-      <c r="P89">
-        <v>3000</v>
-      </c>
-      <c r="Q89"/>
-      <c r="R89" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S89">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U89">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V89" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W89">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="X89"/>
-      <c r="Y89"/>
-      <c r="Z89"/>
-    </row>
-    <row r="90" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="9">
-        <v>380000</v>
-      </c>
-      <c r="E90" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F90" s="8">
-        <v>2201</v>
-      </c>
-      <c r="G90" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H90" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J90" s="8">
-        <v>2250</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="N90" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P90" s="8">
-        <v>3000</v>
-      </c>
-      <c r="R90" s="8">
-        <f t="shared" si="1"/>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="S90" s="8">
-        <f t="shared" si="2"/>
-        <v>79000</v>
-      </c>
-      <c r="T90" s="8">
-        <f t="shared" si="3"/>
-        <v>11521.6</v>
-      </c>
-      <c r="U90">
-        <f t="shared" si="4"/>
-        <v>12478.4</v>
-      </c>
-      <c r="V90">
-        <f t="shared" si="5"/>
-        <v>14.074074074074074</v>
-      </c>
-      <c r="W90">
-        <f t="shared" si="6"/>
-        <v>0.15795443037974682</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>24</v>
-      </c>
-      <c r="C91" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" s="1">
-        <v>550000</v>
-      </c>
-      <c r="E91">
-        <v>0.2</v>
-      </c>
-      <c r="F91">
-        <v>3300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H91">
-        <v>3000</v>
-      </c>
-      <c r="I91">
-        <v>897</v>
-      </c>
-      <c r="J91">
-        <v>2750</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="0"/>
-        <v>-550</v>
-      </c>
-      <c r="N91" t="s">
-        <v>22</v>
-      </c>
-      <c r="P91">
-        <v>3000</v>
-      </c>
-      <c r="R91">
-        <f t="shared" si="1"/>
-        <v>5.4545454545454541</v>
-      </c>
-      <c r="S91">
-        <f t="shared" si="2"/>
-        <v>113000</v>
-      </c>
-      <c r="T91">
-        <f t="shared" si="3"/>
-        <v>16676</v>
-      </c>
-      <c r="U91">
-        <f t="shared" si="4"/>
-        <v>13324</v>
-      </c>
-      <c r="V91">
-        <f t="shared" si="5"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="W91">
-        <f t="shared" si="6"/>
-        <v>0.11791150442477875</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>26</v>
-      </c>
       <c r="B92"/>
-      <c r="C92" t="s">
-        <v>27</v>
-      </c>
-      <c r="D92" s="1">
-        <v>509000</v>
-      </c>
+      <c r="C92"/>
+      <c r="D92"/>
       <c r="E92">
         <v>0.2</v>
       </c>
-      <c r="F92" s="1">
-        <v>3186</v>
-      </c>
+      <c r="F92"/>
       <c r="G92" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H92">
         <v>3000</v>
       </c>
-      <c r="I92" t="s">
-        <v>28</v>
-      </c>
-      <c r="J92">
-        <v>2850</v>
-      </c>
+      <c r="I92"/>
+      <c r="J92"/>
       <c r="K92"/>
       <c r="L92">
         <f t="shared" si="0"/>
-        <v>-336</v>
+        <v>0</v>
       </c>
       <c r="M92"/>
-      <c r="N92" s="1">
-        <v>3186</v>
-      </c>
-      <c r="O92" s="1"/>
+      <c r="N92"/>
+      <c r="O92"/>
       <c r="P92">
         <v>3000</v>
       </c>
       <c r="Q92"/>
-      <c r="R92">
-        <f t="shared" si="1"/>
-        <v>6.129666011787819</v>
+      <c r="R92" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="S92">
         <f t="shared" si="2"/>
-        <v>104800</v>
+        <v>3000</v>
       </c>
       <c r="T92">
         <f t="shared" si="3"/>
-        <v>15432.880000000001</v>
+        <v>0</v>
       </c>
       <c r="U92">
         <f t="shared" si="4"/>
-        <v>15767.119999999999</v>
-      </c>
-      <c r="V92">
-        <f t="shared" si="5"/>
-        <v>14.883040935672515</v>
+        <v>-3000</v>
+      </c>
+      <c r="V92" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="W92">
         <f t="shared" si="6"/>
-        <v>0.15044961832061068</v>
+        <v>-1</v>
       </c>
       <c r="X92"/>
       <c r="Y92"/>
       <c r="Z92"/>
     </row>
     <row r="93" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>30</v>
-      </c>
-      <c r="B93"/>
-      <c r="C93" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" s="1">
-        <v>431775</v>
-      </c>
-      <c r="E93">
-        <v>0.2</v>
-      </c>
-      <c r="F93" s="1">
-        <v>2817</v>
+      <c r="A93" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="9">
+        <v>380000</v>
+      </c>
+      <c r="E93" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F93" s="8">
+        <v>2201</v>
       </c>
       <c r="G93" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="H93">
-        <v>3000</v>
-      </c>
-      <c r="I93" t="s">
-        <v>31</v>
-      </c>
-      <c r="J93">
-        <v>2200</v>
-      </c>
-      <c r="K93"/>
+      <c r="H93" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J93" s="8">
+        <v>2250</v>
+      </c>
       <c r="L93">
         <f t="shared" si="0"/>
-        <v>-617</v>
-      </c>
-      <c r="M93"/>
-      <c r="N93" t="s">
-        <v>32</v>
-      </c>
-      <c r="O93"/>
-      <c r="P93">
-        <v>3000</v>
-      </c>
-      <c r="Q93"/>
-      <c r="R93">
-        <f t="shared" si="1"/>
-        <v>5.419489317352788</v>
-      </c>
-      <c r="S93">
-        <f t="shared" si="2"/>
-        <v>89355</v>
-      </c>
-      <c r="T93">
-        <f t="shared" si="3"/>
-        <v>13091.418000000001</v>
+        <v>49</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P93" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R93" s="8">
+        <f t="shared" si="1"/>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="S93" s="8">
+        <f t="shared" si="2"/>
+        <v>79000</v>
+      </c>
+      <c r="T93" s="8">
+        <f t="shared" si="3"/>
+        <v>11521.6</v>
       </c>
       <c r="U93">
         <f t="shared" si="4"/>
-        <v>10308.581999999999</v>
+        <v>12478.4</v>
       </c>
       <c r="V93">
         <f t="shared" si="5"/>
-        <v>16.355113636363637</v>
+        <v>14.074074074074074</v>
       </c>
       <c r="W93">
         <f t="shared" si="6"/>
-        <v>0.11536659392311564</v>
-      </c>
-      <c r="X93"/>
-      <c r="Y93"/>
-      <c r="Z93"/>
+        <v>0.15795443037974682</v>
+      </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D94" s="1">
-        <v>629000</v>
+        <v>550000</v>
       </c>
       <c r="E94">
         <v>0.2</v>
       </c>
-      <c r="F94" s="1">
-        <v>3156</v>
+      <c r="F94">
+        <v>3300</v>
       </c>
       <c r="G94" s="3">
         <v>3.7900000000000003E-2</v>
@@ -7532,60 +7519,62 @@
         <v>3000</v>
       </c>
       <c r="I94">
-        <v>977</v>
+        <v>897</v>
       </c>
       <c r="J94">
-        <v>2900</v>
+        <v>2750</v>
       </c>
       <c r="L94">
-        <f t="shared" ref="L94:L126" si="8">J94-F94</f>
-        <v>-256</v>
+        <f t="shared" si="0"/>
+        <v>-550</v>
       </c>
       <c r="N94" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P94">
         <v>3000</v>
       </c>
       <c r="R94">
         <f t="shared" si="1"/>
-        <v>5.0556438791732905</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="S94">
         <f t="shared" si="2"/>
-        <v>128800</v>
+        <v>113000</v>
       </c>
       <c r="T94">
         <f t="shared" si="3"/>
-        <v>19071.280000000002</v>
+        <v>16676</v>
       </c>
       <c r="U94">
         <f t="shared" si="4"/>
-        <v>12728.719999999998</v>
+        <v>13324</v>
       </c>
       <c r="V94">
         <f t="shared" si="5"/>
-        <v>18.074712643678161</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="W94">
-        <f t="shared" ref="W94:W135" si="9">U94/S94</f>
-        <v>9.8825465838509291E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.11791150442477875</v>
       </c>
     </row>
     <row r="95" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95"/>
+      <c r="A95" t="s">
+        <v>26</v>
+      </c>
       <c r="B95"/>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D95" s="1">
-        <v>762613</v>
+        <v>509000</v>
       </c>
       <c r="E95">
         <v>0.2</v>
       </c>
       <c r="F95" s="1">
-        <v>5111</v>
+        <v>3186</v>
       </c>
       <c r="G95" s="3">
         <v>3.7900000000000003E-2</v>
@@ -7593,320 +7582,397 @@
       <c r="H95">
         <v>3000</v>
       </c>
-      <c r="I95">
-        <v>987</v>
+      <c r="I95" t="s">
+        <v>28</v>
       </c>
       <c r="J95">
-        <v>3300</v>
+        <v>2850</v>
       </c>
       <c r="K95"/>
       <c r="L95">
-        <f t="shared" si="8"/>
-        <v>-1811</v>
+        <f t="shared" si="0"/>
+        <v>-336</v>
       </c>
       <c r="M95"/>
-      <c r="N95" t="s">
-        <v>36</v>
-      </c>
-      <c r="O95"/>
+      <c r="N95" s="1">
+        <v>3186</v>
+      </c>
+      <c r="O95" s="1"/>
       <c r="P95">
         <v>3000</v>
       </c>
       <c r="Q95"/>
       <c r="R95">
         <f t="shared" si="1"/>
-        <v>4.7992887611409722</v>
+        <v>6.129666011787819</v>
       </c>
       <c r="S95">
         <f t="shared" si="2"/>
-        <v>155522.6</v>
+        <v>104800</v>
       </c>
       <c r="T95">
         <f t="shared" si="3"/>
-        <v>23122.426160000003</v>
+        <v>15432.880000000001</v>
       </c>
       <c r="U95">
         <f t="shared" si="4"/>
-        <v>13477.573839999997</v>
+        <v>15767.119999999999</v>
       </c>
       <c r="V95">
         <f t="shared" si="5"/>
-        <v>19.257904040404039</v>
+        <v>14.883040935672515</v>
       </c>
       <c r="W95">
-        <f t="shared" si="9"/>
-        <v>8.6659905634293641E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.15044961832061068</v>
       </c>
       <c r="X95"/>
       <c r="Y95"/>
       <c r="Z95"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96"/>
+      <c r="C96" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" s="1">
+        <v>431775</v>
+      </c>
+      <c r="E96">
+        <v>0.2</v>
+      </c>
+      <c r="F96" s="1">
+        <v>2817</v>
+      </c>
+      <c r="G96" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H96">
+        <v>3000</v>
+      </c>
+      <c r="I96" t="s">
+        <v>31</v>
+      </c>
+      <c r="J96">
+        <v>2200</v>
+      </c>
+      <c r="K96"/>
+      <c r="L96">
+        <f t="shared" si="0"/>
+        <v>-617</v>
+      </c>
+      <c r="M96"/>
+      <c r="N96" t="s">
+        <v>32</v>
+      </c>
+      <c r="O96"/>
+      <c r="P96">
+        <v>3000</v>
+      </c>
+      <c r="Q96"/>
+      <c r="R96">
+        <f t="shared" si="1"/>
+        <v>5.419489317352788</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="2"/>
+        <v>89355</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="3"/>
+        <v>13091.418000000001</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="4"/>
+        <v>10308.581999999999</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="5"/>
+        <v>16.355113636363637</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="6"/>
+        <v>0.11536659392311564</v>
+      </c>
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="1">
+        <v>629000</v>
+      </c>
+      <c r="E97">
+        <v>0.2</v>
+      </c>
+      <c r="F97" s="1">
+        <v>3156</v>
+      </c>
+      <c r="G97" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H97">
+        <v>3000</v>
+      </c>
+      <c r="I97">
+        <v>977</v>
+      </c>
+      <c r="J97">
+        <v>2900</v>
+      </c>
+      <c r="L97">
+        <f t="shared" ref="L97:L129" si="8">J97-F97</f>
+        <v>-256</v>
+      </c>
+      <c r="N97" t="s">
+        <v>18</v>
+      </c>
+      <c r="P97">
+        <v>3000</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="1"/>
+        <v>5.0556438791732905</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="2"/>
+        <v>128800</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="3"/>
+        <v>19071.280000000002</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="4"/>
+        <v>12728.719999999998</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="5"/>
+        <v>18.074712643678161</v>
+      </c>
+      <c r="W97">
+        <f t="shared" ref="W97:W138" si="9">U97/S97</f>
+        <v>9.8825465838509291E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98" t="s">
+        <v>35</v>
+      </c>
+      <c r="D98" s="1">
+        <v>762613</v>
+      </c>
+      <c r="E98">
+        <v>0.2</v>
+      </c>
+      <c r="F98" s="1">
+        <v>5111</v>
+      </c>
+      <c r="G98" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H98">
+        <v>3000</v>
+      </c>
+      <c r="I98">
+        <v>987</v>
+      </c>
+      <c r="J98">
+        <v>3300</v>
+      </c>
+      <c r="K98"/>
+      <c r="L98">
+        <f t="shared" si="8"/>
+        <v>-1811</v>
+      </c>
+      <c r="M98"/>
+      <c r="N98" t="s">
+        <v>36</v>
+      </c>
+      <c r="O98"/>
+      <c r="P98">
+        <v>3000</v>
+      </c>
+      <c r="Q98"/>
+      <c r="R98">
+        <f t="shared" si="1"/>
+        <v>4.7992887611409722</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="2"/>
+        <v>155522.6</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="3"/>
+        <v>23122.426160000003</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="4"/>
+        <v>13477.573839999997</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="5"/>
+        <v>19.257904040404039</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="9"/>
+        <v>8.6659905634293641E-2</v>
+      </c>
+      <c r="X98"/>
+      <c r="Y98"/>
+      <c r="Z98"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>55</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D99" s="1">
         <v>509000</v>
       </c>
-      <c r="E96">
-        <v>0.2</v>
-      </c>
-      <c r="F96" s="1">
+      <c r="E99">
+        <v>0.2</v>
+      </c>
+      <c r="F99" s="1">
         <v>3186</v>
       </c>
-      <c r="G96" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H96">
-        <v>3000</v>
-      </c>
-      <c r="I96" t="s">
+      <c r="G99" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H99">
+        <v>3000</v>
+      </c>
+      <c r="I99" t="s">
         <v>56</v>
       </c>
-      <c r="J96" s="5">
+      <c r="J99" s="5">
         <v>2800</v>
       </c>
-      <c r="K96">
+      <c r="K99">
         <v>2995</v>
       </c>
-      <c r="L96">
+      <c r="L99">
         <f t="shared" si="8"/>
         <v>-386</v>
       </c>
-      <c r="N96" s="4" t="s">
+      <c r="N99" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O96" t="s">
+      <c r="O99" t="s">
         <v>58</v>
       </c>
-      <c r="P96">
-        <v>3000</v>
-      </c>
-      <c r="R96">
-        <f>100*(12*J96-P96)/D96</f>
+      <c r="P99">
+        <v>3000</v>
+      </c>
+      <c r="R99">
+        <f>100*(12*J99-P99)/D99</f>
         <v>6.0117878192534384</v>
       </c>
-      <c r="S96">
-        <f>D96*E96+H96</f>
+      <c r="S99">
+        <f>D99*E99+H99</f>
         <v>104800</v>
       </c>
-      <c r="T96">
-        <f>G96*(D96-D96*E96)</f>
+      <c r="T99">
+        <f>G99*(D99-D99*E99)</f>
         <v>15432.880000000001</v>
       </c>
-      <c r="U96">
-        <f>12*J96-P96-T96</f>
+      <c r="U99">
+        <f>12*J99-P99-T99</f>
         <v>15167.119999999999</v>
       </c>
-      <c r="V96">
-        <f>D96/(12*J96)</f>
+      <c r="V99">
+        <f>D99/(12*J99)</f>
         <v>15.148809523809524</v>
       </c>
-      <c r="W96">
+      <c r="W99">
         <f t="shared" si="9"/>
         <v>0.14472442748091602</v>
       </c>
     </row>
-    <row r="97" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="100" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>24</v>
       </c>
-      <c r="B97"/>
-      <c r="C97" s="2" t="s">
+      <c r="B100"/>
+      <c r="C100" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D100" s="6">
         <v>499196</v>
       </c>
-      <c r="E97">
-        <v>0.2</v>
-      </c>
-      <c r="F97" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G97" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H97">
-        <v>3000</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="E100">
+        <v>0.2</v>
+      </c>
+      <c r="F100" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H100">
+        <v>3000</v>
+      </c>
+      <c r="I100" t="s">
         <v>56</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J100" s="5">
         <v>2850</v>
       </c>
-      <c r="K97" s="5">
+      <c r="K100" s="5">
         <v>2750</v>
       </c>
-      <c r="L97">
+      <c r="L100">
         <f t="shared" si="8"/>
         <v>-150</v>
       </c>
-      <c r="M97"/>
-      <c r="N97" s="4" t="s">
+      <c r="M100"/>
+      <c r="N100" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O97" t="s">
+      <c r="O100" t="s">
         <v>60</v>
       </c>
-      <c r="P97">
-        <v>3000</v>
-      </c>
-      <c r="Q97"/>
-      <c r="R97">
+      <c r="P100">
+        <v>3000</v>
+      </c>
+      <c r="Q100"/>
+      <c r="R100">
         <f t="shared" si="1"/>
         <v>6.2500500805294914</v>
       </c>
-      <c r="S97">
+      <c r="S100">
         <f t="shared" si="2"/>
         <v>102839.20000000001</v>
       </c>
-      <c r="T97">
+      <c r="T100">
         <f t="shared" si="3"/>
         <v>15135.622720000001</v>
       </c>
-      <c r="U97">
+      <c r="U100">
         <f t="shared" si="4"/>
         <v>16064.377279999999</v>
       </c>
-      <c r="V97">
+      <c r="V100">
         <f t="shared" si="5"/>
         <v>14.596374269005848</v>
       </c>
-      <c r="W97">
+      <c r="W100">
         <f t="shared" si="9"/>
         <v>0.15620869551688457</v>
       </c>
-      <c r="X97"/>
-      <c r="Y97"/>
-      <c r="Z97"/>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E98">
-        <v>0.2</v>
-      </c>
-      <c r="G98" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H98">
-        <v>3000</v>
-      </c>
-      <c r="L98">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P98">
-        <v>3000</v>
-      </c>
-      <c r="R98" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S98">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T98">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U98">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V98" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W98">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E99">
-        <v>0.2</v>
-      </c>
-      <c r="G99" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H99">
-        <v>3000</v>
-      </c>
-      <c r="L99">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P99">
-        <v>3000</v>
-      </c>
-      <c r="R99" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S99">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T99">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U99">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V99" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W99">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E100">
-        <v>0.2</v>
-      </c>
-      <c r="G100" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H100">
-        <v>3000</v>
-      </c>
-      <c r="L100">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <v>3000</v>
-      </c>
-      <c r="R100" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S100">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="T100">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U100">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="V100" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W100">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E101">
@@ -7992,7 +8058,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E103">
         <v>0.2</v>
       </c>
@@ -8034,35 +8100,23 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="1:26" s="10" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E104">
         <v>0.2</v>
       </c>
-      <c r="F104"/>
       <c r="G104" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H104">
         <v>3000</v>
       </c>
-      <c r="I104"/>
-      <c r="J104"/>
-      <c r="K104"/>
       <c r="L104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M104"/>
-      <c r="N104"/>
-      <c r="O104"/>
       <c r="P104">
         <v>3000</v>
       </c>
-      <c r="Q104"/>
       <c r="R104" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -8087,39 +8141,24 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="X104"/>
-      <c r="Y104"/>
-      <c r="Z104"/>
-    </row>
-    <row r="105" spans="1:26" s="8" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E105">
         <v>0.2</v>
       </c>
-      <c r="F105"/>
       <c r="G105" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H105">
         <v>3000</v>
       </c>
-      <c r="I105"/>
-      <c r="J105"/>
-      <c r="K105"/>
       <c r="L105">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M105"/>
-      <c r="N105"/>
-      <c r="O105"/>
       <c r="P105">
         <v>3000</v>
       </c>
-      <c r="Q105"/>
       <c r="R105" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -8144,11 +8183,8 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="X105"/>
-      <c r="Y105"/>
-      <c r="Z105"/>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E106">
         <v>0.2</v>
       </c>
@@ -8190,7 +8226,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" s="10" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -8247,7 +8283,7 @@
       <c r="Y107"/>
       <c r="Z107"/>
     </row>
-    <row r="108" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" s="8" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -8304,35 +8340,23 @@
       <c r="Y108"/>
       <c r="Z108"/>
     </row>
-    <row r="109" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E109">
         <v>0.2</v>
       </c>
-      <c r="F109"/>
       <c r="G109" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H109">
         <v>3000</v>
       </c>
-      <c r="I109"/>
-      <c r="J109"/>
-      <c r="K109"/>
       <c r="L109">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M109"/>
-      <c r="N109"/>
-      <c r="O109"/>
       <c r="P109">
         <v>3000</v>
       </c>
-      <c r="Q109"/>
       <c r="R109" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -8357,9 +8381,6 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="X109"/>
-      <c r="Y109"/>
-      <c r="Z109"/>
     </row>
     <row r="110" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110"/>
@@ -8475,23 +8496,35 @@
       <c r="Y111"/>
       <c r="Z111"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
       <c r="E112">
         <v>0.2</v>
       </c>
+      <c r="F112"/>
       <c r="G112" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H112">
         <v>3000</v>
       </c>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
       <c r="L112">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
       <c r="P112">
         <v>3000</v>
       </c>
+      <c r="Q112"/>
       <c r="R112" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -8516,24 +8549,39 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X112"/>
+      <c r="Y112"/>
+      <c r="Z112"/>
+    </row>
+    <row r="113" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
       <c r="E113">
         <v>0.2</v>
       </c>
+      <c r="F113"/>
       <c r="G113" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H113">
         <v>3000</v>
       </c>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
       <c r="L113">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
       <c r="P113">
         <v>3000</v>
       </c>
+      <c r="Q113"/>
       <c r="R113" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -8558,24 +8606,39 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+    </row>
+    <row r="114" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
       <c r="E114">
         <v>0.2</v>
       </c>
+      <c r="F114"/>
       <c r="G114" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H114">
         <v>3000</v>
       </c>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
       <c r="L114">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
       <c r="P114">
         <v>3000</v>
       </c>
+      <c r="Q114"/>
       <c r="R114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -8600,6 +8663,9 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
+      <c r="X114"/>
+      <c r="Y114"/>
+      <c r="Z114"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E115">
@@ -8643,35 +8709,23 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E116">
         <v>0.2</v>
       </c>
-      <c r="F116"/>
       <c r="G116" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H116">
         <v>3000</v>
       </c>
-      <c r="I116"/>
-      <c r="J116"/>
-      <c r="K116"/>
       <c r="L116">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M116"/>
-      <c r="N116"/>
-      <c r="O116"/>
       <c r="P116">
         <v>3000</v>
       </c>
-      <c r="Q116"/>
       <c r="R116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -8696,39 +8750,24 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="X116"/>
-      <c r="Y116"/>
-      <c r="Z116"/>
-    </row>
-    <row r="117" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E117">
         <v>0.2</v>
       </c>
-      <c r="F117"/>
       <c r="G117" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H117">
         <v>3000</v>
       </c>
-      <c r="I117"/>
-      <c r="J117"/>
-      <c r="K117"/>
       <c r="L117">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M117"/>
-      <c r="N117"/>
-      <c r="O117"/>
       <c r="P117">
         <v>3000</v>
       </c>
-      <c r="Q117"/>
       <c r="R117" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -8753,9 +8792,6 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="X117"/>
-      <c r="Y117"/>
-      <c r="Z117"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E118">
@@ -8799,23 +8835,35 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
       <c r="E119">
         <v>0.2</v>
       </c>
+      <c r="F119"/>
       <c r="G119" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H119">
         <v>3000</v>
       </c>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
       <c r="L119">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
       <c r="P119">
         <v>3000</v>
       </c>
+      <c r="Q119"/>
       <c r="R119" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -8840,24 +8888,39 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X119"/>
+      <c r="Y119"/>
+      <c r="Z119"/>
+    </row>
+    <row r="120" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
       <c r="E120">
         <v>0.2</v>
       </c>
+      <c r="F120"/>
       <c r="G120" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H120">
         <v>3000</v>
       </c>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
       <c r="L120">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
       <c r="P120">
         <v>3000</v>
       </c>
+      <c r="Q120"/>
       <c r="R120" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -8882,6 +8945,9 @@
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
+      <c r="X120"/>
+      <c r="Y120"/>
+      <c r="Z120"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E121">
@@ -8971,6 +9037,9 @@
       <c r="E123">
         <v>0.2</v>
       </c>
+      <c r="G123" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H123">
         <v>3000</v>
       </c>
@@ -9010,6 +9079,9 @@
       <c r="E124">
         <v>0.2</v>
       </c>
+      <c r="G124" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H124">
         <v>3000</v>
       </c>
@@ -9049,6 +9121,9 @@
       <c r="E125">
         <v>0.2</v>
       </c>
+      <c r="G125" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="H125">
         <v>3000</v>
       </c>
@@ -9124,30 +9199,37 @@
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E127">
+        <v>0.2</v>
+      </c>
       <c r="H127">
         <v>3000</v>
       </c>
+      <c r="L127">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P127">
         <v>3000</v>
       </c>
       <c r="R127" t="e">
-        <f t="shared" ref="R127:R137" si="10">100*(12*J127-P127)/D127</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S127">
-        <f t="shared" ref="S127:S137" si="11">D127*E127+H127</f>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T127">
-        <f t="shared" ref="T127:T135" si="12">G127*(D127-D127*E127)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U127">
-        <f t="shared" ref="U127:U135" si="13">12*J127-P127-T127</f>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V127" t="e">
-        <f t="shared" ref="V127:V135" si="14">D127/(12*J127)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W127">
@@ -9156,30 +9238,37 @@
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E128">
+        <v>0.2</v>
+      </c>
       <c r="H128">
         <v>3000</v>
       </c>
+      <c r="L128">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P128">
         <v>3000</v>
       </c>
       <c r="R128" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V128" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W128">
@@ -9188,30 +9277,37 @@
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E129">
+        <v>0.2</v>
+      </c>
       <c r="H129">
         <v>3000</v>
       </c>
+      <c r="L129">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P129">
         <v>3000</v>
       </c>
       <c r="R129" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="T129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="V129" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W129">
@@ -9227,23 +9323,23 @@
         <v>3000</v>
       </c>
       <c r="R130" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="R130:R140" si="10">100*(12*J130-P130)/D130</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S130">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="S130:S140" si="11">D130*E130+H130</f>
         <v>3000</v>
       </c>
       <c r="T130">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="T130:T138" si="12">G130*(D130-D130*E130)</f>
         <v>0</v>
       </c>
       <c r="U130">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="U130:U138" si="13">12*J130-P130-T130</f>
         <v>-3000</v>
       </c>
       <c r="V130" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="V130:V138" si="14">D130/(12*J130)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W130">
@@ -9380,6 +9476,9 @@
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <v>3000</v>
+      </c>
       <c r="P135">
         <v>3000</v>
       </c>
@@ -9389,7 +9488,7 @@
       </c>
       <c r="S135">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="T135">
         <f t="shared" si="12"/>
@@ -9403,12 +9502,15 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W135" t="e">
+      <c r="W135">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <v>3000</v>
+      </c>
       <c r="P136">
         <v>3000</v>
       </c>
@@ -9418,10 +9520,29 @@
       </c>
       <c r="S136">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V136" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W136">
+        <f t="shared" si="9"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H137">
+        <v>3000</v>
+      </c>
       <c r="P137">
         <v>3000</v>
       </c>
@@ -9431,43 +9552,114 @@
       </c>
       <c r="S137">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138"/>
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
-      <c r="G138"/>
-      <c r="H138"/>
-      <c r="I138"/>
-      <c r="J138"/>
-      <c r="K138"/>
-      <c r="L138"/>
-      <c r="M138"/>
-      <c r="N138"/>
-      <c r="O138"/>
+        <v>3000</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V137" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W137">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="P138">
         <v>3000</v>
       </c>
-      <c r="Q138"/>
-      <c r="R138"/>
-      <c r="S138"/>
-      <c r="T138"/>
-      <c r="U138"/>
-      <c r="V138"/>
-      <c r="W138"/>
-      <c r="X138"/>
-      <c r="Y138"/>
-      <c r="Z138"/>
+      <c r="R138" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <f t="shared" si="13"/>
+        <v>-3000</v>
+      </c>
+      <c r="V138" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W138" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="P139">
+        <v>3000</v>
+      </c>
+      <c r="R139" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="P140">
+        <v>3000</v>
+      </c>
+      <c r="R140" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141"/>
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141">
+        <v>3000</v>
+      </c>
+      <c r="Q141"/>
+      <c r="R141"/>
+      <c r="S141"/>
+      <c r="T141"/>
+      <c r="U141"/>
+      <c r="V141"/>
+      <c r="W141"/>
+      <c r="X141"/>
+      <c r="Y141"/>
+      <c r="Z141"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C97" r:id="rId1" location="redfin-estimate"/>
-    <hyperlink ref="C90" r:id="rId2" location="schools"/>
+    <hyperlink ref="C100" r:id="rId1" location="redfin-estimate"/>
+    <hyperlink ref="C93" r:id="rId2" location="schools"/>
     <hyperlink ref="C8" r:id="rId3"/>
     <hyperlink ref="B12" r:id="rId4"/>
     <hyperlink ref="B13" r:id="rId5"/>

--- a/austin (Autosaved).xlsx
+++ b/austin (Autosaved).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\property\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufengzhu/Documents/property/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E0D515-5456-499E-B209-062B9E491245}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="33600" windowHeight="18864" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1060" windowWidth="33600" windowHeight="18860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="298">
   <si>
     <t>地址</t>
   </si>
@@ -927,11 +926,20 @@
   <si>
     <t>税额</t>
   </si>
+  <si>
+    <t>https://www.redfin.com/TX/Pflugerville/13701-Cambourne-Dr-78660/home/31547486</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>13701 Cambourne Dr Pflugerville, TX 78660</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1631,7 +1639,7 @@
     <cellStyle name="Good" xfId="182" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="213" builtinId="28"/>
-    <cellStyle name="new house" xfId="212" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="new house" xfId="212"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="240" builtinId="11"/>
   </cellStyles>
@@ -1910,39 +1918,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.69921875" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="5" max="5" width="4.69921875" customWidth="1"/>
-    <col min="6" max="6" width="7.796875" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" customWidth="1"/>
+    <col min="1" max="1" width="55.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
     <col min="8" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" customWidth="1"/>
-    <col min="12" max="12" width="9.19921875" customWidth="1"/>
-    <col min="13" max="13" width="8.19921875" customWidth="1"/>
-    <col min="14" max="14" width="7.69921875" customWidth="1"/>
-    <col min="15" max="15" width="15.296875" customWidth="1"/>
-    <col min="16" max="16" width="9.19921875" customWidth="1"/>
-    <col min="17" max="17" width="8.19921875" customWidth="1"/>
-    <col min="18" max="18" width="2.69921875" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" customWidth="1"/>
+    <col min="17" max="17" width="8.1640625" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="10.69921875" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" customWidth="1"/>
     <col min="21" max="23" width="13" customWidth="1"/>
-    <col min="24" max="25" width="12.69921875" customWidth="1"/>
+    <col min="24" max="25" width="12.6640625" customWidth="1"/>
     <col min="26" max="26" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2016,7 +2024,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E2">
         <v>0.2</v>
       </c>
@@ -2031,14 +2039,14 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <f>K2-F2</f>
+        <f t="shared" ref="M2:M33" si="1">K2-F2</f>
         <v>0</v>
       </c>
       <c r="Q2">
         <v>3000</v>
       </c>
       <c r="S2" t="e">
-        <f>100*(12*K2-Q2)/D2</f>
+        <f t="shared" ref="S2:S33" si="2">100*(12*K2-Q2)/D2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T2">
@@ -2046,23 +2054,23 @@
         <v>3000</v>
       </c>
       <c r="U2">
-        <f>G2*(D2-D2*E2)</f>
+        <f t="shared" ref="U2:U33" si="3">G2*(D2-D2*E2)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2:V129" si="1">12*K2-Q2-U2</f>
+        <f t="shared" ref="V2:V129" si="4">12*K2-Q2-U2</f>
         <v>-3000</v>
       </c>
       <c r="W2" t="e">
-        <f>D2/(12*K2)</f>
+        <f t="shared" ref="W2:W33" si="5">D2/(12*K2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X96" si="2">V2/T2</f>
+        <f t="shared" ref="X2:X96" si="6">V2/T2</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="8" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" s="8" customFormat="1" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -2085,7 +2093,7 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3">
-        <f>K3-F3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N3"/>
@@ -2096,27 +2104,27 @@
       </c>
       <c r="R3"/>
       <c r="S3" t="e">
-        <f>100*(12*K3-Q3)/D3</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T3">
-        <f>D3*E3+H3</f>
+        <f t="shared" ref="T3:T34" si="7">D3*E3+H3</f>
         <v>2.5781000000000001</v>
       </c>
       <c r="U3">
-        <f>G3*(D3-D3*E3)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W3" t="e">
-        <f>D3/(12*K3)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-1163.6476474923393</v>
       </c>
       <c r="Y3"/>
@@ -2124,7 +2132,7 @@
       <c r="AA3"/>
       <c r="AB3"/>
     </row>
-    <row r="4" spans="1:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4">
         <v>0.2</v>
       </c>
@@ -2139,38 +2147,38 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <f>K4-F4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q4">
         <v>3000</v>
       </c>
       <c r="S4" t="e">
-        <f>100*(12*K4-Q4)/D4</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T4">
-        <f>D4*E4+H4</f>
+        <f t="shared" si="7"/>
         <v>2.5781000000000001</v>
       </c>
       <c r="U4">
-        <f>G4*(D4-D4*E4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W4" t="e">
-        <f>D4/(12*K4)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-1163.6476474923393</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="8" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" s="8" customFormat="1" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -2193,7 +2201,7 @@
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5">
-        <f>K5-F5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5"/>
@@ -2204,27 +2212,27 @@
       </c>
       <c r="R5"/>
       <c r="S5" t="e">
-        <f>100*(12*K5-Q5)/D5</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T5">
-        <f>D5*E5+H5</f>
+        <f t="shared" si="7"/>
         <v>2.5781000000000001</v>
       </c>
       <c r="U5">
-        <f>G5*(D5-D5*E5)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W5" t="e">
-        <f>D5/(12*K5)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-1163.6476474923393</v>
       </c>
       <c r="Y5"/>
@@ -2232,7 +2240,7 @@
       <c r="AA5"/>
       <c r="AB5"/>
     </row>
-    <row r="6" spans="1:28" s="7" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" s="7" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2257,7 +2265,7 @@
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6">
-        <f>K6-F6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N6"/>
@@ -2268,27 +2276,27 @@
       </c>
       <c r="R6"/>
       <c r="S6" t="e">
-        <f>100*(12*K6-Q6)/D6</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T6">
-        <f>D6*E6+H6</f>
+        <f t="shared" si="7"/>
         <v>2.5781000000000001</v>
       </c>
       <c r="U6">
-        <f>G6*(D6-D6*E6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W6" t="e">
-        <f>D6/(12*K6)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-1163.6476474923393</v>
       </c>
       <c r="Y6"/>
@@ -2296,7 +2304,7 @@
       <c r="AA6"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:28" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>39</v>
       </c>
@@ -2332,7 +2340,7 @@
         <v>1650</v>
       </c>
       <c r="M7" s="11">
-        <f>K7-F7</f>
+        <f t="shared" si="1"/>
         <v>583</v>
       </c>
       <c r="O7" s="11" t="s">
@@ -2345,31 +2353,31 @@
         <v>3000</v>
       </c>
       <c r="S7" s="11">
-        <f>100*(12*K7-Q7)/D7</f>
+        <f t="shared" si="2"/>
         <v>9.8944111127817358</v>
       </c>
       <c r="T7" s="11">
-        <f>D7*E7+H7</f>
+        <f t="shared" si="7"/>
         <v>41237.9781</v>
       </c>
       <c r="U7" s="11">
-        <f>G7*(D7-D7*E7)</f>
+        <f t="shared" si="3"/>
         <v>6251.2866400000012</v>
       </c>
       <c r="V7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14148.713359999998</v>
       </c>
       <c r="W7" s="11">
-        <f>D7/(12*K7)</f>
+        <f t="shared" si="5"/>
         <v>8.8109829059829057</v>
       </c>
       <c r="X7" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.34309910456060883</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>43</v>
       </c>
@@ -2405,7 +2413,7 @@
         <v>1500</v>
       </c>
       <c r="M8" s="11">
-        <f>K8-F8</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="O8" s="11" t="s">
@@ -2418,31 +2426,31 @@
         <v>3000</v>
       </c>
       <c r="S8" s="11">
-        <f>100*(12*K8-Q8)/D8</f>
+        <f t="shared" si="2"/>
         <v>8.5161290322580641</v>
       </c>
       <c r="T8" s="11">
-        <f>D8*E8+H8</f>
+        <f t="shared" si="7"/>
         <v>31002.578099999999</v>
       </c>
       <c r="U8" s="11">
-        <f>G8*(D8-D8*E8)</f>
+        <f t="shared" si="3"/>
         <v>4699.6000000000004</v>
       </c>
       <c r="V8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8500.4</v>
       </c>
       <c r="W8" s="11">
-        <f>D8/(12*K8)</f>
+        <f t="shared" si="5"/>
         <v>9.567901234567902</v>
       </c>
       <c r="X8" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.27418364926238181</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>48</v>
       </c>
@@ -2478,7 +2486,7 @@
         <v>1695</v>
       </c>
       <c r="M9" s="11">
-        <f>K9-F9</f>
+        <f t="shared" si="1"/>
         <v>323</v>
       </c>
       <c r="O9" s="11" t="s">
@@ -2491,31 +2499,31 @@
         <v>3000</v>
       </c>
       <c r="S9" s="11">
-        <f>100*(12*K9-Q9)/D9</f>
+        <f t="shared" si="2"/>
         <v>8.2252686180066696</v>
       </c>
       <c r="T9" s="11">
-        <f>D9*E9+H9</f>
+        <f t="shared" si="7"/>
         <v>53982.578099999999</v>
       </c>
       <c r="U9" s="11">
-        <f>G9*(D9-D9*E9)</f>
+        <f t="shared" si="3"/>
         <v>8183.3680000000004</v>
       </c>
       <c r="V9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14016.632</v>
       </c>
       <c r="W9" s="11">
-        <f>D9/(12*K9)</f>
+        <f t="shared" si="5"/>
         <v>10.71031746031746</v>
       </c>
       <c r="X9" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.25965102989403166</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>51</v>
       </c>
@@ -2551,7 +2559,7 @@
         <v>500</v>
       </c>
       <c r="M10" s="11">
-        <f>K10-F10</f>
+        <f t="shared" si="1"/>
         <v>463</v>
       </c>
       <c r="O10" s="11" t="s">
@@ -2564,31 +2572,31 @@
         <v>3000</v>
       </c>
       <c r="S10" s="11">
-        <f>100*(12*K10-Q10)/D10</f>
+        <f t="shared" si="2"/>
         <v>7.7286389008158007</v>
       </c>
       <c r="T10" s="11">
-        <f>D10*E10+H10</f>
+        <f t="shared" si="7"/>
         <v>46582.578099999999</v>
       </c>
       <c r="U10" s="11">
-        <f>G10*(D10-D10*E10)</f>
+        <f t="shared" si="3"/>
         <v>7061.5280000000002</v>
       </c>
       <c r="V10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10938.472</v>
       </c>
       <c r="W10" s="11">
-        <f>D10/(12*K10)</f>
+        <f t="shared" si="5"/>
         <v>11.09047619047619</v>
       </c>
       <c r="X10" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.23481894833124317</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11">
         <v>0.2</v>
       </c>
@@ -2603,38 +2611,38 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <f>K11-F11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q11">
         <v>3000</v>
       </c>
       <c r="S11" t="e">
-        <f>100*(12*K11-Q11)/D11</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T11">
-        <f>D11*E11+H11</f>
+        <f t="shared" si="7"/>
         <v>2.5781000000000001</v>
       </c>
       <c r="U11">
-        <f>G11*(D11-D11*E11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W11" t="e">
-        <f>D11/(12*K11)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-1163.6476474923393</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -2670,7 +2678,7 @@
         <v>1500</v>
       </c>
       <c r="M12">
-        <f>K12-F12</f>
+        <f t="shared" si="1"/>
         <v>695</v>
       </c>
       <c r="O12" t="s">
@@ -2680,34 +2688,34 @@
         <v>3000</v>
       </c>
       <c r="S12">
-        <f>100*(12*K12-Q12)/D12</f>
+        <f t="shared" si="2"/>
         <v>8.8030888030888033</v>
       </c>
       <c r="T12">
-        <f>D12*E12+H12</f>
+        <f t="shared" si="7"/>
         <v>51802.578099999999</v>
       </c>
       <c r="U12">
-        <f>G12*(D12-D12*E12)</f>
+        <f t="shared" si="3"/>
         <v>7852.880000000001</v>
       </c>
       <c r="V12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14947.119999999999</v>
       </c>
       <c r="W12">
-        <f>D12/(12*K12)</f>
+        <f t="shared" si="5"/>
         <v>10.038759689922481</v>
       </c>
       <c r="X12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.28854007943670279</v>
       </c>
       <c r="Z12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -2743,7 +2751,7 @@
         <v>1575</v>
       </c>
       <c r="M13">
-        <f>K13-F13</f>
+        <f t="shared" si="1"/>
         <v>706</v>
       </c>
       <c r="O13" t="s">
@@ -2753,34 +2761,34 @@
         <v>3000</v>
       </c>
       <c r="S13">
-        <f>100*(12*K13-Q13)/D13</f>
+        <f t="shared" si="2"/>
         <v>9.1382765531062127</v>
       </c>
       <c r="T13">
-        <f>D13*E13+H13</f>
+        <f t="shared" si="7"/>
         <v>49902.578099999999</v>
       </c>
       <c r="U13">
-        <f>G13*(D13-D13*E13)</f>
+        <f t="shared" si="3"/>
         <v>7564.8400000000011</v>
       </c>
       <c r="V13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15235.16</v>
       </c>
       <c r="W13">
-        <f>D13/(12*K13)</f>
+        <f t="shared" si="5"/>
         <v>9.670542635658915</v>
       </c>
       <c r="X13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.30529805433038337</v>
       </c>
       <c r="Z13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -2813,7 +2821,7 @@
         <v>2250</v>
       </c>
       <c r="M14">
-        <f>K14-F14</f>
+        <f t="shared" si="1"/>
         <v>710</v>
       </c>
       <c r="O14" t="s">
@@ -2823,34 +2831,34 @@
         <v>3000</v>
       </c>
       <c r="S14">
-        <f>100*(12*K14-Q14)/D14</f>
+        <f t="shared" si="2"/>
         <v>8.3701562080402319</v>
       </c>
       <c r="T14">
-        <f>D14*E14+H14</f>
+        <f t="shared" si="7"/>
         <v>57349.178100000005</v>
       </c>
       <c r="U14">
-        <f>G14*(D14-D14*E14)</f>
+        <f t="shared" si="3"/>
         <v>8693.744560000001</v>
       </c>
       <c r="V14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15306.255439999999</v>
       </c>
       <c r="W14">
-        <f>D14/(12*K14)</f>
+        <f t="shared" si="5"/>
         <v>10.61974074074074</v>
       </c>
       <c r="X14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26689581171172877</v>
       </c>
       <c r="Z14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -2883,7 +2891,7 @@
         <v>2000</v>
       </c>
       <c r="M15">
-        <f>K15-F15</f>
+        <f t="shared" si="1"/>
         <v>487</v>
       </c>
       <c r="O15" t="s">
@@ -2893,34 +2901,34 @@
         <v>3000</v>
       </c>
       <c r="S15">
-        <f>100*(12*K15-Q15)/D15</f>
+        <f t="shared" si="2"/>
         <v>7.9796632582105032</v>
       </c>
       <c r="T15">
-        <f>D15*E15+H15</f>
+        <f t="shared" si="7"/>
         <v>52636.378100000002</v>
       </c>
       <c r="U15">
-        <f>G15*(D15-D15*E15)</f>
+        <f t="shared" si="3"/>
         <v>7979.2840800000013</v>
       </c>
       <c r="V15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13020.715919999999</v>
       </c>
       <c r="W15">
-        <f>D15/(12*K15)</f>
+        <f t="shared" si="5"/>
         <v>10.965375</v>
       </c>
       <c r="X15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.24737104622325826</v>
       </c>
       <c r="Z15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>74</v>
       </c>
@@ -2953,7 +2961,7 @@
         <v>2000</v>
       </c>
       <c r="M16" s="11">
-        <f>K16-F16</f>
+        <f t="shared" si="1"/>
         <v>628</v>
       </c>
       <c r="O16" s="11" t="s">
@@ -2963,34 +2971,34 @@
         <v>3000</v>
       </c>
       <c r="S16" s="11">
-        <f>100*(12*K16-Q16)/D16</f>
+        <f t="shared" si="2"/>
         <v>9.0776266761189248</v>
       </c>
       <c r="T16" s="11">
-        <f>D16*E16+H16</f>
+        <f t="shared" si="7"/>
         <v>46270.178100000005</v>
       </c>
       <c r="U16" s="11">
-        <f>G16*(D16-D16*E16)</f>
+        <f t="shared" si="3"/>
         <v>7014.1681600000002</v>
       </c>
       <c r="V16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13985.831839999999</v>
       </c>
       <c r="W16" s="11">
-        <f>D16/(12*K16)</f>
+        <f t="shared" si="5"/>
         <v>9.6390833333333337</v>
       </c>
       <c r="X16" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.30226449117558069</v>
       </c>
       <c r="Z16" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3023,7 +3031,7 @@
         <v>2300</v>
       </c>
       <c r="M17">
-        <f>K17-F17</f>
+        <f t="shared" si="1"/>
         <v>376</v>
       </c>
       <c r="O17" t="s">
@@ -3033,34 +3041,34 @@
         <v>3000</v>
       </c>
       <c r="S17">
-        <f>100*(12*K17-Q17)/D17</f>
+        <f t="shared" si="2"/>
         <v>7.3214285714285712</v>
       </c>
       <c r="T17">
-        <f>D17*E17+H17</f>
+        <f t="shared" si="7"/>
         <v>67202.578099999999</v>
       </c>
       <c r="U17">
-        <f>G17*(D17-D17*E17)</f>
+        <f t="shared" si="3"/>
         <v>10187.52</v>
       </c>
       <c r="V17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14412.48</v>
       </c>
       <c r="W17">
-        <f>D17/(12*K17)</f>
+        <f t="shared" si="5"/>
         <v>12.173913043478262</v>
       </c>
       <c r="X17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.21446320078009032</v>
       </c>
       <c r="Z17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -3093,7 +3101,7 @@
         <v>2200</v>
       </c>
       <c r="M18">
-        <f>K18-F18</f>
+        <f t="shared" si="1"/>
         <v>611</v>
       </c>
       <c r="O18" t="s">
@@ -3103,34 +3111,34 @@
         <v>3000</v>
       </c>
       <c r="S18">
-        <f>100*(12*K18-Q18)/D18</f>
+        <f t="shared" si="2"/>
         <v>8.23943661971831</v>
       </c>
       <c r="T18">
-        <f>D18*E18+H18</f>
+        <f t="shared" si="7"/>
         <v>56802.578099999999</v>
       </c>
       <c r="U18">
-        <f>G18*(D18-D18*E18)</f>
+        <f t="shared" si="3"/>
         <v>8610.880000000001</v>
       </c>
       <c r="V18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14789.119999999999</v>
       </c>
       <c r="W18">
-        <f>D18/(12*K18)</f>
+        <f t="shared" si="5"/>
         <v>10.757575757575758</v>
       </c>
       <c r="X18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26036001348326121</v>
       </c>
       <c r="Z18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="18" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" s="18" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>83</v>
       </c>
@@ -3163,7 +3171,7 @@
         <v>2300</v>
       </c>
       <c r="M19" s="18">
-        <f>K19-F19</f>
+        <f t="shared" si="1"/>
         <v>723</v>
       </c>
       <c r="O19" s="18" t="s">
@@ -3173,34 +3181,34 @@
         <v>3000</v>
       </c>
       <c r="S19" s="18">
-        <f>100*(12*K19-Q19)/D19</f>
+        <f t="shared" si="2"/>
         <v>8.7237136068654912</v>
       </c>
       <c r="T19" s="18">
-        <f>D19*E19+H19</f>
+        <f t="shared" si="7"/>
         <v>56400.578099999999</v>
       </c>
       <c r="U19" s="18">
-        <f>G19*(D19-D19*E19)</f>
+        <f t="shared" si="3"/>
         <v>8549.9368000000013</v>
       </c>
       <c r="V19" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16050.063199999999</v>
       </c>
       <c r="W19" s="18">
-        <f>D19/(12*K19)</f>
+        <f t="shared" si="5"/>
         <v>10.217028985507246</v>
       </c>
       <c r="X19" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.28457267178259649</v>
       </c>
       <c r="Z19" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>85</v>
       </c>
@@ -3233,7 +3241,7 @@
         <v>1850</v>
       </c>
       <c r="M20" s="11">
-        <f>K20-F20</f>
+        <f t="shared" si="1"/>
         <v>359</v>
       </c>
       <c r="O20" s="11" t="s">
@@ -3243,34 +3251,34 @@
         <v>3000</v>
       </c>
       <c r="S20" s="11">
-        <f>100*(12*K20-Q20)/D20</f>
+        <f t="shared" si="2"/>
         <v>7.6830732292917165</v>
       </c>
       <c r="T20" s="11">
-        <f>D20*E20+H20</f>
+        <f t="shared" si="7"/>
         <v>49982.578099999999</v>
       </c>
       <c r="U20" s="11">
-        <f>G20*(D20-D20*E20)</f>
+        <f t="shared" si="3"/>
         <v>7576.9680000000008</v>
       </c>
       <c r="V20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11623.031999999999</v>
       </c>
       <c r="W20" s="11">
-        <f>D20/(12*K20)</f>
+        <f t="shared" si="5"/>
         <v>11.256756756756756</v>
       </c>
       <c r="X20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.23254166635314075</v>
       </c>
       <c r="Z20" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>89</v>
       </c>
@@ -3306,7 +3314,7 @@
         <v>1500</v>
       </c>
       <c r="M21" s="11">
-        <f>K21-F21</f>
+        <f t="shared" si="1"/>
         <v>308</v>
       </c>
       <c r="O21" s="11" t="s">
@@ -3316,34 +3324,34 @@
         <v>3000</v>
       </c>
       <c r="S21" s="11">
-        <f>100*(12*K21-Q21)/D21</f>
+        <f t="shared" si="2"/>
         <v>6.6521796975475631</v>
       </c>
       <c r="T21" s="11">
-        <f>D21*E21+H21</f>
+        <f t="shared" si="7"/>
         <v>45100.578099999999</v>
       </c>
       <c r="U21" s="11">
-        <f>G21*(D21-D21*E21)</f>
+        <f t="shared" si="3"/>
         <v>6836.8568000000005</v>
       </c>
       <c r="V21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8163.1431999999995</v>
       </c>
       <c r="W21" s="11">
-        <f>D21/(12*K21)</f>
+        <f t="shared" si="5"/>
         <v>12.527222222222223</v>
       </c>
       <c r="X21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.18099863779794875</v>
       </c>
       <c r="Z21" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="18" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" s="18" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>92</v>
       </c>
@@ -3376,7 +3384,7 @@
         <v>2150</v>
       </c>
       <c r="M22" s="18">
-        <f>K22-F22</f>
+        <f t="shared" si="1"/>
         <v>572</v>
       </c>
       <c r="O22" s="18" t="s">
@@ -3386,31 +3394,31 @@
         <v>3000</v>
       </c>
       <c r="S22" s="18">
-        <f>100*(12*K22-Q22)/D22</f>
+        <f t="shared" si="2"/>
         <v>8.0853930990460654</v>
       </c>
       <c r="T22" s="18">
-        <f>D22*E22+H22</f>
+        <f t="shared" si="7"/>
         <v>56400.578099999999</v>
       </c>
       <c r="U22" s="18">
-        <f>G22*(D22-D22*E22)</f>
+        <f t="shared" si="3"/>
         <v>8549.9368000000013</v>
       </c>
       <c r="V22" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14250.063199999999</v>
       </c>
       <c r="W22" s="18">
-        <f>D22/(12*K22)</f>
+        <f t="shared" si="5"/>
         <v>10.92984496124031</v>
       </c>
       <c r="X22" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.25265810528988175</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>96</v>
       </c>
@@ -3443,7 +3451,7 @@
         <v>2300</v>
       </c>
       <c r="M23" s="11">
-        <f>K23-F23</f>
+        <f t="shared" si="1"/>
         <v>619</v>
       </c>
       <c r="O23" s="11" t="s">
@@ -3453,34 +3461,34 @@
         <v>3000</v>
       </c>
       <c r="S23" s="11">
-        <f>100*(12*K23-Q23)/D23</f>
+        <f t="shared" si="2"/>
         <v>8.6315789473684212</v>
       </c>
       <c r="T23" s="11">
-        <f>D23*E23+H23</f>
+        <f t="shared" si="7"/>
         <v>57002.578099999999</v>
       </c>
       <c r="U23" s="11">
-        <f>G23*(D23-D23*E23)</f>
+        <f t="shared" si="3"/>
         <v>8641.2000000000007</v>
       </c>
       <c r="V23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15958.8</v>
       </c>
       <c r="W23" s="11">
-        <f>D23/(12*K23)</f>
+        <f t="shared" si="5"/>
         <v>10.326086956521738</v>
       </c>
       <c r="X23" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.27996628454248806</v>
       </c>
       <c r="Z23" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>99</v>
       </c>
@@ -3516,7 +3524,7 @@
         <v>1750</v>
       </c>
       <c r="M24" s="11">
-        <f>K24-F24</f>
+        <f t="shared" si="1"/>
         <v>476</v>
       </c>
       <c r="O24" s="11" t="s">
@@ -3526,34 +3534,34 @@
         <v>3000</v>
       </c>
       <c r="S24" s="11">
-        <f>100*(12*K24-Q24)/D24</f>
+        <f t="shared" si="2"/>
         <v>7.7552688667875369</v>
       </c>
       <c r="T24" s="11">
-        <f>D24*E24+H24</f>
+        <f t="shared" si="7"/>
         <v>57253.9781</v>
       </c>
       <c r="U24" s="11">
-        <f>G24*(D24-D24*E24)</f>
+        <f t="shared" si="3"/>
         <v>8679.3122400000011</v>
       </c>
       <c r="V24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13520.687759999999</v>
       </c>
       <c r="W24" s="11">
-        <f>D24/(12*K24)</f>
+        <f t="shared" si="5"/>
         <v>11.359404761904761</v>
       </c>
       <c r="X24" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.23615280909188036</v>
       </c>
       <c r="Z24" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -3586,7 +3594,7 @@
         <v>2100</v>
       </c>
       <c r="M25">
-        <f>K25-F25</f>
+        <f t="shared" si="1"/>
         <v>306</v>
       </c>
       <c r="O25" t="s">
@@ -3596,34 +3604,34 @@
         <v>3000</v>
       </c>
       <c r="S25">
-        <f>100*(12*K25-Q25)/D25</f>
+        <f t="shared" si="2"/>
         <v>7.6030001027432448</v>
       </c>
       <c r="T25">
-        <f>D25*E25+H25</f>
+        <f t="shared" si="7"/>
         <v>58400.578099999999</v>
       </c>
       <c r="U25">
-        <f>G25*(D25-D25*E25)</f>
+        <f t="shared" si="3"/>
         <v>8853.1368000000002</v>
       </c>
       <c r="V25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13346.8632</v>
       </c>
       <c r="W25">
-        <f>D25/(12*K25)</f>
+        <f t="shared" si="5"/>
         <v>11.586904761904762</v>
       </c>
       <c r="X25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.22853991577182692</v>
       </c>
       <c r="Z25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -3656,7 +3664,7 @@
         <v>2150</v>
       </c>
       <c r="M26">
-        <f>K26-F26</f>
+        <f t="shared" si="1"/>
         <v>534</v>
       </c>
       <c r="O26" t="s">
@@ -3666,34 +3674,34 @@
         <v>3000</v>
       </c>
       <c r="S26">
-        <f>100*(12*K26-Q26)/D26</f>
+        <f t="shared" si="2"/>
         <v>7.6909584013600849</v>
       </c>
       <c r="T26">
-        <f>D26*E26+H26</f>
+        <f t="shared" si="7"/>
         <v>59292.9781</v>
       </c>
       <c r="U26">
-        <f>G26*(D26-D26*E26)</f>
+        <f t="shared" si="3"/>
         <v>8988.4246400000011</v>
       </c>
       <c r="V26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13811.575359999999</v>
       </c>
       <c r="W26">
-        <f>D26/(12*K26)</f>
+        <f t="shared" si="5"/>
         <v>11.490387596899225</v>
       </c>
       <c r="X26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.2329377913301339</v>
       </c>
       <c r="Z26" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>110</v>
       </c>
@@ -3726,7 +3734,7 @@
         <v>2150</v>
       </c>
       <c r="M27" s="11">
-        <f>K27-F27</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="O27" s="11" t="s">
@@ -3736,34 +3744,34 @@
         <v>3000</v>
       </c>
       <c r="S27" s="11">
-        <f>100*(12*K27-Q27)/D27</f>
+        <f t="shared" si="2"/>
         <v>6.9407237835468321</v>
       </c>
       <c r="T27" s="11">
-        <f>D27*E27+H27</f>
+        <f t="shared" si="7"/>
         <v>65701.778099999996</v>
       </c>
       <c r="U27" s="11">
-        <f>G27*(D27-D27*E27)</f>
+        <f t="shared" si="3"/>
         <v>9959.9987199999996</v>
       </c>
       <c r="V27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12840.00128</v>
       </c>
       <c r="W27" s="11">
-        <f>D27/(12*K27)</f>
+        <f t="shared" si="5"/>
         <v>12.732403100775194</v>
       </c>
       <c r="X27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.19542852037363662</v>
       </c>
       <c r="Z27" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>114</v>
       </c>
@@ -3799,7 +3807,7 @@
         <v>1790</v>
       </c>
       <c r="M28" s="11">
-        <f>K28-F28</f>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="O28" s="11" t="s">
@@ -3809,34 +3817,34 @@
         <v>3000</v>
       </c>
       <c r="S28" s="11">
-        <f>100*(12*K28-Q28)/D28</f>
+        <f t="shared" si="2"/>
         <v>6.900993743099006</v>
       </c>
       <c r="T28" s="11">
-        <f>D28*E28+H28</f>
+        <f t="shared" si="7"/>
         <v>69557.778099999996</v>
       </c>
       <c r="U28" s="11">
-        <f>G28*(D28-D28*E28)</f>
+        <f t="shared" si="3"/>
         <v>10544.56832</v>
       </c>
       <c r="V28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13455.43168</v>
       </c>
       <c r="W28" s="11">
-        <f>D28/(12*K28)</f>
+        <f t="shared" si="5"/>
         <v>12.880592592592592</v>
       </c>
       <c r="X28" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.19344251710650889</v>
       </c>
       <c r="Z28" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="18" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" s="18" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>118</v>
       </c>
@@ -3869,7 +3877,7 @@
         <v>2400</v>
       </c>
       <c r="M29" s="18">
-        <f>K29-F29</f>
+        <f t="shared" si="1"/>
         <v>566</v>
       </c>
       <c r="O29" s="18" t="s">
@@ -3879,34 +3887,34 @@
         <v>3000</v>
       </c>
       <c r="S29" s="18">
-        <f>100*(12*K29-Q29)/D29</f>
+        <f t="shared" si="2"/>
         <v>8.4026771320164801</v>
       </c>
       <c r="T29" s="18">
-        <f>D29*E29+H29</f>
+        <f t="shared" si="7"/>
         <v>61411.578099999999</v>
       </c>
       <c r="U29" s="18">
-        <f>G29*(D29-D29*E29)</f>
+        <f t="shared" si="3"/>
         <v>9309.6044000000002</v>
       </c>
       <c r="V29" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16490.3956</v>
       </c>
       <c r="W29" s="18">
-        <f>D29/(12*K29)</f>
+        <f t="shared" si="5"/>
         <v>10.661284722222222</v>
       </c>
       <c r="X29" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26852258336608353</v>
       </c>
       <c r="Z29" s="18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="18" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" s="18" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>122</v>
       </c>
@@ -3939,7 +3947,7 @@
         <v>2300</v>
       </c>
       <c r="M30" s="18">
-        <f>K30-F30</f>
+        <f t="shared" si="1"/>
         <v>449</v>
       </c>
       <c r="O30" s="18" t="s">
@@ -3949,34 +3957,34 @@
         <v>3000</v>
       </c>
       <c r="S30" s="18">
-        <f>100*(12*K30-Q30)/D30</f>
+        <f t="shared" si="2"/>
         <v>7.8095238095238093</v>
       </c>
       <c r="T30" s="18">
-        <f>D30*E30+H30</f>
+        <f t="shared" si="7"/>
         <v>63002.578099999999</v>
       </c>
       <c r="U30" s="18">
-        <f>G30*(D30-D30*E30)</f>
+        <f t="shared" si="3"/>
         <v>9550.8000000000011</v>
       </c>
       <c r="V30" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15049.199999999999</v>
       </c>
       <c r="W30" s="18">
-        <f>D30/(12*K30)</f>
+        <f t="shared" si="5"/>
         <v>11.413043478260869</v>
       </c>
       <c r="X30" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.23886641553165266</v>
       </c>
       <c r="Z30" s="18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>125</v>
       </c>
@@ -4012,7 +4020,7 @@
         <v>2650</v>
       </c>
       <c r="M31" s="11">
-        <f>K31-F31</f>
+        <f t="shared" si="1"/>
         <v>-268</v>
       </c>
       <c r="O31" s="11" t="s">
@@ -4022,34 +4030,34 @@
         <v>3000</v>
       </c>
       <c r="S31" s="11">
-        <f>100*(12*K31-Q31)/D31</f>
+        <f t="shared" si="2"/>
         <v>5.7403189066059221</v>
       </c>
       <c r="T31" s="11">
-        <f>D31*E31+H31</f>
+        <f t="shared" si="7"/>
         <v>87802.578099999999</v>
       </c>
       <c r="U31" s="11">
-        <f>G31*(D31-D31*E31)</f>
+        <f t="shared" si="3"/>
         <v>13310.480000000001</v>
       </c>
       <c r="V31" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11889.519999999999</v>
       </c>
       <c r="W31" s="11">
-        <f>D31/(12*K31)</f>
+        <f t="shared" si="5"/>
         <v>15.567375886524824</v>
       </c>
       <c r="X31" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1354119691845358</v>
       </c>
       <c r="Z31" s="11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>129</v>
       </c>
@@ -4085,7 +4093,7 @@
         <v>1975</v>
       </c>
       <c r="M32" s="11">
-        <f>K32-F32</f>
+        <f t="shared" si="1"/>
         <v>151</v>
       </c>
       <c r="O32" s="11" t="s">
@@ -4095,34 +4103,34 @@
         <v>3000</v>
       </c>
       <c r="S32" s="11">
-        <f>100*(12*K32-Q32)/D32</f>
+        <f t="shared" si="2"/>
         <v>6.4237536133614075</v>
       </c>
       <c r="T32" s="11">
-        <f>D32*E32+H32</f>
+        <f t="shared" si="7"/>
         <v>67252.978100000008</v>
       </c>
       <c r="U32" s="11">
-        <f>G32*(D32-D32*E32)</f>
+        <f t="shared" si="3"/>
         <v>10195.16064</v>
       </c>
       <c r="V32" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11404.83936</v>
       </c>
       <c r="W32" s="11">
-        <f>D32/(12*K32)</f>
+        <f t="shared" si="5"/>
         <v>13.668780487804877</v>
       </c>
       <c r="X32" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.16958117963254921</v>
       </c>
       <c r="Z32" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>132</v>
       </c>
@@ -4158,7 +4166,7 @@
         <v>1800</v>
       </c>
       <c r="M33" s="11">
-        <f>K33-F33</f>
+        <f t="shared" si="1"/>
         <v>257</v>
       </c>
       <c r="O33" s="11" t="s">
@@ -4168,34 +4176,34 @@
         <v>3000</v>
       </c>
       <c r="S33" s="11">
-        <f>100*(12*K33-Q33)/D33</f>
+        <f t="shared" si="2"/>
         <v>7.2439709033835378</v>
       </c>
       <c r="T33" s="11">
-        <f>D33*E33+H33</f>
+        <f t="shared" si="7"/>
         <v>59638.378100000002</v>
       </c>
       <c r="U33" s="11">
-        <f>G33*(D33-D33*E33)</f>
+        <f t="shared" si="3"/>
         <v>9040.7872800000005</v>
       </c>
       <c r="V33" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12559.21272</v>
       </c>
       <c r="W33" s="11">
-        <f>D33/(12*K33)</f>
+        <f t="shared" si="5"/>
         <v>12.12109756097561</v>
       </c>
       <c r="X33" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.21058944123096465</v>
       </c>
       <c r="Z33" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="8" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>135</v>
       </c>
@@ -4231,7 +4239,7 @@
         <v>2250</v>
       </c>
       <c r="M34" s="8">
-        <f>K34-F34</f>
+        <f t="shared" ref="M34:M65" si="8">K34-F34</f>
         <v>0</v>
       </c>
       <c r="O34" s="8" t="s">
@@ -4241,34 +4249,34 @@
         <v>3000</v>
       </c>
       <c r="S34" s="8">
-        <f>100*(12*K34-Q34)/D34</f>
+        <f t="shared" ref="S34:S67" si="9">100*(12*K34-Q34)/D34</f>
         <v>6.3274786579417768</v>
       </c>
       <c r="T34" s="8">
-        <f>D34*E34+H34</f>
+        <f t="shared" si="7"/>
         <v>75862.178100000005</v>
       </c>
       <c r="U34" s="8">
-        <f>G34*(D34-D34*E34)</f>
+        <f t="shared" ref="U34:U67" si="10">G34*(D34-D34*E34)</f>
         <v>11500.315360000002</v>
       </c>
       <c r="V34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12499.684639999998</v>
       </c>
       <c r="W34" s="8">
-        <f>D34/(12*K34)</f>
+        <f t="shared" ref="W34:W65" si="11">D34/(12*K34)</f>
         <v>14.048074074074075</v>
       </c>
       <c r="X34" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.16476833322031914</v>
       </c>
       <c r="Z34" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>139</v>
       </c>
@@ -4304,7 +4312,7 @@
         <v>1950</v>
       </c>
       <c r="M35" s="11">
-        <f>K35-F35</f>
+        <f t="shared" si="8"/>
         <v>206</v>
       </c>
       <c r="O35" s="11" t="s">
@@ -4314,34 +4322,34 @@
         <v>3000</v>
       </c>
       <c r="S35" s="11">
-        <f>100*(12*K35-Q35)/D35</f>
+        <f t="shared" si="9"/>
         <v>6.6504460665044602</v>
       </c>
       <c r="T35" s="11">
-        <f>D35*E35+H35</f>
+        <f t="shared" ref="T35:T67" si="12">D35*E35+H35</f>
         <v>73982.578099999999</v>
       </c>
       <c r="U35" s="11">
-        <f>G35*(D35-D35*E35)</f>
+        <f t="shared" si="10"/>
         <v>11215.368</v>
       </c>
       <c r="V35" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13384.632</v>
       </c>
       <c r="W35" s="11">
-        <f>D35/(12*K35)</f>
+        <f t="shared" si="11"/>
         <v>13.402173913043478</v>
       </c>
       <c r="X35" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.18091599865455352</v>
       </c>
       <c r="Z35" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>143</v>
       </c>
@@ -4377,7 +4385,7 @@
         <v>1900</v>
       </c>
       <c r="M36" s="11">
-        <f>K36-F36</f>
+        <f t="shared" si="8"/>
         <v>279</v>
       </c>
       <c r="O36" s="11" t="s">
@@ -4387,34 +4395,34 @@
         <v>3000</v>
       </c>
       <c r="S36" s="11">
-        <f>100*(12*K36-Q36)/D36</f>
+        <f t="shared" si="9"/>
         <v>6.9375</v>
       </c>
       <c r="T36" s="11">
-        <f>D36*E36+H36</f>
+        <f t="shared" si="12"/>
         <v>64002.578099999999</v>
       </c>
       <c r="U36" s="11">
-        <f>G36*(D36-D36*E36)</f>
+        <f t="shared" si="10"/>
         <v>9702.4000000000015</v>
       </c>
       <c r="V36" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12497.599999999999</v>
       </c>
       <c r="W36" s="11">
-        <f>D36/(12*K36)</f>
+        <f t="shared" si="11"/>
         <v>12.698412698412698</v>
       </c>
       <c r="X36" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.19526713409065</v>
       </c>
       <c r="Z36" s="11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>144</v>
       </c>
@@ -4450,7 +4458,7 @@
         <v>1750</v>
       </c>
       <c r="M37" s="11">
-        <f>K37-F37</f>
+        <f t="shared" si="8"/>
         <v>363</v>
       </c>
       <c r="O37" s="11" t="s">
@@ -4460,34 +4468,34 @@
         <v>3000</v>
       </c>
       <c r="S37" s="11">
-        <f>100*(12*K37-Q37)/D37</f>
+        <f t="shared" si="9"/>
         <v>7.6705192382215586</v>
       </c>
       <c r="T37" s="11">
-        <f>D37*E37+H37</f>
+        <f t="shared" si="12"/>
         <v>50064.378100000002</v>
       </c>
       <c r="U37" s="11">
-        <f>G37*(D37-D37*E37)</f>
+        <f t="shared" si="10"/>
         <v>7589.3688800000009</v>
       </c>
       <c r="V37" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11610.631119999998</v>
       </c>
       <c r="W37" s="11">
-        <f>D37/(12*K37)</f>
+        <f t="shared" si="11"/>
         <v>11.275180180180181</v>
       </c>
       <c r="X37" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.23191401872222592</v>
       </c>
       <c r="Z37" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -4520,7 +4528,7 @@
         <v>2300</v>
       </c>
       <c r="M38">
-        <f>K38-F38</f>
+        <f t="shared" si="8"/>
         <v>-241</v>
       </c>
       <c r="O38" t="s">
@@ -4530,31 +4538,31 @@
         <v>3000</v>
       </c>
       <c r="S38">
-        <f>100*(12*K38-Q38)/D38</f>
+        <f t="shared" si="9"/>
         <v>6.7657696062927162</v>
       </c>
       <c r="T38">
-        <f>D38*E38+H38</f>
+        <f t="shared" si="12"/>
         <v>72721.578099999999</v>
       </c>
       <c r="U38">
-        <f>G38*(D38-D38*E38)</f>
+        <f t="shared" si="10"/>
         <v>11024.200400000002</v>
       </c>
       <c r="V38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13575.799599999998</v>
       </c>
       <c r="W38">
-        <f>D38/(12*K38)</f>
+        <f t="shared" si="11"/>
         <v>13.173731884057972</v>
       </c>
       <c r="X38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.18668186189980382</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>152</v>
       </c>
@@ -4590,7 +4598,7 @@
         <v>1650</v>
       </c>
       <c r="M39" s="11">
-        <f>K39-F39</f>
+        <f t="shared" si="8"/>
         <v>857</v>
       </c>
       <c r="O39" s="11" t="s">
@@ -4600,34 +4608,34 @@
         <v>3000</v>
       </c>
       <c r="S39" s="11">
-        <f>100*(12*K39-Q39)/D39</f>
+        <f t="shared" si="9"/>
         <v>10.446428571428571</v>
       </c>
       <c r="T39" s="11">
-        <f>D39*E39+H39</f>
+        <f t="shared" si="12"/>
         <v>44802.578099999999</v>
       </c>
       <c r="U39" s="11">
-        <f>G39*(D39-D39*E39)</f>
+        <f t="shared" si="10"/>
         <v>6791.68</v>
       </c>
       <c r="V39" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16608.32</v>
       </c>
       <c r="W39" s="11">
-        <f>D39/(12*K39)</f>
+        <f t="shared" si="11"/>
         <v>8.4848484848484844</v>
       </c>
       <c r="X39" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.37070009593934505</v>
       </c>
       <c r="Z39" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>156</v>
       </c>
@@ -4655,7 +4663,7 @@
         <v>878</v>
       </c>
       <c r="M40">
-        <f>K40-F40</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O40" s="11" t="s">
@@ -4665,34 +4673,34 @@
         <v>3000</v>
       </c>
       <c r="S40" s="11">
-        <f>100*(12*K40-Q40)/D40</f>
+        <f t="shared" si="9"/>
         <v>-1.0344827586206897</v>
       </c>
       <c r="T40" s="11">
-        <f>D40*E40+H40</f>
+        <f t="shared" si="12"/>
         <v>58002.578099999999</v>
       </c>
       <c r="U40" s="11">
-        <f>G40*(D40-D40*E40)</f>
+        <f t="shared" si="10"/>
         <v>8792.8000000000011</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-11792.800000000001</v>
       </c>
       <c r="W40" s="11" t="e">
-        <f>D40/(12*K40)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X40" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.20331510057481395</v>
       </c>
       <c r="Z40" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>159</v>
       </c>
@@ -4720,7 +4728,7 @@
         <v>745</v>
       </c>
       <c r="M41">
-        <f>K41-F41</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O41" s="11" t="s">
@@ -4730,34 +4738,34 @@
         <v>3000</v>
       </c>
       <c r="S41" s="11">
-        <f>100*(12*K41-Q41)/D41</f>
+        <f t="shared" si="9"/>
         <v>-0.91998012842922594</v>
       </c>
       <c r="T41" s="11">
-        <f>D41*E41+H41</f>
+        <f t="shared" si="12"/>
         <v>65221.378100000002</v>
       </c>
       <c r="U41" s="11">
-        <f>G41*(D41-D41*E41)</f>
+        <f t="shared" si="10"/>
         <v>9887.1700800000017</v>
       </c>
       <c r="V41" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-12887.170080000002</v>
       </c>
       <c r="W41" s="11" t="e">
-        <f>D41/(12*K41)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X41" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.19759119563896491</v>
       </c>
       <c r="Z41" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="24" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" s="24" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>163</v>
       </c>
@@ -4771,7 +4779,7 @@
         <v>0.2</v>
       </c>
       <c r="F42" s="25">
-        <v>1671</v>
+        <v>1955</v>
       </c>
       <c r="G42" s="26">
         <v>3.7900000000000003E-2</v>
@@ -4793,8 +4801,8 @@
         <v>1850</v>
       </c>
       <c r="M42" s="24">
-        <f>K42-F42</f>
-        <v>529</v>
+        <f t="shared" si="8"/>
+        <v>245</v>
       </c>
       <c r="O42" s="24" t="s">
         <v>72</v>
@@ -4803,34 +4811,34 @@
         <v>3000</v>
       </c>
       <c r="S42" s="24">
-        <f>100*(12*K42-Q42)/D42</f>
+        <f t="shared" si="9"/>
         <v>8.1533101045296164</v>
       </c>
       <c r="T42" s="24">
-        <f>D42*E42+H42</f>
+        <f t="shared" si="12"/>
         <v>57402.578099999999</v>
       </c>
       <c r="U42" s="24">
-        <f>G42*(D42-D42*E42)</f>
+        <f t="shared" si="10"/>
         <v>8701.84</v>
       </c>
       <c r="V42" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14698.16</v>
       </c>
       <c r="W42" s="24">
-        <f>D42/(12*K42)</f>
+        <f t="shared" si="11"/>
         <v>10.871212121212121</v>
       </c>
       <c r="X42" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.25605400465454009</v>
       </c>
       <c r="Z42" s="24" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:26" s="21" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" s="21" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>166</v>
       </c>
@@ -4866,7 +4874,7 @@
         <v>1650</v>
       </c>
       <c r="M43" s="21">
-        <f>K43-F43</f>
+        <f t="shared" si="8"/>
         <v>423</v>
       </c>
       <c r="O43" s="21" t="s">
@@ -4876,34 +4884,34 @@
         <v>3000</v>
       </c>
       <c r="S43" s="21">
-        <f>100*(12*K43-Q43)/D43</f>
+        <f t="shared" si="9"/>
         <v>8.8803552142085689</v>
       </c>
       <c r="T43" s="21">
-        <f>D43*E43+H43</f>
+        <f t="shared" si="12"/>
         <v>50000.578099999999</v>
       </c>
       <c r="U43" s="21">
-        <f>G43*(D43-D43*E43)</f>
+        <f t="shared" si="10"/>
         <v>7579.6968000000006</v>
       </c>
       <c r="V43" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14620.303199999998</v>
       </c>
       <c r="W43" s="21">
-        <f>D43/(12*K43)</f>
+        <f t="shared" si="11"/>
         <v>9.920238095238096</v>
       </c>
       <c r="X43" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.29240268324017638</v>
       </c>
       <c r="Z43" s="21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="8" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>169</v>
       </c>
@@ -4936,7 +4944,7 @@
         <v>2200</v>
       </c>
       <c r="M44" s="8">
-        <f>K44-F44</f>
+        <f t="shared" si="8"/>
         <v>94</v>
       </c>
       <c r="O44" s="8" t="s">
@@ -4946,34 +4954,34 @@
         <v>3000</v>
       </c>
       <c r="S44" s="8">
-        <f>100*(12*K44-Q44)/D44</f>
+        <f t="shared" si="9"/>
         <v>6.9347305531188503</v>
       </c>
       <c r="T44" s="8">
-        <f>D44*E44+H44</f>
+        <f t="shared" si="12"/>
         <v>70486.400000000009</v>
       </c>
       <c r="U44" s="8">
-        <f>G44*(D44-D44*E44)</f>
+        <f t="shared" si="10"/>
         <v>10230.938239999999</v>
       </c>
       <c r="V44" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13169.061760000001</v>
       </c>
       <c r="W44" s="8">
-        <f>D44/(12*K44)</f>
+        <f t="shared" si="11"/>
         <v>12.781515151515151</v>
       </c>
       <c r="X44" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.18683124347391836</v>
       </c>
       <c r="Z44" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>173</v>
       </c>
@@ -5009,7 +5017,7 @@
         <v>1895</v>
       </c>
       <c r="M45" s="11">
-        <f>K45-F45</f>
+        <f t="shared" si="8"/>
         <v>321</v>
       </c>
       <c r="O45" s="11" t="s">
@@ -5019,31 +5027,31 @@
         <v>3000</v>
       </c>
       <c r="S45" s="11">
-        <f>100*(12*K45-Q45)/D45</f>
+        <f t="shared" si="9"/>
         <v>7.0909520663761603</v>
       </c>
       <c r="T45" s="11">
-        <f>D45*E45+H45</f>
+        <f t="shared" si="12"/>
         <v>68999.600000000006</v>
       </c>
       <c r="U45" s="11">
-        <f>G45*(D45-D45*E45)</f>
+        <f t="shared" si="10"/>
         <v>10005.539360000002</v>
       </c>
       <c r="V45" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13394.460639999998</v>
       </c>
       <c r="W45" s="11">
-        <f>D45/(12*K45)</f>
+        <f t="shared" si="11"/>
         <v>12.499924242424242</v>
       </c>
       <c r="X45" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1941237433260482</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="18" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" s="18" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>177</v>
       </c>
@@ -5073,7 +5081,7 @@
         <v>777</v>
       </c>
       <c r="M46" s="18">
-        <f>K46-F46</f>
+        <f t="shared" si="8"/>
         <v>-2076</v>
       </c>
       <c r="O46" s="18" t="s">
@@ -5083,34 +5091,34 @@
         <v>3000</v>
       </c>
       <c r="S46" s="18">
-        <f>100*(12*K46-Q46)/D46</f>
+        <f t="shared" si="9"/>
         <v>-0.8401761009107509</v>
       </c>
       <c r="T46" s="18">
-        <f>D46*E46+H46</f>
+        <f t="shared" si="12"/>
         <v>74413.600000000006</v>
       </c>
       <c r="U46" s="18">
-        <f>G46*(D46-D46*E46)</f>
+        <f t="shared" si="10"/>
         <v>10826.301760000002</v>
       </c>
       <c r="V46" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-13826.301760000002</v>
       </c>
       <c r="W46" s="18" t="e">
-        <f>D46/(12*K46)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X46" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.1858034251803434</v>
       </c>
       <c r="Z46" s="18" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>180</v>
       </c>
@@ -5146,7 +5154,7 @@
         <v>1650</v>
       </c>
       <c r="M47">
-        <f>K47-F47</f>
+        <f t="shared" si="8"/>
         <v>401</v>
       </c>
       <c r="O47" t="s">
@@ -5156,34 +5164,34 @@
         <v>3000</v>
       </c>
       <c r="S47">
-        <f>100*(12*K47-Q47)/D47</f>
+        <f t="shared" si="9"/>
         <v>7.9809297783191742</v>
       </c>
       <c r="T47">
-        <f>D47*E47+H47</f>
+        <f t="shared" si="12"/>
         <v>60136.200000000004</v>
       </c>
       <c r="U47">
-        <f>G47*(D47-D47*E47)</f>
+        <f t="shared" si="10"/>
         <v>8661.8479200000002</v>
       </c>
       <c r="V47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14138.15208</v>
       </c>
       <c r="W47">
-        <f>D47/(12*K47)</f>
+        <f t="shared" si="11"/>
         <v>11.072906976744186</v>
       </c>
       <c r="X47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.23510218603769442</v>
       </c>
       <c r="Z47" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="24" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" s="24" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>185</v>
       </c>
@@ -5219,7 +5227,7 @@
         <v>1950</v>
       </c>
       <c r="M48" s="24">
-        <f>K48-F48</f>
+        <f t="shared" si="8"/>
         <v>-272</v>
       </c>
       <c r="O48" s="24" t="s">
@@ -5229,34 +5237,34 @@
         <v>3000</v>
       </c>
       <c r="S48" s="24">
-        <f>100*(12*K48-Q48)/D48</f>
+        <f t="shared" si="9"/>
         <v>6.7200179200477868</v>
       </c>
       <c r="T48" s="24">
-        <f>D48*E48+H48</f>
+        <f t="shared" si="12"/>
         <v>75002.362000000008</v>
       </c>
       <c r="U48" s="24">
-        <f>G48*(D48-D48*E48)</f>
+        <f t="shared" si="10"/>
         <v>11369.969680000002</v>
       </c>
       <c r="V48" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13830.030319999998</v>
       </c>
       <c r="W48" s="24">
-        <f>D48/(12*K48)</f>
+        <f t="shared" si="11"/>
         <v>13.297836879432625</v>
       </c>
       <c r="X48" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.18439459706615635</v>
       </c>
       <c r="Z48" s="24" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>187</v>
       </c>
@@ -5292,7 +5300,7 @@
         <v>2000</v>
       </c>
       <c r="M49" s="11">
-        <f>K49-F49</f>
+        <f t="shared" si="8"/>
         <v>322</v>
       </c>
       <c r="O49" s="11" t="s">
@@ -5302,34 +5310,34 @@
         <v>3000</v>
       </c>
       <c r="S49" s="11">
-        <f>100*(12*K49-Q49)/D49</f>
+        <f t="shared" si="9"/>
         <v>7.0919836338839222</v>
       </c>
       <c r="T49" s="11">
-        <f>D49*E49+H49</f>
+        <f t="shared" si="12"/>
         <v>68990</v>
       </c>
       <c r="U49" s="11">
-        <f>G49*(D49-D49*E49)</f>
+        <f t="shared" si="10"/>
         <v>10004.084000000001</v>
       </c>
       <c r="V49" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13395.915999999999</v>
       </c>
       <c r="W49" s="11">
-        <f>D49/(12*K49)</f>
+        <f t="shared" si="11"/>
         <v>12.498106060606061</v>
       </c>
       <c r="X49" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.19417185099289752</v>
       </c>
       <c r="Z49" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="18" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" s="18" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>192</v>
       </c>
@@ -5362,7 +5370,7 @@
         <v>2250</v>
       </c>
       <c r="M50" s="18">
-        <f>K50-F50</f>
+        <f t="shared" si="8"/>
         <v>639</v>
       </c>
       <c r="O50" s="18" t="s">
@@ -5372,34 +5380,34 @@
         <v>3000</v>
       </c>
       <c r="S50" s="18">
-        <f>100*(12*K50-Q50)/D50</f>
+        <f t="shared" si="9"/>
         <v>8.7980087173603039</v>
       </c>
       <c r="T50" s="18">
-        <f>D50*E50+H50</f>
+        <f t="shared" si="12"/>
         <v>57557.8</v>
       </c>
       <c r="U50" s="18">
-        <f>G50*(D50-D50*E50)</f>
+        <f t="shared" si="10"/>
         <v>8270.962480000002</v>
       </c>
       <c r="V50" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15729.037519999998</v>
       </c>
       <c r="W50" s="18">
-        <f>D50/(12*K50)</f>
+        <f t="shared" si="11"/>
         <v>10.103296296296296</v>
       </c>
       <c r="X50" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.27327377905340366</v>
       </c>
       <c r="Z50" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="8" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>196</v>
       </c>
@@ -5432,7 +5440,7 @@
         <v>1650</v>
       </c>
       <c r="M51" s="8">
-        <f>K51-F51</f>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="O51" s="8" t="s">
@@ -5442,34 +5450,34 @@
         <v>3000</v>
       </c>
       <c r="S51" s="8">
-        <f>100*(12*K51-Q51)/D51</f>
+        <f t="shared" si="9"/>
         <v>7.6398362892223739</v>
       </c>
       <c r="T51" s="8">
-        <f>D51*E51+H51</f>
+        <f t="shared" si="12"/>
         <v>46980</v>
       </c>
       <c r="U51" s="8">
-        <f>G51*(D51-D51*E51)</f>
+        <f t="shared" si="10"/>
         <v>6667.3680000000004</v>
       </c>
       <c r="V51" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10132.632</v>
       </c>
       <c r="W51" s="8">
-        <f>D51/(12*K51)</f>
+        <f t="shared" si="11"/>
         <v>11.106060606060606</v>
       </c>
       <c r="X51" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.21567969348659002</v>
       </c>
       <c r="Z51" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>199</v>
       </c>
@@ -5502,7 +5510,7 @@
         <v>1650</v>
       </c>
       <c r="M52" s="11">
-        <f>K52-F52</f>
+        <f t="shared" si="8"/>
         <v>323</v>
       </c>
       <c r="O52" s="11" t="s">
@@ -5512,34 +5520,34 @@
         <v>3000</v>
       </c>
       <c r="S52" s="11">
-        <f>100*(12*K52-Q52)/D52</f>
+        <f t="shared" si="9"/>
         <v>7.7781378767535534</v>
       </c>
       <c r="T52" s="11">
-        <f>D52*E52+H52</f>
+        <f t="shared" si="12"/>
         <v>46198</v>
       </c>
       <c r="U52" s="11">
-        <f>G52*(D52-D52*E52)</f>
+        <f t="shared" si="10"/>
         <v>6548.8168000000005</v>
       </c>
       <c r="V52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10251.183199999999</v>
       </c>
       <c r="W52" s="11">
-        <f>D52/(12*K52)</f>
+        <f t="shared" si="11"/>
         <v>10.908585858585859</v>
       </c>
       <c r="X52" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.22189668816831895</v>
       </c>
       <c r="Z52" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>202</v>
       </c>
@@ -5572,7 +5580,7 @@
         <v>1650</v>
       </c>
       <c r="M53" s="11">
-        <f>K53-F53</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="O53" s="11" t="s">
@@ -5582,34 +5590,34 @@
         <v>3000</v>
       </c>
       <c r="S53" s="11">
-        <f>100*(12*K53-Q53)/D53</f>
+        <f t="shared" si="9"/>
         <v>7.1519795657726695</v>
       </c>
       <c r="T53" s="11">
-        <f>D53*E53+H53</f>
+        <f t="shared" si="12"/>
         <v>49980</v>
       </c>
       <c r="U53" s="11">
-        <f>G53*(D53-D53*E53)</f>
+        <f t="shared" si="10"/>
         <v>7122.1680000000006</v>
       </c>
       <c r="V53" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9677.8319999999985</v>
       </c>
       <c r="W53" s="11">
-        <f>D53/(12*K53)</f>
+        <f t="shared" si="11"/>
         <v>11.863636363636363</v>
       </c>
       <c r="X53" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.19363409363745496</v>
       </c>
       <c r="Z53" s="11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>205</v>
       </c>
@@ -5642,7 +5650,7 @@
         <v>1700</v>
       </c>
       <c r="M54" s="11">
-        <f>K54-F54</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="O54" s="11" t="s">
@@ -5652,31 +5660,31 @@
         <v>3000</v>
       </c>
       <c r="S54" s="11">
-        <f>100*(12*K54-Q54)/D54</f>
+        <f t="shared" si="9"/>
         <v>7.1340713407134073</v>
       </c>
       <c r="T54" s="11">
-        <f>D54*E54+H54</f>
+        <f t="shared" si="12"/>
         <v>51780</v>
       </c>
       <c r="U54" s="11">
-        <f>G54*(D54-D54*E54)</f>
+        <f t="shared" si="10"/>
         <v>7395.0480000000007</v>
       </c>
       <c r="V54" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10004.951999999999</v>
       </c>
       <c r="W54" s="11">
-        <f>D54/(12*K54)</f>
+        <f t="shared" si="11"/>
         <v>11.955882352941176</v>
       </c>
       <c r="X54" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.19322039397450752</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>207</v>
       </c>
@@ -5709,7 +5717,7 @@
         <v>1850</v>
       </c>
       <c r="M55" s="11">
-        <f>K55-F55</f>
+        <f t="shared" si="8"/>
         <v>243</v>
       </c>
       <c r="O55" s="11" t="s">
@@ -5719,34 +5727,34 @@
         <v>3000</v>
       </c>
       <c r="S55" s="11">
-        <f>100*(12*K55-Q55)/D55</f>
+        <f t="shared" si="9"/>
         <v>8.3569096844396089</v>
       </c>
       <c r="T55" s="11">
-        <f>D55*E55+H55</f>
+        <f t="shared" si="12"/>
         <v>48950</v>
       </c>
       <c r="U55" s="11">
-        <f>G55*(D55-D55*E55)</f>
+        <f t="shared" si="10"/>
         <v>6966.02</v>
       </c>
       <c r="V55" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12233.98</v>
       </c>
       <c r="W55" s="11">
-        <f>D55/(12*K55)</f>
+        <f t="shared" si="11"/>
         <v>10.349099099099099</v>
       </c>
       <c r="X55" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.24992808988764045</v>
       </c>
       <c r="Z55" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>210</v>
       </c>
@@ -5779,7 +5787,7 @@
         <v>2200</v>
       </c>
       <c r="M56">
-        <f>K56-F56</f>
+        <f t="shared" si="8"/>
         <v>-592</v>
       </c>
       <c r="O56" t="s">
@@ -5789,34 +5797,34 @@
         <v>3000</v>
       </c>
       <c r="S56">
-        <f>100*(12*K56-Q56)/D56</f>
+        <f t="shared" si="9"/>
         <v>6.1741424802110814</v>
       </c>
       <c r="T56">
-        <f>D56*E56+H56</f>
+        <f t="shared" si="12"/>
         <v>78800</v>
       </c>
       <c r="U56">
-        <f>G56*(D56-D56*E56)</f>
+        <f t="shared" si="10"/>
         <v>11491.28</v>
       </c>
       <c r="V56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11908.72</v>
       </c>
       <c r="W56">
-        <f>D56/(12*K56)</f>
+        <f t="shared" si="11"/>
         <v>14.356060606060606</v>
       </c>
       <c r="X56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.15112588832487309</v>
       </c>
       <c r="Z56" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="24" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" s="24" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>212</v>
       </c>
@@ -5849,7 +5857,7 @@
         <v>2200</v>
       </c>
       <c r="M57" s="24">
-        <f>K57-F57</f>
+        <f t="shared" si="8"/>
         <v>358</v>
       </c>
       <c r="O57" s="24" t="s">
@@ -5859,34 +5867,34 @@
         <v>3000</v>
       </c>
       <c r="S57" s="24">
-        <f>100*(12*K57-Q57)/D57</f>
+        <f t="shared" si="9"/>
         <v>8.8636363636363633</v>
       </c>
       <c r="T57" s="24">
-        <f>D57*E57+H57</f>
+        <f t="shared" si="12"/>
         <v>52802.561999999998</v>
       </c>
       <c r="U57" s="24">
-        <f>G57*(D57-D57*E57)</f>
+        <f t="shared" si="10"/>
         <v>8004.4800000000005</v>
       </c>
       <c r="V57" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15395.52</v>
       </c>
       <c r="W57" s="24">
-        <f>D57/(12*K57)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="X57" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.29156767052325988</v>
       </c>
       <c r="Z57" s="24" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="8" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>237</v>
       </c>
@@ -5919,7 +5927,7 @@
         <v>1550</v>
       </c>
       <c r="M58" s="8">
-        <f>K58-F58</f>
+        <f t="shared" si="8"/>
         <v>103</v>
       </c>
       <c r="O58" s="16" t="s">
@@ -5929,34 +5937,34 @@
         <v>3000</v>
       </c>
       <c r="S58" s="8">
-        <f>100*(12*K58-Q58)/D58</f>
+        <f t="shared" si="9"/>
         <v>7.139588100686499</v>
       </c>
       <c r="T58" s="8">
-        <f>D58*E58+H58</f>
+        <f t="shared" si="12"/>
         <v>46700</v>
       </c>
       <c r="U58" s="8">
-        <f>G58*(D58-D58*E58)</f>
+        <f t="shared" si="10"/>
         <v>6624.920000000001</v>
       </c>
       <c r="V58" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8975.0799999999981</v>
       </c>
       <c r="W58" s="8">
-        <f>D58/(12*K58)</f>
+        <f t="shared" si="11"/>
         <v>11.74731182795699</v>
       </c>
       <c r="X58" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.19218586723768732</v>
       </c>
       <c r="Z58" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="8" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>241</v>
       </c>
@@ -5989,7 +5997,7 @@
         <v>2050</v>
       </c>
       <c r="M59" s="8">
-        <f>K59-F59</f>
+        <f t="shared" si="8"/>
         <v>360</v>
       </c>
       <c r="O59" s="8" t="s">
@@ -5999,34 +6007,34 @@
         <v>3000</v>
       </c>
       <c r="S59" s="8">
-        <f>100*(12*K59-Q59)/D59</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="T59" s="8">
-        <f>D59*E59+H59</f>
+        <f t="shared" si="12"/>
         <v>57000</v>
       </c>
       <c r="U59" s="8">
-        <f>G59*(D59-D59*E59)</f>
+        <f t="shared" si="10"/>
         <v>8186.4000000000005</v>
       </c>
       <c r="V59" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13413.599999999999</v>
       </c>
       <c r="W59" s="8">
-        <f>D59/(12*K59)</f>
+        <f t="shared" si="11"/>
         <v>10.975609756097562</v>
       </c>
       <c r="X59" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.23532631578947366</v>
       </c>
       <c r="Z59" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="8" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>245</v>
       </c>
@@ -6059,7 +6067,7 @@
         <v>2100</v>
       </c>
       <c r="M60" s="8">
-        <f>K60-F60</f>
+        <f t="shared" si="8"/>
         <v>321</v>
       </c>
       <c r="O60" s="8" t="s">
@@ -6069,31 +6077,31 @@
         <v>3000</v>
       </c>
       <c r="S60" s="8">
-        <f>100*(12*K60-Q60)/D60</f>
+        <f t="shared" si="9"/>
         <v>7.931404072883173</v>
       </c>
       <c r="T60" s="8">
-        <f>D60*E60+H60</f>
+        <f t="shared" si="12"/>
         <v>58980</v>
       </c>
       <c r="U60" s="8">
-        <f>G60*(D60-D60*E60)</f>
+        <f t="shared" si="10"/>
         <v>8486.5680000000011</v>
       </c>
       <c r="V60" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13713.431999999999</v>
       </c>
       <c r="W60" s="8">
-        <f>D60/(12*K60)</f>
+        <f t="shared" si="11"/>
         <v>11.107142857142858</v>
       </c>
       <c r="X60" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.23250986775178026</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="18" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" s="18" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>247</v>
       </c>
@@ -6126,7 +6134,7 @@
         <v>2150</v>
       </c>
       <c r="M61" s="18">
-        <f>K61-F61</f>
+        <f t="shared" si="8"/>
         <v>113</v>
       </c>
       <c r="O61" s="18" t="s">
@@ -6136,31 +6144,31 @@
         <v>3000</v>
       </c>
       <c r="S61" s="18">
-        <f>100*(12*K61-Q61)/D61</f>
+        <f t="shared" si="9"/>
         <v>7.1475594846233426</v>
       </c>
       <c r="T61" s="18">
-        <f>D61*E61+H61</f>
+        <f t="shared" si="12"/>
         <v>66798</v>
       </c>
       <c r="U61" s="18">
-        <f>G61*(D61-D61*E61)</f>
+        <f t="shared" si="10"/>
         <v>9671.7768000000015</v>
       </c>
       <c r="V61" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13128.223199999999</v>
       </c>
       <c r="W61" s="18">
-        <f>D61/(12*K61)</f>
+        <f t="shared" si="11"/>
         <v>12.363953488372093</v>
       </c>
       <c r="X61" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1965361717416689</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="8" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>249</v>
       </c>
@@ -6193,7 +6201,7 @@
         <v>2200</v>
       </c>
       <c r="M62" s="8">
-        <f>K62-F62</f>
+        <f t="shared" si="8"/>
         <v>179</v>
       </c>
       <c r="O62" s="8" t="s">
@@ -6203,31 +6211,31 @@
         <v>3000</v>
       </c>
       <c r="S62" s="8">
-        <f>100*(12*K62-Q62)/D62</f>
+        <f t="shared" si="9"/>
         <v>6.6876250357244924</v>
       </c>
       <c r="T62" s="8">
-        <f>D62*E62+H62</f>
+        <f t="shared" si="12"/>
         <v>72980</v>
       </c>
       <c r="U62" s="8">
-        <f>G62*(D62-D62*E62)</f>
+        <f t="shared" si="10"/>
         <v>10608.968000000001</v>
       </c>
       <c r="V62" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12791.031999999999</v>
       </c>
       <c r="W62" s="8">
-        <f>D62/(12*K62)</f>
+        <f t="shared" si="11"/>
         <v>13.253787878787879</v>
       </c>
       <c r="X62" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.17526763496848449</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="8" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" s="8" customFormat="1" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>252</v>
       </c>
@@ -6260,7 +6268,7 @@
         <v>1650</v>
       </c>
       <c r="M63" s="8">
-        <f>K63-F63</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="O63" s="8" t="s">
@@ -6270,34 +6278,34 @@
         <v>3000</v>
       </c>
       <c r="S63" s="8">
-        <f>100*(12*K63-Q63)/D63</f>
+        <f t="shared" si="9"/>
         <v>6.2245276028158578</v>
       </c>
       <c r="T63" s="8">
-        <f>D63*E63+H63</f>
+        <f t="shared" si="12"/>
         <v>56980</v>
       </c>
       <c r="U63" s="8">
-        <f>G63*(D63-D63*E63)</f>
+        <f t="shared" si="10"/>
         <v>8183.3680000000004</v>
       </c>
       <c r="V63" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8616.6319999999996</v>
       </c>
       <c r="W63" s="8">
-        <f>D63/(12*K63)</f>
+        <f t="shared" si="11"/>
         <v>13.631313131313131</v>
       </c>
       <c r="X63" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.15122204282204282</v>
       </c>
       <c r="Z63" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="8" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" s="8" customFormat="1" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>254</v>
       </c>
@@ -6330,7 +6338,7 @@
         <v>1700</v>
       </c>
       <c r="M64" s="8">
-        <f>K64-F64</f>
+        <f t="shared" si="8"/>
         <v>-25</v>
       </c>
       <c r="O64" s="8" t="s">
@@ -6340,31 +6348,31 @@
         <v>3000</v>
       </c>
       <c r="S64" s="8">
-        <f>100*(12*K64-Q64)/D64</f>
+        <f t="shared" si="9"/>
         <v>6.3295743906875224</v>
       </c>
       <c r="T64" s="8">
-        <f>D64*E64+H64</f>
+        <f t="shared" si="12"/>
         <v>57980</v>
       </c>
       <c r="U64" s="8">
-        <f>G64*(D64-D64*E64)</f>
+        <f t="shared" si="10"/>
         <v>8334.9680000000008</v>
       </c>
       <c r="V64" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9065.0319999999992</v>
       </c>
       <c r="W64" s="8">
-        <f>D64/(12*K64)</f>
+        <f t="shared" si="11"/>
         <v>13.475490196078431</v>
       </c>
       <c r="X64" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.15634756812694031</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="8" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>257</v>
       </c>
@@ -6397,7 +6405,7 @@
         <v>1700</v>
       </c>
       <c r="M65" s="8">
-        <f>K65-F65</f>
+        <f t="shared" si="8"/>
         <v>-40</v>
       </c>
       <c r="O65" s="8" t="s">
@@ -6407,34 +6415,34 @@
         <v>3000</v>
       </c>
       <c r="S65" s="8">
-        <f>100*(12*K65-Q65)/D65</f>
+        <f t="shared" si="9"/>
         <v>6.5791214982247714</v>
       </c>
       <c r="T65" s="8">
-        <f>D65*E65+H65</f>
+        <f t="shared" si="12"/>
         <v>55894.600000000006</v>
       </c>
       <c r="U65" s="8">
-        <f>G65*(D65-D65*E65)</f>
+        <f t="shared" si="10"/>
         <v>8018.8213600000008</v>
       </c>
       <c r="V65" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9381.1786399999983</v>
       </c>
       <c r="W65" s="8">
-        <f>D65/(12*K65)</f>
+        <f t="shared" si="11"/>
         <v>12.96436274509804</v>
       </c>
       <c r="X65" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.16783694024109658</v>
       </c>
       <c r="Z65" s="8" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="24" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" s="24" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>259</v>
       </c>
@@ -6457,7 +6465,7 @@
         <v>2.4521000000000002</v>
       </c>
       <c r="I66" s="11">
-        <f t="shared" ref="I66:I87" si="3">D66*H66/100</f>
+        <f t="shared" ref="I66:I87" si="13">D66*H66/100</f>
         <v>7673.846950000001</v>
       </c>
       <c r="J66" s="24" t="s">
@@ -6467,7 +6475,7 @@
         <v>2050</v>
       </c>
       <c r="M66" s="24">
-        <f>K66-F66</f>
+        <f t="shared" ref="M66:M85" si="14">K66-F66</f>
         <v>-80</v>
       </c>
       <c r="O66" s="24" t="s">
@@ -6477,34 +6485,34 @@
         <v>3000</v>
       </c>
       <c r="S66" s="24">
-        <f>100*(12*K66-Q66)/D66</f>
+        <f t="shared" si="9"/>
         <v>6.9020610321137559</v>
       </c>
       <c r="T66" s="24">
-        <f>D66*E66+H66</f>
+        <f t="shared" si="12"/>
         <v>62592.452100000002</v>
       </c>
       <c r="U66" s="24">
-        <f>G66*(D66-D66*E66)</f>
+        <f t="shared" si="10"/>
         <v>9488.6440000000002</v>
       </c>
       <c r="V66" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12111.356</v>
       </c>
       <c r="W66" s="24">
-        <f>D66/(12*K66)</f>
+        <f t="shared" ref="W66:W85" si="15">D66/(12*K66)</f>
         <v>12.721544715447154</v>
       </c>
       <c r="X66" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.19349547099785214</v>
       </c>
       <c r="Z66" s="24" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="8" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" s="8" customFormat="1" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>264</v>
       </c>
@@ -6527,7 +6535,7 @@
         <v>3000</v>
       </c>
       <c r="I67" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>7500000</v>
       </c>
       <c r="J67" s="8">
@@ -6537,7 +6545,7 @@
         <v>1900</v>
       </c>
       <c r="M67" s="8">
-        <f>K67-F67</f>
+        <f t="shared" si="14"/>
         <v>470</v>
       </c>
       <c r="O67" s="8" t="s">
@@ -6547,34 +6555,34 @@
         <v>3000</v>
       </c>
       <c r="S67" s="8">
-        <f>100*(12*K67-Q67)/D67</f>
+        <f t="shared" si="9"/>
         <v>7.92</v>
       </c>
       <c r="T67" s="8">
-        <f>D67*E67+H67</f>
+        <f t="shared" si="12"/>
         <v>53000</v>
       </c>
       <c r="U67" s="8">
-        <f>G67*(D67-D67*E67)</f>
+        <f t="shared" si="10"/>
         <v>7580.0000000000009</v>
       </c>
       <c r="V67" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12220</v>
       </c>
       <c r="W67" s="8">
-        <f>D67/(12*K67)</f>
+        <f t="shared" si="15"/>
         <v>10.964912280701755</v>
       </c>
       <c r="X67" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.23056603773584905</v>
       </c>
       <c r="Z67" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="24" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" s="24" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A68" s="24" t="s">
         <v>290</v>
       </c>
@@ -6591,76 +6599,99 @@
         <v>2.4699</v>
       </c>
       <c r="I68" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>7409.4530100000002</v>
       </c>
       <c r="K68" s="24">
         <v>2000</v>
       </c>
       <c r="M68" s="24">
-        <f>K68-F68</f>
+        <f t="shared" si="14"/>
         <v>-61</v>
       </c>
       <c r="O68" s="24" t="s">
         <v>292</v>
       </c>
       <c r="W68" s="24">
-        <f>D68/(12*K68)</f>
+        <f t="shared" si="15"/>
         <v>12.499583333333334</v>
       </c>
       <c r="X68" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D69" s="1"/>
-      <c r="E69">
-        <v>0.2</v>
-      </c>
-      <c r="G69">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H69">
-        <v>3000</v>
-      </c>
-      <c r="I69" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <f>K69-F69</f>
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>3000</v>
-      </c>
-      <c r="S69" t="e">
-        <f>100*(12*K69-Q69)/D69</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T69">
-        <f>D69*E69+H69</f>
-        <v>3000</v>
-      </c>
-      <c r="U69">
-        <f>G69*(D69-D69*E69)</f>
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <f t="shared" si="1"/>
-        <v>-3000</v>
-      </c>
-      <c r="W69" t="e">
-        <f>D69/(12*K69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X69">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" s="25">
+        <v>235000</v>
+      </c>
+      <c r="E69" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="F69" s="25">
+        <v>1647</v>
+      </c>
+      <c r="G69" s="24">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H69" s="24">
+        <v>3000</v>
+      </c>
+      <c r="I69" s="24">
+        <f t="shared" si="13"/>
+        <v>7050000</v>
+      </c>
+      <c r="J69" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="K69" s="24">
+        <v>2200</v>
+      </c>
+      <c r="M69" s="24">
+        <f t="shared" si="14"/>
+        <v>553</v>
+      </c>
+      <c r="O69" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q69" s="24">
+        <v>3000</v>
+      </c>
+      <c r="S69" s="24">
+        <f t="shared" ref="S69:S85" si="16">100*(12*K69-Q69)/D69</f>
+        <v>9.9574468085106389</v>
+      </c>
+      <c r="T69" s="24">
+        <f t="shared" ref="T69:T85" si="17">D69*E69+H69</f>
+        <v>50000</v>
+      </c>
+      <c r="U69" s="24">
+        <f t="shared" ref="U69:U85" si="18">G69*(D69-D69*E69)</f>
+        <v>7125.2000000000007</v>
+      </c>
+      <c r="V69" s="24">
+        <f t="shared" si="4"/>
+        <v>16274.8</v>
+      </c>
+      <c r="W69" s="24">
+        <f t="shared" si="15"/>
+        <v>8.9015151515151523</v>
+      </c>
+      <c r="X69" s="24">
+        <f t="shared" si="6"/>
+        <v>0.32549600000000001</v>
+      </c>
+      <c r="Z69" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
       <c r="E70">
         <v>0.2</v>
@@ -6672,42 +6703,42 @@
         <v>3000</v>
       </c>
       <c r="I70" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M70">
-        <f>K70-F70</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q70">
         <v>3000</v>
       </c>
       <c r="S70" t="e">
-        <f>100*(12*K70-Q70)/D70</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T70">
-        <f>D70*E70+H70</f>
+        <f t="shared" si="17"/>
         <v>3000</v>
       </c>
       <c r="U70">
-        <f>G70*(D70-D70*E70)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W70" t="e">
-        <f>D70/(12*K70)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
       <c r="E71">
         <v>0.2</v>
@@ -6719,42 +6750,42 @@
         <v>3000</v>
       </c>
       <c r="I71" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M71">
-        <f>K71-F71</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q71">
         <v>3000</v>
       </c>
       <c r="S71" t="e">
-        <f>100*(12*K71-Q71)/D71</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T71">
-        <f>D71*E71+H71</f>
+        <f t="shared" si="17"/>
         <v>3000</v>
       </c>
       <c r="U71">
-        <f>G71*(D71-D71*E71)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W71" t="e">
-        <f>D71/(12*K71)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E72">
         <v>0.2</v>
       </c>
@@ -6765,42 +6796,42 @@
         <v>3000</v>
       </c>
       <c r="I72" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M72">
-        <f>K72-F72</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q72">
         <v>3000</v>
       </c>
       <c r="S72" t="e">
-        <f>100*(12*K72-Q72)/D72</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T72">
-        <f>D72*E72+H72</f>
+        <f t="shared" si="17"/>
         <v>3000</v>
       </c>
       <c r="U72">
-        <f>G72*(D72-D72*E72)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W72" t="e">
-        <f>D72/(12*K72)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E73">
         <v>0.2</v>
       </c>
@@ -6811,42 +6842,42 @@
         <v>3000</v>
       </c>
       <c r="I73" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M73">
-        <f>K73-F73</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q73">
         <v>3000</v>
       </c>
       <c r="S73" t="e">
-        <f>100*(12*K73-Q73)/D73</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T73">
-        <f>D73*E73+H73</f>
+        <f t="shared" si="17"/>
         <v>3000</v>
       </c>
       <c r="U73">
-        <f>G73*(D73-D73*E73)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W73" t="e">
-        <f>D73/(12*K73)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>215</v>
       </c>
@@ -6860,42 +6891,42 @@
         <v>3000</v>
       </c>
       <c r="I74" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M74">
-        <f>K74-F74</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q74">
         <v>3000</v>
       </c>
       <c r="S74" t="e">
-        <f>100*(12*K74-Q74)/D74</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T74">
-        <f>D74*E74+H74</f>
+        <f t="shared" si="17"/>
         <v>3000</v>
       </c>
       <c r="U74">
-        <f>G74*(D74-D74*E74)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W74" t="e">
-        <f>D74/(12*K74)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>216</v>
       </c>
@@ -6918,7 +6949,7 @@
         <v>3000</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2505000</v>
       </c>
       <c r="J75" s="11">
@@ -6928,7 +6959,7 @@
         <v>1000</v>
       </c>
       <c r="M75" s="11">
-        <f>K75-F75</f>
+        <f t="shared" si="14"/>
         <v>239</v>
       </c>
       <c r="O75" s="11" t="s">
@@ -6938,34 +6969,34 @@
         <v>3000</v>
       </c>
       <c r="S75" s="11">
-        <f>100*(12*K75-Q75)/D75</f>
+        <f t="shared" si="16"/>
         <v>10.778443113772456</v>
       </c>
       <c r="T75" s="11">
-        <f>D75*E75+H75</f>
+        <f t="shared" si="17"/>
         <v>19700</v>
       </c>
       <c r="U75" s="11">
-        <f>G75*(D75-D75*E75)</f>
+        <f t="shared" si="18"/>
         <v>2531.7200000000003</v>
       </c>
       <c r="V75" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6468.28</v>
       </c>
       <c r="W75" s="11">
-        <f>D75/(12*K75)</f>
+        <f t="shared" si="15"/>
         <v>6.958333333333333</v>
       </c>
       <c r="X75" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.32833908629441622</v>
       </c>
       <c r="Z75" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>219</v>
       </c>
@@ -6988,7 +7019,7 @@
         <v>3000</v>
       </c>
       <c r="I76" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>3750000</v>
       </c>
       <c r="J76">
@@ -6998,7 +7029,7 @@
         <v>1000</v>
       </c>
       <c r="M76">
-        <f>K76-F76</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="O76" t="s">
@@ -7008,34 +7039,34 @@
         <v>3000</v>
       </c>
       <c r="S76">
-        <f>100*(12*K76-Q76)/D76</f>
+        <f t="shared" si="16"/>
         <v>7.2</v>
       </c>
       <c r="T76">
-        <f>D76*E76+H76</f>
+        <f t="shared" si="17"/>
         <v>28000</v>
       </c>
       <c r="U76">
-        <f>G76*(D76-D76*E76)</f>
+        <f t="shared" si="18"/>
         <v>3790.0000000000005</v>
       </c>
       <c r="V76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5210</v>
       </c>
       <c r="W76">
-        <f>D76/(12*K76)</f>
+        <f t="shared" si="15"/>
         <v>10.416666666666666</v>
       </c>
       <c r="X76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.18607142857142858</v>
       </c>
       <c r="Z76" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>221</v>
       </c>
@@ -7058,7 +7089,7 @@
         <v>3000</v>
       </c>
       <c r="I77" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2850000</v>
       </c>
       <c r="J77">
@@ -7068,7 +7099,7 @@
         <v>1200</v>
       </c>
       <c r="M77">
-        <f>K77-F77</f>
+        <f t="shared" si="14"/>
         <v>328</v>
       </c>
       <c r="O77" t="s">
@@ -7078,34 +7109,34 @@
         <v>3000</v>
       </c>
       <c r="S77">
-        <f>100*(12*K77-Q77)/D77</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="T77">
-        <f>D77*E77+H77</f>
+        <f t="shared" si="17"/>
         <v>22000</v>
       </c>
       <c r="U77">
-        <f>G77*(D77-D77*E77)</f>
+        <f t="shared" si="18"/>
         <v>2880.4</v>
       </c>
       <c r="V77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8519.6</v>
       </c>
       <c r="W77">
-        <f>D77/(12*K77)</f>
+        <f t="shared" si="15"/>
         <v>6.5972222222222223</v>
       </c>
       <c r="X77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.38725454545454546</v>
       </c>
       <c r="Z77" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="1:26" s="19" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" s="19" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>225</v>
       </c>
@@ -7128,7 +7159,7 @@
         <v>3000</v>
       </c>
       <c r="I78" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>3899970</v>
       </c>
       <c r="J78" s="19">
@@ -7138,7 +7169,7 @@
         <v>950</v>
       </c>
       <c r="M78" s="19">
-        <f>K78-F78</f>
+        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="O78" s="19" t="s">
@@ -7148,34 +7179,34 @@
         <v>3000</v>
       </c>
       <c r="S78" s="19">
-        <f>100*(12*K78-Q78)/D78</f>
+        <f t="shared" si="16"/>
         <v>6.4615881660628158</v>
       </c>
       <c r="T78" s="19">
-        <f>D78*E78+H78</f>
+        <f t="shared" si="17"/>
         <v>28999.800000000003</v>
       </c>
       <c r="U78" s="19">
-        <f>G78*(D78-D78*E78)</f>
+        <f t="shared" si="18"/>
         <v>3941.5696800000001</v>
       </c>
       <c r="V78" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4458.4303199999995</v>
       </c>
       <c r="W78" s="19">
-        <f>D78/(12*K78)</f>
+        <f t="shared" si="15"/>
         <v>11.403421052631579</v>
       </c>
       <c r="X78" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.15374003682784015</v>
       </c>
       <c r="Z78" s="19" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:26" s="19" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" s="19" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>229</v>
       </c>
@@ -7198,7 +7229,7 @@
         <v>3000</v>
       </c>
       <c r="I79" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>3675000</v>
       </c>
       <c r="J79" s="19" t="s">
@@ -7208,7 +7239,7 @@
         <v>1100</v>
       </c>
       <c r="M79" s="19">
-        <f>K79-F79</f>
+        <f t="shared" si="14"/>
         <v>389</v>
       </c>
       <c r="O79" s="19" t="s">
@@ -7218,34 +7249,34 @@
         <v>3000</v>
       </c>
       <c r="S79" s="19">
-        <f>100*(12*K79-Q79)/D79</f>
+        <f t="shared" si="16"/>
         <v>8.3265306122448983</v>
       </c>
       <c r="T79" s="19">
-        <f>D79*E79+H79</f>
+        <f t="shared" si="17"/>
         <v>27500</v>
       </c>
       <c r="U79" s="19">
-        <f>G79*(D79-D79*E79)</f>
+        <f t="shared" si="18"/>
         <v>3714.2000000000003</v>
       </c>
       <c r="V79" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6485.7999999999993</v>
       </c>
       <c r="W79" s="19">
-        <f>D79/(12*K79)</f>
+        <f t="shared" si="15"/>
         <v>9.2803030303030312</v>
       </c>
       <c r="X79" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.23584727272727271</v>
       </c>
       <c r="Z79" s="19" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>265</v>
       </c>
@@ -7268,11 +7299,11 @@
         <v>3000</v>
       </c>
       <c r="I80" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>3299850</v>
       </c>
       <c r="M80">
-        <f>K80-F80</f>
+        <f t="shared" si="14"/>
         <v>-945</v>
       </c>
       <c r="O80" t="s">
@@ -7282,34 +7313,34 @@
         <v>3000</v>
       </c>
       <c r="S80">
-        <f>100*(12*K80-Q80)/D80</f>
+        <f t="shared" si="16"/>
         <v>-2.7273966998499932</v>
       </c>
       <c r="T80">
-        <f>D80*E80+H80</f>
+        <f t="shared" si="17"/>
         <v>24999</v>
       </c>
       <c r="U80">
-        <f>G80*(D80-D80*E80)</f>
+        <f t="shared" si="18"/>
         <v>3335.0484000000001</v>
       </c>
       <c r="V80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-6335.0483999999997</v>
       </c>
       <c r="W80" t="e">
-        <f>D80/(12*K80)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.25341207248289932</v>
       </c>
       <c r="Z80" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>268</v>
       </c>
@@ -7329,11 +7360,11 @@
         <v>3000</v>
       </c>
       <c r="I81" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>5847000</v>
       </c>
       <c r="M81">
-        <f>K81-F81</f>
+        <f t="shared" si="14"/>
         <v>-1181</v>
       </c>
       <c r="O81" t="s">
@@ -7343,34 +7374,34 @@
         <v>3000</v>
       </c>
       <c r="S81">
-        <f>100*(12*K81-Q81)/D81</f>
+        <f t="shared" si="16"/>
         <v>-1.5392508978963571</v>
       </c>
       <c r="T81">
-        <f>D81*E81+H81</f>
+        <f t="shared" si="17"/>
         <v>41980</v>
       </c>
       <c r="U81">
-        <f>G81*(D81-D81*E81)</f>
+        <f t="shared" si="18"/>
         <v>5909.3680000000004</v>
       </c>
       <c r="V81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-8909.3680000000004</v>
       </c>
       <c r="W81" t="e">
-        <f>D81/(12*K81)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.21222887089090045</v>
       </c>
       <c r="Z81" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>269</v>
       </c>
@@ -7393,7 +7424,7 @@
         <v>3000</v>
       </c>
       <c r="I82" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>5850000</v>
       </c>
       <c r="K82">
@@ -7403,7 +7434,7 @@
         <v>1600</v>
       </c>
       <c r="M82">
-        <f>K82-F82</f>
+        <f t="shared" si="14"/>
         <v>252</v>
       </c>
       <c r="O82" t="s">
@@ -7413,34 +7444,34 @@
         <v>3000</v>
       </c>
       <c r="S82">
-        <f>100*(12*K82-Q82)/D82</f>
+        <f t="shared" si="16"/>
         <v>7.0769230769230766</v>
       </c>
       <c r="T82">
-        <f>D82*E82+H82</f>
+        <f t="shared" si="17"/>
         <v>42000</v>
       </c>
       <c r="U82">
-        <f>G82*(D82-D82*E82)</f>
+        <f t="shared" si="18"/>
         <v>5912.4000000000005</v>
       </c>
       <c r="V82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7887.5999999999995</v>
       </c>
       <c r="W82">
-        <f>D82/(12*K82)</f>
+        <f t="shared" si="15"/>
         <v>11.607142857142858</v>
       </c>
       <c r="X82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.18779999999999999</v>
       </c>
       <c r="Z82" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="83" spans="1:28" s="8" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>272</v>
       </c>
@@ -7463,7 +7494,7 @@
         <v>3000</v>
       </c>
       <c r="I83" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>5999700</v>
       </c>
       <c r="K83" s="8">
@@ -7473,7 +7504,7 @@
         <v>1695</v>
       </c>
       <c r="M83" s="8">
-        <f>K83-F83</f>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="O83" s="8" t="s">
@@ -7483,34 +7514,34 @@
         <v>3000</v>
       </c>
       <c r="S83" s="8">
-        <f>100*(12*K83-Q83)/D83</f>
+        <f t="shared" si="16"/>
         <v>8.1004050202510118</v>
       </c>
       <c r="T83" s="8">
-        <f>D83*E83+H83</f>
+        <f t="shared" si="17"/>
         <v>42998</v>
       </c>
       <c r="U83" s="8">
-        <f>G83*(D83-D83*E83)</f>
+        <f t="shared" si="18"/>
         <v>6063.6968000000006</v>
       </c>
       <c r="V83" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10136.303199999998</v>
       </c>
       <c r="W83" s="8">
-        <f>D83/(12*K83)</f>
+        <f t="shared" si="15"/>
         <v>10.416145833333333</v>
       </c>
       <c r="X83" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.23573894599748821</v>
       </c>
       <c r="Z83" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>275</v>
       </c>
@@ -7533,7 +7564,7 @@
         <v>3000</v>
       </c>
       <c r="I84" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4647000</v>
       </c>
       <c r="K84">
@@ -7543,7 +7574,7 @@
         <v>1300</v>
       </c>
       <c r="M84">
-        <f>K84-F84</f>
+        <f t="shared" si="14"/>
         <v>-15</v>
       </c>
       <c r="O84" t="s">
@@ -7553,34 +7584,34 @@
         <v>3000</v>
       </c>
       <c r="S84">
-        <f>100*(12*K84-Q84)/D84</f>
+        <f t="shared" si="16"/>
         <v>7.3595868302130407</v>
       </c>
       <c r="T84">
-        <f>D84*E84+H84</f>
+        <f t="shared" si="17"/>
         <v>33980</v>
       </c>
       <c r="U84">
-        <f>G84*(D84-D84*E84)</f>
+        <f t="shared" si="18"/>
         <v>4696.5680000000002</v>
       </c>
       <c r="V84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6703.4319999999998</v>
       </c>
       <c r="W84">
-        <f>D84/(12*K84)</f>
+        <f t="shared" si="15"/>
         <v>10.756944444444445</v>
       </c>
       <c r="X84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.19727580929958799</v>
       </c>
       <c r="Z84" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>277</v>
       </c>
@@ -7603,14 +7634,14 @@
         <v>3000</v>
       </c>
       <c r="I85" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>6000000</v>
       </c>
       <c r="L85">
         <v>1950</v>
       </c>
       <c r="M85">
-        <f>K85-F85</f>
+        <f t="shared" si="14"/>
         <v>-1615</v>
       </c>
       <c r="O85" t="s">
@@ -7620,57 +7651,57 @@
         <v>3000</v>
       </c>
       <c r="S85">
-        <f>100*(12*K85-Q85)/D85</f>
+        <f t="shared" si="16"/>
         <v>-1.5</v>
       </c>
       <c r="T85">
-        <f>D85*E85+H85</f>
+        <f t="shared" si="17"/>
         <v>43000</v>
       </c>
       <c r="U85">
-        <f>G85*(D85-D85*E85)</f>
+        <f t="shared" si="18"/>
         <v>6064.0000000000009</v>
       </c>
       <c r="V85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-9064</v>
       </c>
       <c r="W85" t="e">
-        <f>D85/(12*K85)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.2107906976744186</v>
       </c>
       <c r="Z85" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
       <c r="I86" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
       <c r="I87" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" ht="16.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:28" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>279</v>
       </c>
@@ -7693,38 +7724,38 @@
         <v>3000</v>
       </c>
       <c r="M91" s="11">
-        <f>K91-F91</f>
+        <f t="shared" ref="M91:M129" si="19">K91-F91</f>
         <v>-757</v>
       </c>
       <c r="S91" s="11">
-        <f>100*(12*K91-Q91)/D91</f>
+        <f t="shared" ref="S91:S122" si="20">100*(12*K91-Q91)/D91</f>
         <v>0</v>
       </c>
       <c r="T91" s="11">
-        <f>D91*E91+H91</f>
+        <f t="shared" ref="T91:T122" si="21">D91*E91+H91</f>
         <v>18700</v>
       </c>
       <c r="U91" s="11">
-        <f>G91*(D91-D91*E91)</f>
+        <f t="shared" ref="U91:U138" si="22">G91*(D91-D91*E91)</f>
         <v>2380.1200000000003</v>
       </c>
       <c r="V91" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2380.1200000000003</v>
       </c>
       <c r="W91" s="11" t="e">
-        <f>D91/(12*K91)</f>
+        <f t="shared" ref="W91:W138" si="23">D91/(12*K91)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X91" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.12727914438502674</v>
       </c>
       <c r="Z91" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="92" spans="1:28" s="8" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" s="8" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -7746,7 +7777,7 @@
       <c r="K92"/>
       <c r="L92"/>
       <c r="M92">
-        <f>K92-F92</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N92"/>
@@ -7757,27 +7788,27 @@
       </c>
       <c r="R92"/>
       <c r="S92" t="e">
-        <f>100*(12*K92-Q92)/D92</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T92">
-        <f>D92*E92+H92</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U92">
-        <f>G92*(D92-D92*E92)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W92" t="e">
-        <f>D92/(12*K92)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="Y92"/>
@@ -7785,7 +7816,7 @@
       <c r="AA92"/>
       <c r="AB92"/>
     </row>
-    <row r="93" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>62</v>
       </c>
@@ -7814,7 +7845,7 @@
         <v>2250</v>
       </c>
       <c r="M93">
-        <f>K93-F93</f>
+        <f t="shared" si="19"/>
         <v>49</v>
       </c>
       <c r="O93" s="8" t="s">
@@ -7824,32 +7855,32 @@
         <v>3000</v>
       </c>
       <c r="S93" s="8">
-        <f>100*(12*K93-Q93)/D93</f>
+        <f t="shared" si="20"/>
         <v>6.3157894736842106</v>
       </c>
       <c r="T93" s="8">
-        <f>D93*E93+H93</f>
+        <f t="shared" si="21"/>
         <v>79000</v>
       </c>
       <c r="U93" s="8">
-        <f>G93*(D93-D93*E93)</f>
+        <f t="shared" si="22"/>
         <v>11521.6</v>
       </c>
       <c r="V93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12478.4</v>
       </c>
       <c r="W93">
-        <f>D93/(12*K93)</f>
+        <f t="shared" si="23"/>
         <v>14.074074074074074</v>
       </c>
       <c r="X93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.15795443037974682</v>
       </c>
       <c r="Y93"/>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -7878,7 +7909,7 @@
         <v>2750</v>
       </c>
       <c r="M94">
-        <f>K94-F94</f>
+        <f t="shared" si="19"/>
         <v>-550</v>
       </c>
       <c r="O94" t="s">
@@ -7888,31 +7919,31 @@
         <v>3000</v>
       </c>
       <c r="S94">
-        <f>100*(12*K94-Q94)/D94</f>
+        <f t="shared" si="20"/>
         <v>5.4545454545454541</v>
       </c>
       <c r="T94">
-        <f>D94*E94+H94</f>
+        <f t="shared" si="21"/>
         <v>113000</v>
       </c>
       <c r="U94">
-        <f>G94*(D94-D94*E94)</f>
+        <f t="shared" si="22"/>
         <v>16676</v>
       </c>
       <c r="V94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13324</v>
       </c>
       <c r="W94">
-        <f>D94/(12*K94)</f>
+        <f t="shared" si="23"/>
         <v>16.666666666666668</v>
       </c>
       <c r="X94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.11791150442477875</v>
       </c>
     </row>
-    <row r="95" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -7944,7 +7975,7 @@
       </c>
       <c r="L95"/>
       <c r="M95">
-        <f>K95-F95</f>
+        <f t="shared" si="19"/>
         <v>-336</v>
       </c>
       <c r="N95"/>
@@ -7957,27 +7988,27 @@
       </c>
       <c r="R95"/>
       <c r="S95">
-        <f>100*(12*K95-Q95)/D95</f>
+        <f t="shared" si="20"/>
         <v>6.129666011787819</v>
       </c>
       <c r="T95">
-        <f>D95*E95+H95</f>
+        <f t="shared" si="21"/>
         <v>104800</v>
       </c>
       <c r="U95">
-        <f>G95*(D95-D95*E95)</f>
+        <f t="shared" si="22"/>
         <v>15432.880000000001</v>
       </c>
       <c r="V95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15767.119999999999</v>
       </c>
       <c r="W95">
-        <f>D95/(12*K95)</f>
+        <f t="shared" si="23"/>
         <v>14.883040935672515</v>
       </c>
       <c r="X95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.15044961832061068</v>
       </c>
       <c r="Y95"/>
@@ -7985,7 +8016,7 @@
       <c r="AA95"/>
       <c r="AB95"/>
     </row>
-    <row r="96" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>29</v>
       </c>
@@ -8017,7 +8048,7 @@
       </c>
       <c r="L96"/>
       <c r="M96">
-        <f>K96-F96</f>
+        <f t="shared" si="19"/>
         <v>-617</v>
       </c>
       <c r="N96"/>
@@ -8030,27 +8061,27 @@
       </c>
       <c r="R96"/>
       <c r="S96">
-        <f>100*(12*K96-Q96)/D96</f>
+        <f t="shared" si="20"/>
         <v>5.419489317352788</v>
       </c>
       <c r="T96">
-        <f>D96*E96+H96</f>
+        <f t="shared" si="21"/>
         <v>89355</v>
       </c>
       <c r="U96">
-        <f>G96*(D96-D96*E96)</f>
+        <f t="shared" si="22"/>
         <v>13091.418000000001</v>
       </c>
       <c r="V96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10308.581999999999</v>
       </c>
       <c r="W96">
-        <f>D96/(12*K96)</f>
+        <f t="shared" si="23"/>
         <v>16.355113636363637</v>
       </c>
       <c r="X96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.11536659392311564</v>
       </c>
       <c r="Y96"/>
@@ -8058,7 +8089,7 @@
       <c r="AA96"/>
       <c r="AB96"/>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -8087,7 +8118,7 @@
         <v>2900</v>
       </c>
       <c r="M97">
-        <f>K97-F97</f>
+        <f t="shared" si="19"/>
         <v>-256</v>
       </c>
       <c r="O97" t="s">
@@ -8097,31 +8128,31 @@
         <v>3000</v>
       </c>
       <c r="S97">
-        <f>100*(12*K97-Q97)/D97</f>
+        <f t="shared" si="20"/>
         <v>5.0556438791732905</v>
       </c>
       <c r="T97">
-        <f>D97*E97+H97</f>
+        <f t="shared" si="21"/>
         <v>128800</v>
       </c>
       <c r="U97">
-        <f>G97*(D97-D97*E97)</f>
+        <f t="shared" si="22"/>
         <v>19071.280000000002</v>
       </c>
       <c r="V97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12728.719999999998</v>
       </c>
       <c r="W97">
-        <f>D97/(12*K97)</f>
+        <f t="shared" si="23"/>
         <v>18.074712643678161</v>
       </c>
       <c r="X97">
-        <f t="shared" ref="X97:X138" si="4">V97/T97</f>
+        <f t="shared" ref="X97:X138" si="24">V97/T97</f>
         <v>9.8825465838509291E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98" t="s">
@@ -8151,7 +8182,7 @@
       </c>
       <c r="L98"/>
       <c r="M98">
-        <f>K98-F98</f>
+        <f t="shared" si="19"/>
         <v>-1811</v>
       </c>
       <c r="N98"/>
@@ -8164,27 +8195,27 @@
       </c>
       <c r="R98"/>
       <c r="S98">
-        <f>100*(12*K98-Q98)/D98</f>
+        <f t="shared" si="20"/>
         <v>4.7992887611409722</v>
       </c>
       <c r="T98">
-        <f>D98*E98+H98</f>
+        <f t="shared" si="21"/>
         <v>155522.6</v>
       </c>
       <c r="U98">
-        <f>G98*(D98-D98*E98)</f>
+        <f t="shared" si="22"/>
         <v>23122.426160000003</v>
       </c>
       <c r="V98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13477.573839999997</v>
       </c>
       <c r="W98">
-        <f>D98/(12*K98)</f>
+        <f t="shared" si="23"/>
         <v>19.257904040404039</v>
       </c>
       <c r="X98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>8.6659905634293641E-2</v>
       </c>
       <c r="Y98"/>
@@ -8192,7 +8223,7 @@
       <c r="AA98"/>
       <c r="AB98"/>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>54</v>
       </c>
@@ -8221,7 +8252,7 @@
         <v>2995</v>
       </c>
       <c r="M99">
-        <f>K99-F99</f>
+        <f t="shared" si="19"/>
         <v>-386</v>
       </c>
       <c r="O99" s="4" t="s">
@@ -8234,15 +8265,15 @@
         <v>3000</v>
       </c>
       <c r="S99">
-        <f>100*(12*K99-Q99)/D99</f>
+        <f t="shared" si="20"/>
         <v>6.0117878192534384</v>
       </c>
       <c r="T99">
-        <f>D99*E99+H99</f>
+        <f t="shared" si="21"/>
         <v>104800</v>
       </c>
       <c r="U99">
-        <f>G99*(D99-D99*E99)</f>
+        <f t="shared" si="22"/>
         <v>15432.880000000001</v>
       </c>
       <c r="V99">
@@ -8250,15 +8281,15 @@
         <v>15167.119999999999</v>
       </c>
       <c r="W99">
-        <f>D99/(12*K99)</f>
+        <f t="shared" si="23"/>
         <v>15.148809523809524</v>
       </c>
       <c r="X99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.14472442748091602</v>
       </c>
     </row>
-    <row r="100" spans="1:28" s="7" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -8292,7 +8323,7 @@
         <v>2750</v>
       </c>
       <c r="M100">
-        <f>K100-F100</f>
+        <f t="shared" si="19"/>
         <v>-150</v>
       </c>
       <c r="N100"/>
@@ -8307,27 +8338,27 @@
       </c>
       <c r="R100"/>
       <c r="S100">
-        <f>100*(12*K100-Q100)/D100</f>
+        <f t="shared" si="20"/>
         <v>6.2500500805294914</v>
       </c>
       <c r="T100">
-        <f>D100*E100+H100</f>
+        <f t="shared" si="21"/>
         <v>102839.20000000001</v>
       </c>
       <c r="U100">
-        <f>G100*(D100-D100*E100)</f>
+        <f t="shared" si="22"/>
         <v>15135.622720000001</v>
       </c>
       <c r="V100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16064.377279999999</v>
       </c>
       <c r="W100">
-        <f>D100/(12*K100)</f>
+        <f t="shared" si="23"/>
         <v>14.596374269005848</v>
       </c>
       <c r="X100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.15620869551688457</v>
       </c>
       <c r="Y100"/>
@@ -8335,7 +8366,7 @@
       <c r="AA100"/>
       <c r="AB100"/>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E101">
         <v>0.2</v>
       </c>
@@ -8346,38 +8377,38 @@
         <v>3000</v>
       </c>
       <c r="M101">
-        <f>K101-F101</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q101">
         <v>3000</v>
       </c>
       <c r="S101" t="e">
-        <f>100*(12*K101-Q101)/D101</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T101">
-        <f>D101*E101+H101</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U101">
-        <f>G101*(D101-D101*E101)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W101" t="e">
-        <f>D101/(12*K101)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E102">
         <v>0.2</v>
       </c>
@@ -8388,38 +8419,38 @@
         <v>3000</v>
       </c>
       <c r="M102">
-        <f>K102-F102</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q102">
         <v>3000</v>
       </c>
       <c r="S102" t="e">
-        <f>100*(12*K102-Q102)/D102</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T102">
-        <f>D102*E102+H102</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U102">
-        <f>G102*(D102-D102*E102)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W102" t="e">
-        <f>D102/(12*K102)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E103">
         <v>0.2</v>
       </c>
@@ -8430,38 +8461,38 @@
         <v>3000</v>
       </c>
       <c r="M103">
-        <f>K103-F103</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q103">
         <v>3000</v>
       </c>
       <c r="S103" t="e">
-        <f>100*(12*K103-Q103)/D103</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T103">
-        <f>D103*E103+H103</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U103">
-        <f>G103*(D103-D103*E103)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W103" t="e">
-        <f>D103/(12*K103)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E104">
         <v>0.2</v>
       </c>
@@ -8472,38 +8503,38 @@
         <v>3000</v>
       </c>
       <c r="M104">
-        <f>K104-F104</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q104">
         <v>3000</v>
       </c>
       <c r="S104" t="e">
-        <f>100*(12*K104-Q104)/D104</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T104">
-        <f>D104*E104+H104</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U104">
-        <f>G104*(D104-D104*E104)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W104" t="e">
-        <f>D104/(12*K104)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E105">
         <v>0.2</v>
       </c>
@@ -8514,38 +8545,38 @@
         <v>3000</v>
       </c>
       <c r="M105">
-        <f>K105-F105</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q105">
         <v>3000</v>
       </c>
       <c r="S105" t="e">
-        <f>100*(12*K105-Q105)/D105</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T105">
-        <f>D105*E105+H105</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U105">
-        <f>G105*(D105-D105*E105)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W105" t="e">
-        <f>D105/(12*K105)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E106">
         <v>0.2</v>
       </c>
@@ -8556,38 +8587,38 @@
         <v>3000</v>
       </c>
       <c r="M106">
-        <f>K106-F106</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q106">
         <v>3000</v>
       </c>
       <c r="S106" t="e">
-        <f>100*(12*K106-Q106)/D106</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T106">
-        <f>D106*E106+H106</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U106">
-        <f>G106*(D106-D106*E106)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W106" t="e">
-        <f>D106/(12*K106)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:28" s="10" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" s="10" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -8607,7 +8638,7 @@
       <c r="K107"/>
       <c r="L107"/>
       <c r="M107">
-        <f>K107-F107</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N107"/>
@@ -8618,27 +8649,27 @@
       </c>
       <c r="R107"/>
       <c r="S107" t="e">
-        <f>100*(12*K107-Q107)/D107</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T107">
-        <f>D107*E107+H107</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U107">
-        <f>G107*(D107-D107*E107)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W107" t="e">
-        <f>D107/(12*K107)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="Y107"/>
@@ -8646,7 +8677,7 @@
       <c r="AA107"/>
       <c r="AB107"/>
     </row>
-    <row r="108" spans="1:28" s="8" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" s="8" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -8666,7 +8697,7 @@
       <c r="K108"/>
       <c r="L108"/>
       <c r="M108">
-        <f>K108-F108</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N108"/>
@@ -8677,27 +8708,27 @@
       </c>
       <c r="R108"/>
       <c r="S108" t="e">
-        <f>100*(12*K108-Q108)/D108</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T108">
-        <f>D108*E108+H108</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U108">
-        <f>G108*(D108-D108*E108)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W108" t="e">
-        <f>D108/(12*K108)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="Y108"/>
@@ -8705,7 +8736,7 @@
       <c r="AA108"/>
       <c r="AB108"/>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E109">
         <v>0.2</v>
       </c>
@@ -8716,38 +8747,38 @@
         <v>3000</v>
       </c>
       <c r="M109">
-        <f>K109-F109</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q109">
         <v>3000</v>
       </c>
       <c r="S109" t="e">
-        <f>100*(12*K109-Q109)/D109</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T109">
-        <f>D109*E109+H109</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U109">
-        <f>G109*(D109-D109*E109)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W109" t="e">
-        <f>D109/(12*K109)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="110" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -8767,7 +8798,7 @@
       <c r="K110"/>
       <c r="L110"/>
       <c r="M110">
-        <f>K110-F110</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N110"/>
@@ -8778,27 +8809,27 @@
       </c>
       <c r="R110"/>
       <c r="S110" t="e">
-        <f>100*(12*K110-Q110)/D110</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T110">
-        <f>D110*E110+H110</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U110">
-        <f>G110*(D110-D110*E110)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W110" t="e">
-        <f>D110/(12*K110)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="Y110"/>
@@ -8806,7 +8837,7 @@
       <c r="AA110"/>
       <c r="AB110"/>
     </row>
-    <row r="111" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -8826,7 +8857,7 @@
       <c r="K111"/>
       <c r="L111"/>
       <c r="M111">
-        <f>K111-F111</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N111"/>
@@ -8837,27 +8868,27 @@
       </c>
       <c r="R111"/>
       <c r="S111" t="e">
-        <f>100*(12*K111-Q111)/D111</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T111">
-        <f>D111*E111+H111</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U111">
-        <f>G111*(D111-D111*E111)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W111" t="e">
-        <f>D111/(12*K111)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="Y111"/>
@@ -8865,7 +8896,7 @@
       <c r="AA111"/>
       <c r="AB111"/>
     </row>
-    <row r="112" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -8885,7 +8916,7 @@
       <c r="K112"/>
       <c r="L112"/>
       <c r="M112">
-        <f>K112-F112</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N112"/>
@@ -8896,27 +8927,27 @@
       </c>
       <c r="R112"/>
       <c r="S112" t="e">
-        <f>100*(12*K112-Q112)/D112</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T112">
-        <f>D112*E112+H112</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U112">
-        <f>G112*(D112-D112*E112)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W112" t="e">
-        <f>D112/(12*K112)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="Y112"/>
@@ -8924,7 +8955,7 @@
       <c r="AA112"/>
       <c r="AB112"/>
     </row>
-    <row r="113" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -8944,7 +8975,7 @@
       <c r="K113"/>
       <c r="L113"/>
       <c r="M113">
-        <f>K113-F113</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N113"/>
@@ -8955,27 +8986,27 @@
       </c>
       <c r="R113"/>
       <c r="S113" t="e">
-        <f>100*(12*K113-Q113)/D113</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T113">
-        <f>D113*E113+H113</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U113">
-        <f>G113*(D113-D113*E113)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W113" t="e">
-        <f>D113/(12*K113)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="Y113"/>
@@ -8983,7 +9014,7 @@
       <c r="AA113"/>
       <c r="AB113"/>
     </row>
-    <row r="114" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -9003,7 +9034,7 @@
       <c r="K114"/>
       <c r="L114"/>
       <c r="M114">
-        <f>K114-F114</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N114"/>
@@ -9014,27 +9045,27 @@
       </c>
       <c r="R114"/>
       <c r="S114" t="e">
-        <f>100*(12*K114-Q114)/D114</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T114">
-        <f>D114*E114+H114</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U114">
-        <f>G114*(D114-D114*E114)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W114" t="e">
-        <f>D114/(12*K114)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="Y114"/>
@@ -9042,7 +9073,7 @@
       <c r="AA114"/>
       <c r="AB114"/>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E115">
         <v>0.2</v>
       </c>
@@ -9053,38 +9084,38 @@
         <v>3000</v>
       </c>
       <c r="M115">
-        <f>K115-F115</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q115">
         <v>3000</v>
       </c>
       <c r="S115" t="e">
-        <f>100*(12*K115-Q115)/D115</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T115">
-        <f>D115*E115+H115</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U115">
-        <f>G115*(D115-D115*E115)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W115" t="e">
-        <f>D115/(12*K115)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E116">
         <v>0.2</v>
       </c>
@@ -9095,38 +9126,38 @@
         <v>3000</v>
       </c>
       <c r="M116">
-        <f>K116-F116</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q116">
         <v>3000</v>
       </c>
       <c r="S116" t="e">
-        <f>100*(12*K116-Q116)/D116</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T116">
-        <f>D116*E116+H116</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U116">
-        <f>G116*(D116-D116*E116)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W116" t="e">
-        <f>D116/(12*K116)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E117">
         <v>0.2</v>
       </c>
@@ -9137,38 +9168,38 @@
         <v>3000</v>
       </c>
       <c r="M117">
-        <f>K117-F117</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q117">
         <v>3000</v>
       </c>
       <c r="S117" t="e">
-        <f>100*(12*K117-Q117)/D117</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T117">
-        <f>D117*E117+H117</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U117">
-        <f>G117*(D117-D117*E117)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W117" t="e">
-        <f>D117/(12*K117)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E118">
         <v>0.2</v>
       </c>
@@ -9179,38 +9210,38 @@
         <v>3000</v>
       </c>
       <c r="M118">
-        <f>K118-F118</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q118">
         <v>3000</v>
       </c>
       <c r="S118" t="e">
-        <f>100*(12*K118-Q118)/D118</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T118">
-        <f>D118*E118+H118</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U118">
-        <f>G118*(D118-D118*E118)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W118" t="e">
-        <f>D118/(12*K118)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -9230,7 +9261,7 @@
       <c r="K119"/>
       <c r="L119"/>
       <c r="M119">
-        <f>K119-F119</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N119"/>
@@ -9241,27 +9272,27 @@
       </c>
       <c r="R119"/>
       <c r="S119" t="e">
-        <f>100*(12*K119-Q119)/D119</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T119">
-        <f>D119*E119+H119</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U119">
-        <f>G119*(D119-D119*E119)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W119" t="e">
-        <f>D119/(12*K119)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="Y119"/>
@@ -9269,7 +9300,7 @@
       <c r="AA119"/>
       <c r="AB119"/>
     </row>
-    <row r="120" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -9289,7 +9320,7 @@
       <c r="K120"/>
       <c r="L120"/>
       <c r="M120">
-        <f>K120-F120</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N120"/>
@@ -9300,27 +9331,27 @@
       </c>
       <c r="R120"/>
       <c r="S120" t="e">
-        <f>100*(12*K120-Q120)/D120</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T120">
-        <f>D120*E120+H120</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U120">
-        <f>G120*(D120-D120*E120)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W120" t="e">
-        <f>D120/(12*K120)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="Y120"/>
@@ -9328,7 +9359,7 @@
       <c r="AA120"/>
       <c r="AB120"/>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E121">
         <v>0.2</v>
       </c>
@@ -9339,38 +9370,38 @@
         <v>3000</v>
       </c>
       <c r="M121">
-        <f>K121-F121</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q121">
         <v>3000</v>
       </c>
       <c r="S121" t="e">
-        <f>100*(12*K121-Q121)/D121</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T121">
-        <f>D121*E121+H121</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U121">
-        <f>G121*(D121-D121*E121)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W121" t="e">
-        <f>D121/(12*K121)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E122">
         <v>0.2</v>
       </c>
@@ -9381,38 +9412,38 @@
         <v>3000</v>
       </c>
       <c r="M122">
-        <f>K122-F122</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q122">
         <v>3000</v>
       </c>
       <c r="S122" t="e">
-        <f>100*(12*K122-Q122)/D122</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T122">
-        <f>D122*E122+H122</f>
+        <f t="shared" si="21"/>
         <v>3000</v>
       </c>
       <c r="U122">
-        <f>G122*(D122-D122*E122)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W122" t="e">
-        <f>D122/(12*K122)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E123">
         <v>0.2</v>
       </c>
@@ -9423,38 +9454,38 @@
         <v>3000</v>
       </c>
       <c r="M123">
-        <f>K123-F123</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q123">
         <v>3000</v>
       </c>
       <c r="S123" t="e">
-        <f>100*(12*K123-Q123)/D123</f>
+        <f t="shared" ref="S123:S140" si="25">100*(12*K123-Q123)/D123</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T123">
-        <f>D123*E123+H123</f>
+        <f t="shared" ref="T123:T140" si="26">D123*E123+H123</f>
         <v>3000</v>
       </c>
       <c r="U123">
-        <f>G123*(D123-D123*E123)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W123" t="e">
-        <f>D123/(12*K123)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E124">
         <v>0.2</v>
       </c>
@@ -9465,38 +9496,38 @@
         <v>3000</v>
       </c>
       <c r="M124">
-        <f>K124-F124</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q124">
         <v>3000</v>
       </c>
       <c r="S124" t="e">
-        <f>100*(12*K124-Q124)/D124</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T124">
-        <f>D124*E124+H124</f>
+        <f t="shared" si="26"/>
         <v>3000</v>
       </c>
       <c r="U124">
-        <f>G124*(D124-D124*E124)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W124" t="e">
-        <f>D124/(12*K124)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E125">
         <v>0.2</v>
       </c>
@@ -9507,38 +9538,38 @@
         <v>3000</v>
       </c>
       <c r="M125">
-        <f>K125-F125</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q125">
         <v>3000</v>
       </c>
       <c r="S125" t="e">
-        <f>100*(12*K125-Q125)/D125</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T125">
-        <f>D125*E125+H125</f>
+        <f t="shared" si="26"/>
         <v>3000</v>
       </c>
       <c r="U125">
-        <f>G125*(D125-D125*E125)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W125" t="e">
-        <f>D125/(12*K125)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E126">
         <v>0.2</v>
       </c>
@@ -9546,38 +9577,38 @@
         <v>3000</v>
       </c>
       <c r="M126">
-        <f>K126-F126</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q126">
         <v>3000</v>
       </c>
       <c r="S126" t="e">
-        <f>100*(12*K126-Q126)/D126</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T126">
-        <f>D126*E126+H126</f>
+        <f t="shared" si="26"/>
         <v>3000</v>
       </c>
       <c r="U126">
-        <f>G126*(D126-D126*E126)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W126" t="e">
-        <f>D126/(12*K126)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E127">
         <v>0.2</v>
       </c>
@@ -9585,38 +9616,38 @@
         <v>3000</v>
       </c>
       <c r="M127">
-        <f>K127-F127</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q127">
         <v>3000</v>
       </c>
       <c r="S127" t="e">
-        <f>100*(12*K127-Q127)/D127</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T127">
-        <f>D127*E127+H127</f>
+        <f t="shared" si="26"/>
         <v>3000</v>
       </c>
       <c r="U127">
-        <f>G127*(D127-D127*E127)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W127" t="e">
-        <f>D127/(12*K127)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E128">
         <v>0.2</v>
       </c>
@@ -9624,38 +9655,38 @@
         <v>3000</v>
       </c>
       <c r="M128">
-        <f>K128-F128</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q128">
         <v>3000</v>
       </c>
       <c r="S128" t="e">
-        <f>100*(12*K128-Q128)/D128</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T128">
-        <f>D128*E128+H128</f>
+        <f t="shared" si="26"/>
         <v>3000</v>
       </c>
       <c r="U128">
-        <f>G128*(D128-D128*E128)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W128" t="e">
-        <f>D128/(12*K128)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E129">
         <v>0.2</v>
       </c>
@@ -9663,38 +9694,38 @@
         <v>3000</v>
       </c>
       <c r="M129">
-        <f>K129-F129</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q129">
         <v>3000</v>
       </c>
       <c r="S129" t="e">
-        <f>100*(12*K129-Q129)/D129</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T129">
-        <f>D129*E129+H129</f>
+        <f t="shared" si="26"/>
         <v>3000</v>
       </c>
       <c r="U129">
-        <f>G129*(D129-D129*E129)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3000</v>
       </c>
       <c r="W129" t="e">
-        <f>D129/(12*K129)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H130">
         <v>3000</v>
       </c>
@@ -9702,31 +9733,31 @@
         <v>3000</v>
       </c>
       <c r="S130" t="e">
-        <f>100*(12*K130-Q130)/D130</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T130">
-        <f>D130*E130+H130</f>
+        <f t="shared" si="26"/>
         <v>3000</v>
       </c>
       <c r="U130">
-        <f>G130*(D130-D130*E130)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V130">
-        <f t="shared" ref="V130:V138" si="5">12*K130-Q130-U130</f>
+        <f t="shared" ref="V130:V138" si="27">12*K130-Q130-U130</f>
         <v>-3000</v>
       </c>
       <c r="W130" t="e">
-        <f>D130/(12*K130)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H131">
         <v>3000</v>
       </c>
@@ -9734,31 +9765,31 @@
         <v>3000</v>
       </c>
       <c r="S131" t="e">
-        <f>100*(12*K131-Q131)/D131</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T131">
-        <f>D131*E131+H131</f>
+        <f t="shared" si="26"/>
         <v>3000</v>
       </c>
       <c r="U131">
-        <f>G131*(D131-D131*E131)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-3000</v>
       </c>
       <c r="W131" t="e">
-        <f>D131/(12*K131)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H132">
         <v>3000</v>
       </c>
@@ -9766,31 +9797,31 @@
         <v>3000</v>
       </c>
       <c r="S132" t="e">
-        <f>100*(12*K132-Q132)/D132</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T132">
-        <f>D132*E132+H132</f>
+        <f t="shared" si="26"/>
         <v>3000</v>
       </c>
       <c r="U132">
-        <f>G132*(D132-D132*E132)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-3000</v>
       </c>
       <c r="W132" t="e">
-        <f>D132/(12*K132)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H133">
         <v>3000</v>
       </c>
@@ -9798,31 +9829,31 @@
         <v>3000</v>
       </c>
       <c r="S133" t="e">
-        <f>100*(12*K133-Q133)/D133</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T133">
-        <f>D133*E133+H133</f>
+        <f t="shared" si="26"/>
         <v>3000</v>
       </c>
       <c r="U133">
-        <f>G133*(D133-D133*E133)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-3000</v>
       </c>
       <c r="W133" t="e">
-        <f>D133/(12*K133)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H134">
         <v>3000</v>
       </c>
@@ -9830,31 +9861,31 @@
         <v>3000</v>
       </c>
       <c r="S134" t="e">
-        <f>100*(12*K134-Q134)/D134</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T134">
-        <f>D134*E134+H134</f>
+        <f t="shared" si="26"/>
         <v>3000</v>
       </c>
       <c r="U134">
-        <f>G134*(D134-D134*E134)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-3000</v>
       </c>
       <c r="W134" t="e">
-        <f>D134/(12*K134)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H135">
         <v>3000</v>
       </c>
@@ -9862,31 +9893,31 @@
         <v>3000</v>
       </c>
       <c r="S135" t="e">
-        <f>100*(12*K135-Q135)/D135</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T135">
-        <f>D135*E135+H135</f>
+        <f t="shared" si="26"/>
         <v>3000</v>
       </c>
       <c r="U135">
-        <f>G135*(D135-D135*E135)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-3000</v>
       </c>
       <c r="W135" t="e">
-        <f>D135/(12*K135)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H136">
         <v>3000</v>
       </c>
@@ -9894,31 +9925,31 @@
         <v>3000</v>
       </c>
       <c r="S136" t="e">
-        <f>100*(12*K136-Q136)/D136</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T136">
-        <f>D136*E136+H136</f>
+        <f t="shared" si="26"/>
         <v>3000</v>
       </c>
       <c r="U136">
-        <f>G136*(D136-D136*E136)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-3000</v>
       </c>
       <c r="W136" t="e">
-        <f>D136/(12*K136)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H137">
         <v>3000</v>
       </c>
@@ -9926,86 +9957,86 @@
         <v>3000</v>
       </c>
       <c r="S137" t="e">
-        <f>100*(12*K137-Q137)/D137</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T137">
-        <f>D137*E137+H137</f>
+        <f t="shared" si="26"/>
         <v>3000</v>
       </c>
       <c r="U137">
-        <f>G137*(D137-D137*E137)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-3000</v>
       </c>
       <c r="W137" t="e">
-        <f>D137/(12*K137)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Q138">
         <v>3000</v>
       </c>
       <c r="S138" t="e">
-        <f>100*(12*K138-Q138)/D138</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T138">
-        <f>D138*E138+H138</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U138">
-        <f>G138*(D138-D138*E138)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-3000</v>
       </c>
       <c r="W138" t="e">
-        <f>D138/(12*K138)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X138" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Q139">
         <v>3000</v>
       </c>
       <c r="S139" t="e">
-        <f>100*(12*K139-Q139)/D139</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T139">
-        <f>D139*E139+H139</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Q140">
         <v>3000</v>
       </c>
       <c r="S140" t="e">
-        <f>100*(12*K140-Q140)/D140</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T140">
-        <f>D140*E140+H140</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -10039,54 +10070,54 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C100" r:id="rId1" location="redfin-estimate" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C93" r:id="rId2" location="schools" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B33" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C7" r:id="rId9" location="schools" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B30" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B34" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B35" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B36" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B37" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B42" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B43" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B44" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B47" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B48" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B49" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B50" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B16" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B17" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B18" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C51" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C52" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C53" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C54" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C55" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C56" r:id="rId45" location="redfin-estimate" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C57" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B24" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C61" r:id="rId48" xr:uid="{F4C0D39C-9515-485A-8EDF-E629F7D61C54}"/>
+    <hyperlink ref="C100" r:id="rId1" location="redfin-estimate"/>
+    <hyperlink ref="C93" r:id="rId2" location="schools"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="B12" r:id="rId4"/>
+    <hyperlink ref="B13" r:id="rId5"/>
+    <hyperlink ref="B15" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B33" r:id="rId8"/>
+    <hyperlink ref="C7" r:id="rId9" location="schools"/>
+    <hyperlink ref="C9" r:id="rId10"/>
+    <hyperlink ref="C10" r:id="rId11"/>
+    <hyperlink ref="B19" r:id="rId12"/>
+    <hyperlink ref="B20" r:id="rId13"/>
+    <hyperlink ref="B21" r:id="rId14"/>
+    <hyperlink ref="B22" r:id="rId15"/>
+    <hyperlink ref="B23" r:id="rId16"/>
+    <hyperlink ref="B25" r:id="rId17"/>
+    <hyperlink ref="B26" r:id="rId18"/>
+    <hyperlink ref="B28" r:id="rId19"/>
+    <hyperlink ref="B30" r:id="rId20"/>
+    <hyperlink ref="B31" r:id="rId21"/>
+    <hyperlink ref="B32" r:id="rId22"/>
+    <hyperlink ref="B34" r:id="rId23"/>
+    <hyperlink ref="B35" r:id="rId24"/>
+    <hyperlink ref="B36" r:id="rId25"/>
+    <hyperlink ref="B37" r:id="rId26"/>
+    <hyperlink ref="B38" r:id="rId27"/>
+    <hyperlink ref="B39" r:id="rId28"/>
+    <hyperlink ref="B42" r:id="rId29"/>
+    <hyperlink ref="B43" r:id="rId30"/>
+    <hyperlink ref="B44" r:id="rId31"/>
+    <hyperlink ref="B45" r:id="rId32"/>
+    <hyperlink ref="B47" r:id="rId33"/>
+    <hyperlink ref="B48" r:id="rId34"/>
+    <hyperlink ref="B49" r:id="rId35"/>
+    <hyperlink ref="B50" r:id="rId36"/>
+    <hyperlink ref="B16" r:id="rId37"/>
+    <hyperlink ref="B17" r:id="rId38"/>
+    <hyperlink ref="B18" r:id="rId39"/>
+    <hyperlink ref="C51" r:id="rId40"/>
+    <hyperlink ref="C52" r:id="rId41"/>
+    <hyperlink ref="C53" r:id="rId42"/>
+    <hyperlink ref="C54" r:id="rId43"/>
+    <hyperlink ref="C55" r:id="rId44"/>
+    <hyperlink ref="C56" r:id="rId45" location="redfin-estimate"/>
+    <hyperlink ref="C57" r:id="rId46"/>
+    <hyperlink ref="B24" r:id="rId47"/>
+    <hyperlink ref="C61" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId49"/>
